--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\Estudio_Documentos\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CA66F7-FC93-4377-966C-247C1F6152CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" tabRatio="456"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Daniel S. Parra G.</author>
   </authors>
   <commentList>
-    <comment ref="BG2" authorId="0" shapeId="0">
+    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT7" authorId="0" shapeId="0">
+    <comment ref="AT7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY10" authorId="0" shapeId="0">
+    <comment ref="AY10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1228">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -3139,11 +3151,790 @@
   <si>
     <t>San Jose de Cúcuta</t>
   </si>
+  <si>
+    <t>Juan Pablo Arias</t>
+  </si>
+  <si>
+    <t>Leonor del Carmen Valoyes Murillo</t>
+  </si>
+  <si>
+    <t>San José del Guaviare</t>
+  </si>
+  <si>
+    <t>Calle 7 No. 23 - 51</t>
+  </si>
+  <si>
+    <t>ssdgsaludambiental12@gmail.com</t>
+  </si>
+  <si>
+    <t>Decreto 216 de 2016</t>
+  </si>
+  <si>
+    <t>Heidy Tatiana Parra Penagos</t>
+  </si>
+  <si>
+    <t>Heydeer Yovanny Palacio Salazar</t>
+  </si>
+  <si>
+    <t>Gregorio Figueroa Cruz</t>
+  </si>
+  <si>
+    <t>Técnico Área en salud</t>
+  </si>
+  <si>
+    <t>Auxiliar en salud</t>
+  </si>
+  <si>
+    <t>Ingeniero Químico</t>
+  </si>
+  <si>
+    <t>Elizabeth Poveda Jimenez</t>
+  </si>
+  <si>
+    <t>Fidelina Rojas</t>
+  </si>
+  <si>
+    <t>Julian Sarmiento Pardo</t>
+  </si>
+  <si>
+    <t>Abogado</t>
+  </si>
+  <si>
+    <t>Personal del FRE proyecta la creación de la necesidad y se hacen estudios de compra, donde se incluyen las solicitudes de cotización a diferentes litografías. La secretaria de salud aprueba los documentos y al mismo tiempo, solicitan CDP por parte de la Secretaria de Salud del Guaviare. Luego, la documentación se envía a la secretaria de hacienda departamental del Guaviare. Posteriormente, la documentación pasa por diferentes dependencias de la Gobernación de Guaviare, como el área jurídica departamental, área financiera departamental y el área encargada del plan de compras departamental. Los documentos retornan a la secretaria de salud con el visto bueno de la Gobernación del Guaviare, para ser enviados nuevamente al área jurídica de la gobernación, quienes son los encargados de la parte contractual.</t>
+  </si>
+  <si>
+    <t>Se lleva a cabo de acuerdo al consumo histórico mensual de recetarios oficiales y se incrementan entre 5 y 20 talonarios para evitar un margen ajustado de recetarios oficiales en el departamento.</t>
+  </si>
+  <si>
+    <t>Creación de la necesidad y estudios de compra: 3 días. 
+Aprobación de la Secretaria de salud: 1 día.
+Aprobación por parte de todas las áreas de la Gobernación de Guaviare: 7 días.
+Publicación de la convocatoria 1 día.
+Recepción de los recetarios oficiales: 2 días.</t>
+  </si>
+  <si>
+    <t>La institución prestadora de salud inicia la solicitud con la radicación de un oficio de manera presencial en la Gobernación de Guaviare. Esta solicitud también la realizan vía WhatsApp con destino al personal del FRE para aligerar el proceso con el personal encargado de la distribución de los recetarios oficiales. El oficio llega a la Secretaria de Salud del Guaviare, específicamente al área ambiental, donde es recibido por el personal del FRE. La Auxiliar en salud es la encargada de la venta y distribución de los recetarios oficiales. Ella se comunica con la institución para mencionar el costo de los recetarios solicitados y el número de cuenta para hacer la consignación bancaria. Una vez se cumpla lo anterior, se acercan a la Secretaria de Salud del Guaviare con el comprobante de la consignación y se hace entrega de los talonarios.</t>
+  </si>
+  <si>
+    <t>Nombre de persona, Documento de identificación, Códigos seriales de recetarios, Otros</t>
+  </si>
+  <si>
+    <t>Códigos seriales de recetarios que devuelven</t>
+  </si>
+  <si>
+    <t>No lo tienen</t>
+  </si>
+  <si>
+    <t>Facilitarían los procesos internos y con los pacientes. Además, se lograría la estandarización de los niveles de seguridad que deben tener los recetarios oficiales a nivel nacional. Sin embargo, se contemplan problemas de conectividad a internet y se compara el manejo con la herramienta tecnológica actual “Mipres”, cuya plataforma presenta inconvenientes en el territorio.
+FRE Guaviare no encuentra inconvenientes en las ganancias originadas por la venta de los recetarios oficiales, ya que el precio de compra es muy similar al precio de venta.</t>
+  </si>
+  <si>
+    <t>Verficación de base de ventas, Verificación de recambios, Visitas a institciones/clientes, Otro</t>
+  </si>
+  <si>
+    <t>Listado del personal médico autorizado para la prescripción de MME</t>
+  </si>
+  <si>
+    <t>Siempre se remiten a la IPS para confirmar la información de los recetarios oficiales. Se verifican códigos de los recetarios oficiales distribuidos a la IPS. Cuando se pierde algún recetario oficial, la institución debe hacer la respectiva denuncia con las autoridades competentes poder aceptar la pérdida del recetario oficial. Se pone en alerta el número del talonario del recetario extraviado. La información se consolida en la base de datos de venta y distribución de recetarios oficiales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Auxiliar en salud encargada de la gestión de los recetarios oficiales, revisa todos los días las existencias de estos recetarios. Ella conoce el consumo aproximado de cada institución autorizada. En caso de tener un nivel muy bajo de existencias, comienza las cotizaciones para la proyección de compra. </t>
+  </si>
+  <si>
+    <t>Los recetarios oficiales usados deben ser regresados al FRE cada vez que la institución realice la siguiente compra de recetarios oficiales en blanco. El personal del FRE verifica que no falte ninguna prescripción por cada talonario. En caso de faltar, debe estar justificado con la respectiva denuncia y mencionar el código del recetario extraviado. FRE Guaviare pone en alerta en todo el territorio el código del recetario extraviado y el número del talonario.</t>
+  </si>
+  <si>
+    <t>Microletras / microtexto, Sellos/Escudos, Codificación, Otro</t>
+  </si>
+  <si>
+    <t>Código de seguridad inmerso en la codificación.</t>
+  </si>
+  <si>
+    <t>Es un proceso llevado a cabo por la Auxiliar en salud, cada vez que se va a vender nuevos recetarios oficiales. Ella verifica que se encuentren todas las hojas (prescripciones) del talonario, que no presenten inconsistencias en el diligenciamiento y que se haya dispensado el medicamento. Cuando se encuentran irregularidades, se levanta una medida sanitaria.</t>
+  </si>
+  <si>
+    <t>La revisión y consolidación es realizada por 1 persona y tarda aproximadamente 1 día.</t>
+  </si>
+  <si>
+    <t>Gabinete con llave, Almaceamiento en oficina privada</t>
+  </si>
+  <si>
+    <t>La empresa encargada de la disposición final de productos y recetarios oficiales, realiza esta actividad.</t>
+  </si>
+  <si>
+    <t>Codificación, Nombre prescriptor, Documento de identificación, Nombre del paciente, Cantidad total</t>
+  </si>
+  <si>
+    <t>Atención presencial en el FRE, Teléfono, Correo electrónico, Correspondencia</t>
+  </si>
+  <si>
+    <t>La Auxiliar en salud, el ingeniero químico y la regente en farmacia llevan a cabo este proceso. Se considera el consumo mensual de MME, el consumo histórico desde la creación del FRE y la existencia actual de MME. La base de datos empleada para este proceso se va alimentando a cada instante, por las salidas y entradas de MME. Personal del FRE, contempla un porcentaje demás para no quedar con un margen tan apretado de MME. Muchas veces, la proyección de compra debe ser modificado por disponibilidad de recursos de la Gobernación de Guaviare.</t>
+  </si>
+  <si>
+    <t>No conocen este tiempo</t>
+  </si>
+  <si>
+    <t>Personal del FRE estaba acostumbrado al proceso realizado anteriormente. Al principio de la implementación de la plataforma Colombia Compra Eficiente estaban en desacuerdo por que el personal que maneja la plataforma no sabía cómo usarla. Actualmente, no tienen opiniones por que el personal del FRE no maneja esta plataforma.</t>
+  </si>
+  <si>
+    <t>Inicialmente, se verifican que las cajas vengan en excelente estado, sin adulteraciones. Luego, se verifica el interior de cada caja y el estado de los MME. El personal del FRE, verifica los datos (lote y fecha de vencimiento) de la factura que envía el FNE y la información proveniente de la caja. Finalmente se diligencia el acta de recepción.</t>
+  </si>
+  <si>
+    <t>Se toma la evidencia fotográfica de los productos y se deja nota en el acta de recepción. Se notifica inmediatamente al FNE y quedan pendientes de la reposición de las existencias.</t>
+  </si>
+  <si>
+    <t>Gabinete con llave simple, Gabinete hecho en un material resistente, Acceso de seguridad restringido a cierto personal, Inventario físico diario, Disponibilidad local de protección policial</t>
+  </si>
+  <si>
+    <t>Tienen una góndola exclusiva y destinada para el almacenamiento de medicamentos LASA y alto riesgo.</t>
+  </si>
+  <si>
+    <t>El FNE siempre responde y efectúa la devolución de los productos con averías. Personal del FRE, reconoce que cuando sucede esto es por una falla en el proceso de embalaje y no es responsabilidad de la empresa transportadora.</t>
+  </si>
+  <si>
+    <t>En la central de medicamentos se verifican existencias de los MME y esta información se compara con el contenido del libro en físico de inventario. Cada 20 días llevan a cabo la verificación exhaustiva de existencias y fechas de vencimiento.</t>
+  </si>
+  <si>
+    <t>Rojo: menor a 3 meses
+Amarillo: 3 meses - 6 meses
+Verde: mayor a 6 meses</t>
+  </si>
+  <si>
+    <t>Tienen suficiente espacio, la góndola de MME está ocupada el 20% solamente.</t>
+  </si>
+  <si>
+    <t>Ningún costo</t>
+  </si>
+  <si>
+    <t>En 2018, Hidromorfona (240 unidades – 12 cajas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso inicio con un oficio firmado por el representante legal de la IPS, dirigida a la Secretaria de Salud del Guaviare. Actualmente, este proceso se agiliza por medio del WhatsApp entre el solicitante y la Auxiliar en salud del FRE. Personal del FRE Guaviare, verifica la disponibilidad de existencias de medicamentos. Se envía la factura para que la IPS consigne el valor de los MME. </t>
+  </si>
+  <si>
+    <t>No reciben devoluciones.</t>
+  </si>
+  <si>
+    <t>Si han recibido quejas, por razones de la pandemia y problemas con el transporte. FRE recomienda a las IPS hacer compra directa con el FNE.</t>
+  </si>
+  <si>
+    <t>Los pacientes llevan el recetario oficial y se verifica que este bien diligenciado y el tiempo límite de dispensación. Se le informa al paciente el número de cuenta bancaria y el valor que deben consignar para el medicamento. Los pacientes que ya conocen a la Auxiliar en salud del FRE, agilizan el proceso vía WhatsApp. En muy pocos casos, los pacientes que presentan dificultades para realizar la consignación, son asistidos por la Auxiliar en salud y ella misma hace la consignación bancaria con el dinero del paciente.</t>
+  </si>
+  <si>
+    <t>No se han encontrado irregularidades durante la venta y dispensación en pacientes. Únicamente recetarios diligenciados de manera incompleta, se procedió a informar a cada médico prescriptor que debía hacer el diligenciamiento completo.</t>
+  </si>
+  <si>
+    <t>Se llama al otro FRE y ellos escalan la pregunta con la IPS de su territorio. Se valida la información de la institución y que el médico prescriptor este habilitado. Luego, buscan un médico del territorio de Guaviare para reformular los medicamentos en un recetario oficial del departamento de Guaviare. Se anexa la copia del recetario oficial inicial.</t>
+  </si>
+  <si>
+    <t>No han tenido estos casos.</t>
+  </si>
+  <si>
+    <t>Hacen corte al último día del mes, verifican el libro de inventarios y las facturas tanto de las ventas a pacientes como las ventas a las IPS. Se diligencia el Excel.</t>
+  </si>
+  <si>
+    <t>Documentos físico, Hoja de cálculo no estandarizada</t>
+  </si>
+  <si>
+    <t>Se maneja un archivo físico y archivo virtual para los informes recibidos por el correo. Cada uno está ordenado por carpetas por IPS y por mes</t>
+  </si>
+  <si>
+    <t>2 personas y se destinan 8 horas para la consolidación.</t>
+  </si>
+  <si>
+    <t>Personal del FRE hace una lista de chequeo donde están todas las IPS habilitadas. Se revisa el correo electrónico y se verifica que la IPS envió el archivo.</t>
+  </si>
+  <si>
+    <t>Amonestación, Multa</t>
+  </si>
+  <si>
+    <t>Si tienen un consolidado de las IPS y su complejidad.</t>
+  </si>
+  <si>
+    <t>Oficialmente no tienen POEs. Actualmente existe un borrador que está en proceso de revisión jurídica. Personal del FRE no quiere mostrar este documento porque no es oficial.</t>
+  </si>
+  <si>
+    <t>Juan David Apraez</t>
+  </si>
+  <si>
+    <t>Carrera 4 #8-26, barrio Jose Maria Hernandez</t>
+  </si>
+  <si>
+    <t>fvputumayo@gmail.com; gestionssd@gmail.com; medicamentosputumayo@gmail.com; salud@putumayo.gov.co; saludpublica@putumayo.gov.co</t>
+  </si>
+  <si>
+    <t>Resolución 1696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica Guerrero Rendon </t>
+  </si>
+  <si>
+    <t>Elva Marina Rosero Ordoñez</t>
+  </si>
+  <si>
+    <t>Aurora Velandia</t>
+  </si>
+  <si>
+    <t>Nora Gelpud</t>
+  </si>
+  <si>
+    <t>El FRE no se encarga del proceso de contratación. Únicamente se encargan de pasar al grupo jurídico la necesidad y la solicitud de los recursos. Ellos se encargan de la parte contractual.</t>
+  </si>
+  <si>
+    <t>Se realiza mediante el promedio histórico de consumo del departamento dado en el sistema PCT</t>
+  </si>
+  <si>
+    <t>Tiempo variante, el FRE Putumayo lleva sin concretar compra de recetarios oficiales desde noviembre del año 2020.</t>
+  </si>
+  <si>
+    <t>Resolución 2226 de 19 de diciembre de 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Se realiza la cotización de recetarios oficiales
+-Se hace estudio de disponibilidad de recetarios contra los que el establecimiento requiere
+- La institución consigna en la cuenta bancaria del FRE
+- Allegan soportes de pago presencial o a través de envíos de la transportadora que contrata la gobernación.
+</t>
+  </si>
+  <si>
+    <t>Sistema PCT</t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Documento de identificación, Unidades compradas, Códigos seriales de recetarios</t>
+  </si>
+  <si>
+    <t>No se tiene plan de contingencia escrito, sin embargo, ante la no disponibilidad de recetarios oficiales como se encuentra el FRE en este momento, se procede a autorizar las fórmulas institucionales que están bajo jurisdicción del departamento.</t>
+  </si>
+  <si>
+    <t>El uso de recetario oficial en físico es algo obsoleto, hoy en día con todas las herramientas tecnológicas se puede usar un recetario electrónico adaptado a un software para mejorar el control sobre las prescripciones, ya que usualmente entender la letra de los médicos es complejo, no se diligencian todos los campos, no se firman en ocasiones los recetarios, a diferencia que si se tuviera una herramienta tecnológica si no se completan todos los espacios no se tienen estos problemas.</t>
+  </si>
+  <si>
+    <t>No se han presentado casos de posibles fraudes o desvíos. Solo se distribuye a instituciones inscritas de forma personal quienes la entidad delegue o por correo certificado.</t>
+  </si>
+  <si>
+    <t>No se realiza la actividad de control de existencias y saldos de recetarios oficiales en el momento</t>
+  </si>
+  <si>
+    <t>Marcas de agua, Codificación</t>
+  </si>
+  <si>
+    <t>-Se allegan copia de recetario con los informes mensuales. 
+-Revisión de algunos de los recetarios. 
+-Se hace promedio de cuantas salieron, se saca una muestra y se hace la verificación del correcto diligenciamiento. 
+-Archivo por un año porque ocupan bastante espacio además que, por las condiciones ambientales del departamento de Putumayo, la humedad tiende a degradar los recetarios.</t>
+  </si>
+  <si>
+    <t>Una regente de farmacia se encarga del proceso durante los primeros 10 días del mes</t>
+  </si>
+  <si>
+    <t>La secretaria anualmente hace contrato con una empresa recolectora de residuos. El FRE tanto para MME como para recetarios oficiales, se hace una previa de desactivación a los MME y para los recetarios se rasgan para que no puedan ser utilizados nuevamente. Se levanta un acta de destrucción donde se relacionan los productos destruidos, firma la oficina de control de medicamentos, jefe del grupo de salud pública, el área ambiental y el personal de la empresa recolectora. Ambiental se queda con los recibos que se generan para la ejecución del contrato.</t>
+  </si>
+  <si>
+    <t>PCT</t>
+  </si>
+  <si>
+    <t>Mala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tienen 90 millones de pesos represados porque no saben cómo liquidar los contratos que tienen pendientes, ni los funcionarios del FRE ni jurídica. Dicho rubro se quiere destinar para actualizar equipos de cómputo, así como artículos de la oficina como escritorios y asientos.
+Los informes consolidados en Microsoft Excel se buscan ser migrada a la nube para que las entidades inscritas ante el FRE envíen el reporte directamente a los servidores y así obtener la información del departamento con mayor rapidez.
+La conexión en general en el departamento no es buena, en el momento de hacer la reunión el encargado del FRE atiende desde su teléfono móvil personal.
+El FRE cuenta con dos computadores, sin embargo, en la oficina está el grupo de IVC también con 2 computadores y almacén departamental con otros 2 equipos de cómputo.
+El FRE Huila ha apoyado y dado recomendación al FRE Putumayo en algunos procesos en los que no se tiene claridad. </t>
+  </si>
+  <si>
+    <t>El sistema PCT de acuerdo con las salidas históricas mensuales del FRE, con ello se establece las cantidades a pedir. Luego de ello se revisan los recursos disponibles para realizar el proceso de compra ya que no siempre se cuenta con el rubro necesario para la compra necesaria. El último rubro para compra de MME fue de 25 millones de pesos. Se presentó una demora con Colombia compra eficiente porque se tuvo que cambiar ordenador del gasto y se presentó un problema con un archivo que daba error en la plataforma lo que tardó 5 días en resolverse.
+-	Se otorga el rubro
+-	Se pasa el plan anual
+-	Solicitud de CDP
+-	Luego con la factura de Colombia compra eficiente se expide el RP
+-	Se envían documentos al correo de FNE</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>Pese a que tuvieron algunos problemas con la compra de MME a través de la plataforma el encargado del FRE manifiesta que es eficiente y con la ayuda del soporte técnico de la plataforma pudo concretar la orden de compra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Los productos llegan a las instalaciones de la secretaria de salud departamental
+- se recibe al transportador y se constata la factura y guía de factura
+- Los medicamentos ingresan al deposito
+- En los mesones se realiza el proceso de recepción administrativa y técnica
+- Se ingresa al sistema de la gobernación los productos recibidos 
+- Se procede a realizar el almacenamiento de los medicamentos. </t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>No se han presentado casos de productos no conformes o averiados. De llegar a pasar se procedería a notificar mediante llamada telefónica con el doctor Pedro con registro fotográfico para la reposición. Si no hubiese cabida a reposición se entregaría a la empresa recolectora para su destrucción.</t>
+  </si>
+  <si>
+    <t>Gabinete con llave simple, Acceso de seguridad restringido a cierto personal, Almacenamiento en oficina privada, Inventario físico diario</t>
+  </si>
+  <si>
+    <t>No se cuentan con medicamentos LASA ni de alto riesgo en la bodega donde están los MME por lo que no se requiere estrategias para el manejo de este tipo de medicamentos.</t>
+  </si>
+  <si>
+    <t>Medicamentos de Salud Pública, Vac</t>
+  </si>
+  <si>
+    <t>El encargado del FRE no ha concebido una opinión concreta del trasportador ya que su vinculación al ente territorial se dio posterior a la última compra de MME.</t>
+  </si>
+  <si>
+    <t>Se hace revisión en el sistema PCT, sin embargo, el funcionario del FRE manifiesta que así se lleve un adecuado control del inventario si no se esta abasteciendo continua y efectivamente el stock de MME el proceso de control de existencias y fechas de vencimiento no es del todo eficiente.</t>
+  </si>
+  <si>
+    <t>No se tiene un estimado del número de medicamentos máximo que pudieran almacenar en el almacén</t>
+  </si>
+  <si>
+    <t>No hay costo alguno en concepto de almacenamiento por parte del FRE</t>
+  </si>
+  <si>
+    <t>Fenobarbital 40 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Se hace cotización
+- Se hace estudio y aprobación de las cantidades solicitadas
+- se realiza consignación a la cuenta bancaria del FRE
+- Allegan soportes de pago y documentos necesarios para la compra
+- Se autoriza y despacha la orden de compra de MME.
+</t>
+  </si>
+  <si>
+    <t>No se ha dado el caso de devoluciones por parte de las instituciones. Si llegado el caso se despachara el producto en buen estado y cumpliendo especificaciones, pero en el transcurso del transporte a la institución se averió el FRE no se hace responsable.</t>
+  </si>
+  <si>
+    <t>No se han dado quejas formales, pero si se han dado casos en los que por falta de disponibilidad del FRE se autoriza realizar compra directa al FNE.</t>
+  </si>
+  <si>
+    <t>No se vende a pacientes particulares</t>
+  </si>
+  <si>
+    <t>No se ha dado el caso ya que no se dispensa directamente a particulares</t>
+  </si>
+  <si>
+    <t>No se ha dado el caso, pero dado que llegase a pasar se recomendaría transcribir el recetario a uno oficial del departamento de Putumayo</t>
+  </si>
+  <si>
+    <t>No se ha dado el caso, pero dado que llegase a pasar se recomendaría transcribir la formula a un recetario oficial del departamento de Putumayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las instituciones inscritas envían sus informes de en los 10 primeros días del mes junto con las copias de los recetarios oficiales. Esto se envía en físico y por vía electrónica. Posterior a ello una regente de farmacia del FRE se encarga de la consolidación de la información de los anexos. </t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>Las copias de los recetarios oficiales allegados junto con los informes de las instituciones se almacenan en la bodega por un año. Los documentos digitales se almacenan en los equipos alrededor de 2 años antes de su eliminación.</t>
+  </si>
+  <si>
+    <t>Las instituciones inscritas envían sus informes de en los 10 primeros días del mes junto con las copias de los recetarios oficiales. Esto se envía en físico y por vía electrónica. Posterior a ello una regente de farmacia del FRE se encarga de la consolidación de la información de los anexos.</t>
+  </si>
+  <si>
+    <t>Una regente de farmacia se encarga de la consolidación de informes que llegan mensualmente. Esta labor le toma los diez primeros días del mes e incluso más en algunas ocasiones.</t>
+  </si>
+  <si>
+    <t>Llamada</t>
+  </si>
+  <si>
+    <t>Se lleva a cabo mediante los archivos de Microsoft Excel en donde se lleva el manejo de anexos de las resoluciones. Allí se contrasta los envíos del mes anterior con los actuales y así determinar que entidad está incumpliendo el envío de sus anexos.</t>
+  </si>
+  <si>
+    <t>No hay más establecimientos además del FRE que distribuyan MME</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>Rara vez</t>
+  </si>
+  <si>
+    <t>Andrés Alexander Benavides Salazar</t>
+  </si>
+  <si>
+    <t>Nariño</t>
+  </si>
+  <si>
+    <t>Pasto</t>
+  </si>
+  <si>
+    <t>Calle 15 No. 28 - 41 Plazuela de Bomboná</t>
+  </si>
+  <si>
+    <t>informesfrenarino@gmail.com, alexito5833@gmail.com</t>
+  </si>
+  <si>
+    <t>7223031 ext. 114.</t>
+  </si>
+  <si>
+    <t>No. 033 RESOLUCION DE CREACION
+CON MODIFICACION DESPUES POR LA RESOLUCION No. 0420 de 2011</t>
+  </si>
+  <si>
+    <t>Diana Paola Rosero Zambrano</t>
+  </si>
+  <si>
+    <t>Jhon Alexander Rojas Cabrera</t>
+  </si>
+  <si>
+    <t>Adriana Marcela Samudio Martinez</t>
+  </si>
+  <si>
+    <t>Luceny Del Rosario Gonzalez Mejia</t>
+  </si>
+  <si>
+    <t>Todo el proceso se centraliza en la oficina del Fondo Rotatorio. EL FRE empieza realizando las cotizaciones externas, para luego realizar el estudio de mercado. Esta información se pasa a la parte jurídica del FRE donde allí se encargan de realizar la elaboración del contrato. 
+El seguimiento de la revisión del contrato, las subastas y liquidación son hechas por el FRE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo al monto destinado que se tiene para la compra de los RO. Esta suma de dinero esta establecida bajo decreto. Por ejemplo, por decreto se definió el monto de $30’000.000 para la compra de RO, con ese dinero se puede comprar RO para dos o tres años, dependiendo del valor de compra de los talonarios. </t>
+  </si>
+  <si>
+    <t>Desde que se empieza a hacer la recolección de la información para las cotizaciones hasta la contratación del proveedor, pueden pasar de 2 a 3 meses. Desde que se acepta el contrato hasta que llegan los talonarios al FRE, pueden pasar de 15 a 30 días.</t>
+  </si>
+  <si>
+    <t>Resolución 2419 de 2006, modificada por la Resolución 67 de 2021.</t>
+  </si>
+  <si>
+    <t>Los interesados realizan la consignación a la cuenta del FRE. Luego, deben entregar el comprobante junto con dos copias en las oficinas del FRE, además deben traer el oficio de solicitud membretada de la institución. La persona encargada de solicitar los talonarios debe ser el representante legal, en caso contrario, debe traer carta de autorización. Después se realiza el registro de la compra y la respectiva entrega.</t>
+  </si>
+  <si>
+    <t>Hoja de cálculo, Libro contable</t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Unidades compradas, Venta total en moneda (COP), Fecha y hora, Otros</t>
+  </si>
+  <si>
+    <t>Número de factura</t>
+  </si>
+  <si>
+    <t>Se tiene un plan de contingencia verbal el cual consiste en realizar préstamos entre instituciones, es decir, la institución que tenga más RO, deberá prestar a las otras mientras se suple la necesidad. En caso de que haya nula disponibilidad, se enviara una carta de autorización al FNE para autorizar prescripciones normales.</t>
+  </si>
+  <si>
+    <t>Tiene puntos buenos y malos. Buenos porque la adquisición de RO es más fácil y oportuna. Malos porque no hay tanto control en cuanto al diligenciamiento del ROE.</t>
+  </si>
+  <si>
+    <t>Cuando ocurre una situación de estas, la información se pasa al área legal para realizar el respectivo proceso jurídico y/o sancionatorio.</t>
+  </si>
+  <si>
+    <t>Quincenal</t>
+  </si>
+  <si>
+    <t>Por medio de un formato en Excel y por medio del libro de registro de salidas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se revisa la letra, el color, el papel. </t>
+  </si>
+  <si>
+    <t>Marcas de agua, Fondos especiales (membretes), Microletras / microtexto, Sellos/Escudos, Codificación</t>
+  </si>
+  <si>
+    <t>Las instituciones allegan los informes con los RO, se debe radicar y lo allegan a la oficina principal del FRE. Allí se verifica que los RO sean las mismas en las salidas de la institución. Cuando la institución es nueva, se solicita la factura para el ingreso y las prescripciones, para las salidas.</t>
+  </si>
+  <si>
+    <t>Para hospitales hasta 4 horas.
+Servicios pequeños, 10 minutos.</t>
+  </si>
+  <si>
+    <t>Se destruyen para evitar el uso de espacios de la bodega.</t>
+  </si>
+  <si>
+    <t>Se realiza con el promedio de distribución de los últimos 6 meses, es decir, que porcentaje ha salido en esos meses.</t>
+  </si>
+  <si>
+    <t>Debido a la agilidad en los procesos de compra, puesto que antes se demoraban 4 meses realizando dicha acción, ahora, tarda por mucho un mes. Se sugiere seguir realizando las compras por esta plataforma de forma indefinida.</t>
+  </si>
+  <si>
+    <t>Se revisan todas las cajas.  Los MME son recibidos y se inspecciona cada una de las cajas, así mismo, se procede a revisar de donde provienen. También se revisa que las cantidades solicitadas sean las allegadas, junto con otras características. Después se revisa que los MME hayan llegado en óptimas condiciones. Sin embargo, no se tiene un proceso escrito para tal procedimiento, se está incursionando.</t>
+  </si>
+  <si>
+    <t>Cuando se encuentran productos no conformes durante la recepción técnica, el FRE envía un correo al FNE adjuntando fotos de la encontrado.</t>
+  </si>
+  <si>
+    <t>Almacenamiento en oficina privada, Inventario físico diario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichas estrategias se encuentran en implementación </t>
+  </si>
+  <si>
+    <t>No se ha tenido inconvenientes con ningún operador, sea cual sea, siempre llegan rápido y sin inconvenientes.</t>
+  </si>
+  <si>
+    <t>El control de existencias se realiza diario y para llevar control de las fechas de vencimiento, colocan los MME con fechas lejanas de vencimiento en la parte de atrás del estante. En ocasiones, no se abren los empaques puesto que la fecha de vencimiento es lejana.</t>
+  </si>
+  <si>
+    <t>Para aproximadamente 6 meses.</t>
+  </si>
+  <si>
+    <t>No cuesta nada</t>
+  </si>
+  <si>
+    <t>El proceso de venta de MME a las instituciones se realiza igual al proceso de venta de RO, la única diferencia es que se piden las facturas y las prescripciones para comprar lo reportado en el RO.</t>
+  </si>
+  <si>
+    <t>Entre 3 a 6 meses.</t>
+  </si>
+  <si>
+    <t>Hasta el momento no se ha presentado una situación similar.</t>
+  </si>
+  <si>
+    <t>No se realiza dicha actividad.</t>
+  </si>
+  <si>
+    <t>Por medio de llamada telefónica con el responsable del FRE. Para los MCE se realiza transcripción.</t>
+  </si>
+  <si>
+    <t>Deben allegar copia de la historia clínica para realizar una trascripción a un RO.</t>
+  </si>
+  <si>
+    <t>El encargado del FRE, el señor Andres Benavides, se encarga de llenar dicho anexo teniendo en cuenta las facturas que salen.</t>
+  </si>
+  <si>
+    <t>De 6 a 24 horas</t>
+  </si>
+  <si>
+    <t>Dichos informes no se guardan en físico.</t>
+  </si>
+  <si>
+    <t>Este se realiza por medio de un software, el cual recopila la información y al momento de enviar la información al FNE, se descarga un archivo que se copia en una hoja de Excel.</t>
+  </si>
+  <si>
+    <t>Solo una persona.</t>
+  </si>
+  <si>
+    <t>Si, el libro contable y archivo de excel</t>
+  </si>
+  <si>
+    <t>Si se tiene, se solicitó durante el acompañamiento.</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>Omcomed y confamiliar.</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Silvia Espitia Vergara</t>
+  </si>
+  <si>
+    <t>Greici Castilla</t>
+  </si>
+  <si>
+    <t>Cauca</t>
+  </si>
+  <si>
+    <t>Popayán</t>
+  </si>
+  <si>
+    <t>Calle 5 # 15 – 57 Barrio Valencia Popayán  Sec Salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> silvia.espitia@saludcauca.gov.co</t>
+  </si>
+  <si>
+    <t>8209615/ 3145264278</t>
+  </si>
+  <si>
+    <t>Ordenanza No. 077 del 2008 /Resolución que asigna función 9712 del 29/12/2008</t>
+  </si>
+  <si>
+    <t>Lida Rosalba Mera</t>
+  </si>
+  <si>
+    <t>Elias Larraondo Carabalí</t>
+  </si>
+  <si>
+    <t>Greci Castilla</t>
+  </si>
+  <si>
+    <t>Silvia Sotelo</t>
+  </si>
+  <si>
+    <t>Donny Marín</t>
+  </si>
+  <si>
+    <t>Ingeniero de Sistemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosalba Bravo </t>
+  </si>
+  <si>
+    <t>50-75</t>
+  </si>
+  <si>
+    <t>Ventas de medicamentos, Venta de recetarios, Recursos propios del FRE, Inscripciones-novedades establecimientos, Otras resoluciones (destrucciones, transformaciones)</t>
+  </si>
+  <si>
+    <t>Se alistan estudios previos y toda la solitud precontractual, se elabora registro presupuestal, la asignación se hace en la oficina del contratación, se hace asignación y se reciben en el almacén los recetarios, se tramita cuenta de cobro luego de la entrega,(elementos enteros), pago con una sola factura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compras de 2000 unidades fijas, mandar a hacer 4000 en 2019, habitualmente 2000 en 2000, no hay una fórmula. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudios previos 1 semana
+Etapa Contractual 3 meses
+</t>
+  </si>
+  <si>
+    <t>Resolución 06344 122020 del 31 de Dic del 2020</t>
+  </si>
+  <si>
+    <t>El FRE Cauca solo hace venta de 1 recetario por médico, por ejemplo si se vende 15 recetarios y se les debe hacer reposición se mira a que instituciones y a qué médicos. Se hace la cotización, luego la consignación. Se entregan inmediatamente. Oficio legal firmado por representante, relacionar los médicos con número de tarjeta profesional, consignación y se realiza entrega física. Las facturas manuales</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>REGISTRO REPS</t>
+  </si>
+  <si>
+    <t>Durante escasez y hasta nueva disponibilidad se podía autorizar prescripción en formulas médicas de las IPS. Se mandan a hacer con recursos propios, ya sucedió.</t>
+  </si>
+  <si>
+    <t>Simplifica procesos, pero también observan que puede ser un mecanismo que puede facilitar la fraudulencia, desconfianza en posibles desvíos.</t>
+  </si>
+  <si>
+    <t>Evaluación sobre el uso de recetarios, requisitos que ya mencionaron, contacto con habilitación, en ese caso ellos llaman al FRE y ellos visitan. Se revisa con que frecuencia anulan fórmulas. En cuantas formulas, cuan ven alguna novedad verifican, puede aumentar volúmenes de atenciones, pero se examina de manera rigurosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van mirando cajas, también con las visitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se investiga la pérdida y se abre proceso sancionatorio, </t>
+  </si>
+  <si>
+    <t>Marcas de agua, Bande de seguridad, Filamentos de seguridad, Fluorescencia, Fondos especiales (membretes), Microletras / microtexto, Imagen latente, Relieve / laminado, Tinta invisibles o fluorescentes, Sellos/Escudos, Codificación</t>
+  </si>
+  <si>
+    <t>No se realiza proceso</t>
+  </si>
+  <si>
+    <t>LoS tiene cada IPS Y ELLOS SE ENCARGAN</t>
+  </si>
+  <si>
+    <t>3 de escritorio y ellos tienen sus propios computadores, falta uno para el ingenieros 6 computadores mínimo.</t>
+  </si>
+  <si>
+    <t>iNSUFICIENTES PARA EL FRE</t>
+  </si>
+  <si>
+    <t>Se calcula con base en consumo histórico y el comportamiento del año inmeditamente anterior de manera articulada con el FNE, sacan solicitud de disponibilidad Presupuestal y se hace la compra.</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>No hay queja alguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimiento de recepción técnica está para aprobación, se llena formato de recepción técnica, tiene tres firmas para autorizar, regente de farmacia, recibe la factura, y la entrega del acta de entrada al almacén, se hace inspección física, empaques primarios y secundarios, que no hayan averías, si las hay notificar, </t>
+  </si>
+  <si>
+    <t>Si hay cualquier novedad de averías se notifica dentro de la misma acta y se informa al FNE para las reposiciones. Se pasan a proceso de cuarentena destrucción e incineración. Greci hace revisión de los documentos y los medicamentos, ya aprobada por Silvia</t>
+  </si>
+  <si>
+    <t>Gabinete con llave doble, Inventario físico diario</t>
+  </si>
+  <si>
+    <t>Termohigrómetro, Registro electrónico de condiciones</t>
+  </si>
+  <si>
+    <t>Aseguran que los medicamentos estén separados en concentraciones y cajas similares, se tienen rotulados los estantes.</t>
+  </si>
+  <si>
+    <t>Bastantes averías</t>
+  </si>
+  <si>
+    <t>Los productos que se vencen es porque hay mucha baja rotación</t>
+  </si>
+  <si>
+    <t>sI</t>
+  </si>
+  <si>
+    <t>Cajas fuera del almacén. Solicitud de ampliación no ha sido prioridad</t>
+  </si>
+  <si>
+    <t>Primidona 10mg</t>
+  </si>
+  <si>
+    <t>Hacen solicitud y se verifica con consumo e inventarios, se dispone del inventario, una vez se hace la respuesta a la cotización, se hace la consignación y se les da ese mismo día</t>
+  </si>
+  <si>
+    <t>130 inscritas, Todas compran</t>
+  </si>
+  <si>
+    <t>No hacen devoluciones, o hacen solicitud de rotación</t>
+  </si>
+  <si>
+    <t>Intervención a la institución, y se investiga si hay desabastecimiento.</t>
+  </si>
+  <si>
+    <t>Evalúan los casos, a través de particulares.</t>
+  </si>
+  <si>
+    <t>llamada al paciente visita domiciliaria</t>
+  </si>
+  <si>
+    <t>No ha sucedido.</t>
+  </si>
+  <si>
+    <t>Para medicamentos no MME se solicita transcripción.</t>
+  </si>
+  <si>
+    <t>No se ha recibido.</t>
+  </si>
+  <si>
+    <t>Ingeniero se encarga</t>
+  </si>
+  <si>
+    <t>Dos personas</t>
+  </si>
+  <si>
+    <t>Documentos físico</t>
+  </si>
+  <si>
+    <t>Se reciben los informes y se revisan, lo hace un regente  Los 5 primeros días de cada mes</t>
+  </si>
+  <si>
+    <t>Se hace a mano</t>
+  </si>
+  <si>
+    <t>Todo el FRE</t>
+  </si>
+  <si>
+    <t>Archivos AZ/Bases de Excel</t>
+  </si>
+  <si>
+    <t>Se están estandarizando procesos, próximos a aprobación.</t>
+  </si>
+  <si>
+    <t>Compras semestrales</t>
+  </si>
+  <si>
+    <t>No se hace.</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>Guaviare</t>
+  </si>
+  <si>
+    <t>Putumayo</t>
+  </si>
+  <si>
+    <t>Mocoa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -3234,7 +4025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3253,6 +4044,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3472,17 +4270,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FY13"/>
+  <dimension ref="A1:FY17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BM1" sqref="BM1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4338,7 +5136,7 @@
       <c r="DQ2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="DR2" s="2" t="s">
+      <c r="DR2" s="12" t="s">
         <v>225</v>
       </c>
       <c r="DS2" s="2" t="s">
@@ -4359,7 +5157,7 @@
       <c r="DX2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY2" s="2" t="s">
+      <c r="DY2" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ2" s="2" t="s">
@@ -4386,13 +5184,13 @@
       <c r="EG2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="EH2" s="2" t="s">
+      <c r="EH2" s="8" t="s">
         <v>237</v>
       </c>
       <c r="EI2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="EJ2" s="2" t="s">
+      <c r="EJ2" s="12" t="s">
         <v>239</v>
       </c>
       <c r="EK2" s="2" t="s">
@@ -4754,7 +5552,7 @@
       <c r="DQ3" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="DR3" s="2" t="s">
+      <c r="DR3" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DT3" s="2" t="s">
@@ -4772,7 +5570,7 @@
       <c r="DX3" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="DY3" s="2" t="s">
+      <c r="DY3" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ3" s="2" t="s">
@@ -4802,7 +5600,7 @@
       <c r="EI3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="EJ3" s="2" t="s">
+      <c r="EJ3" s="12" t="s">
         <v>314</v>
       </c>
       <c r="EK3" s="2" t="s">
@@ -5150,7 +5948,7 @@
       <c r="DQ4" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="DR4" s="2" t="s">
+      <c r="DR4" s="12" t="s">
         <v>225</v>
       </c>
       <c r="DS4" s="2" t="s">
@@ -5171,7 +5969,7 @@
       <c r="DX4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY4" s="2" t="s">
+      <c r="DY4" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ4" s="2" t="s">
@@ -5192,13 +5990,13 @@
       <c r="EG4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="EH4" s="2" t="s">
+      <c r="EH4" s="8" t="s">
         <v>383</v>
       </c>
       <c r="EI4" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="EJ4" s="2" t="s">
+      <c r="EJ4" s="12" t="s">
         <v>385</v>
       </c>
       <c r="EK4" s="2" t="s">
@@ -5549,7 +6347,7 @@
       <c r="DQ5" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="DR5" s="2" t="s">
+      <c r="DR5" s="12" t="s">
         <v>442</v>
       </c>
       <c r="DT5" s="2" t="s">
@@ -5567,7 +6365,7 @@
       <c r="DX5" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="DY5" s="2" t="s">
+      <c r="DY5" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ5" s="2" t="s">
@@ -5597,7 +6395,7 @@
       <c r="EI5" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="EJ5" s="2" t="s">
+      <c r="EJ5" s="12" t="s">
         <v>346</v>
       </c>
       <c r="EK5" s="2" t="s">
@@ -5996,7 +6794,7 @@
       <c r="DQ6" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="DR6" s="2" t="s">
+      <c r="DR6" s="12" t="s">
         <v>442</v>
       </c>
       <c r="DT6" s="2" t="s">
@@ -6014,7 +6812,7 @@
       <c r="DX6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY6" s="2" t="s">
+      <c r="DY6" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ6" s="2" t="s">
@@ -6044,7 +6842,7 @@
       <c r="EI6" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="EJ6" s="2" t="s">
+      <c r="EJ6" s="12" t="s">
         <v>517</v>
       </c>
       <c r="EK6" s="2" t="s">
@@ -6446,7 +7244,7 @@
       <c r="DQ7" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="DR7" s="2" t="s">
+      <c r="DR7" s="12" t="s">
         <v>574</v>
       </c>
       <c r="DT7" s="2" t="s">
@@ -6464,7 +7262,7 @@
       <c r="DX7" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="DY7" s="2" t="s">
+      <c r="DY7" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ7" s="2" t="s">
@@ -6485,13 +7283,13 @@
       <c r="EG7" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="EH7" s="2" t="s">
+      <c r="EH7" s="8" t="s">
         <v>582</v>
       </c>
       <c r="EI7" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="EJ7" s="2" t="s">
+      <c r="EJ7" s="12" t="s">
         <v>583</v>
       </c>
       <c r="EK7" s="2" t="s">
@@ -6869,7 +7667,7 @@
       <c r="DX8" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="DY8" s="2" t="s">
+      <c r="DY8" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ8" s="2" t="s">
@@ -6893,13 +7691,13 @@
       <c r="EG8" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="EH8" s="2" t="s">
+      <c r="EH8" s="8" t="s">
         <v>648</v>
       </c>
       <c r="EI8" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="EJ8" s="2" t="s">
+      <c r="EJ8" s="12" t="s">
         <v>608</v>
       </c>
       <c r="EK8" s="2" t="s">
@@ -7328,7 +8126,7 @@
       <c r="DX9" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="DY9" s="2" t="s">
+      <c r="DY9" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ9" s="2" t="s">
@@ -7355,7 +8153,7 @@
       <c r="EI9" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="EJ9" s="2" t="s">
+      <c r="EJ9" s="12" t="s">
         <v>727</v>
       </c>
       <c r="EK9" s="2" t="s">
@@ -7749,7 +8547,7 @@
       <c r="DX10" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="DY10" s="2" t="s">
+      <c r="DY10" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ10" s="2" t="s">
@@ -7770,13 +8568,13 @@
       <c r="EG10" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="EH10" s="2" t="s">
+      <c r="EH10" s="8" t="s">
         <v>784</v>
       </c>
       <c r="EI10" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="EJ10" s="2" t="s">
+      <c r="EJ10" s="12" t="s">
         <v>786</v>
       </c>
       <c r="EK10" s="2" t="s">
@@ -8176,7 +8974,7 @@
       <c r="DX11" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="DY11" s="2" t="s">
+      <c r="DY11" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ11" s="2" t="s">
@@ -8206,7 +9004,7 @@
       <c r="EI11" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="EJ11" s="2" t="s">
+      <c r="EJ11" s="12" t="s">
         <v>812</v>
       </c>
       <c r="EK11" s="2" t="s">
@@ -8629,7 +9427,7 @@
       <c r="DX12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY12" s="2" t="s">
+      <c r="DY12" s="12" t="s">
         <v>197</v>
       </c>
       <c r="DZ12" s="2" t="s">
@@ -8656,7 +9454,7 @@
       <c r="EI12" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="EJ12" s="2" t="s">
+      <c r="EJ12" s="12" t="s">
         <v>903</v>
       </c>
       <c r="EK12" s="2" t="s">
@@ -9079,7 +9877,7 @@
       <c r="DX13" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="DY13" s="2" t="s">
+      <c r="DY13" s="12" t="s">
         <v>231</v>
       </c>
       <c r="DZ13" s="2" t="s">
@@ -9109,7 +9907,7 @@
       <c r="EI13" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="EJ13" s="2" t="s">
+      <c r="EJ13" s="12" t="s">
         <v>198</v>
       </c>
       <c r="EK13" s="2" t="s">
@@ -9225,6 +10023,1742 @@
       </c>
       <c r="FY13" s="2" t="s">
         <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:181" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
+        <v>44370.575993657403</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E14" s="19">
+        <v>44363</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3213946562</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="L14" s="19">
+        <v>41869</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>800</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>27</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>18000</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>25000</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>500</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>14</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="BI14" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BK14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BN14" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="BO14" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BP14" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="BQ14" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="BR14" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="BS14" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="BT14" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BU14" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="BW14" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="BX14" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BY14" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BZ14" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="CA14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CD14" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="CE14" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="CF14" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="CG14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="CH14" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="CJ14" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="CK14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CM14" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="CO14" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CQ14" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CS14" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="CT14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CX14" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="CY14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CZ14" s="1">
+        <v>3</v>
+      </c>
+      <c r="DA14" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB14" s="1">
+        <v>6</v>
+      </c>
+      <c r="DC14" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="DD14" s="1">
+        <v>4</v>
+      </c>
+      <c r="DE14" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DG14" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="DH14" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="DI14" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ14" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="DK14" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="DM14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DN14" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="DP14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ14" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="DR14" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="DT14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DU14" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="DV14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DW14" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="DX14" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="DY14" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA14" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="EC14" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="ED14" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="EE14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="EF14" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="EG14" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="EH14" s="1">
+        <v>6</v>
+      </c>
+      <c r="EI14" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="EJ14" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="EK14" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="EL14" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="EM14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="EO14" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="EP14" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="EQ14" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="ER14" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="ES14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="ET14" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="EU14" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="EW14" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="EX14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="EY14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="EZ14" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="FA14" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="FB14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FC14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="FD14" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="FE14" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="FF14" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="FH14" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="FI14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FJ14" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="FK14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FL14" s="1">
+        <v>2</v>
+      </c>
+      <c r="FM14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="FP14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="FQ14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FR14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FS14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FT14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FU14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FV14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="FY14" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:181" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>44384.71444163195</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E15" s="19">
+        <v>44363</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3143405646</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L15" s="19">
+        <v>40816</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>90</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>25</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>29000</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>1160</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BD15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE15" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>240</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="BR15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BW15" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CD15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="CH15" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="CJ15" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CK15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM15" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CO15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CP15" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CQ15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CS15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CT15" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>2</v>
+      </c>
+      <c r="CV15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW15" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="CX15" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="CY15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ15" s="1">
+        <v>5</v>
+      </c>
+      <c r="DA15" s="1">
+        <v>10</v>
+      </c>
+      <c r="DB15" s="1">
+        <v>30</v>
+      </c>
+      <c r="DC15" s="1">
+        <v>4</v>
+      </c>
+      <c r="DD15" s="1">
+        <v>7</v>
+      </c>
+      <c r="DE15" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="DF15" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DG15" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="DH15" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="DI15" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="DJ15" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="DK15" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="DM15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DN15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="DP15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ15" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="DR15" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="DT15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DU15" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="DV15" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="DW15" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="DX15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY15" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EA15" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="EC15" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="ED15" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="EE15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="EF15" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="EG15" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="EH15" s="1">
+        <v>43</v>
+      </c>
+      <c r="EI15" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="EJ15" s="24">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="EL15" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="EM15" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="EO15" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="EP15" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="EQ15" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="ER15" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="ES15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="ET15" s="21" t="s">
+        <v>1094</v>
+      </c>
+      <c r="EU15" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="EW15" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="EX15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="EY15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="EZ15" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="FA15" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="FB15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="FC15" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="FD15" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="FE15" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="FF15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="FH15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FI15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FJ15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="FL15" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="FM15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN15" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="FO15" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="FP15" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="FQ15" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="FR15" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="FS15" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="FT15" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="FU15" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="FV15" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="FX15" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="FY15" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:181" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>44385.476659016203</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E16" s="19">
+        <v>44363</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L16" s="19">
+        <v>40602</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>6321</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>175</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>130</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>3508</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>28400</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>70</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>15</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="BR16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="BU16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="BW16" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="BY16" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="CF16" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ16" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="CK16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CO16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CQ16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CS16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CT16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CX16" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="CY16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CZ16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="DA16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="DB16" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="DC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="DD16" s="1">
+        <v>3</v>
+      </c>
+      <c r="DE16" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG16" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="DH16" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="DI16" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ16" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="DK16" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="DM16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="DN16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="DP16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ16" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="DR16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="DT16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DU16" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="DV16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="DW16" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="DX16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY16" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA16" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="EC16" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="ED16" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="EE16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG16" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EH16" s="1">
+        <v>220</v>
+      </c>
+      <c r="EI16" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="EJ16" s="24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="EK16" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="EL16" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="EM16" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="EO16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="EP16" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="EQ16" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="ER16" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="ES16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="ET16" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="EU16" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="EW16" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EX16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="EY16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="EZ16" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="FA16" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="FB16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="FC16" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="FD16" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="FE16" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="FF16" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="FH16" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="FI16" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="FJ16" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="FL16" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="FM16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="FN16" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="FO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="FP16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="FQ16" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="FR16" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="FS16" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="FT16" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="FU16" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="FV16" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="FY16" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:181" s="20" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>44385.485729236112</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E17" s="19">
+        <v>44363</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L17" s="19">
+        <v>39783</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>1950</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>81</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>100</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>17000</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>300</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>90</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BJ17" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BN17" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BO17" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT17" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BU17" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="BW17" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BX17" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="BY17" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="CA17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CD17" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="CE17" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="CF17" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="CG17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CH17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CJ17" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="CK17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CO17" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="CQ17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CS17" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="CT17" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CU17" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="CV17" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CX17" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CY17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CZ17" s="1">
+        <v>7</v>
+      </c>
+      <c r="DA17" s="1">
+        <v>12</v>
+      </c>
+      <c r="DB17" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="DC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD17" s="1">
+        <v>13</v>
+      </c>
+      <c r="DE17" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="DF17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG17" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="DH17" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="DI17" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="DJ17" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="DK17" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="DM17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DN17" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="DP17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ17" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="DR17" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="DT17" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="DU17" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="DV17" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="DW17" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="DX17" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="DY17" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="EA17" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="EC17" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="ED17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="EF17" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="EG17" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="EH17" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="EI17" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="EJ17" s="24">
+        <v>1</v>
+      </c>
+      <c r="EK17" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="EL17" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="EM17" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="EO17" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="EP17" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="EQ17" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="ER17" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="ES17" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="ET17" s="1">
+        <v>3</v>
+      </c>
+      <c r="EU17" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="EW17" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="EX17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="EY17" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="EZ17" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="FA17" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="FB17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="FC17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="FD17" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="FE17" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="FF17" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="FH17" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="FI17" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="FJ17" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="FL17" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="FM17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN17" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="FO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="FP17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="FQ17" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="FR17" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="FS17" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="FT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="FU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="FV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="FY17" s="1" t="s">
+        <v>1224</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D910049-CA52-440D-8A13-48C18A446D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AD875-0EB7-43D3-B75E-170DF2149756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$FY$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$FY$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2594,12 +2594,516 @@
         </r>
       </text>
     </comment>
+    <comment ref="AS18" authorId="0" shapeId="0" xr:uid="{6A5BD7A7-A3CB-40CE-962D-FEF1B630C145}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4*</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT18" authorId="0" shapeId="0" xr:uid="{725164B2-CE64-4B8E-9C02-81F0C11FC5A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20**</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW18" authorId="0" shapeId="0" xr:uid="{DF79955D-A11B-4692-9BA4-C8709284584D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No sabe</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DX18" authorId="0" shapeId="0" xr:uid="{9AB47B53-9D6B-4740-9E8B-57727BD432A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No se realiza semaforización </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FH18" authorId="0" shapeId="0" xr:uid="{E1A6CB52-C4F1-4766-8990-7E2D1B6364CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No existe información consolidad sobre las instituciones inscritas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FI18" authorId="0" shapeId="0" xr:uid="{97DC2321-D4CF-40AF-8D20-C10E57B784EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No se tiene información consolidada sobre los pacientes que han adquirido medicamentos</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DE19" authorId="0" shapeId="0" xr:uid="{4D78BE3C-67F6-4612-B75B-1C5FC7AD98B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No se han hecho traslados</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DX19" authorId="0" shapeId="0" xr:uid="{4DD7DA99-24AD-4336-8D79-B321E538F51C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sí, se le pone stickers de colores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ET20" authorId="0" shapeId="0" xr:uid="{CC0F804C-7092-4506-B015-E202113E0BD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FH20" authorId="0" shapeId="0" xr:uid="{778757E7-A548-4B7A-8D1F-8112404AEE2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si. Base en Excel donde se evidencian los inscritos y los que están en proceso de inscripción. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FI20" authorId="0" shapeId="0" xr:uid="{6E11D447-767B-40CB-B2AF-0CD686137FC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si, en el libro contable se tiene el paciente y su número de cedula junto con la cantidad de medicamentos que reclamó.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DX21" authorId="0" shapeId="0" xr:uid="{26BD9743-CF52-4E23-A1E8-99C5358F19DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rojo: menor a 3 meses
+Amarillo: 3 meses - 6 meses
+Verde: mayor a 6 meses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY22" authorId="0" shapeId="0" xr:uid="{96FF8CF0-FB39-4B1C-97FB-FCE0535A05E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+9558</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ22" authorId="0" shapeId="0" xr:uid="{90A1747D-33FC-433A-8537-5C8562A21A6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No se ha iniciado proceso de compra por que los rubros no eran suficientes solo 25 millones y se sube a 35 para este año, esa suma alcanza para el año. Se tuvo inconveniente con fenobarbital de 200mg ampolla, está desabastecido por disponibilidad del FNE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DE22" authorId="0" shapeId="0" xr:uid="{8409318D-919F-49CD-BA49-CE1983011EE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El FRE Cesar ha prestado, se demora un día</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EF22" authorId="0" shapeId="0" xr:uid="{CE5D332F-BEA2-4B22-8327-5F0026033960}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Hidromorfona, Primidona</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EH22" authorId="0" shapeId="0" xr:uid="{DA2D6097-9192-426D-A0AF-5267B6942356}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+107 instituciones inscritas más o menos el 40% ha comprado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FH22" authorId="0" shapeId="0" xr:uid="{2E7735AB-3CB2-46DB-8177-21A71B7506E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Base de datos para instituciones inscritas Hay un problema con cesar, los proveedores compran a instituciones en el cesar, proveedores autorizados para venta local en su jurisdicción pero los mayoristas nacionales los habilita el FNE, cuándo les daban resolución de mayoristas, podían vender a cualquier departamento.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FI22" authorId="0" shapeId="0" xr:uid="{C0B6762C-C985-4076-9854-546A557E4849}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Solamente la que está en los recetarios</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FL22" authorId="0" shapeId="0" xr:uid="{18FED327-A8FA-4467-8223-D116C57818AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 veces al año</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1435">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -6222,14 +6726,878 @@
   <si>
     <t>0-20%</t>
   </si>
+  <si>
+    <t>CARLOS GUILLERMO LAL JIMENEZ</t>
+  </si>
+  <si>
+    <t>SARA RAMIREZ</t>
+  </si>
+  <si>
+    <t>Avenida Orinoco calle 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saritaramirez111@hotmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolución 137 </t>
+  </si>
+  <si>
+    <t>JOHN ROBINSON HERNADEZ BELTRAN</t>
+  </si>
+  <si>
+    <t>ALVARO ARLEY LEON FLOREZ</t>
+  </si>
+  <si>
+    <t>Sara Ramírez Acosta</t>
+  </si>
+  <si>
+    <t>Vinculada al FRE desde 2012. La encargada del FRE manifiesta la gran cantidad de pacientes venezolanos con los que cuenta en la zona, desde el inicio de la apertura de servicios de salud para venezolanos, el aumento en la demanda de medicamentos ha sido considerable. La encargada del FRE es la única funcionaria del ente territorial, es de destacar su humanidad y su empeño por la salud publica del departamento.
+El único que compra recetarios al FRE es el hospital (40 al año, los cuales
+ Se distribuyen en los municipios del departamentos de la siguiente manera: 10 para Rosalía, 10 para Cumaribo, 10 para Primavera y 10 para Carreño).
+*dato extraído calculando el numero total de recetario al año en el departamento (40) dividido los 12 meses del año.
+**quedan 10 recetarios para lo que queda del año los cuales se espera no se agoten antes de la llegada del ROE.
+Hace 4-6 años se realizó la ultima compra de recetarios por 3000 recetarios oficiales.
+La encargada recibió el FRE con 2 millones de pesos, ahora la cuenta del FRE tiene 17 millones de pesos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso se llevó a cabo con una papelería del Meta, la misma que hace los recetarios del FRE Meta. En Vichada no hay donde hace los recetarios. Se hacen los estudios previos y se envía a la gobernación para que se aprueba la contratación de recetarios oficiales. A la encargada del FRE le toca ir diariamente ir a explicar por que la compra y la importancia del FRE para que se apruebe rápidamente los documentos desde la administración gubernamental. </t>
+  </si>
+  <si>
+    <t>No se realiza una proyección de la necesidad estandarizada o calculada. Únicamente se destina un rubro para compra de recetarios y se adquieren todos los recetarios posibles con dicho monto. Así se realizó la ultima compra hace alrededor de 5 años. Orden de compra de recetarios que está a punto de finalizar, quedando apenas 10 recetarios oficiales, ya que la directora del FRE se encuentra a la expectativa de lo que acontezca con el ROE.</t>
+  </si>
+  <si>
+    <t>Una semana cada etapa (estudios previos, contractual, elaboración y despacho)</t>
+  </si>
+  <si>
+    <t>No se tiene acto administrativo en donde se defina el costo de los recetarios oficiales</t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Nombre de persona, Unidades compradas, Códigos seriales de recetarios</t>
+  </si>
+  <si>
+    <t>No se tiene plan de contingencia escrito ni se ha presentado algún caso en donde el FRE Vichada se quede sin recetarios. De llegar a pasar se autorizarían las formulas institucionales con alguna firma y autorización del FRE para su despacho y prescripción.</t>
+  </si>
+  <si>
+    <t>La encargada del FRE manifiesta que es una herramienta útil y que puede ahorrar gran cantidad de papel. Ella esta a la espera de su implementación pues de esto depende la compra o no de mas recetarios oficiales para el ente territorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se han tenido casos de posibles fraudes o desvíos, sin embargo, si llegado el caso procedería a comunicarse con la institución prescriptora para verificar la formula </t>
+  </si>
+  <si>
+    <t>No se realiza dicha actividad</t>
+  </si>
+  <si>
+    <t>No se realiza proceso de control de existencia o saldos de recetarios oficiales</t>
+  </si>
+  <si>
+    <t>No se han tenido casos de posibles fraudes o desvíos, sin embargo, si llegado el caso procedería a comunicarse con la institución prescriptora para verificar la formula</t>
+  </si>
+  <si>
+    <t>Codificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El FRE no realiza el proceso de recepción de recetarios sino el hospital San Juan de Dios
+-Se recogen los recetarios inmediatamente después de utilizados y se almacenan en cajas en la bodega.
+- Posteriormente las dos regentes de la farmacia del hospital consolidan la información del recetario en un cuaderno
+- Finalmente los datos son registrados en una hoja de Microsoft Excel en conjunto con el anexo que se envía al FRE
+</t>
+  </si>
+  <si>
+    <t>Dos regentes de farmacia realizan la tarea constantemente</t>
+  </si>
+  <si>
+    <t>Los recetarios anulados por errores de prescripción se envían a incineración junto con medicamentos vencidos mensualmente en donde la empresa de residuos levanta un acta con el peso del total destruido.</t>
+  </si>
+  <si>
+    <t>Codificación, Nombre prescriptor, Fecha de expedición de la prescripción, Nombre del paciente</t>
+  </si>
+  <si>
+    <t>Aceptable</t>
+  </si>
+  <si>
+    <t>No cuenta con herramientas para el manejo de inventarios ya que únicamente es una funcionaria del FRE y la cantidad de medicamentos es poca.
+Se tenía inscrito al GAORI pero pasó un año sin que solicitaran medicamentos, se preguntó por qué y la razón era porque ya no tenían pacientes que los requirieran (pero no eran MME).</t>
+  </si>
+  <si>
+    <t>- Se pregunta al hospital por su requerimiento de MME, ellos estiman las unidades de cada medicamento según el histórico mensual para comprar para el año
+- A ese valor promedio la encargada del FRE le suma una proporción mas por si llegase a ocurrir algún imprevisto. No se tiene ningún documento donde se haga el cálculo de dicho valor.
+(lo que solicita el hospital tiene en cuenta lo que distribuye también Sikuani).
+- Se hacen los estudios previos
+- Se pasa la necesidad de medicamentos a la gobernación y allí se realiza el proceso contractual
+- El abogado realiza el proceso de compra mediante CCE
+- Autorización de compra
+- Despacho
+- recepción técnica
+- Elaboración de informe y acta de llegada de productos
+- Aprobación de la gobernación para desembolso al FNE</t>
+  </si>
+  <si>
+    <t>No se realiza la estimación</t>
+  </si>
+  <si>
+    <t>Se han tenido inconvenientes ya que en el departamento se maneja secop i y no secop ii por la deficiente conexión a internet de la región pero se han logrado solventar con ayuda de las guías dispuestas en la tienda virtual</t>
+  </si>
+  <si>
+    <t>No se han tenido casos de producto no conforme o averías, de llegar a darse se notificaría al FNE</t>
+  </si>
+  <si>
+    <t>Gabinete con llave simple, Acceso de seguridad restringido a cierto personal, Almacenamiento en oficina privada, Disponibilidad de personal de seguridad privada</t>
+  </si>
+  <si>
+    <t>No se tienen medicamentos de alto riesgo ni LASA</t>
+  </si>
+  <si>
+    <t>Medicamentos de Salud Pública, Papelería</t>
+  </si>
+  <si>
+    <t>Manifiesta la encargada del FRE que el transportador es cuidadoso con los productos que maneja, sin embargo, los pedidos tardan tiempo en llegar</t>
+  </si>
+  <si>
+    <t>No se lleva a cabo un proceso de control de existencias y fechas de vencimiento estándar, la encargada del FRE conoce las fechas de vencimiento de los medicamentos puesto que todos vienen con la misma expiración, y ya que la cantidad de medicamentos es baja se puede realizar rápidamente a simple vista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se tiene estimación de cuanto es el máximo de medicamentos de la bodega, por lo que se puede observar los estantes están alrededor de la mitad de su capacidad al momento de la visita </t>
+  </si>
+  <si>
+    <t>El almacenamiento no representa gasto para el FRE</t>
+  </si>
+  <si>
+    <t>Se compara con el histórico normal de consumo y demanda de medicamentos por parte de la institución</t>
+  </si>
+  <si>
+    <t>No se han realizado procesos de devoluciones de MME</t>
+  </si>
+  <si>
+    <t>No se ha tenido quejas formales de parte de las instituciones, cuando el hospital ha requerido con urgencia algún medicamento el FRE presta el producto mientras se hace el debido proceso y se cancela el valor correspondiente por los medicamentos enviados</t>
+  </si>
+  <si>
+    <t>Se constata la formula con la que viene el paciente, si no es del departamento se debe transcribir al recetario oficial de la región</t>
+  </si>
+  <si>
+    <t>Solo se ha tenido un caso de un paciente con formula proveniente de otro departamento, por lo que se constató la prescripción y se transcribió al recetario oficial del Vichada</t>
+  </si>
+  <si>
+    <t>No se han tenido caso de fórmulas provenientes de Cundinamarca o Bogotá</t>
+  </si>
+  <si>
+    <t>- Las instituciones inscritas envías sus informes los 5 primeros días del mes
+- la encargada del FRE consolida la información del 5 al 10mo día del mes y se envía al FNE
+Algunas veces hay retrasos en el envío de informes a lo que la directora del FRE es comprensiva y paciente ya que entiende se sobremanera los problemas de conectividad que ella misma ha vivido en la región.</t>
+  </si>
+  <si>
+    <t>De una a dos horas</t>
+  </si>
+  <si>
+    <t>En el computador utilizado por la encargada del FRE</t>
+  </si>
+  <si>
+    <t>Una persona realiza la consolidación de anexos en aproximadamente 1 y 2 horas</t>
+  </si>
+  <si>
+    <t>No se tiene documento ni base de datos para el control de envío de informes de consumo de MME</t>
+  </si>
+  <si>
+    <t>No se tienen más establecimientos además del FRE que vendan MME</t>
+  </si>
+  <si>
+    <t>Antes se recibían los recetarios oficiales diligenciados pero la acumulación de papel se tornó un problema por lo que ahora el hospital (única institución inscrita junto con Sikuani, que es la droguería de Nueva EPS) se encarga de su almacenamiento.</t>
+  </si>
+  <si>
+    <t>Enith Del Carmen Gil</t>
+  </si>
+  <si>
+    <t>Milena Arnero</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Sincelejo</t>
+  </si>
+  <si>
+    <t>Cra 14 # 15ª – 140 Barrio los libertadores</t>
+  </si>
+  <si>
+    <t>fre@gobsucre.gov.co/enithgil@gmail.com</t>
+  </si>
+  <si>
+    <t>No tienen</t>
+  </si>
+  <si>
+    <t>Decreto 0416 de 2010 modificado por Decreto 0186 del 2012</t>
+  </si>
+  <si>
+    <t>Juan Carlos Granados Villa</t>
+  </si>
+  <si>
+    <t>Hector Olimpo Espinoza</t>
+  </si>
+  <si>
+    <t>Contadora Pública especializada en gerencia en Salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administradora de Empresas
+</t>
+  </si>
+  <si>
+    <t>Blas Carpio Navarro</t>
+  </si>
+  <si>
+    <t>Se hace el estudio previo, lo hace un abogado, se solicita el CDP, se cotiza por mínima cuantía</t>
+  </si>
+  <si>
+    <t>Con las ventas y la demanda de manera anual, con un 30% más, también hay unas cantidades mínimas.</t>
+  </si>
+  <si>
+    <t>Estudios previos: 1 Semana
+Secretaria Gobernación y aprobación: 2 Semanas
+Contratación:3 meses 
+Despacho: 1 semana</t>
+  </si>
+  <si>
+    <t>Resolución 2036 del 2012</t>
+  </si>
+  <si>
+    <t>Las instituciones llaman, pero generalmente, un funcionario de la entidad llega con un oficio con cantidades, firmado por representante legal, nombre apellido, cédula cargo, consignación del banco Davivienda.</t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Documento de identificación, Dirección de domicilio, Venta total en moneda (COP), Fecha y hora</t>
+  </si>
+  <si>
+    <t>No hay plan de contingencia y sacan copia a recetarios y las manejan de esa manera. No hay POE</t>
+  </si>
+  <si>
+    <t>La trazabilidad, cómo garantiza el fondo que es un recetario legal, seguridad electrónica del recetario electrónico, tienen muchas dudas.</t>
+  </si>
+  <si>
+    <t>No hay proceso</t>
+  </si>
+  <si>
+    <t>No hay control</t>
+  </si>
+  <si>
+    <t>Primeros días del mes, No se reciben recetarios</t>
+  </si>
+  <si>
+    <t>Una almacén aparte</t>
+  </si>
+  <si>
+    <t>Cantidad total</t>
+  </si>
+  <si>
+    <t>Tienen una formulas en manuales, consumo promedio, estaciones, demanda insatisfecha,  consumo promedio mensual, (Formula)</t>
+  </si>
+  <si>
+    <t>El problema es de capacitación de personal, no de la plataforma</t>
+  </si>
+  <si>
+    <t>Acta de recepción técnica, con orden de compra y factura, se reporta lo que no esté bien, se ingresa a Kardex</t>
+  </si>
+  <si>
+    <t>Se apunta en el acta y se comunica al Fondo Nacional de Estupefacientes</t>
+  </si>
+  <si>
+    <t>Termómetro</t>
+  </si>
+  <si>
+    <t>No se hace</t>
+  </si>
+  <si>
+    <t>Medicamentos incautados</t>
+  </si>
+  <si>
+    <t>Han dejado los medicamentos en la entrada de la secretaría.</t>
+  </si>
+  <si>
+    <t>Con Kardex en mano y se hace la contra referencia</t>
+  </si>
+  <si>
+    <t>No, ya está rebasada</t>
+  </si>
+  <si>
+    <t>Ritalina 10mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tienen un proceso </t>
+  </si>
+  <si>
+    <t>No se han recibido</t>
+  </si>
+  <si>
+    <t>Se exige historia clínica.</t>
+  </si>
+  <si>
+    <t>Consultar al fondo, se indaga con IVC , se hace una intervención dependiendo del caso.</t>
+  </si>
+  <si>
+    <t>Llaman a los otros FRE</t>
+  </si>
+  <si>
+    <t>Los informes todos los llena una persona</t>
+  </si>
+  <si>
+    <t>Si, todo se guardan en el PC</t>
+  </si>
+  <si>
+    <t>Lo llena la encargada de IVC del GRE</t>
+  </si>
+  <si>
+    <t>Evidencia recolectada</t>
+  </si>
+  <si>
+    <t>Wilder Estiben Meneses</t>
+  </si>
+  <si>
+    <t>Carlos Manuel Cantillo</t>
+  </si>
+  <si>
+    <t>Chocó</t>
+  </si>
+  <si>
+    <t>Quibdó</t>
+  </si>
+  <si>
+    <t>Carrera 7a entre Calle 26 y 27 Malaria</t>
+  </si>
+  <si>
+    <t>frechocomce@gmail.com, carlosmanuelcantillo@gmail.com</t>
+  </si>
+  <si>
+    <t>Naudy Cecilia Ortega Usuga</t>
+  </si>
+  <si>
+    <t>Ariel Palacios Calderón</t>
+  </si>
+  <si>
+    <t>Ventas de medicamentos, Venta de recetarios, Recursos de gobernación, Recursos propios del FRE, Inscripciones-novedades establecimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l FRE hace la estimación de los RO, los estudios técnicos previos y la solicitud escrita a la Secretaria de Salud.
+La Secretaria de Salud designa personal para dicha gestión. Después de este último paso no se tiene más conocimiento del proceso ni del contrato que la parte legal emite. El proceso lo lidera área judicial de la Gobernación. </t>
+  </si>
+  <si>
+    <t>Para la compra de nuevos recetarios, por medio del libro contable, se hace un promedio mensual del consumo de RO, sin embargo, como ya se mencionó anteriormente, desde el 2014 no se compran nuevos RO. Se tiene pensado realizar compras de RO cada año para tener un mayor control de los mismos.</t>
+  </si>
+  <si>
+    <t>Para realizar la estimación es un día, ya el resto del proceso se traslada a la secretaria donde tarda un mes en obtener los RO.</t>
+  </si>
+  <si>
+    <t>Carta u oficio remitido por el representante legal y/o coordinador médico de la IPS/EPS, para los médicos particulares se requiere copia de la tarjeta profesional, que incluya datos claros de la entidad.</t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Nombre de persona, Documento de identificación, Unidades compradas, Fecha y hora, Códigos seriales de recetarios</t>
+  </si>
+  <si>
+    <t>Verbal. El FRE se acogería al modelo propuesto por la resolución 1479 de 2006 que consta de formato de prescripción de contingencia con sellos de tinta internos generados por el FRE. Adicionalmente, a la IPS más grande del Dpto se le habilitó un modelo de ROE a nivel intrahospitalario.</t>
+  </si>
+  <si>
+    <t>Es una herramienta necesaria puesto que los RO físicos, hace que la revisión sea tediosa y se puedan cometer errores. Así mismo, la consolidación de información puede ser mas fácil. Respecto a los ingresos que se reciben por medio de la venta de los RO, estos son muy pocos y no se vería impactado negativamente. Adicional a esto, habría más control respecto a la dispensación debido a que los prestadores de salud y los operadores no tienen un manejo adecuado de los medicamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se consolida la información.  El FRE menciona que no se han identificado. Tampoco se tiene definido un proceso para la búsqueda activa de este tipo de fraudes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ser tan baja la rotación de los RO, no hay un procedimiento para hacer el control puesto que los mismos se encuentran a la vista del encargado, ya sea en el gabinete o en el escritorio. Con cada entrada y salida se confirman las existencias y se actualiza los libros contables. </t>
+  </si>
+  <si>
+    <t>El único caso que se ha presentado, fue el de un médico que recetaba MME para su propio uso. La sanción que tuvo el médico fue prohibirle la prescripción de este tipo de medicamentos puesto que sigue inscrito y trabajando en la misma institución.</t>
+  </si>
+  <si>
+    <t>Las entidades allegan los RO diligenciados y se revisan que los códigos seriales coincidan con los reportados en el libro contable</t>
+  </si>
+  <si>
+    <t>La persona que se encarga de revisar los RO es el señor Carlos Cantillo, esta revisión no toma mucho tiempo puesto que solo se revisan los seriales con respecto al libro contable.</t>
+  </si>
+  <si>
+    <t>Por el momento, los RO diligenciados se almacenan dentro del FRE por tiempo ilimitado por temor de que las copias puedan necesitarse en un futuro.</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Se pasa una solicitud por escrito haciendo una cotización de los medicamentos. Se devuelve la misma con los valores.
+Se hace la consignación.
+Allegan la carta realizada por el RL, coordinador médico o DT solicitando esos medicamentos junto con un formato, y la consignación.
+Por último se realiza la entrega.</t>
+  </si>
+  <si>
+    <t>Es una plataforma de fácil uso, efectiva y eficaz. La asesoría brindada por el FNE fue oportuna y agilizó el proceso.</t>
+  </si>
+  <si>
+    <t>Contra el soporte de pedido se revisa cada una de las unidades que allegan al FRE, se verifica integridad física, se descartan averías, productos no conformes, y se confirman las fechas de vencimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza la observación ante el FNE, sin embargo hasta la fecha no se presentado una situación de esta. </t>
+  </si>
+  <si>
+    <t>Gabinete con llave simple, Almacenamiento en oficina privada</t>
+  </si>
+  <si>
+    <t>Aire acondicionado</t>
+  </si>
+  <si>
+    <t>No se tienen</t>
+  </si>
+  <si>
+    <t>Ha sido de los grandes aportes que ha tenido el proceso de adquisición de los MME. Los medicamentos llegan en muy buenas condiciones.</t>
+  </si>
+  <si>
+    <t>Se realiza una estimación en archivo Excel de la vida útil del medicamento con los datos de fecha de ingreso del medicamento al FRE y fecha de vencimiento La cual debe estar por encima del 75% para evitar dificultades en la distribución de medicamentos a las entidades. Adicionalmente, inspección física.</t>
+  </si>
+  <si>
+    <t>Desabastecimiento de ciertos medicamentos</t>
+  </si>
+  <si>
+    <t>6  meses</t>
+  </si>
+  <si>
+    <t>Metilfenidato 10 mg</t>
+  </si>
+  <si>
+    <t>La variabilidad en las compras de los MME siempre se realiza de manera telefónica pidiendo una aclaración de las compras que se salen de lo habitual. Una justificación suele ser el trasladado de pacientes hacia el municipio de Quibdó.</t>
+  </si>
+  <si>
+    <t>Se realiza la solicitud ante el FNE.
+El FNE consolida la información y traslada la información al importador.
+EL FNE avisa a los FRE las cantidades y las fechas en las cuales se realizará el cambio de los MME.</t>
+  </si>
+  <si>
+    <t>Puede tomar un mes y medio</t>
+  </si>
+  <si>
+    <t>No ha recibido quejas. Sin embargo, en caso de presentarse una demanda insatisfecha, se autorizará al establecimiento a realizar la compra directa al  FNE pero no tienen la capacitación necesaria para hacerla, así que deciden recurrir a los préstamos institucionales.</t>
+  </si>
+  <si>
+    <t>Se realiza de forma presencial con base en el horario de atención del FRE 8 am – 12 m y 2 pm  a 6 pm. Con la pandemia sigue vigente la alternancia laboral. Los horarios en la contingencia son de 9 am 12 m y 3 pm a 6 pm. Los pacientes allegan el RO diligenciado y su numero de documento.</t>
+  </si>
+  <si>
+    <t>No se han presentado dicha situación</t>
+  </si>
+  <si>
+    <t>Por medio de llamada telefónica.</t>
+  </si>
+  <si>
+    <t>Se hace la transcripción a un RO del departamento.</t>
+  </si>
+  <si>
+    <t>Se toma medicamentos por medicamento y se van sumando las cantidades que se distribuyeron en el mes. Actividad que es demorada y tediosa, mas por las instituciones que realizan varias compras al mes y no hay una unificación.</t>
+  </si>
+  <si>
+    <t>En el corro electrónico.</t>
+  </si>
+  <si>
+    <t>Para el diligenciamiento, se toman las cantidades de medicamentos distribuidas en el mes, y se suman para completar el formato.</t>
+  </si>
+  <si>
+    <t>Una sola persona que le toma 6 horas en diligenciar</t>
+  </si>
+  <si>
+    <t>No se tiene dicho manejo</t>
+  </si>
+  <si>
+    <t>Replicación de información en red</t>
+  </si>
+  <si>
+    <t>Se tienen registro fotográficos que irán en el informe.</t>
+  </si>
+  <si>
+    <t>60-80%</t>
+  </si>
+  <si>
+    <t>Dina Luz Gómez Mena</t>
+  </si>
+  <si>
+    <t>Dairys Isabel Medina Cujia</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Valledupar</t>
+  </si>
+  <si>
+    <t>Transversal 18 No. 19 - 65</t>
+  </si>
+  <si>
+    <t>festupefacientes@saludcesar.gov.co</t>
+  </si>
+  <si>
+    <t>Resolución 01042 de 1989</t>
+  </si>
+  <si>
+    <t>Hernan Baquero Rodriguez</t>
+  </si>
+  <si>
+    <t>Luis Alberto Monsalvo Gnecco</t>
+  </si>
+  <si>
+    <t>Enfermera</t>
+  </si>
+  <si>
+    <t>Luis Miguel Pinzón López</t>
+  </si>
+  <si>
+    <t>Encargada del FRE realiza las cotizaciones y el estudio de mercado en general. Posteriormente, proyecta el estudio previo para que reciba las correspondientes firmas de la secretaria de salud y se consolide con la firma de quien crea la necesidad dentro de la secretaria, en este caso es la misma encargada del FRE Cesar. Luego, el documento pasa a la Gobernación del Cesar para ser revisado y publicado en la plataforma SECOP II, cuya responsabilidad recae completamente en los funcionarios de esta institución.</t>
+  </si>
+  <si>
+    <t>La proyección de la necesidad de recetarios oficiales es llevada a cabo por medio de un histórico correspondiente al comportamiento en años anteriores. Desde el software de la Gobernación del Cesar, que lleva el nombre  FOREC Versión 1.0, se puede extraer la información de las ventas de medicamentos y según esto, la cantidad de recetarios oficiales suficientes para cubrir las necesidades del medicamento. Así mismo, se tiene en cuenta la contratación y adquisición de recetarios oficiales, referentes al año anterior.</t>
+  </si>
+  <si>
+    <t>•	Desarrollo de las cotizaciones: 2 días
+•	Proyección estudio previo: 4 días
+•	Estudio de mercado: 5 días
+•	Búsqueda de la firma del secretario de salud: 50 días
+•	Aprobación por parte de la Gobernación del Cesar: 20 días
+•	Ingreso de documentos a la plataforma SECOP Il: 8 días</t>
+  </si>
+  <si>
+    <t>Resolución 2442 de 2009</t>
+  </si>
+  <si>
+    <t>Se recibe la cotización por parte del usuario a través del correo electrónico del FRE. Se responde este mismo correo con el valor de la cotización y la disponibilidad de recetarios oficiales actuales. Luego, el usuario debe ir al banco a realizar la transferencia bancaria a la cuenta del FRE y posteriormente debe dirigirse de manera presencial al FRE para reclamar los recetarios oficiales. La persona encargada de recibir los recetarios debe presentar el comprobante de pago de la consignación bancaria y la autorización de retiro por parte del representante legal del establecimiento.</t>
+  </si>
+  <si>
+    <t>Fecha y hora, Códigos seriales de recetarios, Otros</t>
+  </si>
+  <si>
+    <t>Firma persona que recibe Recetarios oficiales</t>
+  </si>
+  <si>
+    <t>Se envía comunicación oficial a todos los establecimientos, mencionando la no disponibilidad de recetarios oficiales y permitiendo el uso de cualquier tipo de fórmula médica.</t>
+  </si>
+  <si>
+    <t>FRE Cesar estaría de acuerdo con el ROE si este se desarrolla con el mismo estilo de la plataforma MIPRES. Desde el punto de vista del control del recetario hay buenas expectativas, ya que se alcanzaría una mejor trazabilidad. Por el lado económico, se reconoce que los ingresos del FRE podrían reducirse bastante. Teniendo en cuenta las pocas complicaciones de energía y la intermitencia del internet, se requiere un plan de contingencia eficiente para el ROE, sin que este sea de manual.</t>
+  </si>
+  <si>
+    <t>Cuando se evidencia un posible fraude en los recetarios oficiales, el FRE levanta en primera instancia una medida sanitaria al establecimiento que recibió el consecutivo del recetario. Se congelan los medicamentos y hasta obtener una justificación válida por parte del establecimiento, se levanta la medida sanitaria. El siguiente paso, si no se cumple con lo requerido, es el proceso sancionatorio al establecimiento</t>
+  </si>
+  <si>
+    <t>Diariamente la Regente en farmacia verifica los recetarios oficiales actuales en el FRE. Sin embargo, los recetarios oficiales se van descargando y registrando su salida en orden por sus consecutivos en el libro físico. De esta manera, se tiene un control efectivo.  Esta actividad se realiza dos veces al día.</t>
+  </si>
+  <si>
+    <t>La Regente en farmacia verifica las medidas de seguridad que tiene el recetario oficial del Cesar. También se compara la información del establecimiento que adquirió el consecutivo particular, con las bases de datos presentes en el FRE.</t>
+  </si>
+  <si>
+    <t>Marcas de agua, Microletras / microtexto, Tinta invisibles o fluorescentes, Sellos/Escudos, Codificación, Otro</t>
+  </si>
+  <si>
+    <t>Registro del prescriptor en ReThus y Reactivo al metal.</t>
+  </si>
+  <si>
+    <t>La regente en farmacia solo revisaba que el Recetario oficial llegara al FRE, cumpliendo el ordenamiento normativo pero no se realizaba una revisión exhaustiva del recetario.</t>
+  </si>
+  <si>
+    <t>Una persona, Regente en farmacia. El proceso tomaba 5 días.</t>
+  </si>
+  <si>
+    <t>Inventario físico diario, Almaceamiento en oficina privada</t>
+  </si>
+  <si>
+    <t>La responsabilidad de la disposición final de los recetarios oficiales es de la Gobernación del Cesar, debido a que estos documentos son trasladados al Archivo histórico central del Cesar.</t>
+  </si>
+  <si>
+    <t>Manual, Software</t>
+  </si>
+  <si>
+    <t>En la Secretaria de Salud del Cesar se está adelantando el proceso de compra de 4 equipos de cómputo nuevos para adelantar las actividades del Fondo Rotatorio de Estupefacientes del Cesar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este año se planeó totalmente la estimación de la compra de MME, ya que en años anteriores no se realizaba esta proyección. En primer lugar, el tiempo que se tomó de proyección fueron 15 meses, teniendo en cuenta que los primeros 3 meses del año son muy difíciles los procesos de contratación en la Gobernación y se puede evitar el desabastecimiento en el territorio. Se tomó en cuenta el comportamiento histórico mes a mes del último año relacionado a las ventas de MME en el territorio del Cesar. Adicionalmente se consideran las existencias actuales de cada medicamento y el inventario de MME que se puede extraer del Software de la Gobernación del Cesar, FOREC Versión 1.0. Todo este análisis se encuentra registrado en una base de datos en Excel. </t>
+  </si>
+  <si>
+    <t>N.R</t>
+  </si>
+  <si>
+    <t>Personal del FRE Cesar no tiene ninguna concepción de la plataforma, debido a que la responsabilidad de todos los procesos corresponde a los funcionarios de la Gobernación del Cesar.</t>
+  </si>
+  <si>
+    <t>Inicialmente, se verifican que las cajas vengan en excelente estado, sin adulteraciones. Luego, se verifica el interior de cada caja y el estado de los MME, la Regente en farmacia hace muestreo de todos los productos que llegan. El personal del FRE, verifica los siguientes datos: lote y fecha de vencimiento con la factura que envía el FNE y la información proveniente de la caja de medicamentos.</t>
+  </si>
+  <si>
+    <t>Se toma la evidencia respectiva de los productos y registra la información en acta de recepción. Se notifica inmediatamente al FNE.</t>
+  </si>
+  <si>
+    <t>Acceso de seguridad restringido a cierto personal, Procedimientos para el manejo de personal huésped, visitantes, mantenimiento o no empleados del FRE., Almacenamiento en oficina privada, Inventario físico diario, Disponibilidad local de protección policial</t>
+  </si>
+  <si>
+    <t>En periodos mayores a 12 meses</t>
+  </si>
+  <si>
+    <t>No hay procedimiento específico para los medicamentos LASA y de alto riesgo.</t>
+  </si>
+  <si>
+    <t>La empresa actual, Servientrega no ha generado inconvenientes con el despacho en el territorio del Cesar. Sin embargo, se recomienda que el pedido NO llegue en dos partes diferentes, sino que llegue de manera completa.</t>
+  </si>
+  <si>
+    <t>Varias veces al día</t>
+  </si>
+  <si>
+    <t>La Regente en farmacia verifica que las existencias físicas de los MME concuerden con la información de inventario de MME, generado por el software FOREC Versión 1.0.</t>
+  </si>
+  <si>
+    <t>Comparación con movimientos historicos, Realización de compras en meses específicos</t>
+  </si>
+  <si>
+    <t>El espacio es adecuado para el almacenamiento de MME, sin embargo, un archivador está quitando un espacio para la disposición de otro gabinete de medicamentos.</t>
+  </si>
+  <si>
+    <t>Ningún costo.</t>
+  </si>
+  <si>
+    <t>En 2021, Ritalina - Metilfenidato 10 mg (18 unidades)</t>
+  </si>
+  <si>
+    <t>Inicialmente se recibe la cotización de los medicamentos en correo electrónico por parte de la institución. El personal del FRE verifica la resolución de inscripción del establecimiento y confirma que el medicamento este autorizado a ese establecimiento. Posteriormente, personal del FRE, según stock actual de MME, ajusta o aprueba la cotización de la IPS. Se envía un correo mencionando la aprobación definitiva y el precio de los MME. A este correo se adjunta procedimiento para realizar consignación bancaria del precio de los medicamentos solicitados. Luego, la persona encargada de recibir los MME, debe presentar la carta de autorización firmada por el representante legal del establecimiento, documento de identificación y comprobante bancario de pago.</t>
+  </si>
+  <si>
+    <t>No hay devoluciones de MME en caso de vencimiento o baja rotación.</t>
+  </si>
+  <si>
+    <t>No existe el proceso.</t>
+  </si>
+  <si>
+    <t>Solo existió una demanda insatisfecha de una institución, específicamente con Nueva EPS, debido a que el establecimiento dejó vencer la resolución de inscripción y el FRE no podía distribuirle MME.</t>
+  </si>
+  <si>
+    <t>Excepcionalmente se realiza esta venta directa a pacientes. En caso de que el servicio farmacéutico tenga los medicamentos congelados, atención a un extranjero o en el escenario de que no exista resolución actual por parte de la IPS. Este proceso de venta a pacientes se hace de manera presencial en las instalaciones del FRE. La encargada del FRE verifica la identificación del paciente y su historia clínica. Igualmente comprueban autenticidad del Recetario oficial y constatan la información del establecimiento que adquirió el recetario.</t>
+  </si>
+  <si>
+    <t>Solicitud de identificación, Revisión exhaustiva del recetario, Revisión de registro del prescriptor, Historia clínica</t>
+  </si>
+  <si>
+    <t>El personal del FRE se encarga de documentar el caso de irregularidad durante la venta y dispensación de MME, y se adelantan las respectivas investigaciones. FRE se comunica con la IPS que compró el Recetario oficial, identificado con el consecutivo. Finalmente, se toman los correspondientes correctivos.</t>
+  </si>
+  <si>
+    <t>Se validan igualmente las medidas de seguridad que tienen los recetarios oficiales. Los recetarios más frecuentes provenientes de otros FRE, corresponden a Barranquilla y Atlántico. Estos recetarios también tienen la medida de seguridad: Reactivo al metal. FRE Cesar se comunica con el otro FRE para confirmar información.</t>
+  </si>
+  <si>
+    <t>La Regente en farmacia extrae la información y los datos macro a partir del software FOREC Versión 1.0. y luego se consolida toda la información  para el diligenciamiento del Anexo 1.</t>
+  </si>
+  <si>
+    <t>De 2 a 4 horas</t>
+  </si>
+  <si>
+    <t>Una parte de estos informes están guardados en el área de almacenamiento de los MME. Los informes más antiguos pasan al Archivo central de la Gobernación del Cesar.</t>
+  </si>
+  <si>
+    <t>La Regente en farmacia extrae la información y los datos macro a partir del software FOREC Versión 1.0. y luego se consolida toda la información  para el diligenciamiento del Anexo 2.</t>
+  </si>
+  <si>
+    <t>1 persona, 1 día.</t>
+  </si>
+  <si>
+    <t>No hay bases de datos, no se lleva control.</t>
+  </si>
+  <si>
+    <t>Restricción de acceso, Otro</t>
+  </si>
+  <si>
+    <t>Clave del correo electrónico es personal.</t>
+  </si>
+  <si>
+    <t>Se logran obtener 9 procedimientos del área de Vigilancia y Control de Medicamentos, aprobados. A continuación se relaciona el nombre de estos Procedimiento de proceso y su código:
+•	GC-PPM-090 Proc. compra y venta de R.O
+•	GC-PPM-003 - Suministro de medicamentos del fondo rotatorio de estupefacientes
+•	GC-PPM-088 - Almacenamiento y conservación de medicamentos del fondo rotatorio de estupefacientes
+•	GC-PPM-089 - Dispensación de medicamentos del fondo rotatorio de estupefacientes
+•	GC-PPM-105 – Almacenamiento y destrucción de medicamentos con medida sanitaria de seguridad
+•	GC-PPM-106 - Visita de inspección, vigilancia y control de medicamentos.
+•	GC-PPM-107 - Inscrip. Manejo de medicamentos control especial
+•	GC-PPM-117 - Expedición credencial para expendedor de drogas
+•	GC-PPM-119 Inscripción establecimientos farmacéuticos.</t>
+  </si>
+  <si>
+    <t>FOREC Versión 1.0</t>
+  </si>
+  <si>
+    <t>Armando Pulido</t>
+  </si>
+  <si>
+    <t>Libardo Padilla Molina</t>
+  </si>
+  <si>
+    <t>Riohacha</t>
+  </si>
+  <si>
+    <t>Calle 12 # 8-19</t>
+  </si>
+  <si>
+    <t>medicamentos@frelaguajira.gov.co</t>
+  </si>
+  <si>
+    <t>Resolución 1430 del año 2010</t>
+  </si>
+  <si>
+    <t>Angela María Torres García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemecio Roys Garzón </t>
+  </si>
+  <si>
+    <t>Armando Pulido Fajardo</t>
+  </si>
+  <si>
+    <t>Odontólogo</t>
+  </si>
+  <si>
+    <t>Libardo Padilla</t>
+  </si>
+  <si>
+    <t>Nayibis Benjumea Argote</t>
+  </si>
+  <si>
+    <t>Auxiliar de Servicios Farmacéuticos</t>
+  </si>
+  <si>
+    <t>Registro manual de los movimientos de MME y RO, una vez se mira la cantidad con 2 o 3 meses antes se solicita la proyección y se hacen cotizaciones para los posibles valores de adquisición, luego, se solicita directamente a Secretaría de Hacienda el CDP, ya con el CDP mas los estudios previos se suben a SECOP se hace la publicación, se demora aproximadamente 5 días, se revisan las ofertas, se hacen ajustes y aclaraciones, se selecciona el oferente que ofrezca la seguridad del Recetario que garantice lo que está en la ficha técnica, después de seleccionado el oferente en 15 días muestran un prototipo del producto, luego en otros 15 días máximo deben entregar los recetarios.</t>
+  </si>
+  <si>
+    <t>Se toma el Consumo de promedio mensual y se hace una proyección pensando en el recurso, anualmente solo se cuenta con 5 millones de pesos para recetarios que suelen durar el año, el presupuesto es por decreto, En la actualidad subió a 15 millones de pesos el año 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP 1 mes
+Estudios previos:1 semana.
+Despacho 15 días
+</t>
+  </si>
+  <si>
+    <t>Resolución 331 del 2021</t>
+  </si>
+  <si>
+    <t>Presentan la necesidad las instituciones, en el FRE se  evalúan con referencia a los anexos 13 la cantidad que están necesitando, el FRE hace una contra oferta y se envía una cotización por correo, se acercan con formato diligenciado, emiten un recibo, se hace anotación de los consecutivos, el FRE considera que tiene un control muy rudimentario.</t>
+  </si>
+  <si>
+    <t>Número de documentos equivalentes</t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Nombre de persona, Documento de identificación, Dirección de domicilio, Teléfono, Unidades compradas, Venta total en moneda (COP), Códigos seriales de recetarios</t>
+  </si>
+  <si>
+    <t>Es un proceso verbal. Para quienes ya no tienen recetario oficial, se autoriza usar alguna fórmula institucional. Para las instituciones que aún tienen una cantidad mínima de recetarios, existe una estrategia de que se usen los recetarios por grupos farmacológicos y se haga la reseña en el libro de controlados  hay una idea tentativa de llevar el control por libros internos de las instituciones y que estas prescriban por grupos de medicamentos para control de consumo.</t>
+  </si>
+  <si>
+    <t>No hay ninguna opinión por desconocimiento del tema</t>
+  </si>
+  <si>
+    <t>No hay una tarea específica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay una tarea específica, Cuando ellos presentan los informes, las instituciones envían escaneados los recetarios, adjunto a ese informe debe venir a los recetarios escaneados, en IVC se toma un muestreo de que coincidan con registro de venta </t>
+  </si>
+  <si>
+    <t>Cada mes se hace inventario y se mira con la referencia del libro contable</t>
+  </si>
+  <si>
+    <t>No hay controles específicos (Si no muestra la trazabilidad de recetarios no se puede vender)</t>
+  </si>
+  <si>
+    <t>Fondos especiales (membretes), Tinta invisibles o fluorescentes, Sellos/Escudos, Codificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se van a archivo general </t>
+  </si>
+  <si>
+    <t>Se hace con bases de datos, con consumo mensual, cantidad mínima de existencia.</t>
+  </si>
+  <si>
+    <t>Los pasos referidos a secretaría y gobernación los ven cómo una barrera de acceso, el Usuario lo maneja dl Usuario anterior ya no sirve y ahora hace a través de la gobernación del departamento, antes era de Secretaría y era ,más rápido, el DR. Armando ha tratado de hacer el proceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1	Recibir medicamentos al operador logístico de transporte. 	Verificar en presencia del transportador que el número de cajas relacionadas en las guías de transportes correspondan a  las entregadas en físico, examinar el estado de los embalajes y firmar la guía. 	N/A	Referentes del área 	Guía de trasportadora 
+2	Realizar recepción administrativa  	Verificar la factura o remisión, revisando la razón social, el NIT, la fecha, el plazo de pago pactado (cuando aplique), número de la factura, verificar las cantidades recibidas, la descripción de los productos, el valor unitario, el valor total, el IVA y los descuentos (cuando aplique).	N/A	Referentes del área	N/A
+3	Realizar recepción Técnica	Consiste en verificar cada uno de los productos donde se tengan en cuenta las características técnicas de calidad del producto.	N/A	Referentes del área	N/A
+		Condiciones de transporte: verifique si el transporte de los medicamentos, dispositivos médicos y reactivos se realiza en condiciones adecuadas de embalaje. 			
+		Condiciones de Embalaje: verifique si los contenedores llegan sellados, en buen estado, secos y/o sin filtraciones. 			
+		Fecha de Vencimiento: observar la etiqueta, registrar y en caso de tener varios lotes, anotar todas las fechas de vencimiento y separar con un ash (/).			
+		Registro INVIMA: verificar que la etiqueta contenga el registro INVIMA, registrar en el formato , en caso de que no se encuentre en la etiqueta del producto, colocar NC (No cumple) y en observaciones colocar no posee registro INVIMA; almacenar en área de cuarentena, no almacenar en estantería, e informar al proveedor sobre la obligatoriedad de éste requerimiento.			
+		Lote: observe en la etiqueta el número de lote e ingréselo en el formato de recepción.			
+		La inspección se hará al 100% debido a que la cantidad adquirida no es muy grande			
+4	Diligenciar y firmar el acta de recepción	Se deberá registrar detalladamente en el formato ACTA DE RECEPCION TECNICA DE MEDICAMENTOS MONOPOLIO DEL ESTADO la información que arroja el procedimiento de recepción,  especialmente  la  fecha  y  hora  de entrega, cantidad  de  unidades,  número  de lote, registro  sanitario,  fechas  de vencimiento, condiciones de trasporte, manipulación, embalaje, material de empaque y envase,  condiciones administrativas y técnicas establecidas en la  negociación y  la  que  permita  identificar en todo  momento  la  muestra tomada. El acta será firmada por la persona que recibe y la que entrega y será archivada en el sitio previamente designado y en orden sucesivo.	N/A	Referentes del área	ACTA DE RECEPCION TECNICA DE MEDICAMENTOS MONOPOLIO DEL ESTADO
+</t>
+  </si>
+  <si>
+    <t>Área de producto no conformes, se anexan el acta de recepción y la averías</t>
+  </si>
+  <si>
+    <t>Gabinete con llave doble, Gabinete hecho en un material resistente</t>
+  </si>
+  <si>
+    <t>Muy buen servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la revisión mensual se hace el chequeo </t>
+  </si>
+  <si>
+    <t>Comparación con movimientos historicos, Desabastecimiento de ciertos medicamentos, Niveles de inventario mínimo</t>
+  </si>
+  <si>
+    <t>Es muy poca se ha visto desbordado, no se dejan cajas abiertas</t>
+  </si>
+  <si>
+    <t>Se trata de vender muy poco a pacientes, se enrutan al SGSSS, para productos de uso ambulatorio se exige el recetario oficial, no hay médicos inscritos independientes ni tampoco se ha vendido a médicos</t>
+  </si>
+  <si>
+    <t>Procesos directamente con el FNE No hay instituciones inscritas para destruir producto, se ponen en el punto azul, hay un litigio con punto azul, porque hay productos de control especial de acopio temporal, no hay manera de verificar la destrucción de medicamentos, contactaron con punto azul, desde el fondo dijeron que no se pueden acoger a punto azul. Deisy Cruz les dijo que contactar a los titulares. HUMAX no ha querido destruir su producto.</t>
+  </si>
+  <si>
+    <t>Se han presentado quejas de Desabastecimiento pero no de MME</t>
+  </si>
+  <si>
+    <t>Se hace, pero es muy esporádico, se les exige recetario e historia clínica, documentación, porque no se hace a través de aseguradora, a ese recetario se le hace trazabilidad exhaustiva. Proceso igual a Boyacá.</t>
+  </si>
+  <si>
+    <t>Solicitud de identificación, Revisión exhaustiva del recetario, Revisión de registro del prescriptor, Posposición de la entrega</t>
+  </si>
+  <si>
+    <t>Si se han detectado irregularidades en el FRE, un paciente reclamó en aseguradora y vino a comprarlo al FRE. Devolvieron el tratamiento por fallecimiento.</t>
+  </si>
+  <si>
+    <t>Ha pasado con las instituciones, validan con los FRE, solo por la foto.</t>
+  </si>
+  <si>
+    <t>No ha ocurrido</t>
+  </si>
+  <si>
+    <t>Se diligencia antes del día 10, se organizan por consecutivo y se alimenta el formato por medicamentos, con excepción de los  vendidos a pacientes</t>
+  </si>
+  <si>
+    <t>4 a 6 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hace comparativo entre saldos anteriores y saldos actuales, si hay una diferencia no se recibe el informe, se recibe por correo, </t>
+  </si>
+  <si>
+    <t>Se hacen la sumatoria automática de los Anexos 13, se demora aproximadamente 15 días la elaboración, solo con los productos autorizados</t>
+  </si>
+  <si>
+    <t>Recibo a satisfacción, recibo extemporáneo, no conformidad de informe requerido, si no lo hacen se les envía una notificación, se pide una justificación de la no elaboración del informe</t>
+  </si>
+  <si>
+    <t>Denuncia</t>
+  </si>
+  <si>
+    <t>Bases enviadas</t>
+  </si>
+  <si>
+    <t>Google Sites</t>
+  </si>
+  <si>
+    <t>Vichada</t>
+  </si>
+  <si>
+    <t>La Guajira</t>
+  </si>
+  <si>
+    <t>Puerto Carreño</t>
+  </si>
+  <si>
+    <t>Hidromorfona, Primidona Tableta x 250 mg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6349,12 +7717,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6364,7 +7731,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -6382,6 +7748,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6606,23 +7985,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FY17"/>
+  <dimension ref="A1:FY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="FP2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="FC2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FR2" sqref="FR2:FV17"/>
+      <selection pane="bottomRight" activeCell="FI1" sqref="FI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="9" max="54" width="21.5703125" customWidth="1"/>
@@ -6769,7 +8147,7 @@
       <c r="AT1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="9" t="s">
         <v>35</v>
       </c>
       <c r="AV1" s="2" t="s">
@@ -7087,7 +8465,7 @@
       <c r="EV1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EW1" s="18" t="s">
+      <c r="EW1" s="16" t="s">
         <v>129</v>
       </c>
       <c r="EX1" s="1" t="s">
@@ -7188,7 +8566,7 @@
       <c r="D2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>44321</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -7209,7 +8587,7 @@
       <c r="K2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>803</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -7248,7 +8626,7 @@
       <c r="AB2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AR2" s="7">
+      <c r="AR2" s="6">
         <v>0</v>
       </c>
       <c r="AS2" s="2">
@@ -7281,7 +8659,7 @@
       <c r="BB2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="10" t="s">
         <v>179</v>
       </c>
       <c r="BD2" s="2" t="s">
@@ -7417,13 +8795,13 @@
       <c r="CY2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CZ2" s="6">
+      <c r="CZ2" s="5">
         <v>7</v>
       </c>
-      <c r="DA2" s="6">
+      <c r="DA2" s="5">
         <v>12</v>
       </c>
-      <c r="DB2" s="6">
+      <c r="DB2" s="5">
         <v>12</v>
       </c>
       <c r="DC2" s="2">
@@ -7432,7 +8810,7 @@
       <c r="DD2" s="2">
         <v>5</v>
       </c>
-      <c r="DE2" s="6" t="s">
+      <c r="DE2" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF2" s="2" t="s">
@@ -7489,13 +8867,13 @@
       <c r="DX2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY2" s="10" t="s">
+      <c r="DY2" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="EA2" s="22" t="s">
+      <c r="EA2" s="20" t="s">
         <v>221</v>
       </c>
       <c r="EB2" s="2" t="s">
@@ -7516,13 +8894,13 @@
       <c r="EG2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="EH2" s="6" t="s">
+      <c r="EH2" s="5" t="s">
         <v>232</v>
       </c>
       <c r="EI2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="EJ2" s="10" t="s">
+      <c r="EJ2" s="9" t="s">
         <v>234</v>
       </c>
       <c r="EK2" s="2" t="s">
@@ -7591,22 +8969,22 @@
       <c r="FJ2" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="FQ2" s="28">
+      <c r="FQ2" s="26">
         <v>0.75</v>
       </c>
-      <c r="FR2" s="24">
+      <c r="FR2" s="22">
         <v>0.15</v>
       </c>
-      <c r="FS2" s="24">
+      <c r="FS2" s="22">
         <v>0.1</v>
       </c>
-      <c r="FT2" s="24">
+      <c r="FT2" s="22">
         <v>0</v>
       </c>
-      <c r="FU2" s="24">
+      <c r="FU2" s="22">
         <v>0</v>
       </c>
-      <c r="FV2" s="24">
+      <c r="FV2" s="22">
         <v>0</v>
       </c>
     </row>
@@ -7623,10 +9001,10 @@
       <c r="D3" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>44306</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>919</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -7644,7 +9022,7 @@
       <c r="K3" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>27411</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -7710,7 +9088,7 @@
       <c r="BB3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="BC3" s="12">
+      <c r="BC3" s="11">
         <v>0.8</v>
       </c>
       <c r="BD3" s="2" t="s">
@@ -7902,13 +9280,13 @@
       <c r="DX3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="DY3" s="10" t="s">
+      <c r="DY3" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="EA3" s="22" t="s">
+      <c r="EA3" s="20" t="s">
         <v>197</v>
       </c>
       <c r="EC3" s="2" t="s">
@@ -7932,7 +9310,7 @@
       <c r="EI3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="EJ3" s="10" t="s">
+      <c r="EJ3" s="9" t="s">
         <v>307</v>
       </c>
       <c r="EK3" s="2" t="s">
@@ -7989,13 +9367,13 @@
       <c r="FD3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="FE3" s="6" t="s">
+      <c r="FE3" s="5" t="s">
         <v>449</v>
       </c>
       <c r="FF3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="FH3" s="6" t="s">
+      <c r="FH3" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FI3" s="2" t="s">
@@ -8004,12 +9382,12 @@
       <c r="FJ3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="FQ3" s="28"/>
-      <c r="FR3" s="24"/>
-      <c r="FS3" s="24"/>
-      <c r="FT3" s="24"/>
-      <c r="FU3" s="24"/>
-      <c r="FV3" s="24"/>
+      <c r="FQ3" s="26"/>
+      <c r="FR3" s="22"/>
+      <c r="FS3" s="22"/>
+      <c r="FT3" s="22"/>
+      <c r="FU3" s="22"/>
+      <c r="FV3" s="22"/>
     </row>
     <row r="4" spans="1:181" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -8021,7 +9399,7 @@
       <c r="C4" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>44306</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -8039,10 +9417,10 @@
       <c r="J4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>11213</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>37972</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -8081,7 +9459,7 @@
       <c r="AR4" s="2">
         <v>9568</v>
       </c>
-      <c r="AS4" s="6" t="s">
+      <c r="AS4" s="5" t="s">
         <v>921</v>
       </c>
       <c r="AT4" s="2">
@@ -8099,13 +9477,13 @@
       <c r="AX4" s="2">
         <v>30284</v>
       </c>
-      <c r="AY4" s="9">
+      <c r="AY4" s="8">
         <v>605.67999999999995</v>
       </c>
       <c r="BA4" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="BC4" s="11" t="s">
+      <c r="BC4" s="10" t="s">
         <v>334</v>
       </c>
       <c r="BD4" s="2" t="s">
@@ -8117,7 +9495,7 @@
       <c r="BF4" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="BG4" s="6">
+      <c r="BG4" s="5">
         <f>3*30</f>
         <v>90</v>
       </c>
@@ -8235,22 +9613,22 @@
       <c r="CY4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CZ4" s="6">
+      <c r="CZ4" s="5">
         <v>7</v>
       </c>
-      <c r="DA4" s="6">
+      <c r="DA4" s="5">
         <v>2</v>
       </c>
-      <c r="DB4" s="6">
+      <c r="DB4" s="5">
         <v>2</v>
       </c>
-      <c r="DC4" s="6">
+      <c r="DC4" s="5">
         <v>7</v>
       </c>
-      <c r="DD4" s="6">
+      <c r="DD4" s="5">
         <v>7</v>
       </c>
-      <c r="DE4" s="6" t="s">
+      <c r="DE4" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF4" s="2" t="s">
@@ -8308,13 +9686,13 @@
       <c r="DX4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY4" s="10" t="s">
+      <c r="DY4" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="EA4" s="22" t="s">
+      <c r="EA4" s="20" t="s">
         <v>197</v>
       </c>
       <c r="EC4" s="2" t="s">
@@ -8329,13 +9707,13 @@
       <c r="EG4" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="EH4" s="6" t="s">
+      <c r="EH4" s="5" t="s">
         <v>370</v>
       </c>
       <c r="EI4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="EJ4" s="10" t="s">
+      <c r="EJ4" s="9" t="s">
         <v>372</v>
       </c>
       <c r="EK4" s="2" t="s">
@@ -8392,7 +9770,7 @@
       <c r="FD4" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="FE4" s="6" t="s">
+      <c r="FE4" s="5" t="s">
         <v>449</v>
       </c>
       <c r="FF4" s="2" t="s">
@@ -8407,14 +9785,14 @@
       <c r="FJ4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="FQ4" s="28"/>
-      <c r="FR4" s="24">
+      <c r="FQ4" s="26"/>
+      <c r="FR4" s="22">
         <v>0.03</v>
       </c>
-      <c r="FS4" s="24"/>
-      <c r="FT4" s="24"/>
-      <c r="FU4" s="24"/>
-      <c r="FV4" s="24"/>
+      <c r="FS4" s="22"/>
+      <c r="FT4" s="22"/>
+      <c r="FU4" s="22"/>
+      <c r="FV4" s="22"/>
     </row>
     <row r="5" spans="1:181" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -8426,7 +9804,7 @@
       <c r="C5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>44334</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -8447,7 +9825,7 @@
       <c r="K5" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>24688</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -8522,7 +9900,7 @@
       <c r="BB5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="BC5" s="13"/>
+      <c r="BC5" s="12"/>
       <c r="BD5" s="2" t="s">
         <v>263</v>
       </c>
@@ -8661,7 +10039,7 @@
       <c r="DD5" s="2">
         <v>9</v>
       </c>
-      <c r="DE5" s="6" t="s">
+      <c r="DE5" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF5" s="2" t="s">
@@ -8709,10 +10087,10 @@
       <c r="DW5" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="DX5" s="2" t="s">
+      <c r="DX5" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="DY5" s="10" t="s">
+      <c r="DY5" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ5" s="2" t="s">
@@ -8742,7 +10120,7 @@
       <c r="EI5" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="EJ5" s="10" t="s">
+      <c r="EJ5" s="9" t="s">
         <v>338</v>
       </c>
       <c r="EK5" s="2" t="s">
@@ -8808,10 +10186,10 @@
       <c r="FF5" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="FH5" s="6" t="s">
+      <c r="FH5" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="FI5" s="6" t="s">
+      <c r="FI5" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FJ5" s="2" t="s">
@@ -8835,22 +10213,22 @@
       <c r="FP5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="FQ5" s="29">
+      <c r="FQ5" s="27">
         <v>0.15</v>
       </c>
-      <c r="FR5" s="25">
+      <c r="FR5" s="23">
         <v>0.8</v>
       </c>
-      <c r="FS5" s="25">
+      <c r="FS5" s="23">
         <v>0.05</v>
       </c>
-      <c r="FT5" s="25">
+      <c r="FT5" s="23">
         <v>0</v>
       </c>
-      <c r="FU5" s="25">
+      <c r="FU5" s="23">
         <v>0</v>
       </c>
-      <c r="FV5" s="25">
+      <c r="FV5" s="23">
         <v>0</v>
       </c>
       <c r="FX5" s="2" t="s">
@@ -8870,7 +10248,7 @@
       <c r="C6" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>44337</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -8888,10 +10266,10 @@
       <c r="J6" s="2">
         <v>6605726</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>223</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>41429</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -8942,7 +10320,7 @@
       <c r="AG6" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AR6" s="7">
+      <c r="AR6" s="6">
         <v>0</v>
       </c>
       <c r="AS6" s="2">
@@ -8972,7 +10350,7 @@
       <c r="BA6" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="BC6" s="13"/>
+      <c r="BC6" s="12"/>
       <c r="BD6" s="2" t="s">
         <v>263</v>
       </c>
@@ -9120,7 +10498,7 @@
       <c r="DH6" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="DI6" s="21">
+      <c r="DI6" s="19">
         <f>(3+2)/2</f>
         <v>2.5</v>
       </c>
@@ -9160,7 +10538,7 @@
       <c r="DX6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY6" s="10" t="s">
+      <c r="DY6" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ6" s="2" t="s">
@@ -9190,7 +10568,7 @@
       <c r="EI6" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="EJ6" s="10" t="s">
+      <c r="EJ6" s="9" t="s">
         <v>498</v>
       </c>
       <c r="EK6" s="2" t="s">
@@ -9253,10 +10631,10 @@
       <c r="FF6" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="FH6" s="6" t="s">
+      <c r="FH6" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="FI6" s="6" t="s">
+      <c r="FI6" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FJ6" s="2" t="s">
@@ -9274,22 +10652,22 @@
       <c r="FP6" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ6" s="29">
+      <c r="FQ6" s="27">
         <v>0.8</v>
       </c>
-      <c r="FR6" s="25">
+      <c r="FR6" s="23">
         <v>0.15</v>
       </c>
-      <c r="FS6" s="25">
+      <c r="FS6" s="23">
         <v>0.05</v>
       </c>
-      <c r="FT6" s="25">
+      <c r="FT6" s="23">
         <v>0</v>
       </c>
-      <c r="FU6" s="25">
+      <c r="FU6" s="23">
         <v>0</v>
       </c>
-      <c r="FV6" s="25">
+      <c r="FV6" s="23">
         <v>0</v>
       </c>
       <c r="FX6" s="2" t="s">
@@ -9309,13 +10687,13 @@
       <c r="C7" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>44336</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>922</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -9330,7 +10708,7 @@
       <c r="K7" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>39699</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -9399,10 +10777,10 @@
       <c r="AS7" s="2">
         <v>308</v>
       </c>
-      <c r="AT7" s="6">
+      <c r="AT7" s="5">
         <v>52</v>
       </c>
-      <c r="AU7" s="8">
+      <c r="AU7" s="7">
         <v>3</v>
       </c>
       <c r="AV7" s="2">
@@ -9420,7 +10798,7 @@
       <c r="BA7" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BC7" s="13"/>
+      <c r="BC7" s="12"/>
       <c r="BD7" s="2" t="s">
         <v>526</v>
       </c>
@@ -9466,7 +10844,7 @@
       <c r="BU7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BV7" s="6" t="s">
+      <c r="BV7" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BW7" s="2" t="s">
@@ -9559,7 +10937,7 @@
       <c r="DD7" s="2">
         <v>8</v>
       </c>
-      <c r="DE7" s="6" t="s">
+      <c r="DE7" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF7" s="2" t="s">
@@ -9592,7 +10970,7 @@
       <c r="DQ7" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="DR7" s="10" t="s">
+      <c r="DR7" s="9" t="s">
         <v>552</v>
       </c>
       <c r="DT7" s="2" t="s">
@@ -9610,7 +10988,7 @@
       <c r="DX7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY7" s="10" t="s">
+      <c r="DY7" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ7" s="2" t="s">
@@ -9631,13 +11009,13 @@
       <c r="EG7" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="EH7" s="6" t="s">
+      <c r="EH7" s="5" t="s">
         <v>560</v>
       </c>
       <c r="EI7" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="EJ7" s="10" t="s">
+      <c r="EJ7" s="9" t="s">
         <v>561</v>
       </c>
       <c r="EK7" s="2" t="s">
@@ -9664,7 +11042,7 @@
       <c r="ES7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="ET7" s="23" t="s">
+      <c r="ET7" s="21" t="s">
         <v>1163</v>
       </c>
       <c r="EU7" s="2" t="s">
@@ -9700,10 +11078,10 @@
       <c r="FF7" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="FH7" s="6" t="s">
+      <c r="FH7" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="FI7" s="6" t="s">
+      <c r="FI7" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FJ7" s="2" t="s">
@@ -9724,22 +11102,22 @@
       <c r="FP7" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="FQ7" s="29">
+      <c r="FQ7" s="27">
         <v>0.7</v>
       </c>
-      <c r="FR7" s="25">
+      <c r="FR7" s="23">
         <v>0.2</v>
       </c>
-      <c r="FS7" s="25">
+      <c r="FS7" s="23">
         <v>0.02</v>
       </c>
-      <c r="FT7" s="25">
+      <c r="FT7" s="23">
         <v>0.08</v>
       </c>
-      <c r="FU7" s="25">
+      <c r="FU7" s="23">
         <v>0</v>
       </c>
-      <c r="FV7" s="25">
+      <c r="FV7" s="23">
         <v>0</v>
       </c>
       <c r="FX7" s="2" t="s">
@@ -9762,7 +11140,7 @@
       <c r="D8" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>44334</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -9783,7 +11161,7 @@
       <c r="K8" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>32843</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -9810,13 +11188,13 @@
       <c r="W8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AR8" s="7">
+      <c r="AR8" s="6">
         <v>0</v>
       </c>
       <c r="AS8" s="2">
         <v>292</v>
       </c>
-      <c r="AT8" s="6">
+      <c r="AT8" s="5">
         <v>0</v>
       </c>
       <c r="AU8" s="2">
@@ -9825,19 +11203,19 @@
       <c r="AV8" s="2">
         <v>50</v>
       </c>
-      <c r="AW8" s="6">
+      <c r="AW8" s="5">
         <v>6000</v>
       </c>
-      <c r="AX8" s="6">
+      <c r="AX8" s="5">
         <v>25000</v>
       </c>
-      <c r="AY8" s="6">
+      <c r="AY8" s="5">
         <v>500</v>
       </c>
       <c r="BA8" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="BC8" s="13"/>
+      <c r="BC8" s="12"/>
       <c r="BD8" s="2" t="s">
         <v>263</v>
       </c>
@@ -9847,7 +11225,7 @@
       <c r="BF8" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="BG8" s="6">
+      <c r="BG8" s="5">
         <v>90</v>
       </c>
       <c r="BH8" s="2" t="s">
@@ -9949,22 +11327,22 @@
       <c r="CY8" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="CZ8" s="6">
+      <c r="CZ8" s="5">
         <v>1</v>
       </c>
-      <c r="DA8" s="6">
+      <c r="DA8" s="5">
         <v>4</v>
       </c>
-      <c r="DB8" s="6">
+      <c r="DB8" s="5">
         <v>4</v>
       </c>
-      <c r="DC8" s="6">
+      <c r="DC8" s="5">
         <v>2</v>
       </c>
-      <c r="DD8" s="6">
+      <c r="DD8" s="5">
         <v>2</v>
       </c>
-      <c r="DE8" s="6">
+      <c r="DE8" s="5">
         <v>4</v>
       </c>
       <c r="DF8" s="2" t="s">
@@ -10012,10 +11390,10 @@
       <c r="DW8" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="DX8" s="2" t="s">
+      <c r="DX8" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="DY8" s="10" t="s">
+      <c r="DY8" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ8" s="2" t="s">
@@ -10033,19 +11411,19 @@
       <c r="EE8" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="EF8" s="2" t="s">
+      <c r="EF8" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="EG8" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="EH8" s="6" t="s">
+      <c r="EH8" s="5" t="s">
         <v>617</v>
       </c>
       <c r="EI8" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="EJ8" s="10" t="s">
+      <c r="EJ8" s="9" t="s">
         <v>584</v>
       </c>
       <c r="EK8" s="2" t="s">
@@ -10054,7 +11432,7 @@
       <c r="EL8" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="EM8" s="6" t="s">
+      <c r="EM8" s="5" t="s">
         <v>310</v>
       </c>
       <c r="EN8" s="2" t="s">
@@ -10132,22 +11510,22 @@
       <c r="FP8" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ8" s="29" t="s">
+      <c r="FQ8" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FR8" s="25" t="s">
+      <c r="FR8" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FS8" s="25" t="s">
+      <c r="FS8" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FT8" s="25" t="s">
+      <c r="FT8" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FU8" s="25" t="s">
+      <c r="FU8" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FV8" s="25" t="s">
+      <c r="FV8" s="23" t="s">
         <v>584</v>
       </c>
       <c r="FY8" s="2" t="s">
@@ -10167,7 +11545,7 @@
       <c r="D9" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>44320</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -10188,7 +11566,7 @@
       <c r="K9" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>32819</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -10257,13 +11635,13 @@
       <c r="AO9" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="AR9" s="7">
+      <c r="AR9" s="6">
         <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>67</v>
       </c>
-      <c r="AT9" s="6">
+      <c r="AT9" s="5">
         <v>0</v>
       </c>
       <c r="AU9" s="2">
@@ -10272,19 +11650,19 @@
       <c r="AV9" s="2">
         <v>50</v>
       </c>
-      <c r="AW9" s="6">
+      <c r="AW9" s="5">
         <v>23800</v>
       </c>
-      <c r="AX9" s="6">
+      <c r="AX9" s="5">
         <v>76500</v>
       </c>
-      <c r="AY9" s="6">
+      <c r="AY9" s="5">
         <v>1530</v>
       </c>
       <c r="BA9" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="BC9" s="13"/>
+      <c r="BC9" s="12"/>
       <c r="BD9" s="2" t="s">
         <v>263</v>
       </c>
@@ -10294,7 +11672,7 @@
       <c r="BF9" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="BG9" s="6">
+      <c r="BG9" s="5">
         <v>75</v>
       </c>
       <c r="BH9" s="2" t="s">
@@ -10405,22 +11783,22 @@
       <c r="CY9" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="CZ9" s="6">
+      <c r="CZ9" s="5">
         <v>4</v>
       </c>
-      <c r="DA9" s="6">
+      <c r="DA9" s="5">
         <v>3</v>
       </c>
       <c r="DB9" s="2">
         <v>1</v>
       </c>
-      <c r="DC9" s="6">
+      <c r="DC9" s="5">
         <v>7</v>
       </c>
-      <c r="DD9" s="6">
+      <c r="DD9" s="5">
         <v>10</v>
       </c>
-      <c r="DE9" s="6">
+      <c r="DE9" s="5">
         <v>2</v>
       </c>
       <c r="DF9" s="2" t="s">
@@ -10471,10 +11849,10 @@
       <c r="DW9" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="DX9" s="2" t="s">
+      <c r="DX9" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="DY9" s="10" t="s">
+      <c r="DY9" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ9" s="2" t="s">
@@ -10501,7 +11879,7 @@
       <c r="EI9" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="EJ9" s="10" t="s">
+      <c r="EJ9" s="9" t="s">
         <v>684</v>
       </c>
       <c r="EK9" s="2" t="s">
@@ -10588,22 +11966,22 @@
       <c r="FP9" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ9" s="29">
+      <c r="FQ9" s="27">
         <v>0.5</v>
       </c>
-      <c r="FR9" s="25">
+      <c r="FR9" s="23">
         <v>0.45</v>
       </c>
-      <c r="FS9" s="25">
+      <c r="FS9" s="23">
         <v>0.05</v>
       </c>
-      <c r="FT9" s="25">
+      <c r="FT9" s="23">
         <v>0</v>
       </c>
-      <c r="FU9" s="25">
+      <c r="FU9" s="23">
         <v>0</v>
       </c>
-      <c r="FV9" s="25">
+      <c r="FV9" s="23">
         <v>0</v>
       </c>
       <c r="FY9" s="2" t="s">
@@ -10620,7 +11998,7 @@
       <c r="C10" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>44306</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -10641,7 +12019,7 @@
       <c r="K10" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>40058</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -10686,7 +12064,7 @@
       <c r="AG10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AR10" s="6">
+      <c r="AR10" s="5">
         <v>1030</v>
       </c>
       <c r="AS10" s="2">
@@ -10701,20 +12079,20 @@
       <c r="AV10" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="5">
         <v>3265</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="5">
         <v>12000</v>
       </c>
-      <c r="AY10" s="11">
+      <c r="AY10" s="10">
         <f>AX10/50</f>
         <v>240</v>
       </c>
       <c r="BA10" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="BC10" s="13"/>
+      <c r="BC10" s="12"/>
       <c r="BD10" s="2" t="s">
         <v>263</v>
       </c>
@@ -10724,7 +12102,7 @@
       <c r="BF10" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="BG10" s="6">
+      <c r="BG10" s="5">
         <v>60</v>
       </c>
       <c r="BH10" s="2" t="s">
@@ -10829,22 +12207,22 @@
       <c r="CY10" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="CZ10" s="6">
+      <c r="CZ10" s="5">
         <v>5</v>
       </c>
-      <c r="DA10" s="6">
+      <c r="DA10" s="5">
         <v>4</v>
       </c>
-      <c r="DB10" s="6">
+      <c r="DB10" s="5">
         <v>4</v>
       </c>
-      <c r="DC10" s="6" t="s">
+      <c r="DC10" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="DD10" s="6">
+      <c r="DD10" s="5">
         <v>3.5</v>
       </c>
-      <c r="DE10" s="6">
+      <c r="DE10" s="5">
         <v>5</v>
       </c>
       <c r="DF10" s="2" t="s">
@@ -10895,7 +12273,7 @@
       <c r="DX10" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY10" s="10" t="s">
+      <c r="DY10" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ10" s="2" t="s">
@@ -10916,13 +12294,13 @@
       <c r="EG10" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="EH10" s="6" t="s">
+      <c r="EH10" s="5" t="s">
         <v>737</v>
       </c>
       <c r="EI10" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="EJ10" s="10" t="s">
+      <c r="EJ10" s="9" t="s">
         <v>739</v>
       </c>
       <c r="EK10" s="2" t="s">
@@ -10931,7 +12309,7 @@
       <c r="EL10" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="EM10" s="6" t="s">
+      <c r="EM10" s="5" t="s">
         <v>310</v>
       </c>
       <c r="EN10" s="2" t="s">
@@ -11009,22 +12387,22 @@
       <c r="FP10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ10" s="29">
+      <c r="FQ10" s="27">
         <v>0.15</v>
       </c>
-      <c r="FR10" s="25">
+      <c r="FR10" s="23">
         <v>0.7</v>
       </c>
-      <c r="FS10" s="25">
+      <c r="FS10" s="23">
         <v>0</v>
       </c>
-      <c r="FT10" s="25">
+      <c r="FT10" s="23">
         <v>0</v>
       </c>
-      <c r="FU10" s="25">
+      <c r="FU10" s="23">
         <v>0</v>
       </c>
-      <c r="FV10" s="25">
+      <c r="FV10" s="23">
         <v>0.15</v>
       </c>
       <c r="FY10" s="2" t="s">
@@ -11041,10 +12419,10 @@
       <c r="C11" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>44321</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>920</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -11062,7 +12440,7 @@
       <c r="K11" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>32434</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -11135,7 +12513,7 @@
       <c r="BA11" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="BC11" s="13"/>
+      <c r="BC11" s="12"/>
       <c r="BD11" s="2" t="s">
         <v>180</v>
       </c>
@@ -11232,7 +12610,7 @@
       <c r="CO11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CP11" s="6" t="s">
+      <c r="CP11" s="5" t="s">
         <v>205</v>
       </c>
       <c r="CQ11" s="2" t="s">
@@ -11268,13 +12646,13 @@
       <c r="DB11" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="DC11" s="6" t="s">
+      <c r="DC11" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DD11" s="2">
         <v>52</v>
       </c>
-      <c r="DE11" s="6" t="s">
+      <c r="DE11" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF11" s="2" t="s">
@@ -11322,10 +12700,10 @@
       <c r="DW11" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="DX11" s="2" t="s">
+      <c r="DX11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="DY11" s="10" t="s">
+      <c r="DY11" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ11" s="2" t="s">
@@ -11355,7 +12733,7 @@
       <c r="EI11" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="EJ11" s="10" t="s">
+      <c r="EJ11" s="9" t="s">
         <v>762</v>
       </c>
       <c r="EK11" s="2" t="s">
@@ -11418,10 +12796,10 @@
       <c r="FF11" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="FH11" s="6" t="s">
+      <c r="FH11" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="FI11" s="6" t="s">
+      <c r="FI11" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FJ11" s="2" t="s">
@@ -11445,22 +12823,22 @@
       <c r="FP11" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ11" s="30" t="s">
+      <c r="FQ11" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="FR11" s="26" t="s">
+      <c r="FR11" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FS11" s="26" t="s">
+      <c r="FS11" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FT11" s="26" t="s">
+      <c r="FT11" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FU11" s="26" t="s">
+      <c r="FU11" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FV11" s="26" t="s">
+      <c r="FV11" s="24" t="s">
         <v>584</v>
       </c>
       <c r="FY11" s="2" t="s">
@@ -11480,7 +12858,7 @@
       <c r="D12" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>44319</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -11501,7 +12879,7 @@
       <c r="K12" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>32331</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -11573,7 +12951,7 @@
       <c r="AT12" s="2">
         <v>106</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="7">
         <v>3</v>
       </c>
       <c r="AV12" s="2">
@@ -11591,7 +12969,7 @@
       <c r="BA12" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BC12" s="13"/>
+      <c r="BC12" s="12"/>
       <c r="BD12" s="2" t="s">
         <v>180</v>
       </c>
@@ -11637,7 +13015,7 @@
       <c r="BU12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BV12" s="6" t="s">
+      <c r="BV12" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BW12" s="2" t="s">
@@ -11712,7 +13090,7 @@
       <c r="CY12" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="CZ12" s="6">
+      <c r="CZ12" s="5">
         <v>1</v>
       </c>
       <c r="DA12" s="2">
@@ -11727,7 +13105,7 @@
       <c r="DD12" s="2">
         <v>4</v>
       </c>
-      <c r="DE12" s="6" t="s">
+      <c r="DE12" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF12" s="2" t="s">
@@ -11778,7 +13156,7 @@
       <c r="DX12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="DY12" s="10" t="s">
+      <c r="DY12" s="9" t="s">
         <v>197</v>
       </c>
       <c r="DZ12" s="2" t="s">
@@ -11805,7 +13183,7 @@
       <c r="EI12" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="EJ12" s="10" t="s">
+      <c r="EJ12" s="9" t="s">
         <v>848</v>
       </c>
       <c r="EK12" s="2" t="s">
@@ -11871,7 +13249,7 @@
       <c r="FG12" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="FH12" s="6" t="s">
+      <c r="FH12" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FI12" s="2" t="s">
@@ -11895,22 +13273,22 @@
       <c r="FP12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="FQ12" s="29">
+      <c r="FQ12" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="FR12" s="25">
+      <c r="FR12" s="23">
         <v>0.35</v>
       </c>
-      <c r="FS12" s="25">
+      <c r="FS12" s="23">
         <v>0.05</v>
       </c>
-      <c r="FT12" s="25">
+      <c r="FT12" s="23">
         <v>0.05</v>
       </c>
-      <c r="FU12" s="25">
+      <c r="FU12" s="23">
         <v>0</v>
       </c>
-      <c r="FV12" s="25">
+      <c r="FV12" s="23">
         <v>0</v>
       </c>
       <c r="FY12" s="2" t="s">
@@ -11927,7 +13305,7 @@
       <c r="C13" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>44306</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -11948,7 +13326,7 @@
       <c r="K13" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>24243</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -12023,7 +13401,7 @@
       <c r="AT13" s="2">
         <v>2</v>
       </c>
-      <c r="AU13" s="8">
+      <c r="AU13" s="7">
         <v>3</v>
       </c>
       <c r="AV13" s="2">
@@ -12041,7 +13419,7 @@
       <c r="BA13" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="BC13" s="13"/>
+      <c r="BC13" s="12"/>
       <c r="BD13" s="2" t="s">
         <v>879</v>
       </c>
@@ -12162,7 +13540,7 @@
       <c r="CY13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="CZ13" s="6">
+      <c r="CZ13" s="5">
         <v>1</v>
       </c>
       <c r="DA13" s="2">
@@ -12177,7 +13555,7 @@
       <c r="DD13" s="2">
         <v>60</v>
       </c>
-      <c r="DE13" s="6" t="s">
+      <c r="DE13" s="5" t="s">
         <v>803</v>
       </c>
       <c r="DF13" s="2" t="s">
@@ -12228,7 +13606,7 @@
       <c r="DX13" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="DY13" s="10" t="s">
+      <c r="DY13" s="9" t="s">
         <v>227</v>
       </c>
       <c r="DZ13" s="2" t="s">
@@ -12246,7 +13624,7 @@
       <c r="EE13" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="EF13" s="2" t="s">
+      <c r="EF13" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="EG13" s="2" t="s">
@@ -12258,7 +13636,7 @@
       <c r="EI13" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="EJ13" s="10" t="s">
+      <c r="EJ13" s="9" t="s">
         <v>198</v>
       </c>
       <c r="EK13" s="2" t="s">
@@ -12324,10 +13702,10 @@
       <c r="FF13" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="FH13" s="6" t="s">
+      <c r="FH13" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="FI13" s="6" t="s">
+      <c r="FI13" s="5" t="s">
         <v>227</v>
       </c>
       <c r="FJ13" s="2" t="s">
@@ -12351,22 +13729,22 @@
       <c r="FP13" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="FQ13" s="29">
+      <c r="FQ13" s="27">
         <v>0.3</v>
       </c>
-      <c r="FR13" s="25">
+      <c r="FR13" s="23">
         <v>0.3</v>
       </c>
-      <c r="FS13" s="25">
+      <c r="FS13" s="23">
         <v>0.08</v>
       </c>
-      <c r="FT13" s="25">
+      <c r="FT13" s="23">
         <v>0.01</v>
       </c>
-      <c r="FU13" s="25">
+      <c r="FU13" s="23">
         <v>0.01</v>
       </c>
-      <c r="FV13" s="25">
+      <c r="FV13" s="23">
         <v>0.3</v>
       </c>
       <c r="FX13" s="2" t="s">
@@ -12376,8 +13754,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:181" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+    <row r="14" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>44370.575993657403</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -12389,10 +13767,10 @@
       <c r="D14" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>44363</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>1147</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -12410,7 +13788,7 @@
       <c r="K14" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <v>41869</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -12638,7 +14016,7 @@
       <c r="DB14" s="1">
         <v>6</v>
       </c>
-      <c r="DC14" s="18" t="s">
+      <c r="DC14" s="16" t="s">
         <v>803</v>
       </c>
       <c r="DD14" s="1">
@@ -12692,10 +14070,10 @@
       <c r="DW14" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="DX14" s="1" t="s">
+      <c r="DX14" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="DY14" s="19" t="s">
+      <c r="DY14" s="17" t="s">
         <v>227</v>
       </c>
       <c r="DZ14" s="1" t="s">
@@ -12725,7 +14103,7 @@
       <c r="EI14" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="EJ14" s="19" t="s">
+      <c r="EJ14" s="17" t="s">
         <v>584</v>
       </c>
       <c r="EK14" s="1" t="s">
@@ -12788,7 +14166,7 @@
       <c r="FF14" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="FH14" s="18" t="s">
+      <c r="FH14" s="16" t="s">
         <v>227</v>
       </c>
       <c r="FI14" s="1" t="s">
@@ -12815,30 +14193,30 @@
       <c r="FP14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="FQ14" s="31" t="s">
+      <c r="FQ14" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="FR14" s="27" t="s">
+      <c r="FR14" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="FS14" s="27" t="s">
+      <c r="FS14" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="FT14" s="27" t="s">
+      <c r="FT14" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="FU14" s="27" t="s">
+      <c r="FU14" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="FV14" s="27" t="s">
+      <c r="FV14" s="25" t="s">
         <v>584</v>
       </c>
       <c r="FY14" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="15" spans="1:181" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+    <row r="15" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>44384.71444163195</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -12847,10 +14225,10 @@
       <c r="C15" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>44363</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>1148</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -12868,7 +14246,7 @@
       <c r="K15" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <v>40816</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -13066,7 +14444,7 @@
       <c r="DD15" s="1">
         <v>7</v>
       </c>
-      <c r="DE15" s="18">
+      <c r="DE15" s="16">
         <v>7</v>
       </c>
       <c r="DF15" s="1" t="s">
@@ -13078,7 +14456,7 @@
       <c r="DH15" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="DI15" s="17">
+      <c r="DI15" s="15">
         <v>1.5</v>
       </c>
       <c r="DJ15" s="1" t="s">
@@ -13117,7 +14495,7 @@
       <c r="DX15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DY15" s="19" t="s">
+      <c r="DY15" s="17" t="s">
         <v>227</v>
       </c>
       <c r="DZ15" s="1" t="s">
@@ -13147,7 +14525,7 @@
       <c r="EI15" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="EJ15" s="19">
+      <c r="EJ15" s="17">
         <v>0</v>
       </c>
       <c r="EK15" s="1" t="s">
@@ -13174,7 +14552,7 @@
       <c r="ES15" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="ET15" s="17" t="s">
+      <c r="ET15" s="15" t="s">
         <v>1163</v>
       </c>
       <c r="EU15" s="1" t="s">
@@ -13219,7 +14597,7 @@
       <c r="FJ15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="FL15" s="17">
+      <c r="FL15" s="15">
         <v>1.5</v>
       </c>
       <c r="FM15" s="1" t="s">
@@ -13228,28 +14606,28 @@
       <c r="FN15" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="FO15" s="17">
+      <c r="FO15" s="15">
         <v>3</v>
       </c>
       <c r="FP15" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="FQ15" s="31">
+      <c r="FQ15" s="29">
         <v>0.8</v>
       </c>
-      <c r="FR15" s="27">
+      <c r="FR15" s="25">
         <v>0.15</v>
       </c>
-      <c r="FS15" s="27">
+      <c r="FS15" s="25">
         <v>0.05</v>
       </c>
-      <c r="FT15" s="27" t="s">
+      <c r="FT15" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="FU15" s="27" t="s">
+      <c r="FU15" s="25" t="s">
         <v>803</v>
       </c>
-      <c r="FV15" s="27" t="s">
+      <c r="FV15" s="25" t="s">
         <v>803</v>
       </c>
       <c r="FX15" s="1" t="s">
@@ -13259,8 +14637,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:181" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+    <row r="16" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>44385.476659016203</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -13269,7 +14647,7 @@
       <c r="C16" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>44363</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -13290,7 +14668,7 @@
       <c r="K16" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <v>40602</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -13449,7 +14827,7 @@
       <c r="CO16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CP16" s="18" t="s">
+      <c r="CP16" s="16" t="s">
         <v>205</v>
       </c>
       <c r="CQ16" s="1" t="s">
@@ -13539,7 +14917,7 @@
       <c r="DX16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DY16" s="19" t="s">
+      <c r="DY16" s="17" t="s">
         <v>227</v>
       </c>
       <c r="DZ16" s="1" t="s">
@@ -13566,7 +14944,7 @@
       <c r="EI16" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="EJ16" s="19" t="s">
+      <c r="EJ16" s="17" t="s">
         <v>1075</v>
       </c>
       <c r="EK16" s="1" t="s">
@@ -13629,10 +15007,10 @@
       <c r="FF16" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="FH16" s="18" t="s">
+      <c r="FH16" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="FI16" s="18" t="s">
+      <c r="FI16" s="16" t="s">
         <v>227</v>
       </c>
       <c r="FJ16" s="1" t="s">
@@ -13654,30 +15032,30 @@
       <c r="FP16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="FQ16" s="31" t="s">
+      <c r="FQ16" s="29" t="s">
         <v>1087</v>
       </c>
-      <c r="FR16" s="27" t="s">
+      <c r="FR16" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="FS16" s="27" t="s">
+      <c r="FS16" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="FT16" s="27" t="s">
+      <c r="FT16" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="FU16" s="27" t="s">
+      <c r="FU16" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="FV16" s="27" t="s">
+      <c r="FV16" s="25" t="s">
         <v>1087</v>
       </c>
       <c r="FY16" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="17" spans="1:181" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+    <row r="17" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>44385.485729236112</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -13689,7 +15067,7 @@
       <c r="D17" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>44363</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -13710,7 +15088,7 @@
       <c r="K17" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <v>39783</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -13917,7 +15295,7 @@
       <c r="DA17" s="1">
         <v>12</v>
       </c>
-      <c r="DB17" s="18">
+      <c r="DB17" s="16">
         <f>19/2</f>
         <v>9.5</v>
       </c>
@@ -13927,7 +15305,7 @@
       <c r="DD17" s="1">
         <v>13</v>
       </c>
-      <c r="DE17" s="20">
+      <c r="DE17" s="18">
         <v>2.5</v>
       </c>
       <c r="DF17" s="1" t="s">
@@ -13939,7 +15317,7 @@
       <c r="DH17" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="DI17" s="17">
+      <c r="DI17" s="15">
         <v>1.5</v>
       </c>
       <c r="DJ17" s="1" t="s">
@@ -13978,7 +15356,7 @@
       <c r="DX17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DY17" s="19" t="s">
+      <c r="DY17" s="17" t="s">
         <v>227</v>
       </c>
       <c r="DZ17" s="1" t="s">
@@ -14008,7 +15386,7 @@
       <c r="EI17" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="EJ17" s="19">
+      <c r="EJ17" s="17">
         <v>1</v>
       </c>
       <c r="EK17" s="1" t="s">
@@ -14095,30 +15473,2136 @@
       <c r="FP17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="FQ17" s="31">
+      <c r="FQ17" s="29">
         <v>0.4</v>
       </c>
-      <c r="FR17" s="27">
+      <c r="FR17" s="25">
         <v>0.1</v>
       </c>
-      <c r="FS17" s="27">
+      <c r="FS17" s="25">
         <v>0.5</v>
       </c>
-      <c r="FT17" s="25">
+      <c r="FT17" s="23">
         <v>0</v>
       </c>
-      <c r="FU17" s="25">
+      <c r="FU17" s="23">
         <v>0</v>
       </c>
-      <c r="FV17" s="25">
+      <c r="FV17" s="23">
         <v>0</v>
       </c>
       <c r="FY17" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
+    <row r="18" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30">
+        <v>44447.520694444444</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E18" s="30">
+        <v>44410</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J18">
+        <v>3125216160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L18" s="30">
+        <v>39277</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P18" t="s">
+        <v>172</v>
+      </c>
+      <c r="R18" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18" t="s">
+        <v>394</v>
+      </c>
+      <c r="W18" t="s">
+        <v>394</v>
+      </c>
+      <c r="AR18">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="37">
+        <v>4</v>
+      </c>
+      <c r="AT18" s="37">
+        <v>20</v>
+      </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>50</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>803</v>
+      </c>
+      <c r="AX18">
+        <v>20000</v>
+      </c>
+      <c r="AY18">
+        <v>400</v>
+      </c>
+      <c r="AZ18" s="31" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>879</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BG18">
+        <v>30</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BJ18" t="e" cm="1">
+        <f t="array" ref="BJ18">- La entidad hace La solicitud de cotización
+- Se envía desde el FRE La cotización
+- La institución inscrita hace La consignación a La cuenta bancaria del FRE
+- Expedición de factura
+- Despacho de recetarios oficiales</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>394</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>1183</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>394</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE18" s="31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>1188</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>956</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>1189</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>227</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>1190</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>394</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>289</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>420</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CU18">
+        <v>1</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW18" s="31" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CX18" s="31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>1194</v>
+      </c>
+      <c r="CZ18">
+        <v>5</v>
+      </c>
+      <c r="DA18">
+        <v>5</v>
+      </c>
+      <c r="DB18">
+        <v>5</v>
+      </c>
+      <c r="DC18">
+        <v>3</v>
+      </c>
+      <c r="DD18">
+        <v>7</v>
+      </c>
+      <c r="DE18" s="32">
+        <v>44474</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>294</v>
+      </c>
+      <c r="DG18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="DH18" t="e" cm="1">
+        <f t="array" ref="DH18">- Se hace La comparación de los productos allegados contra La orden de compra
+- Se realiza inspección física y técnica del material
+- Se disponen los productos para su correspondiente almacenamiento</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="DI18">
+        <v>1</v>
+      </c>
+      <c r="DJ18" t="s">
+        <v>1196</v>
+      </c>
+      <c r="DK18" t="s">
+        <v>1197</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>490</v>
+      </c>
+      <c r="DN18" t="s">
+        <v>218</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>299</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>294</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>394</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="DX18" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>785</v>
+      </c>
+      <c r="EC18" t="s">
+        <v>1202</v>
+      </c>
+      <c r="ED18" t="s">
+        <v>1203</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>1204</v>
+      </c>
+      <c r="EH18">
+        <v>2</v>
+      </c>
+      <c r="EI18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>1206</v>
+      </c>
+      <c r="EL18" t="e" cm="1">
+        <f t="array" ref="EL18">- el paciente llega con La prescripción en el recetario oficial
+- Se hace revisión de La formula y epicrisis o historia clínica
+- Se comprueba documento de identidad
+- realiza La consignación a La cuenta bancaria del FRE
+- Se realiza el Despacho del medicamento que requiere el paciente</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="EM18" t="s">
+        <v>310</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="EP18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="EQ18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="ER18" s="31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="ES18" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET18" t="s">
+        <v>1211</v>
+      </c>
+      <c r="EU18" t="s">
+        <v>746</v>
+      </c>
+      <c r="EW18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="EX18" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY18" t="s">
+        <v>242</v>
+      </c>
+      <c r="EZ18" s="31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="FA18" t="s">
+        <v>1213</v>
+      </c>
+      <c r="FB18" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="FD18" t="s">
+        <v>1214</v>
+      </c>
+      <c r="FE18" t="s">
+        <v>449</v>
+      </c>
+      <c r="FF18" t="s">
+        <v>249</v>
+      </c>
+      <c r="FH18" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="FI18" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="FJ18" t="s">
+        <v>250</v>
+      </c>
+      <c r="FL18">
+        <v>1</v>
+      </c>
+      <c r="FM18" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN18" t="s">
+        <v>1215</v>
+      </c>
+      <c r="FO18">
+        <v>1</v>
+      </c>
+      <c r="FP18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="FQ18" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="FR18" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="FS18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="FT18" s="22">
+        <v>0</v>
+      </c>
+      <c r="FU18" s="22">
+        <v>0</v>
+      </c>
+      <c r="FV18" s="22">
+        <v>0</v>
+      </c>
+      <c r="FW18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="FY18" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30">
+        <v>44508.834780092591</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E19" s="30">
+        <v>44398</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="L19" s="30">
+        <v>40255</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="P19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="R19" t="s">
+        <v>170</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="U19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V19" s="31" t="s">
+        <v>1228</v>
+      </c>
+      <c r="W19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR19">
+        <v>1892</v>
+      </c>
+      <c r="AS19">
+        <v>150</v>
+      </c>
+      <c r="AT19">
+        <v>81</v>
+      </c>
+      <c r="AU19">
+        <v>50</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>12190</v>
+      </c>
+      <c r="AX19">
+        <v>22000</v>
+      </c>
+      <c r="AY19">
+        <v>440</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BG19">
+        <v>120</v>
+      </c>
+      <c r="BH19" s="31" t="s">
+        <v>1232</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>591</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>406</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>394</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>394</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>276</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>219</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>381</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>201</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>227</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>418</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>289</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>959</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CU19">
+        <v>1</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>292</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>289</v>
+      </c>
+      <c r="CZ19">
+        <v>1</v>
+      </c>
+      <c r="DA19">
+        <v>1</v>
+      </c>
+      <c r="DB19">
+        <v>4</v>
+      </c>
+      <c r="DC19">
+        <v>4</v>
+      </c>
+      <c r="DD19">
+        <v>4</v>
+      </c>
+      <c r="DE19" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>212</v>
+      </c>
+      <c r="DG19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="DH19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="DI19">
+        <v>2</v>
+      </c>
+      <c r="DJ19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>729</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>490</v>
+      </c>
+      <c r="DN19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="DP19" t="s">
+        <v>219</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>675</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>553</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>555</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="DX19" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>221</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>431</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE19" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="EH19">
+        <v>78</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>561</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>198</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="EL19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="EM19" t="s">
+        <v>310</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="EP19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>197</v>
+      </c>
+      <c r="ER19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="ES19" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="EU19" t="s">
+        <v>746</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="EX19" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="EZ19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="FA19" t="s">
+        <v>570</v>
+      </c>
+      <c r="FB19" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="FD19" t="s">
+        <v>591</v>
+      </c>
+      <c r="FE19" t="s">
+        <v>572</v>
+      </c>
+      <c r="FF19" t="s">
+        <v>450</v>
+      </c>
+      <c r="FH19" t="s">
+        <v>221</v>
+      </c>
+      <c r="FI19" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="FJ19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="FL19">
+        <v>3</v>
+      </c>
+      <c r="FM19" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN19" t="s">
+        <v>198</v>
+      </c>
+      <c r="FO19">
+        <v>1</v>
+      </c>
+      <c r="FP19" t="s">
+        <v>555</v>
+      </c>
+      <c r="FQ19">
+        <v>0.42</v>
+      </c>
+      <c r="FR19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="FS19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="FT19">
+        <v>0</v>
+      </c>
+      <c r="FU19">
+        <v>0</v>
+      </c>
+      <c r="FV19">
+        <v>0</v>
+      </c>
+      <c r="FX19" t="s">
+        <v>453</v>
+      </c>
+      <c r="FY19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30">
+        <v>44538.361712962964</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E20" s="30">
+        <v>44411</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J20" t="s">
+        <v>803</v>
+      </c>
+      <c r="K20">
+        <v>38</v>
+      </c>
+      <c r="L20" s="30">
+        <v>44224</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P20" t="s">
+        <v>261</v>
+      </c>
+      <c r="R20" t="s">
+        <v>170</v>
+      </c>
+      <c r="U20" t="s">
+        <v>394</v>
+      </c>
+      <c r="W20" t="s">
+        <v>394</v>
+      </c>
+      <c r="AR20">
+        <v>35</v>
+      </c>
+      <c r="AS20">
+        <v>10</v>
+      </c>
+      <c r="AT20">
+        <v>8</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>50</v>
+      </c>
+      <c r="AW20">
+        <v>27000</v>
+      </c>
+      <c r="AX20">
+        <v>30000</v>
+      </c>
+      <c r="AY20">
+        <v>600</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE20" s="31" t="s">
+        <v>1272</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="BG20">
+        <v>30</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>1223</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>1275</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>1278</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>718</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>1280</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>1281</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>718</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>281</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>1283</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>956</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>394</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR20" t="s">
+        <v>453</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>290</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="CU20">
+        <v>1</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>292</v>
+      </c>
+      <c r="CX20" s="31" t="s">
+        <v>1286</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CZ20">
+        <v>1</v>
+      </c>
+      <c r="DA20">
+        <v>1</v>
+      </c>
+      <c r="DB20">
+        <v>1</v>
+      </c>
+      <c r="DC20">
+        <v>1</v>
+      </c>
+      <c r="DD20">
+        <v>7</v>
+      </c>
+      <c r="DE20">
+        <v>4</v>
+      </c>
+      <c r="DF20" t="s">
+        <v>212</v>
+      </c>
+      <c r="DG20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="DH20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="DI20">
+        <v>1</v>
+      </c>
+      <c r="DJ20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="DK20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>490</v>
+      </c>
+      <c r="DN20" t="s">
+        <v>1291</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>219</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>1292</v>
+      </c>
+      <c r="DR20" t="s">
+        <v>552</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>302</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>1294</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>197</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>221</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>1295</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="EE20" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>1297</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>1298</v>
+      </c>
+      <c r="EH20">
+        <v>11</v>
+      </c>
+      <c r="EI20" s="31" t="s">
+        <v>1299</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>1301</v>
+      </c>
+      <c r="EL20" t="s">
+        <v>1302</v>
+      </c>
+      <c r="EM20" t="s">
+        <v>310</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="EP20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="ES20" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET20" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="EU20" t="s">
+        <v>315</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>1307</v>
+      </c>
+      <c r="EX20" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY20" t="s">
+        <v>242</v>
+      </c>
+      <c r="EZ20" t="s">
+        <v>1308</v>
+      </c>
+      <c r="FA20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="FB20" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC20" t="s">
+        <v>629</v>
+      </c>
+      <c r="FD20" t="s">
+        <v>1310</v>
+      </c>
+      <c r="FE20" t="s">
+        <v>449</v>
+      </c>
+      <c r="FF20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="FH20" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="FI20" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="FJ20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="FL20">
+        <v>1</v>
+      </c>
+      <c r="FM20" t="s">
+        <v>197</v>
+      </c>
+      <c r="FO20">
+        <v>1</v>
+      </c>
+      <c r="FP20" t="s">
+        <v>225</v>
+      </c>
+      <c r="FQ20">
+        <v>0.3</v>
+      </c>
+      <c r="FR20">
+        <v>0.05</v>
+      </c>
+      <c r="FS20">
+        <v>0.15</v>
+      </c>
+      <c r="FT20">
+        <v>0</v>
+      </c>
+      <c r="FU20">
+        <v>0</v>
+      </c>
+      <c r="FV20">
+        <v>0.5</v>
+      </c>
+      <c r="FY20" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30">
+        <v>44538.366678240738</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E21" s="30">
+        <v>44411</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J21">
+        <v>5600911</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L21" s="30">
+        <v>32658</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1322</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P21" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R21" t="s">
+        <v>170</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1315</v>
+      </c>
+      <c r="U21" t="s">
+        <v>172</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1324</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>938</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>292</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>3</v>
+      </c>
+      <c r="AV21">
+        <v>50</v>
+      </c>
+      <c r="AW21">
+        <v>8619</v>
+      </c>
+      <c r="AX21">
+        <v>30000</v>
+      </c>
+      <c r="AY21">
+        <v>600</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BG21">
+        <v>90</v>
+      </c>
+      <c r="BH21" s="31" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>403</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>595</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>718</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>1338</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>276</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>281</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>1339</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>1340</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>602</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>1341</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>1342</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>394</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>484</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>291</v>
+      </c>
+      <c r="CU21">
+        <v>2</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>723</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>774</v>
+      </c>
+      <c r="CZ21">
+        <v>2</v>
+      </c>
+      <c r="DA21">
+        <v>1</v>
+      </c>
+      <c r="DB21">
+        <v>3</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="DD21">
+        <v>13</v>
+      </c>
+      <c r="DE21">
+        <v>5</v>
+      </c>
+      <c r="DF21" t="s">
+        <v>294</v>
+      </c>
+      <c r="DG21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="DH21" t="s">
+        <v>1348</v>
+      </c>
+      <c r="DI21">
+        <v>1</v>
+      </c>
+      <c r="DJ21" t="s">
+        <v>1349</v>
+      </c>
+      <c r="DK21" t="s">
+        <v>1350</v>
+      </c>
+      <c r="DM21" t="s">
+        <v>225</v>
+      </c>
+      <c r="DN21" t="s">
+        <v>609</v>
+      </c>
+      <c r="DP21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="DQ21" t="s">
+        <v>1352</v>
+      </c>
+      <c r="DR21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>1355</v>
+      </c>
+      <c r="DX21" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>221</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="EC21" t="s">
+        <v>1357</v>
+      </c>
+      <c r="ED21" t="s">
+        <v>1358</v>
+      </c>
+      <c r="EE21" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="EH21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="EI21" t="s">
+        <v>1361</v>
+      </c>
+      <c r="EJ21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="EK21" t="s">
+        <v>1363</v>
+      </c>
+      <c r="EL21" t="s">
+        <v>1364</v>
+      </c>
+      <c r="EM21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="EN21" t="s">
+        <v>439</v>
+      </c>
+      <c r="EO21" t="s">
+        <v>1366</v>
+      </c>
+      <c r="EP21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="EQ21" t="s">
+        <v>976</v>
+      </c>
+      <c r="ER21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="ES21" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET21" t="s">
+        <v>1369</v>
+      </c>
+      <c r="EU21" t="s">
+        <v>746</v>
+      </c>
+      <c r="EW21" t="s">
+        <v>1370</v>
+      </c>
+      <c r="EX21" t="s">
+        <v>381</v>
+      </c>
+      <c r="EY21" t="s">
+        <v>242</v>
+      </c>
+      <c r="EZ21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="FA21" t="s">
+        <v>1372</v>
+      </c>
+      <c r="FB21" t="s">
+        <v>381</v>
+      </c>
+      <c r="FC21" t="s">
+        <v>319</v>
+      </c>
+      <c r="FD21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="FE21" t="s">
+        <v>449</v>
+      </c>
+      <c r="FF21" t="s">
+        <v>1374</v>
+      </c>
+      <c r="FG21" t="s">
+        <v>1375</v>
+      </c>
+      <c r="FH21" t="s">
+        <v>197</v>
+      </c>
+      <c r="FI21" t="s">
+        <v>197</v>
+      </c>
+      <c r="FJ21" s="31" t="s">
+        <v>1376</v>
+      </c>
+      <c r="FL21">
+        <v>2</v>
+      </c>
+      <c r="FM21" t="s">
+        <v>197</v>
+      </c>
+      <c r="FO21">
+        <v>1</v>
+      </c>
+      <c r="FP21" t="s">
+        <v>302</v>
+      </c>
+      <c r="FQ21" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="FR21" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="FS21" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="FT21" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="FU21" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="FV21" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="FX21" t="s">
+        <v>1377</v>
+      </c>
+      <c r="FY21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
+        <v>44538.47859953704</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E22" s="30">
+        <v>44410</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J22" t="s">
+        <v>530</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L22" s="30">
+        <v>40449</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1385</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R22" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1388</v>
+      </c>
+      <c r="U22" t="s">
+        <v>172</v>
+      </c>
+      <c r="W22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>34</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>2</v>
+      </c>
+      <c r="AV22">
+        <v>50</v>
+      </c>
+      <c r="AW22">
+        <v>4750</v>
+      </c>
+      <c r="AX22">
+        <v>45400</v>
+      </c>
+      <c r="AY22">
+        <v>908</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>396</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1391</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BG22">
+        <v>60</v>
+      </c>
+      <c r="BH22" s="31" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>1395</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>764</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>272</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>1403</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>1404</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>394</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>413</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>1248</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>381</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>956</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>1405</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>394</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CQ22" t="s">
+        <v>1285</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CU22">
+        <v>1</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>543</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>1406</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>803</v>
+      </c>
+      <c r="DA22">
+        <v>1</v>
+      </c>
+      <c r="DB22" t="s">
+        <v>1346</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>1346</v>
+      </c>
+      <c r="DD22">
+        <v>8</v>
+      </c>
+      <c r="DE22" s="37">
+        <v>1</v>
+      </c>
+      <c r="DF22" t="s">
+        <v>300</v>
+      </c>
+      <c r="DG22" t="s">
+        <v>1407</v>
+      </c>
+      <c r="DH22" s="31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="DI22">
+        <v>1</v>
+      </c>
+      <c r="DJ22" t="s">
+        <v>1409</v>
+      </c>
+      <c r="DK22" t="s">
+        <v>1410</v>
+      </c>
+      <c r="DM22" t="s">
+        <v>426</v>
+      </c>
+      <c r="DN22" t="s">
+        <v>1126</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>299</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>557</v>
+      </c>
+      <c r="DR22" t="s">
+        <v>782</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU22" t="s">
+        <v>1411</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>302</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>1412</v>
+      </c>
+      <c r="DX22" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>197</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>1413</v>
+      </c>
+      <c r="EC22" t="s">
+        <v>1414</v>
+      </c>
+      <c r="ED22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EE22" t="s">
+        <v>197</v>
+      </c>
+      <c r="EF22" s="37" t="s">
+        <v>1434</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>1415</v>
+      </c>
+      <c r="EH22" s="37">
+        <f>ROUND(107*0.4,0)</f>
+        <v>43</v>
+      </c>
+      <c r="EI22" t="s">
+        <v>1416</v>
+      </c>
+      <c r="EJ22" t="s">
+        <v>198</v>
+      </c>
+      <c r="EK22" t="s">
+        <v>1417</v>
+      </c>
+      <c r="EL22" t="s">
+        <v>1418</v>
+      </c>
+      <c r="EM22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="EO22" t="s">
+        <v>1420</v>
+      </c>
+      <c r="EP22" t="s">
+        <v>1421</v>
+      </c>
+      <c r="EQ22" t="s">
+        <v>1422</v>
+      </c>
+      <c r="ER22" t="s">
+        <v>1423</v>
+      </c>
+      <c r="ES22" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="EU22" t="s">
+        <v>315</v>
+      </c>
+      <c r="EW22" t="s">
+        <v>1425</v>
+      </c>
+      <c r="EX22" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY22" t="s">
+        <v>242</v>
+      </c>
+      <c r="EZ22" t="s">
+        <v>1426</v>
+      </c>
+      <c r="FA22" t="s">
+        <v>570</v>
+      </c>
+      <c r="FB22" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC22" t="s">
+        <v>629</v>
+      </c>
+      <c r="FD22" t="s">
+        <v>1427</v>
+      </c>
+      <c r="FE22" t="s">
+        <v>1428</v>
+      </c>
+      <c r="FF22" t="s">
+        <v>203</v>
+      </c>
+      <c r="FH22" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="FI22" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="FJ22" t="s">
+        <v>1429</v>
+      </c>
+      <c r="FL22" s="37">
+        <v>2</v>
+      </c>
+      <c r="FM22" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN22" t="s">
+        <v>198</v>
+      </c>
+      <c r="FO22">
+        <v>1</v>
+      </c>
+      <c r="FP22" t="s">
+        <v>843</v>
+      </c>
+      <c r="FQ22" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="FR22" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="FS22">
+        <v>0.25</v>
+      </c>
+      <c r="FT22">
+        <v>0</v>
+      </c>
+      <c r="FU22">
+        <v>0</v>
+      </c>
+      <c r="FV22">
+        <v>0</v>
+      </c>
+      <c r="FX22" t="s">
+        <v>1430</v>
+      </c>
+      <c r="FY22" t="s">
+        <v>697</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FY17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:FY22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AD875-0EB7-43D3-B75E-170DF2149756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E36EA6-609D-45C3-BC66-A3BA1ECE17A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$FY$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$FY$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2087,6 +2087,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="V14" authorId="0" shapeId="0" xr:uid="{199C056F-6319-43F0-BE69-9AB56C5EAAF1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Auxiliar en salud
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="DC14" authorId="0" shapeId="0" xr:uid="{CDDB8ABE-5930-458C-8D4B-DA64A6AF90F8}">
       <text>
         <r>
@@ -2738,6 +2763,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q19" authorId="0" shapeId="0" xr:uid="{733F21D0-96DA-4BDC-8D71-106E55E0B0AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contadora Pública especializada en gerencia en Salud</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU19" authorId="0" shapeId="0" xr:uid="{1DDECF27-E20F-4555-93F1-362BFBE80349}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV19" authorId="0" shapeId="0" xr:uid="{8A641E38-F1A2-4534-950B-9415609EF4A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="DE19" authorId="0" shapeId="0" xr:uid="{4D78BE3C-67F6-4612-B75B-1C5FC7AD98B3}">
       <text>
         <r>
@@ -2786,6 +2883,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="EF19" authorId="0" shapeId="0" xr:uid="{AEC01095-7ADD-443A-9061-46299182A10B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ritalina 10mg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{ADEAC6F7-E7FB-4339-BA45-14C43D6D4CEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se va a revisar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EF20" authorId="0" shapeId="0" xr:uid="{B71DE272-22BD-42D4-B8F7-22481AF01DAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Metilfenidato 10 mg</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="ET20" authorId="0" shapeId="0" xr:uid="{CC0F804C-7092-4506-B015-E202113E0BD2}">
       <text>
         <r>
@@ -2884,6 +3053,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="EF21" authorId="0" shapeId="0" xr:uid="{93DCFFD2-E72C-4EAC-8553-1222ED2C5F6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En 2021, Ritalina - Metilfenidato 10 mg (18 unidades)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AY22" authorId="0" shapeId="0" xr:uid="{96FF8CF0-FB39-4B1C-97FB-FCE0535A05E3}">
       <text>
         <r>
@@ -3073,6 +3266,271 @@
           </rPr>
           <t xml:space="preserve">
 2 veces al año</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ23" authorId="0" shapeId="0" xr:uid="{06184BD8-65DA-49C2-9905-17240877D089}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1  - 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DB23" authorId="0" shapeId="0" xr:uid="{5FB8CA5C-3E38-4E05-95B7-1EB165E40F4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - 2 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DE23" authorId="0" shapeId="0" xr:uid="{2EEB3A9D-18F8-40A9-AD73-1800F90ED621}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5 - 10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EF23" authorId="0" shapeId="0" xr:uid="{8D03B35A-C69F-479E-9D43-8B45F51EAA29}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Metilfenidato 10 mg tableta </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ET23" authorId="0" shapeId="0" xr:uid="{6363CDAA-BBF6-4C3C-8345-06936088B4B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FO23" authorId="0" shapeId="0" xr:uid="{4F38D0FC-C8FC-43D0-9B67-ECA07285D3FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1-5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DX24" authorId="0" shapeId="0" xr:uid="{E281256A-4739-4E7A-AC56-8709BB5D02BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si. Rojo menor a 3 meses, naranja menor a 6 meses y verde mayor a 6 meses.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EF24" authorId="0" shapeId="0" xr:uid="{8D0F5BD3-AB50-438A-9F7F-8E405A9BF8C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Metilfenidato de 10 mg
+Fenobarbital 100 mg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="ET24" authorId="0" shapeId="0" xr:uid="{708C50FA-9DDB-4540-B919-E16E4B581BD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FH24" authorId="0" shapeId="0" xr:uid="{68A40619-D32E-43A4-84D9-CCF9A0108A71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Excel con las ventas mensuales.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FI24" authorId="0" shapeId="0" xr:uid="{5E935DC4-BC12-4174-BD7D-18F1D5EFA35F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Excel de farmacodependientes.</t>
         </r>
       </text>
     </comment>
@@ -3103,7 +3561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="1536">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -5551,9 +6009,6 @@
     <t>Ninguno puesto que se almacena dentro de la gobernación.</t>
   </si>
   <si>
-    <t>No se tiene resuesta</t>
-  </si>
-  <si>
     <t>Se valida la información de compra de las instituciones, con el promedio de compra que han realizado, así, se tienen valores estandarizados para que no haya una sobrecompra de MME.</t>
   </si>
   <si>
@@ -5802,9 +6257,6 @@
     <t>Clara Luz Roldán</t>
   </si>
   <si>
-    <t>Odontóloga</t>
-  </si>
-  <si>
     <t>Joahana Alexandra Escobar</t>
   </si>
   <si>
@@ -5987,12 +6439,6 @@
   </si>
   <si>
     <t>Gregorio Figueroa Cruz</t>
-  </si>
-  <si>
-    <t>Técnico Área en salud</t>
-  </si>
-  <si>
-    <t>Auxiliar en salud</t>
   </si>
   <si>
     <t>Ingeniero Químico</t>
@@ -6694,16 +7140,10 @@
     <t>Metilfenidato Tab x 10 mg</t>
   </si>
   <si>
-    <t>Primidona Tableta x 250 mg</t>
-  </si>
-  <si>
     <t>Fenobarbital Solución inyectable x 40 mg, Fenobarbital Solución inyectable x 200 mg</t>
   </si>
   <si>
     <t>Fenobarbital Solución inyectable x 40 mg</t>
-  </si>
-  <si>
-    <t>Metilfenidato Tab x 10 mg, Fenobarbital, Primidona Tableta x 250 mg</t>
   </si>
   <si>
     <t>Hidromorfona</t>
@@ -6933,13 +7373,6 @@
     <t>Hector Olimpo Espinoza</t>
   </si>
   <si>
-    <t>Contadora Pública especializada en gerencia en Salud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administradora de Empresas
-</t>
-  </si>
-  <si>
     <t>Blas Carpio Navarro</t>
   </si>
   <si>
@@ -7015,9 +7448,6 @@
     <t>No, ya está rebasada</t>
   </si>
   <si>
-    <t>Ritalina 10mg</t>
-  </si>
-  <si>
     <t xml:space="preserve">No tienen un proceso </t>
   </si>
   <si>
@@ -7151,9 +7581,6 @@
     <t>6  meses</t>
   </si>
   <si>
-    <t>Metilfenidato 10 mg</t>
-  </si>
-  <si>
     <t>La variabilidad en las compras de los MME siempre se realiza de manera telefónica pidiendo una aclaración de las compras que se salen de lo habitual. Una justificación suele ser el trasladado de pacientes hacia el municipio de Quibdó.</t>
   </si>
   <si>
@@ -7229,9 +7656,6 @@
   </si>
   <si>
     <t>Luis Alberto Monsalvo Gnecco</t>
-  </si>
-  <si>
-    <t>Enfermera</t>
   </si>
   <si>
     <t>Luis Miguel Pinzón López</t>
@@ -7342,9 +7766,6 @@
   </si>
   <si>
     <t>Ningún costo.</t>
-  </si>
-  <si>
-    <t>En 2021, Ritalina - Metilfenidato 10 mg (18 unidades)</t>
   </si>
   <si>
     <t>Inicialmente se recibe la cotización de los medicamentos en correo electrónico por parte de la institución. El personal del FRE verifica la resolución de inscripción del establecimiento y confirma que el medicamento este autorizado a ese establecimiento. Posteriormente, personal del FRE, según stock actual de MME, ajusta o aprueba la cotización de la IPS. Se envía un correo mencionando la aprobación definitiva y el precio de los MME. A este correo se adjunta procedimiento para realizar consignación bancaria del precio de los medicamentos solicitados. Luego, la persona encargada de recibir los MME, debe presentar la carta de autorización firmada por el representante legal del establecimiento, documento de identificación y comprobante bancario de pago.</t>
@@ -7591,7 +8012,421 @@
     <t>Puerto Carreño</t>
   </si>
   <si>
-    <t>Hidromorfona, Primidona Tableta x 250 mg</t>
+    <t>YUDISLAY PRADO RESTREPO</t>
+  </si>
+  <si>
+    <t>CALLE 18 # 8 - 80 BARRIO SIETE DE AGOSTO</t>
+  </si>
+  <si>
+    <t>medicamentos@caqueta.gov.co</t>
+  </si>
+  <si>
+    <t>000369</t>
+  </si>
+  <si>
+    <t>Lilbet Johana Galvan Mosheyoff</t>
+  </si>
+  <si>
+    <t>Álvaro Pacheco Álvarez</t>
+  </si>
+  <si>
+    <t>Yudislay Prado Restrepo</t>
+  </si>
+  <si>
+    <t>Lisandro Oyara</t>
+  </si>
+  <si>
+    <t>Carmen Flor Jurado</t>
+  </si>
+  <si>
+    <t>José Reinel Córdoba</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta semana se hizo cotización por 200
+El precio del recetario está regido por la ordenanza 014 de 2012mjunto con las demás tarifas del FRE
+Expendedor de drogas y demás resoluciones a droguerías se consignan en la cuenta del FRE pero no se relacionan con MME, es decir, esos establecimientos no están inscritos ante el FRE
+Se realizó la circular porque las entidades inscritas estaban acostumbradas a llamar al auxiliar de farmacia del FRE y solicitar por dicho canal de forma informal la compra de recetarios
+De los 240 recetarios oficiales actuales en el FRE, un hospital cotizó 200, por lo que al cabo de dos semanas aproximadamente que se concrete la compra. Por lo que quedarían 40 recetarios oficiales a la espera de los nuevos recetarios que se estipula podrían llegar dentro de un mes y medio a dos meses.
+La proyección de compra de los nuevos recetarios es para una duración en el departamento de aproximadamente un año.
+Actualmente se hace seguimiento a las instituciones con un enfoque en el riesgo, es decir, los establecimientos que históricamente han tenido hallazgos, así un establecimiento con concepto favorable se haría anualmente, mientras que los que tienen conceptos desfavorables se harían semestral o trimestralmente.
+El acta de vigilancia y control no es específica para el tipo de establecimiento, se requiere estandarizar los criterios de IVC para que lo mismo que se califique en todo el país </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Se adelanta un proceso de estimación de necesidades en donde entra toda la papelería de la secretaria (pendones, pancartas, etc.) juntamente con la adquisición de recetarios (2 meses)
+-  Publicación del proceso de licitación por mínima cuantía en la pagina oficial del departamento (10 días)
+- Apertura de convocatorias para los oferentes (5 días)
+- Se escoge el oferente y se concreta la licitación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realiza la estimación de la necesidad con base en el consumo histórico del departamento </t>
+  </si>
+  <si>
+    <t>- Estudios previos de necesidad (junto con los de la Secretaria de salud): 2 meses
+- Proceso de contratación y licitación: 10 días 
+- Convocatoria de oferentes: 5 días</t>
+  </si>
+  <si>
+    <t>Ordenanza 014 del 22 de abril de 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realizó una circular reciente (Circular externa 0284 del 11 de agosto de 2021) para la estandarización del proceso de compra de recetarios oficiales para las instituciones inscritas
+-Las entidades envían solicitud al correo institucional del FRE 
+-Se envía desde el FRE por el mismo medio la cotización a la institución de acuerdo con la disponibilidad de recetarios que se tenga
+-se llama personalmente al encargado de la compra de recetarios de la institución solicitante si no hay la cantidad que solicita explicándole el por qué de la respuesta de la cotización 
+-Se realiza el pago en la cuenta bancaria del FRE
+-Se envía el comprobante de pago vía correo electrónico o personalmente
+-Liquidación en el sistema
+-Se hace el egreso
+-Envío de factura de compra a tesorería
+-Se realiza el proceso de despacho de recetarios </t>
+  </si>
+  <si>
+    <t>Tipo de persona (comprador), Nombre de persona, Unidades compradas, Venta total en moneda (COP), Fecha y hora, Códigos seriales de recetarios, Otros</t>
+  </si>
+  <si>
+    <t>Numero de factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se ha tenido casos en la actual administración (la encargada del FRE esta desde el año 2020), sin embargo, se autorizarían las fórmulas institucionales </t>
+  </si>
+  <si>
+    <t>Solo se ha presentado un caso en donde se sospechaba de un desvió por lo que se recomendó a la institución hacer la debida denuncia</t>
+  </si>
+  <si>
+    <t>Mensualmente se realiza la revisión de existencias en el documento de manejo de inventarios del FRE</t>
+  </si>
+  <si>
+    <t>Se valida la fórmula con el encargado del FRE o la institución prescriptora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El auxiliar de farmacia se constata que tenga todos los espacio llenos, el nombre de la entidad que prescribe, el prescriptor, el sello y la cantidad de medicamentos junto con su nombre, concentración y forma farmacéutica </t>
+  </si>
+  <si>
+    <t>Una auxiliar de farmacia realiza el proceso en 3 días laborales</t>
+  </si>
+  <si>
+    <t>No se hace disposición final de recetarios, después de un tiempo se envían los recetarios diligenciados a otra bodega, pero allí no se sabe que pase con ellos</t>
+  </si>
+  <si>
+    <t>Nombre prescriptor</t>
+  </si>
+  <si>
+    <t>La compra de medicamentos y recetarios se realiza con recursos propios del FRE, es decir, no interviene la gobernación sino para la expedición de CDP, por ello los procesos de adquisición son relativamente rápidos. No han tenido con Colombia compra eficiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- El ultimo estimado se hizo con la sumatoria anual del 2020 ya que el con el covid la tendencia era muy irregular
+- Se toma las existencias actuales
+- Se calcula la diferencia
+- Ajuste por presentación según su rotación en el departamento
+- Adición del tiempo de reposición que es los 3 meses iniciales del año en donde no hay personal del FRE por temas de contratación
+- Se envía la necesidad al área contractual
+- Se hace la cotización antes el FNE
+- Se recibe la respuesta a la cotización
+- Se realiza el pago por el monto indicado
+</t>
+  </si>
+  <si>
+    <t>No han tenido problemas con la plataforma ni los tiempos de compra, ya que se realiza con recursos propios del FRE</t>
+  </si>
+  <si>
+    <t>-El auxiliar de farmacia en conjunto con la QF y los dos regentes de farmacia del FRE reciben los productos
+- Se constata con la guía la cantidad de cajas y medicamentos
+- Revisión de lotes 
+- Acta de entrada 
+- Almacenamiento 
+- Entrada al sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se han tenido casos de productos no conformes o averiados pero llegado el caso, se notificaría al FNE con los soportes adecuados para iniciar el proceso de reposición </t>
+  </si>
+  <si>
+    <t>Gabinete con llave simple, Acceso de seguridad restringido a cierto personal, Almacenamiento en oficina privada, Disponibilidad local de protección policial</t>
+  </si>
+  <si>
+    <t>No se tienen medicamentos de alto costo ni LASA en el área de almacenamiento</t>
+  </si>
+  <si>
+    <t>Papelería, Otros items.</t>
+  </si>
+  <si>
+    <t>Recetarios oficiales utilizados</t>
+  </si>
+  <si>
+    <t>No se ha tenido ningún tipo de problema con la empresa transportadora hasta el momento</t>
+  </si>
+  <si>
+    <t>A final de cada mes se constata el inventario en la herramienta electrónica dispuesta para tal fin</t>
+  </si>
+  <si>
+    <t>No se tiene estimación alguna de la capacidad máxima para medicamentos</t>
+  </si>
+  <si>
+    <t>El área de almacenamiento hace parte de la Secretaria de salud por lo que no genera ningún costo para el FRE</t>
+  </si>
+  <si>
+    <t>-Las entidades envían solicitud al correo institucional del FRE (debe ir nombre de la entidad, medicamento, forma farmacéutica y concentración) 
+-Se envía desde el FRE por el mismo medio la cotización a la institución de acuerdo con la disponibilidad de MME que se tenga 
+-Realización del pago en la cuenta bancaria del FRE
+-Se envía el comprobante de pago vía correo electrónico o personalmente
+-Liquidación en el sistema
+-Se hace el egreso
+-Envío de factura de compra a tesorería
+-Se realiza el proceso de despacho de MME</t>
+  </si>
+  <si>
+    <t>Se envía correo notificando al FNE con los respectivos soportes para iniciar el proceso de reposición de medicamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se tiene un tiempo determinado ya que no se ha concretado un proceso de devolucion </t>
+  </si>
+  <si>
+    <t>No se han tenido quejas formales. Cuando no hay disponibilidad de medicamentos se autoriza la compra directa al FNE</t>
+  </si>
+  <si>
+    <t>Solo se le venta a un particular porque es una paciente venezolana que requiere los medicamentos y no se ha formalizado aun su vinculación con la EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se vende en general a particulares, únicamente se tiene un caso especial temporal </t>
+  </si>
+  <si>
+    <t>Se valida con el encargado del FRE de procedencia y se transcribe el recetario al recetario oficial del Caquetá</t>
+  </si>
+  <si>
+    <t>No se han tenido casos de formulas de Bogotá o Cundinamarca. De ser el caso se validaría la información y se migraría la formula al recetario oficial del Caquetá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- El auxiliar de farmacia encargado de las actividades de consolidacion de anexos del FRE descarga los archivos en hojas de Microsoft Excel que envian las instituciones inscritas.
+- posterior a ello reune toda la informacion en el mismo documentos en donde consolida la informacion para elm es en curso.
+</t>
+  </si>
+  <si>
+    <t>Se guardan en Drive hasta que no haya espacio. Posterior a ello se transfiere a un disco duro</t>
+  </si>
+  <si>
+    <t>- El auxiliar de farmacia encargado de las actividades de consolidacion de anexos del FRE descarga los archivos en hojas de Microsoft Excel que envian las instituciones inscritas.
+- Posterior a ello reune toda la informacion en el mismo documentos en donde consolida la informacion para elm es en curso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un auxiliar de farmacia en aproximadamente 4 días </t>
+  </si>
+  <si>
+    <t>Se dispone de un documento en Microsoft Excel para el registro de envío de informes de consumo</t>
+  </si>
+  <si>
+    <t>Marcia Medina</t>
+  </si>
+  <si>
+    <t>Camilo Tananta</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Carrera 11 No. 3-29</t>
+  </si>
+  <si>
+    <t>ivc@amazonas.gov.co</t>
+  </si>
+  <si>
+    <t>Ordenanza 038 del 09 de noviembre de 2005</t>
+  </si>
+  <si>
+    <t>Edgar Mauricio Barbosa</t>
+  </si>
+  <si>
+    <t>Jesús Galdino Cedeño</t>
+  </si>
+  <si>
+    <t>Marcia Ester Medina Chindoy</t>
+  </si>
+  <si>
+    <t>Nutricionista</t>
+  </si>
+  <si>
+    <t>Camilo Andrés Tananta</t>
+  </si>
+  <si>
+    <t>Se procede a solicitar dos cotizaciones de diferentes empresas las cuales brinden el servicio.
+Se solicitad al aérea de Presupuesto el saldo que tiene el Rubro del Fondo Rotatorio De Estupefacientes.
+Seguidamente el representante del FRE Elabora el estudio previo de conveniencia y oportunidad, el memorando de necesidad y Solicita de CDP para el contrato para la adquisición de los Recetarios Oficiales.
+Una vez se cuente con la documentación completa el representante del FRE entrega todo a la oficina jurídica para la revisión y la realización de minuta de convenio.
+Acto seguido Representante del FRE Realización de la minuta de contrato.
+Se entrega toda la documentación completa a la oficina de presupuesto con el contrato firmado por ambas partes para la elaboración del RP.
+Se envía Contrato firmado y copia del RP al contratista para la entrega de los recetarios oficiales.
+Se reciben los Recetario Oficiales y se llevan al almacén departamental para su ingreso.
+Entrega del Insumo.
+Ingresa a la oficina del FRE amazonas.
+Certificación del Objeto del contrato.
+Se radica toda la documentación completa en la oficina de contabilidad para realizar el pago al contratista.
+Archiva en la carpeta del FRE convenio.</t>
+  </si>
+  <si>
+    <t>Para el proceso de compra de recetarios oficiales, el FRE Amazonas realiza un promedio del consumo de recetarios oficiales de los años anteriores.</t>
+  </si>
+  <si>
+    <t>No se tiene acto administrativo.</t>
+  </si>
+  <si>
+    <t>Solicita la Compra
+Verifica la existencia del insumo
+Se Informa del valor a pagar y número de Cuenta donde depositar.
+Se realiza el pago del Recetario Oficial a comprar.
+Luego de haber realizado la consignación se procede a dirigirse a la Gobernación del Amazonas, oficina de Tesorería y realice el cambio de Documento.
+El usuario debe presentar el recibo de caja emitido por la Gobernación del Amazonas.
+Se realizará la entrega del Recetario Oficial.
+Se archivará el acta de entrega de los recetarios en medio físico
+Archivo de los documentos.</t>
+  </si>
+  <si>
+    <t>Formato propio del FRE</t>
+  </si>
+  <si>
+    <t>Nombre de persona, Documento de identificación, Dirección de domicilio, Teléfono, Unidades compradas, Venta total en moneda (COP), Fecha y hora, Códigos seriales de recetarios</t>
+  </si>
+  <si>
+    <t>En el momento que se dio el desabastecimiento de RO la encargada del FRE compró unos cuantos talonarios para abastecer a los hospitales y clínicas. Se aclara que el monto de los talonarios fue pagado con el dinero propio, mas no por medio de la secretaria de salud.
+Otro plan de contingencia que se realizó fue realizar prestamos entre instituciones.</t>
+  </si>
+  <si>
+    <t>Evita que hallan desabastecimiento en las clínicas y hospitales y se tenga que recurrir a planes de contingencia. Para los sitios alejados, dicen que, si se plantea un plan de contingencia como en el mipres, todo estará bien.</t>
+  </si>
+  <si>
+    <t>Hasta el momento no se ha presentado ningún caso de fraude.</t>
+  </si>
+  <si>
+    <t>Cada mes se cuenta la cantidad de recetarios que hay en el FRE, debido a la cantidad que rota en el departamento, se hace fácil el conteo de los mismos.</t>
+  </si>
+  <si>
+    <t>Siempre se realiza con los seriales o códigos que trae cada recetario.</t>
+  </si>
+  <si>
+    <t>Se revisa que los códigos sean los mismos que se dispensaron en un principio. Debido a las pocas medidas de seguridad que posee el RO, no hay otra manera para la revisión.</t>
+  </si>
+  <si>
+    <t>El proceso tarda de 1 a 2 días, y el encargado de realizar esta operación es el regente Camilo.</t>
+  </si>
+  <si>
+    <t>Se almacenan por tiempo indefinido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este se realiza de acuerdo a las salidas reportadas en el FRE. Para esto se abre un nuevo libro en Excel, se toman las cantidades de medicamentos vendidas y se realiza un promedio. </t>
+  </si>
+  <si>
+    <t>Exigente, mucho soporte documental. No es claro el proceso aun siguiendo la guía.</t>
+  </si>
+  <si>
+    <t>Al momento de llegar los medicamentos, se realiza un Excel donde se coloca el nombre del medicamento, presentación, número de lote y cantidades. A medida que se revisan los medicamentos se llena la tabla y una vez terminado el proceso se compra con la orden de compra.</t>
+  </si>
+  <si>
+    <t>En el momento no se han presentado casos. En caso de realizarlo, se comunicarán con el fondo para realizar el debido proceso.</t>
+  </si>
+  <si>
+    <t>No se tienen este tipo de estrategias.</t>
+  </si>
+  <si>
+    <t>No se han presentado daños en las entregas, además los despachos son pequeños, eso hace que el manejo de los medicamentos sea más cuidadoso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Para el manejo de las fechas de vencimiento, cada 2 meses se revisan los medicamentos y volver a clasificarlos.</t>
+  </si>
+  <si>
+    <t>Año y medio</t>
+  </si>
+  <si>
+    <t>Se solicita la Compra
+Verifica la existencia del insumo
+Se Informa del valor a pagar y número de Cuenta donde depositar.
+Se realiza el pago del medicamento a comprar.
+Luego de haber realizado la consignación se procede a dirigirse a la Gobernación del Amazonas, oficina de Tesorería y realice el cambio de Documento.
+El usuario debe presentar la fórmula Original (color Blanco) con el recibo de caja emitido por la Gobernación del Amazonas
+Se realizará la entrega del Medicamento Monopolio del Estado.
+Se archivará el acta de entrega de los medicamentos en medio físico
+Archivo de los documentos</t>
+  </si>
+  <si>
+    <t>Hasta el momento no se ha presentado el primer recambio.</t>
+  </si>
+  <si>
+    <t>No se tiene presente cuando puede llegar a tardar este proceso.</t>
+  </si>
+  <si>
+    <t>Solo se presentó una queja por la falta de recetarios. La manera de resolverla fue llamar a la persona que lo requería y entregarle la cantidad que solicitaba para la prescripción de los medicamentos. En ese caso solo se requirió una formulas debido a que era solo un paciente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso de venta a pacientes se hace igual a la venta de instituciones, solo que se verifica que la formula no se encuentre vencida. </t>
+  </si>
+  <si>
+    <t>No se ha presentado esta situación.</t>
+  </si>
+  <si>
+    <t>Se realiza por medio de una llamada telefónica al encargado del FRE.</t>
+  </si>
+  <si>
+    <t>Se tiene que allegar la historia clínica y la autorización, y allí se realiza la transcripción a un recetario oficial para dispensar el medicamento.</t>
+  </si>
+  <si>
+    <t>Se llena la distribución de los medicamentos según lo reportado en el mes comparando junto con otro archivo de Excel.</t>
+  </si>
+  <si>
+    <t>Como se mencionó anteriormente, los informes se guardan por tiempo indefinido.</t>
+  </si>
+  <si>
+    <t>Al igual que con el anexo 1, se llenan los consumos de medicamentos según lo reportado en el mes comparando junto con otro archivo de Excel.</t>
+  </si>
+  <si>
+    <t>Para esta tarea, Camilo se encarga de realizar la consolidación, el tiempo que puede tardar es de uno a dos días dependiendo de la puntualidad de las entidades en allegar los informes.</t>
+  </si>
+  <si>
+    <t>Excel con el compendio de informes mensuales.</t>
+  </si>
+  <si>
+    <t>Se anexan fotografías ya bases de datos en el informe.</t>
+  </si>
+  <si>
+    <t>No se realiza.</t>
+  </si>
+  <si>
+    <t>Caquetá</t>
+  </si>
+  <si>
+    <t>Florencia</t>
+  </si>
+  <si>
+    <t>Metilfenidato Tab x 10 mg, Fenobarbital Tab x 100 mg</t>
+  </si>
+  <si>
+    <t>Primidona Tab x 250 mg</t>
+  </si>
+  <si>
+    <t>Metilfenidato Tab x 10 mg, Fenobarbital, Primidona Tab x 250 mg</t>
+  </si>
+  <si>
+    <t>Hidromorfona, Primidona Tab x 250 mg</t>
+  </si>
+  <si>
+    <t>No se tiene respuesta</t>
+  </si>
+  <si>
+    <t>Enfermero(a)</t>
+  </si>
+  <si>
+    <t>Contador(a) Pública</t>
+  </si>
+  <si>
+    <t>Odontólogo(a)</t>
+  </si>
+  <si>
+    <t>Técnico(a) Área en salud</t>
+  </si>
+  <si>
+    <t>Administradora de Empresas</t>
   </si>
 </sst>
 </file>
@@ -7717,7 +8552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7729,7 +8564,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7759,6 +8593,16 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7985,13 +8829,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FY22"/>
+  <dimension ref="A1:FY24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="FC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="FL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FI1" sqref="FI1"/>
+      <selection pane="bottomRight" activeCell="FO23" sqref="FO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8465,7 +9309,7 @@
       <c r="EV1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EW1" s="16" t="s">
+      <c r="EW1" s="15" t="s">
         <v>129</v>
       </c>
       <c r="EX1" s="1" t="s">
@@ -8588,7 +9432,7 @@
         <v>164</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>165</v>
@@ -8659,7 +9503,7 @@
       <c r="BB2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="BC2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="BD2" s="2" t="s">
@@ -8811,7 +9655,7 @@
         <v>5</v>
       </c>
       <c r="DE2" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF2" s="2" t="s">
         <v>212</v>
@@ -8847,7 +9691,7 @@
         <v>220</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="DS2" s="2" t="s">
         <v>222</v>
@@ -8873,7 +9717,7 @@
       <c r="DZ2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="EA2" s="20" t="s">
+      <c r="EA2" s="19" t="s">
         <v>221</v>
       </c>
       <c r="EB2" s="2" t="s">
@@ -8889,7 +9733,7 @@
         <v>227</v>
       </c>
       <c r="EF2" s="2" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="EG2" s="2" t="s">
         <v>231</v>
@@ -8928,7 +9772,7 @@
         <v>242</v>
       </c>
       <c r="ET2" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="EU2" s="2" t="s">
         <v>243</v>
@@ -8969,24 +9813,30 @@
       <c r="FJ2" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="FQ2" s="26">
+      <c r="FL2" s="33"/>
+      <c r="FM2" s="33"/>
+      <c r="FN2" s="33"/>
+      <c r="FO2" s="33"/>
+      <c r="FP2" s="33"/>
+      <c r="FQ2" s="25">
         <v>0.75</v>
       </c>
-      <c r="FR2" s="22">
+      <c r="FR2" s="21">
         <v>0.15</v>
       </c>
-      <c r="FS2" s="22">
+      <c r="FS2" s="21">
         <v>0.1</v>
       </c>
-      <c r="FT2" s="22">
+      <c r="FT2" s="21">
         <v>0</v>
       </c>
-      <c r="FU2" s="22">
+      <c r="FU2" s="21">
         <v>0</v>
       </c>
-      <c r="FV2" s="22">
+      <c r="FV2" s="21">
         <v>0</v>
       </c>
+      <c r="FY2" s="33"/>
     </row>
     <row r="3" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -9005,7 +9855,7 @@
         <v>44306</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>254</v>
@@ -9088,7 +9938,7 @@
       <c r="BB3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="BC3" s="11">
+      <c r="BC3" s="38">
         <v>0.8</v>
       </c>
       <c r="BD3" s="2" t="s">
@@ -9286,7 +10136,7 @@
       <c r="DZ3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="EA3" s="20" t="s">
+      <c r="EA3" s="19" t="s">
         <v>197</v>
       </c>
       <c r="EC3" s="2" t="s">
@@ -9299,7 +10149,7 @@
         <v>227</v>
       </c>
       <c r="EF3" s="2" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="EG3" s="2" t="s">
         <v>305</v>
@@ -9338,7 +10188,7 @@
         <v>242</v>
       </c>
       <c r="ET3" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU3" s="2" t="s">
         <v>315</v>
@@ -9382,12 +10232,18 @@
       <c r="FJ3" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="FQ3" s="26"/>
-      <c r="FR3" s="22"/>
-      <c r="FS3" s="22"/>
-      <c r="FT3" s="22"/>
-      <c r="FU3" s="22"/>
-      <c r="FV3" s="22"/>
+      <c r="FL3" s="33"/>
+      <c r="FM3" s="33"/>
+      <c r="FN3" s="33"/>
+      <c r="FO3" s="33"/>
+      <c r="FP3" s="33"/>
+      <c r="FQ3" s="39"/>
+      <c r="FR3" s="40"/>
+      <c r="FS3" s="40"/>
+      <c r="FT3" s="40"/>
+      <c r="FU3" s="40"/>
+      <c r="FV3" s="40"/>
+      <c r="FY3" s="33"/>
     </row>
     <row r="4" spans="1:181" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -9460,7 +10316,7 @@
         <v>9568</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="AT4" s="2">
         <v>25</v>
@@ -9629,7 +10485,7 @@
         <v>7</v>
       </c>
       <c r="DE4" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF4" s="2" t="s">
         <v>294</v>
@@ -9666,7 +10522,7 @@
         <v>363</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="DS4" s="2" t="s">
         <v>364</v>
@@ -9692,7 +10548,7 @@
       <c r="DZ4" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="EA4" s="20" t="s">
+      <c r="EA4" s="19" t="s">
         <v>197</v>
       </c>
       <c r="EC4" s="2" t="s">
@@ -9741,7 +10597,7 @@
         <v>242</v>
       </c>
       <c r="ET4" s="2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="EU4" s="2" t="s">
         <v>315</v>
@@ -9785,14 +10641,20 @@
       <c r="FJ4" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="FQ4" s="26"/>
-      <c r="FR4" s="22">
+      <c r="FL4" s="33"/>
+      <c r="FM4" s="33"/>
+      <c r="FN4" s="33"/>
+      <c r="FO4" s="33"/>
+      <c r="FP4" s="33"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="40">
         <v>0.03</v>
       </c>
-      <c r="FS4" s="22"/>
-      <c r="FT4" s="22"/>
-      <c r="FU4" s="22"/>
-      <c r="FV4" s="22"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FY4" s="33"/>
     </row>
     <row r="5" spans="1:181" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -9900,7 +10762,7 @@
       <c r="BB5" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="BC5" s="12"/>
+      <c r="BC5" s="11"/>
       <c r="BD5" s="2" t="s">
         <v>263</v>
       </c>
@@ -10040,7 +10902,7 @@
         <v>9</v>
       </c>
       <c r="DE5" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF5" s="2" t="s">
         <v>212</v>
@@ -10109,7 +10971,7 @@
         <v>227</v>
       </c>
       <c r="EF5" s="2" t="s">
-        <v>1155</v>
+        <v>1527</v>
       </c>
       <c r="EG5" s="2" t="s">
         <v>434</v>
@@ -10151,7 +11013,7 @@
         <v>242</v>
       </c>
       <c r="ET5" s="2" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="EU5" s="2" t="s">
         <v>315</v>
@@ -10213,22 +11075,22 @@
       <c r="FP5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="FQ5" s="27">
+      <c r="FQ5" s="26">
         <v>0.15</v>
       </c>
-      <c r="FR5" s="23">
+      <c r="FR5" s="22">
         <v>0.8</v>
       </c>
-      <c r="FS5" s="23">
+      <c r="FS5" s="22">
         <v>0.05</v>
       </c>
-      <c r="FT5" s="23">
+      <c r="FT5" s="22">
         <v>0</v>
       </c>
-      <c r="FU5" s="23">
+      <c r="FU5" s="22">
         <v>0</v>
       </c>
-      <c r="FV5" s="23">
+      <c r="FV5" s="22">
         <v>0</v>
       </c>
       <c r="FX5" s="2" t="s">
@@ -10350,7 +11212,7 @@
       <c r="BA6" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="BC6" s="12"/>
+      <c r="BC6" s="11"/>
       <c r="BD6" s="2" t="s">
         <v>263</v>
       </c>
@@ -10498,7 +11360,7 @@
       <c r="DH6" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="DI6" s="19">
+      <c r="DI6" s="18">
         <f>(3+2)/2</f>
         <v>2.5</v>
       </c>
@@ -10557,7 +11419,7 @@
         <v>227</v>
       </c>
       <c r="EF6" s="2" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="EG6" s="2" t="s">
         <v>496</v>
@@ -10596,7 +11458,7 @@
         <v>242</v>
       </c>
       <c r="ET6" s="2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="EU6" s="2" t="s">
         <v>483</v>
@@ -10652,22 +11514,22 @@
       <c r="FP6" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ6" s="27">
+      <c r="FQ6" s="26">
         <v>0.8</v>
       </c>
-      <c r="FR6" s="23">
+      <c r="FR6" s="22">
         <v>0.15</v>
       </c>
-      <c r="FS6" s="23">
+      <c r="FS6" s="22">
         <v>0.05</v>
       </c>
-      <c r="FT6" s="23">
+      <c r="FT6" s="22">
         <v>0</v>
       </c>
-      <c r="FU6" s="23">
+      <c r="FU6" s="22">
         <v>0</v>
       </c>
-      <c r="FV6" s="23">
+      <c r="FV6" s="22">
         <v>0</v>
       </c>
       <c r="FX6" s="2" t="s">
@@ -10694,7 +11556,7 @@
         <v>511</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>512</v>
@@ -10798,7 +11660,7 @@
       <c r="BA7" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BC7" s="12"/>
+      <c r="BC7" s="11"/>
       <c r="BD7" s="2" t="s">
         <v>526</v>
       </c>
@@ -10938,7 +11800,7 @@
         <v>8</v>
       </c>
       <c r="DE7" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF7" s="2" t="s">
         <v>486</v>
@@ -11042,8 +11904,8 @@
       <c r="ES7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="ET7" s="21" t="s">
-        <v>1163</v>
+      <c r="ET7" s="20" t="s">
+        <v>1157</v>
       </c>
       <c r="EU7" s="2" t="s">
         <v>315</v>
@@ -11102,22 +11964,22 @@
       <c r="FP7" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="FQ7" s="27">
+      <c r="FQ7" s="26">
         <v>0.7</v>
       </c>
-      <c r="FR7" s="23">
+      <c r="FR7" s="22">
         <v>0.2</v>
       </c>
-      <c r="FS7" s="23">
+      <c r="FS7" s="22">
         <v>0.02</v>
       </c>
-      <c r="FT7" s="23">
+      <c r="FT7" s="22">
         <v>0.08</v>
       </c>
-      <c r="FU7" s="23">
+      <c r="FU7" s="22">
         <v>0</v>
       </c>
-      <c r="FV7" s="23">
+      <c r="FV7" s="22">
         <v>0</v>
       </c>
       <c r="FX7" s="2" t="s">
@@ -11215,7 +12077,7 @@
       <c r="BA8" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="BC8" s="12"/>
+      <c r="BC8" s="11"/>
       <c r="BD8" s="2" t="s">
         <v>263</v>
       </c>
@@ -11412,7 +12274,7 @@
         <v>227</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="EG8" s="2" t="s">
         <v>616</v>
@@ -11454,7 +12316,7 @@
         <v>242</v>
       </c>
       <c r="ET8" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU8" s="2" t="s">
         <v>625</v>
@@ -11510,22 +12372,22 @@
       <c r="FP8" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ8" s="27" t="s">
+      <c r="FQ8" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="FR8" s="23" t="s">
+      <c r="FR8" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="FS8" s="23" t="s">
+      <c r="FS8" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="FT8" s="23" t="s">
+      <c r="FT8" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="FU8" s="23" t="s">
+      <c r="FU8" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="FV8" s="23" t="s">
+      <c r="FV8" s="22" t="s">
         <v>584</v>
       </c>
       <c r="FY8" s="2" t="s">
@@ -11662,7 +12524,7 @@
       <c r="BA9" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="BC9" s="12"/>
+      <c r="BC9" s="11"/>
       <c r="BD9" s="2" t="s">
         <v>263</v>
       </c>
@@ -11907,7 +12769,7 @@
         <v>242</v>
       </c>
       <c r="ET9" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU9" s="2" t="s">
         <v>315</v>
@@ -11966,22 +12828,22 @@
       <c r="FP9" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ9" s="27">
+      <c r="FQ9" s="26">
         <v>0.5</v>
       </c>
-      <c r="FR9" s="23">
+      <c r="FR9" s="22">
         <v>0.45</v>
       </c>
-      <c r="FS9" s="23">
+      <c r="FS9" s="22">
         <v>0.05</v>
       </c>
-      <c r="FT9" s="23">
+      <c r="FT9" s="22">
         <v>0</v>
       </c>
-      <c r="FU9" s="23">
+      <c r="FU9" s="22">
         <v>0</v>
       </c>
-      <c r="FV9" s="23">
+      <c r="FV9" s="22">
         <v>0</v>
       </c>
       <c r="FY9" s="2" t="s">
@@ -12092,7 +12954,7 @@
       <c r="BA10" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="BC10" s="12"/>
+      <c r="BC10" s="11"/>
       <c r="BD10" s="2" t="s">
         <v>263</v>
       </c>
@@ -12217,7 +13079,7 @@
         <v>4</v>
       </c>
       <c r="DC10" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DD10" s="5">
         <v>3.5</v>
@@ -12313,7 +13175,7 @@
         <v>310</v>
       </c>
       <c r="EN10" s="2" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="EO10" s="2" t="s">
         <v>742</v>
@@ -12331,7 +13193,7 @@
         <v>242</v>
       </c>
       <c r="ET10" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU10" s="2" t="s">
         <v>746</v>
@@ -12387,22 +13249,22 @@
       <c r="FP10" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ10" s="27">
+      <c r="FQ10" s="26">
         <v>0.15</v>
       </c>
-      <c r="FR10" s="23">
+      <c r="FR10" s="22">
         <v>0.7</v>
       </c>
-      <c r="FS10" s="23">
+      <c r="FS10" s="22">
         <v>0</v>
       </c>
-      <c r="FT10" s="23">
+      <c r="FT10" s="22">
         <v>0</v>
       </c>
-      <c r="FU10" s="23">
+      <c r="FU10" s="22">
         <v>0</v>
       </c>
-      <c r="FV10" s="23">
+      <c r="FV10" s="22">
         <v>0.15</v>
       </c>
       <c r="FY10" s="2" t="s">
@@ -12423,7 +13285,7 @@
         <v>44321</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>753</v>
@@ -12513,7 +13375,7 @@
       <c r="BA11" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="BC11" s="12"/>
+      <c r="BC11" s="11"/>
       <c r="BD11" s="2" t="s">
         <v>180</v>
       </c>
@@ -12641,19 +13503,19 @@
         <v>2</v>
       </c>
       <c r="DA11" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DB11" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DC11" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DD11" s="2">
         <v>52</v>
       </c>
       <c r="DE11" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF11" s="2" t="s">
         <v>212</v>
@@ -12722,52 +13584,52 @@
         <v>227</v>
       </c>
       <c r="EF11" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="EG11" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="EG11" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="EH11" s="2">
         <v>80</v>
       </c>
       <c r="EI11" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="EJ11" s="9" t="s">
         <v>762</v>
       </c>
       <c r="EK11" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="EL11" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="EL11" s="2" t="s">
+      <c r="EM11" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="EM11" s="2" t="s">
+      <c r="EO11" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="EO11" s="2" t="s">
+      <c r="EP11" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="EP11" s="2" t="s">
+      <c r="EQ11" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="EQ11" s="2" t="s">
+      <c r="ER11" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="ER11" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="ES11" s="2" t="s">
         <v>242</v>
       </c>
       <c r="ET11" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU11" s="2" t="s">
         <v>315</v>
       </c>
       <c r="EW11" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="EX11" s="2" t="s">
         <v>284</v>
@@ -12776,10 +13638,10 @@
         <v>242</v>
       </c>
       <c r="EZ11" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="FA11" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="FA11" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="FB11" s="2" t="s">
         <v>284</v>
@@ -12788,10 +13650,10 @@
         <v>319</v>
       </c>
       <c r="FD11" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="FE11" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="FE11" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="FF11" s="2" t="s">
         <v>321</v>
@@ -12803,7 +13665,7 @@
         <v>227</v>
       </c>
       <c r="FJ11" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="FK11" s="2" t="s">
         <v>394</v>
@@ -12815,7 +13677,7 @@
         <v>221</v>
       </c>
       <c r="FN11" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="FO11" s="2">
         <v>1</v>
@@ -12823,26 +13685,26 @@
       <c r="FP11" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="FQ11" s="28" t="s">
+      <c r="FQ11" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FR11" s="24" t="s">
+      <c r="FR11" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FS11" s="24" t="s">
+      <c r="FS11" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FT11" s="24" t="s">
+      <c r="FT11" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FU11" s="24" t="s">
+      <c r="FU11" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="FV11" s="24" t="s">
+      <c r="FV11" s="23" t="s">
         <v>584</v>
       </c>
       <c r="FY11" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:181" ht="12.75" x14ac:dyDescent="0.2">
@@ -12850,58 +13712,58 @@
         <v>44344.528835266203</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="E12" s="4">
         <v>44319</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="L12" s="4">
         <v>32331</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>815</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>168</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>170</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>261</v>
@@ -12910,7 +13772,7 @@
         <v>173</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>172</v>
@@ -12919,7 +13781,7 @@
         <v>173</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>172</v>
@@ -12928,7 +13790,7 @@
         <v>173</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>172</v>
@@ -12937,7 +13799,7 @@
         <v>173</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AO12" s="2" t="s">
         <v>172</v>
@@ -12969,48 +13831,48 @@
       <c r="BA12" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="BC12" s="12"/>
+      <c r="BC12" s="11"/>
       <c r="BD12" s="2" t="s">
         <v>180</v>
       </c>
       <c r="BE12" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="BF12" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="BG12" s="2">
         <v>150</v>
       </c>
       <c r="BH12" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="BI12" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="BI12" s="2" t="s">
+      <c r="BJ12" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="BJ12" s="2" t="s">
-        <v>826</v>
       </c>
       <c r="BK12" s="2" t="s">
         <v>403</v>
       </c>
       <c r="BM12" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="BO12" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="BO12" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="BP12" s="2" t="s">
         <v>272</v>
       </c>
       <c r="BQ12" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="BR12" s="2" t="s">
         <v>767</v>
       </c>
       <c r="BT12" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BU12" s="2" t="s">
         <v>168</v>
@@ -13019,13 +13881,13 @@
         <v>276</v>
       </c>
       <c r="BW12" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="BX12" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="BX12" s="2" t="s">
+      <c r="BY12" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="BY12" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="CA12" s="2" t="s">
         <v>197</v>
@@ -13049,7 +13911,7 @@
         <v>201</v>
       </c>
       <c r="CJ12" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="CK12" s="2" t="s">
         <v>197</v>
@@ -13082,10 +13944,10 @@
         <v>3</v>
       </c>
       <c r="CV12" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="CX12" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="CX12" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="CY12" s="2" t="s">
         <v>289</v>
@@ -13106,25 +13968,25 @@
         <v>4</v>
       </c>
       <c r="DE12" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF12" s="2" t="s">
         <v>212</v>
       </c>
       <c r="DG12" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="DH12" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="DH12" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="DI12" s="2">
         <v>3</v>
       </c>
       <c r="DJ12" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="DK12" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="DK12" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="DM12" s="1" t="s">
         <v>225</v>
@@ -13136,7 +13998,7 @@
         <v>219</v>
       </c>
       <c r="DQ12" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="DR12" s="2" t="s">
         <v>782</v>
@@ -13145,13 +14007,13 @@
         <v>212</v>
       </c>
       <c r="DU12" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="DV12" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="DV12" s="2" t="s">
+      <c r="DW12" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="DW12" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="DX12" s="2" t="s">
         <v>197</v>
@@ -13166,7 +14028,7 @@
         <v>785</v>
       </c>
       <c r="EC12" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="ED12" s="2" t="s">
         <v>557</v>
@@ -13175,49 +14037,49 @@
         <v>197</v>
       </c>
       <c r="EG12" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="EH12" s="2">
         <v>245</v>
       </c>
       <c r="EI12" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="EJ12" s="9" t="s">
         <v>847</v>
-      </c>
-      <c r="EJ12" s="9" t="s">
-        <v>848</v>
       </c>
       <c r="EK12" s="2" t="s">
         <v>197</v>
       </c>
       <c r="EL12" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="EM12" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="EM12" s="2" t="s">
+      <c r="EO12" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="EO12" s="2" t="s">
+      <c r="EP12" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="EP12" s="2" t="s">
+      <c r="EQ12" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="EQ12" s="2" t="s">
+      <c r="ER12" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="ER12" s="2" t="s">
-        <v>854</v>
       </c>
       <c r="ES12" s="2" t="s">
         <v>242</v>
       </c>
       <c r="ET12" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU12" s="2" t="s">
         <v>315</v>
       </c>
       <c r="EW12" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="EX12" s="2" t="s">
         <v>284</v>
@@ -13226,10 +14088,10 @@
         <v>242</v>
       </c>
       <c r="EZ12" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="FA12" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="FA12" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="FB12" s="2" t="s">
         <v>284</v>
@@ -13238,7 +14100,7 @@
         <v>447</v>
       </c>
       <c r="FD12" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="FE12" s="2" t="s">
         <v>449</v>
@@ -13247,7 +14109,7 @@
         <v>168</v>
       </c>
       <c r="FG12" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="FH12" s="5" t="s">
         <v>227</v>
@@ -13256,7 +14118,7 @@
         <v>197</v>
       </c>
       <c r="FJ12" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="FK12" s="2" t="s">
         <v>394</v>
@@ -13273,22 +14135,22 @@
       <c r="FP12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="FQ12" s="27">
+      <c r="FQ12" s="26">
         <v>0.55000000000000004</v>
       </c>
-      <c r="FR12" s="23">
+      <c r="FR12" s="22">
         <v>0.35</v>
       </c>
-      <c r="FS12" s="23">
+      <c r="FS12" s="22">
         <v>0.05</v>
       </c>
-      <c r="FT12" s="23">
+      <c r="FT12" s="22">
         <v>0.05</v>
       </c>
-      <c r="FU12" s="23">
+      <c r="FU12" s="22">
         <v>0</v>
       </c>
-      <c r="FV12" s="23">
+      <c r="FV12" s="22">
         <v>0</v>
       </c>
       <c r="FY12" s="2" t="s">
@@ -13300,67 +14162,67 @@
         <v>44345.273268472221</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="E13" s="4">
         <v>44306</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="L13" s="4">
         <v>24243</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>870</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>871</v>
+      <c r="Q13" s="5" t="s">
+        <v>1375</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>168</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>173</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>172</v>
@@ -13369,16 +14231,16 @@
         <v>173</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>173</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>172</v>
@@ -13387,7 +14249,7 @@
         <v>173</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>172</v>
@@ -13417,17 +14279,17 @@
         <v>1119</v>
       </c>
       <c r="BA13" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="BE13" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="2" t="s">
+      <c r="BF13" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="BG13" s="2">
         <v>30</v>
@@ -13436,25 +14298,25 @@
         <v>198</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="BJ13" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="BK13" s="2" t="s">
         <v>269</v>
       </c>
       <c r="BM13" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="BO13" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BP13" s="2" t="s">
         <v>189</v>
       </c>
       <c r="BQ13" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BR13" s="2" t="s">
         <v>168</v>
@@ -13463,19 +14325,19 @@
         <v>287</v>
       </c>
       <c r="BT13" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="BU13" s="2" t="s">
         <v>478</v>
       </c>
       <c r="BW13" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="BY13" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="BY13" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="CA13" s="2" t="s">
         <v>197</v>
@@ -13484,22 +14346,22 @@
         <v>718</v>
       </c>
       <c r="CD13" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="CE13" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="CF13" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="CE13" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="CF13" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="CG13" s="2" t="s">
         <v>284</v>
       </c>
       <c r="CH13" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="CJ13" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="CK13" s="2" t="s">
         <v>227</v>
@@ -13508,19 +14370,19 @@
         <v>269</v>
       </c>
       <c r="CM13" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="CO13" s="2" t="s">
         <v>205</v>
       </c>
       <c r="CP13" s="2" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="CQ13" s="2" t="s">
         <v>205</v>
       </c>
       <c r="CR13" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="CS13" s="2" t="s">
         <v>290</v>
@@ -13535,7 +14397,7 @@
         <v>668</v>
       </c>
       <c r="CX13" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="CY13" s="2" t="s">
         <v>205</v>
@@ -13556,52 +14418,52 @@
         <v>60</v>
       </c>
       <c r="DE13" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DF13" s="2" t="s">
         <v>212</v>
       </c>
       <c r="DG13" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="DH13" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="DI13" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="DJ13" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="DH13" s="2" t="s">
+      <c r="DK13" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="DI13" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="DJ13" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="DK13" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="DM13" s="1" t="s">
         <v>225</v>
       </c>
       <c r="DN13" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="DP13" s="2" t="s">
         <v>219</v>
       </c>
       <c r="DQ13" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="DR13" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="DT13" s="2" t="s">
         <v>553</v>
       </c>
       <c r="DU13" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="DV13" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="DW13" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="DX13" s="2" t="s">
         <v>227</v>
@@ -13613,7 +14475,7 @@
         <v>221</v>
       </c>
       <c r="EA13" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="EC13" s="2" t="s">
         <v>234</v>
@@ -13625,16 +14487,16 @@
         <v>227</v>
       </c>
       <c r="EF13" s="5" t="s">
-        <v>1158</v>
+        <v>1528</v>
       </c>
       <c r="EG13" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="EH13" s="2">
         <v>45</v>
       </c>
       <c r="EI13" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="EJ13" s="9" t="s">
         <v>198</v>
@@ -13643,13 +14505,13 @@
         <v>557</v>
       </c>
       <c r="EL13" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="EM13" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="EN13" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="EO13" s="2" t="s">
         <v>557</v>
@@ -13661,19 +14523,19 @@
         <v>557</v>
       </c>
       <c r="ER13" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="ES13" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="ET13" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="EU13" s="2" t="s">
         <v>315</v>
       </c>
       <c r="EW13" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="EX13" s="2" t="s">
         <v>284</v>
@@ -13682,7 +14544,7 @@
         <v>394</v>
       </c>
       <c r="EZ13" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="FA13" s="2" t="s">
         <v>198</v>
@@ -13691,10 +14553,10 @@
         <v>284</v>
       </c>
       <c r="FC13" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="FD13" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="FE13" s="2" t="s">
         <v>449</v>
@@ -13709,7 +14571,7 @@
         <v>227</v>
       </c>
       <c r="FJ13" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="FK13" s="2" t="s">
         <v>173</v>
@@ -13729,112 +14591,112 @@
       <c r="FP13" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="FQ13" s="27">
+      <c r="FQ13" s="26">
         <v>0.3</v>
       </c>
-      <c r="FR13" s="23">
+      <c r="FR13" s="22">
         <v>0.3</v>
       </c>
-      <c r="FS13" s="23">
+      <c r="FS13" s="22">
         <v>0.08</v>
       </c>
-      <c r="FT13" s="23">
+      <c r="FT13" s="22">
         <v>0.01</v>
       </c>
-      <c r="FU13" s="23">
+      <c r="FU13" s="22">
         <v>0.01</v>
       </c>
-      <c r="FV13" s="23">
+      <c r="FV13" s="22">
         <v>0.3</v>
       </c>
       <c r="FX13" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="FY13" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    <row r="14" spans="1:181" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>44370.575993657403</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>574</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44363</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E14" s="13">
-        <v>44363</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>927</v>
       </c>
       <c r="J14" s="1">
         <v>3213946562</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="L14" s="12">
+        <v>41869</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="L14" s="13">
-        <v>41869</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>932</v>
+        <v>1534</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>170</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>933</v>
+        <v>646</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="AE14" s="1" t="s">
         <v>172</v>
@@ -13843,7 +14705,7 @@
         <v>173</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>172</v>
@@ -13852,13 +14714,13 @@
         <v>173</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AR14" s="1">
         <v>5250</v>
@@ -13891,64 +14753,64 @@
         <v>263</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="BG14" s="1">
         <v>14</v>
       </c>
       <c r="BH14" s="1" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="BI14" s="1" t="s">
         <v>530</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>269</v>
       </c>
       <c r="BM14" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="BN14" s="1" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="BP14" s="1" t="s">
         <v>765</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="BU14" s="1" t="s">
         <v>718</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="BY14" s="1" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="CA14" s="1" t="s">
         <v>221</v>
@@ -13957,22 +14819,22 @@
         <v>276</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="CE14" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="CF14" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="CG14" s="1" t="s">
         <v>381</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="CJ14" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="CK14" s="1" t="s">
         <v>227</v>
@@ -13981,7 +14843,7 @@
         <v>269</v>
       </c>
       <c r="CM14" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="CO14" s="1" t="s">
         <v>418</v>
@@ -13990,7 +14852,7 @@
         <v>418</v>
       </c>
       <c r="CS14" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="CT14" s="1" t="s">
         <v>291</v>
@@ -14002,7 +14864,7 @@
         <v>209</v>
       </c>
       <c r="CX14" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="CY14" s="1" t="s">
         <v>289</v>
@@ -14016,8 +14878,8 @@
       <c r="DB14" s="1">
         <v>6</v>
       </c>
-      <c r="DC14" s="16" t="s">
-        <v>803</v>
+      <c r="DC14" s="15" t="s">
+        <v>802</v>
       </c>
       <c r="DD14" s="1">
         <v>4</v>
@@ -14029,19 +14891,19 @@
         <v>294</v>
       </c>
       <c r="DG14" s="1" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="DH14" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="DI14" s="1">
         <v>1</v>
       </c>
       <c r="DJ14" s="1" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="DK14" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="DM14" s="1" t="s">
         <v>426</v>
@@ -14053,7 +14915,7 @@
         <v>299</v>
       </c>
       <c r="DQ14" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="DR14" s="1" t="s">
         <v>782</v>
@@ -14062,18 +14924,18 @@
         <v>212</v>
       </c>
       <c r="DU14" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="DV14" s="1" t="s">
         <v>225</v>
       </c>
       <c r="DW14" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="DX14" s="16" t="s">
+        <v>963</v>
+      </c>
+      <c r="DX14" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="DY14" s="17" t="s">
+      <c r="DY14" s="16" t="s">
         <v>227</v>
       </c>
       <c r="DZ14" s="1" t="s">
@@ -14083,61 +14945,61 @@
         <v>558</v>
       </c>
       <c r="EC14" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="ED14" s="1" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="EE14" s="1" t="s">
         <v>227</v>
       </c>
       <c r="EF14" s="1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="EG14" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="EH14" s="1">
         <v>6</v>
       </c>
       <c r="EI14" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="EJ14" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="EJ14" s="16" t="s">
         <v>584</v>
       </c>
       <c r="EK14" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="EL14" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="EM14" s="1" t="s">
         <v>438</v>
       </c>
       <c r="EO14" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="EP14" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="EQ14" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="ER14" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="ES14" s="1" t="s">
         <v>242</v>
       </c>
       <c r="ET14" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="EU14" s="1" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="EW14" s="1" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="EX14" s="1" t="s">
         <v>284</v>
@@ -14146,10 +15008,10 @@
         <v>242</v>
       </c>
       <c r="EZ14" s="1" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="FA14" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="FB14" s="1" t="s">
         <v>284</v>
@@ -14158,22 +15020,22 @@
         <v>383</v>
       </c>
       <c r="FD14" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="FE14" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="FF14" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="FH14" s="16" t="s">
+      <c r="FH14" s="15" t="s">
         <v>227</v>
       </c>
       <c r="FI14" s="1" t="s">
         <v>197</v>
       </c>
       <c r="FJ14" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="FK14" s="1" t="s">
         <v>173</v>
@@ -14193,70 +15055,70 @@
       <c r="FP14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="FQ14" s="29" t="s">
+      <c r="FQ14" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="FR14" s="25" t="s">
+      <c r="FR14" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FS14" s="25" t="s">
+      <c r="FS14" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FT14" s="25" t="s">
+      <c r="FT14" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FU14" s="25" t="s">
+      <c r="FU14" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="FV14" s="25" t="s">
+      <c r="FV14" s="24" t="s">
         <v>584</v>
       </c>
       <c r="FY14" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="15" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+    <row r="15" spans="1:181" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>44384.71444163195</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="E15" s="13">
+        <v>980</v>
+      </c>
+      <c r="E15" s="12">
         <v>44363</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>1148</v>
+      <c r="F15" s="15" t="s">
+        <v>1144</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="J15" s="1">
         <v>3143405646</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="L15" s="13">
+        <v>983</v>
+      </c>
+      <c r="L15" s="12">
         <v>40816</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>261</v>
@@ -14265,7 +15127,7 @@
         <v>173</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>172</v>
@@ -14274,7 +15136,7 @@
         <v>173</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>172</v>
@@ -14313,58 +15175,58 @@
         <v>263</v>
       </c>
       <c r="BE15" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="BF15" s="1" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="BG15" s="1">
         <v>240</v>
       </c>
       <c r="BH15" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="BJ15" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>168</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="BO15" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="BP15" s="1" t="s">
         <v>189</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="BR15" s="1" t="s">
         <v>274</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="BU15" s="1" t="s">
         <v>394</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="BY15" s="1" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="CA15" s="1" t="s">
         <v>221</v>
@@ -14376,19 +15238,19 @@
         <v>281</v>
       </c>
       <c r="CE15" s="1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="CF15" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="CG15" s="1" t="s">
         <v>602</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="CJ15" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="CK15" s="1" t="s">
         <v>197</v>
@@ -14403,7 +15265,7 @@
         <v>205</v>
       </c>
       <c r="CP15" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="CQ15" s="1" t="s">
         <v>289</v>
@@ -14412,7 +15274,7 @@
         <v>290</v>
       </c>
       <c r="CT15" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="CU15" s="1">
         <v>2</v>
@@ -14421,10 +15283,10 @@
         <v>209</v>
       </c>
       <c r="CW15" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="CX15" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="CY15" s="1" t="s">
         <v>205</v>
@@ -14444,26 +15306,26 @@
       <c r="DD15" s="1">
         <v>7</v>
       </c>
-      <c r="DE15" s="16">
+      <c r="DE15" s="15">
         <v>7</v>
       </c>
       <c r="DF15" s="1" t="s">
         <v>300</v>
       </c>
       <c r="DG15" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="DH15" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="DI15" s="15">
+        <v>1008</v>
+      </c>
+      <c r="DI15" s="14">
         <v>1.5</v>
       </c>
       <c r="DJ15" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="DK15" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="DM15" s="1" t="s">
         <v>426</v>
@@ -14475,27 +15337,27 @@
         <v>299</v>
       </c>
       <c r="DQ15" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="DR15" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="DT15" s="1" t="s">
         <v>294</v>
       </c>
       <c r="DU15" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="DV15" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="DW15" s="1" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="DX15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DY15" s="17" t="s">
+      <c r="DY15" s="16" t="s">
         <v>227</v>
       </c>
       <c r="DZ15" s="1" t="s">
@@ -14505,61 +15367,61 @@
         <v>785</v>
       </c>
       <c r="EC15" s="1" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="ED15" s="1" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="EE15" s="1" t="s">
         <v>227</v>
       </c>
       <c r="EF15" s="1" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="EG15" s="1" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="EH15" s="1">
         <v>43</v>
       </c>
       <c r="EI15" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="EJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="EK15" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="EL15" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="EM15" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="EO15" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="EP15" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="EJ15" s="17">
-        <v>0</v>
-      </c>
-      <c r="EK15" s="1" t="s">
+      <c r="EQ15" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="EL15" s="1" t="s">
+      <c r="ER15" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="EM15" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="EO15" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="EP15" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="EQ15" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="ER15" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="ES15" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="ET15" s="15" t="s">
-        <v>1163</v>
+      <c r="ET15" s="14" t="s">
+        <v>1157</v>
       </c>
       <c r="EU15" s="1" t="s">
         <v>746</v>
       </c>
       <c r="EW15" s="1" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="EX15" s="1" t="s">
         <v>602</v>
@@ -14568,19 +15430,19 @@
         <v>242</v>
       </c>
       <c r="EZ15" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="FA15" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="FB15" s="1" t="s">
         <v>602</v>
       </c>
       <c r="FC15" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="FD15" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="FE15" s="1" t="s">
         <v>449</v>
@@ -14597,88 +15459,88 @@
       <c r="FJ15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="FL15" s="15">
+      <c r="FL15" s="14">
         <v>1.5</v>
       </c>
       <c r="FM15" s="1" t="s">
         <v>197</v>
       </c>
       <c r="FN15" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="FO15" s="15">
+        <v>1029</v>
+      </c>
+      <c r="FO15" s="14">
         <v>3</v>
       </c>
       <c r="FP15" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="FQ15" s="29">
+        <v>1030</v>
+      </c>
+      <c r="FQ15" s="28">
         <v>0.8</v>
       </c>
-      <c r="FR15" s="25">
+      <c r="FR15" s="24">
         <v>0.15</v>
       </c>
-      <c r="FS15" s="25">
+      <c r="FS15" s="24">
         <v>0.05</v>
       </c>
-      <c r="FT15" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="FU15" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="FV15" s="25" t="s">
-        <v>803</v>
+      <c r="FT15" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="FU15" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="FV15" s="24" t="s">
+        <v>802</v>
       </c>
       <c r="FX15" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="FY15" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+    <row r="16" spans="1:181" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>44385.476659016203</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44363</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="E16" s="13">
-        <v>44363</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="L16" s="12">
+        <v>40602</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="L16" s="13">
-        <v>40602</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>1035</v>
+      <c r="O16" s="15" t="s">
+        <v>1031</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>172</v>
@@ -14687,7 +15549,7 @@
         <v>170</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>261</v>
@@ -14696,7 +15558,7 @@
         <v>170</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>172</v>
@@ -14735,61 +15597,61 @@
         <v>263</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="BF16" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="BG16" s="1">
         <v>15</v>
       </c>
       <c r="BH16" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="BM16" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="BI16" s="1" t="s">
+      <c r="BN16" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="BJ16" s="1" t="s">
+      <c r="BO16" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="BK16" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="BM16" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="BN16" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="BO16" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="BP16" s="1" t="s">
         <v>272</v>
       </c>
       <c r="BQ16" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="BR16" s="1" t="s">
         <v>274</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="BU16" s="1" t="s">
         <v>168</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="BY16" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>221</v>
@@ -14801,10 +15663,10 @@
         <v>281</v>
       </c>
       <c r="CE16" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="CF16" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="CG16" s="1" t="s">
         <v>394</v>
@@ -14813,7 +15675,7 @@
         <v>201</v>
       </c>
       <c r="CJ16" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="CK16" s="1" t="s">
         <v>197</v>
@@ -14827,7 +15689,7 @@
       <c r="CO16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="CP16" s="16" t="s">
+      <c r="CP16" s="15" t="s">
         <v>205</v>
       </c>
       <c r="CQ16" s="1" t="s">
@@ -14846,7 +15708,7 @@
         <v>292</v>
       </c>
       <c r="CX16" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="CY16" s="1" t="s">
         <v>289</v>
@@ -14873,19 +15735,19 @@
         <v>212</v>
       </c>
       <c r="DG16" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="DH16" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="DI16" s="1">
         <v>1</v>
       </c>
       <c r="DJ16" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="DK16" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="DM16" s="1" t="s">
         <v>426</v>
@@ -14897,7 +15759,7 @@
         <v>299</v>
       </c>
       <c r="DQ16" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="DR16" s="1" t="s">
         <v>428</v>
@@ -14906,18 +15768,18 @@
         <v>212</v>
       </c>
       <c r="DU16" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="DV16" s="1" t="s">
         <v>302</v>
       </c>
       <c r="DW16" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="DX16" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DY16" s="17" t="s">
+      <c r="DY16" s="16" t="s">
         <v>227</v>
       </c>
       <c r="DZ16" s="1" t="s">
@@ -14927,16 +15789,16 @@
         <v>785</v>
       </c>
       <c r="EC16" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="ED16" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="EE16" s="1" t="s">
         <v>197</v>
       </c>
       <c r="EG16" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="EH16" s="1">
         <v>220</v>
@@ -14944,41 +15806,41 @@
       <c r="EI16" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="EJ16" s="17" t="s">
-        <v>1075</v>
+      <c r="EJ16" s="16" t="s">
+        <v>1071</v>
       </c>
       <c r="EK16" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="EL16" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="EM16" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="EO16" s="1" t="s">
         <v>440</v>
       </c>
       <c r="EP16" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="EQ16" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="ER16" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="ES16" s="1" t="s">
         <v>242</v>
       </c>
       <c r="ET16" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="EU16" s="1" t="s">
         <v>625</v>
       </c>
       <c r="EW16" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="EX16" s="1" t="s">
         <v>394</v>
@@ -14987,10 +15849,10 @@
         <v>242</v>
       </c>
       <c r="EZ16" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="FA16" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="FB16" s="1" t="s">
         <v>394</v>
@@ -14999,7 +15861,7 @@
         <v>629</v>
       </c>
       <c r="FD16" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="FE16" s="1" t="s">
         <v>449</v>
@@ -15007,14 +15869,14 @@
       <c r="FF16" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="FH16" s="16" t="s">
+      <c r="FH16" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="FI16" s="16" t="s">
+      <c r="FI16" s="15" t="s">
         <v>227</v>
       </c>
       <c r="FJ16" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="FL16" s="1">
         <f>2.5</f>
@@ -15024,7 +15886,7 @@
         <v>221</v>
       </c>
       <c r="FN16" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="FO16" s="1">
         <v>1</v>
@@ -15032,73 +15894,73 @@
       <c r="FP16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="FQ16" s="29" t="s">
-        <v>1087</v>
-      </c>
-      <c r="FR16" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="FS16" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="FT16" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="FU16" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="FV16" s="25" t="s">
-        <v>1087</v>
+      <c r="FQ16" s="28" t="s">
+        <v>1083</v>
+      </c>
+      <c r="FR16" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="FS16" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="FT16" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="FU16" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="FV16" s="24" t="s">
+        <v>1083</v>
       </c>
       <c r="FY16" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
-    <row r="17" spans="1:181" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+    <row r="17" spans="1:181" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>44385.485729236112</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>509</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44363</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="E17" s="13">
-        <v>44363</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="L17" s="12">
+        <v>39783</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L17" s="13">
-        <v>39783</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>1097</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>261</v>
@@ -15107,7 +15969,7 @@
         <v>170</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>261</v>
@@ -15116,31 +15978,31 @@
         <v>173</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="AE17" s="1" t="s">
         <v>168</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AG17" s="1" t="s">
         <v>173</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="AJ17" s="1" t="s">
         <v>172</v>
@@ -15152,7 +16014,7 @@
         <v>1950</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="AT17" s="1">
         <v>81</v>
@@ -15173,64 +16035,64 @@
         <v>300</v>
       </c>
       <c r="BA17" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="BD17" s="1" t="s">
         <v>180</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="BF17" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="BG17" s="1">
         <v>90</v>
       </c>
       <c r="BH17" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>269</v>
       </c>
       <c r="BM17" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="BN17" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="BP17" s="1" t="s">
         <v>475</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="BR17" s="1" t="s">
         <v>274</v>
       </c>
       <c r="BT17" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="BU17" s="1" t="s">
         <v>718</v>
       </c>
       <c r="BW17" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="BY17" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="CA17" s="1" t="s">
         <v>197</v>
@@ -15242,10 +16104,10 @@
         <v>413</v>
       </c>
       <c r="CE17" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="CF17" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="CG17" s="1" t="s">
         <v>394</v>
@@ -15254,7 +16116,7 @@
         <v>394</v>
       </c>
       <c r="CJ17" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="CK17" s="1" t="s">
         <v>197</v>
@@ -15281,10 +16143,10 @@
         <v>6</v>
       </c>
       <c r="CV17" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="CX17" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="CY17" s="1" t="s">
         <v>289</v>
@@ -15295,7 +16157,7 @@
       <c r="DA17" s="1">
         <v>12</v>
       </c>
-      <c r="DB17" s="16">
+      <c r="DB17" s="15">
         <f>19/2</f>
         <v>9.5</v>
       </c>
@@ -15305,38 +16167,38 @@
       <c r="DD17" s="1">
         <v>13</v>
       </c>
-      <c r="DE17" s="18">
+      <c r="DE17" s="17">
         <v>2.5</v>
       </c>
       <c r="DF17" s="1" t="s">
         <v>212</v>
       </c>
       <c r="DG17" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="DH17" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="DI17" s="15">
+        <v>1119</v>
+      </c>
+      <c r="DI17" s="14">
         <v>1.5</v>
       </c>
       <c r="DJ17" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="DK17" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="DM17" s="1" t="s">
         <v>225</v>
       </c>
       <c r="DN17" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="DP17" s="1" t="s">
         <v>299</v>
       </c>
       <c r="DQ17" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="DR17" s="1" t="s">
         <v>782</v>
@@ -15345,18 +16207,18 @@
         <v>553</v>
       </c>
       <c r="DU17" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="DV17" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="DW17" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="DX17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DY17" s="17" t="s">
+      <c r="DY17" s="16" t="s">
         <v>227</v>
       </c>
       <c r="DZ17" s="1" t="s">
@@ -15366,7 +16228,7 @@
         <v>613</v>
       </c>
       <c r="EC17" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="ED17" s="1" t="s">
         <v>197</v>
@@ -15375,64 +16237,64 @@
         <v>227</v>
       </c>
       <c r="EF17" s="1" t="s">
-        <v>1155</v>
+        <v>1527</v>
       </c>
       <c r="EG17" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="EH17" s="1">
         <v>130</v>
       </c>
       <c r="EI17" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="EJ17" s="16">
+        <v>1</v>
+      </c>
+      <c r="EK17" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="EL17" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="EM17" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="EO17" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="EP17" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="EJ17" s="17">
-        <v>1</v>
-      </c>
-      <c r="EK17" s="1" t="s">
+      <c r="EQ17" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="EL17" s="1" t="s">
+      <c r="ER17" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="EM17" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="EO17" s="1" t="s">
+      <c r="ES17" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="EP17" s="1" t="s">
+      <c r="ET17" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="EU17" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="EQ17" s="1" t="s">
+      <c r="EW17" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="ER17" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="ES17" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="ET17" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="EU17" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="EW17" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="EX17" s="1" t="s">
         <v>284</v>
       </c>
       <c r="EY17" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="EZ17" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="FA17" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="EZ17" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="FA17" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="FB17" s="1" t="s">
         <v>284</v>
@@ -15441,7 +16303,7 @@
         <v>508</v>
       </c>
       <c r="FD17" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="FE17" s="1" t="s">
         <v>449</v>
@@ -15456,7 +16318,7 @@
         <v>227</v>
       </c>
       <c r="FJ17" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="FL17" s="1">
         <v>2</v>
@@ -15465,7 +16327,7 @@
         <v>197</v>
       </c>
       <c r="FN17" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="FO17" s="1">
         <v>1</v>
@@ -15473,70 +16335,70 @@
       <c r="FP17" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="FQ17" s="29">
+      <c r="FQ17" s="28">
         <v>0.4</v>
       </c>
-      <c r="FR17" s="25">
+      <c r="FR17" s="24">
         <v>0.1</v>
       </c>
-      <c r="FS17" s="25">
+      <c r="FS17" s="24">
         <v>0.5</v>
       </c>
-      <c r="FT17" s="23">
+      <c r="FT17" s="22">
         <v>0</v>
       </c>
-      <c r="FU17" s="23">
+      <c r="FU17" s="22">
         <v>0</v>
       </c>
-      <c r="FV17" s="23">
+      <c r="FV17" s="22">
         <v>0</v>
       </c>
       <c r="FY17" s="1" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>44447.520694444444</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>1166</v>
+      <c r="B18" s="33" t="s">
+        <v>1160</v>
       </c>
       <c r="C18" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E18" s="30">
+        <v>1161</v>
+      </c>
+      <c r="E18" s="29">
         <v>44410</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>1431</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>1433</v>
+      <c r="F18" s="35" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>1421</v>
       </c>
       <c r="H18" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="I18" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="J18">
         <v>3125216160</v>
       </c>
       <c r="K18" t="s">
-        <v>1170</v>
-      </c>
-      <c r="L18" s="30">
+        <v>1164</v>
+      </c>
+      <c r="L18" s="29">
         <v>39277</v>
       </c>
       <c r="M18" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="N18" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="O18" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="P18" t="s">
         <v>172</v>
@@ -15553,10 +16415,10 @@
       <c r="AR18">
         <v>10</v>
       </c>
-      <c r="AS18" s="37">
+      <c r="AS18" s="36">
         <v>4</v>
       </c>
-      <c r="AT18" s="37">
+      <c r="AT18" s="36">
         <v>20</v>
       </c>
       <c r="AU18">
@@ -15566,7 +16428,7 @@
         <v>50</v>
       </c>
       <c r="AW18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AX18">
         <v>20000</v>
@@ -15574,29 +16436,29 @@
       <c r="AY18">
         <v>400</v>
       </c>
-      <c r="AZ18" s="31" t="s">
-        <v>1174</v>
+      <c r="AZ18" s="30" t="s">
+        <v>1168</v>
       </c>
       <c r="BA18" t="s">
         <v>396</v>
       </c>
       <c r="BD18" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BE18" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="BF18" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="BG18">
         <v>30</v>
       </c>
       <c r="BH18" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="BI18" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="BJ18" t="e" cm="1">
         <f t="array" ref="BJ18">- La entidad hace La solicitud de cotización
@@ -15610,37 +16472,37 @@
         <v>269</v>
       </c>
       <c r="BM18" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="BO18" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="BP18" t="s">
         <v>189</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="BR18" t="s">
         <v>274</v>
       </c>
       <c r="BT18" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="BU18" t="s">
         <v>394</v>
       </c>
       <c r="BV18" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="BW18" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="BX18" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="BY18" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="CA18" t="s">
         <v>197</v>
@@ -15651,29 +16513,29 @@
       <c r="CD18" t="s">
         <v>413</v>
       </c>
-      <c r="CE18" s="31" t="s">
-        <v>1187</v>
+      <c r="CE18" s="30" t="s">
+        <v>1181</v>
       </c>
       <c r="CF18" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="CG18" t="s">
         <v>284</v>
       </c>
       <c r="CH18" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="CJ18" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="CK18" t="s">
         <v>227</v>
       </c>
       <c r="CL18" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="CM18" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="CO18" t="s">
         <v>394</v>
@@ -15685,7 +16547,7 @@
         <v>420</v>
       </c>
       <c r="CT18" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="CU18">
         <v>1</v>
@@ -15693,14 +16555,14 @@
       <c r="CV18" t="s">
         <v>292</v>
       </c>
-      <c r="CW18" s="31" t="s">
-        <v>1192</v>
-      </c>
-      <c r="CX18" s="31" t="s">
-        <v>1193</v>
+      <c r="CW18" s="30" t="s">
+        <v>1186</v>
+      </c>
+      <c r="CX18" s="30" t="s">
+        <v>1187</v>
       </c>
       <c r="CY18" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="CZ18">
         <v>5</v>
@@ -15717,14 +16579,14 @@
       <c r="DD18">
         <v>7</v>
       </c>
-      <c r="DE18" s="32">
+      <c r="DE18" s="31">
         <v>44474</v>
       </c>
       <c r="DF18" t="s">
         <v>294</v>
       </c>
       <c r="DG18" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="DH18" t="e" cm="1">
         <f t="array" ref="DH18">- Se hace La comparación de los productos allegados contra La orden de compra
@@ -15736,10 +16598,10 @@
         <v>1</v>
       </c>
       <c r="DJ18" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="DK18" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="DM18" t="s">
         <v>490</v>
@@ -15751,24 +16613,24 @@
         <v>299</v>
       </c>
       <c r="DQ18" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="DR18" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="DT18" t="s">
         <v>294</v>
       </c>
       <c r="DU18" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="DV18" t="s">
         <v>394</v>
       </c>
       <c r="DW18" t="s">
-        <v>1201</v>
-      </c>
-      <c r="DX18" s="36" t="s">
+        <v>1195</v>
+      </c>
+      <c r="DX18" s="35" t="s">
         <v>197</v>
       </c>
       <c r="DY18" t="s">
@@ -15781,28 +16643,28 @@
         <v>785</v>
       </c>
       <c r="EC18" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="ED18" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="EE18" t="s">
         <v>197</v>
       </c>
       <c r="EG18" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="EH18">
         <v>2</v>
       </c>
       <c r="EI18" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="EJ18" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="EK18" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="EL18" t="e" cm="1">
         <f t="array" ref="EL18">- el paciente llega con La prescripción en el recetario oficial
@@ -15816,28 +16678,28 @@
         <v>310</v>
       </c>
       <c r="EO18" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="EP18" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="EQ18" t="s">
-        <v>1209</v>
-      </c>
-      <c r="ER18" s="31" t="s">
-        <v>1210</v>
+        <v>1203</v>
+      </c>
+      <c r="ER18" s="30" t="s">
+        <v>1204</v>
       </c>
       <c r="ES18" t="s">
         <v>242</v>
       </c>
       <c r="ET18" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="EU18" t="s">
         <v>746</v>
       </c>
       <c r="EW18" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="EX18" t="s">
         <v>284</v>
@@ -15845,20 +16707,20 @@
       <c r="EY18" t="s">
         <v>242</v>
       </c>
-      <c r="EZ18" s="31" t="s">
-        <v>1210</v>
+      <c r="EZ18" s="30" t="s">
+        <v>1204</v>
       </c>
       <c r="FA18" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="FB18" t="s">
         <v>284</v>
       </c>
       <c r="FC18" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="FD18" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="FE18" t="s">
         <v>449</v>
@@ -15866,10 +16728,10 @@
       <c r="FF18" t="s">
         <v>249</v>
       </c>
-      <c r="FH18" s="37" t="s">
+      <c r="FH18" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="FI18" s="37" t="s">
+      <c r="FI18" s="36" t="s">
         <v>197</v>
       </c>
       <c r="FJ18" t="s">
@@ -15882,108 +16744,108 @@
         <v>197</v>
       </c>
       <c r="FN18" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="FO18">
         <v>1</v>
       </c>
       <c r="FP18" t="s">
-        <v>1034</v>
-      </c>
-      <c r="FQ18" s="22">
+        <v>1030</v>
+      </c>
+      <c r="FQ18" s="21">
         <v>0.25</v>
       </c>
-      <c r="FR18" s="22">
+      <c r="FR18" s="21">
         <v>0.25</v>
       </c>
-      <c r="FS18" s="22">
+      <c r="FS18" s="21">
         <v>0.5</v>
       </c>
-      <c r="FT18" s="22">
+      <c r="FT18" s="21">
         <v>0</v>
       </c>
-      <c r="FU18" s="22">
+      <c r="FU18" s="21">
         <v>0</v>
       </c>
-      <c r="FV18" s="22">
+      <c r="FV18" s="21">
         <v>0</v>
       </c>
       <c r="FW18" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="FY18" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>44508.834780092591</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>861</v>
+      <c r="B19" s="33" t="s">
+        <v>860</v>
       </c>
       <c r="C19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E19" s="29">
+        <v>44398</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J19" t="s">
         <v>1217</v>
       </c>
-      <c r="D19" t="s">
+      <c r="K19" t="s">
         <v>1218</v>
       </c>
-      <c r="E19" s="30">
-        <v>44398</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="L19" s="29">
+        <v>40255</v>
+      </c>
+      <c r="M19" t="s">
         <v>1219</v>
       </c>
-      <c r="G19" t="s">
+      <c r="N19" t="s">
         <v>1220</v>
       </c>
-      <c r="H19" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1222</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1223</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1224</v>
-      </c>
-      <c r="L19" s="30">
-        <v>40255</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1225</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1226</v>
-      </c>
       <c r="O19" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="P19" t="s">
         <v>168</v>
       </c>
-      <c r="Q19" t="s">
-        <v>1227</v>
+      <c r="Q19" s="32" t="s">
+        <v>1532</v>
       </c>
       <c r="R19" t="s">
         <v>170</v>
       </c>
       <c r="T19" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="U19" t="s">
         <v>168</v>
       </c>
-      <c r="V19" s="31" t="s">
-        <v>1228</v>
+      <c r="V19" s="43" t="s">
+        <v>1535</v>
       </c>
       <c r="W19" t="s">
         <v>173</v>
       </c>
       <c r="Y19" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="Z19" t="s">
         <v>261</v>
@@ -16000,11 +16862,11 @@
       <c r="AT19">
         <v>81</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" s="36">
+        <v>3</v>
+      </c>
+      <c r="AV19" s="36">
         <v>50</v>
-      </c>
-      <c r="AV19">
-        <v>3</v>
       </c>
       <c r="AW19">
         <v>12190</v>
@@ -16022,55 +16884,55 @@
         <v>263</v>
       </c>
       <c r="BE19" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="BF19" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="BG19">
         <v>120</v>
       </c>
-      <c r="BH19" s="31" t="s">
-        <v>1232</v>
+      <c r="BH19" s="30" t="s">
+        <v>1224</v>
       </c>
       <c r="BI19" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="BK19" t="s">
         <v>591</v>
       </c>
       <c r="BM19" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="BO19" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="BP19" t="s">
         <v>406</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="BR19" t="s">
         <v>394</v>
       </c>
       <c r="BT19" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="BU19" t="s">
         <v>394</v>
       </c>
       <c r="BW19" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="BX19" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="BY19" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="CA19" t="s">
         <v>221</v>
@@ -16079,7 +16941,7 @@
         <v>276</v>
       </c>
       <c r="CD19" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="CE19" t="s">
         <v>219</v>
@@ -16094,7 +16956,7 @@
         <v>201</v>
       </c>
       <c r="CJ19" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="CK19" t="s">
         <v>227</v>
@@ -16103,7 +16965,7 @@
         <v>203</v>
       </c>
       <c r="CM19" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="CO19" t="s">
         <v>418</v>
@@ -16112,10 +16974,10 @@
         <v>289</v>
       </c>
       <c r="CS19" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="CT19" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="CU19">
         <v>1</v>
@@ -16124,7 +16986,7 @@
         <v>292</v>
       </c>
       <c r="CX19" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="CY19" t="s">
         <v>289</v>
@@ -16144,23 +17006,23 @@
       <c r="DD19">
         <v>4</v>
       </c>
-      <c r="DE19" s="37" t="s">
-        <v>803</v>
+      <c r="DE19" s="36" t="s">
+        <v>802</v>
       </c>
       <c r="DF19" t="s">
         <v>212</v>
       </c>
       <c r="DG19" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="DH19" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="DI19">
         <v>2</v>
       </c>
       <c r="DJ19" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="DK19" t="s">
         <v>729</v>
@@ -16169,33 +17031,33 @@
         <v>490</v>
       </c>
       <c r="DN19" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="DP19" t="s">
         <v>219</v>
       </c>
       <c r="DQ19" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="DR19" t="s">
         <v>675</v>
       </c>
       <c r="DS19" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="DT19" t="s">
         <v>553</v>
       </c>
       <c r="DU19" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="DV19" t="s">
         <v>555</v>
       </c>
       <c r="DW19" t="s">
-        <v>1251</v>
-      </c>
-      <c r="DX19" s="36" t="s">
+        <v>1243</v>
+      </c>
+      <c r="DX19" s="35" t="s">
         <v>227</v>
       </c>
       <c r="DY19" t="s">
@@ -16208,7 +17070,7 @@
         <v>431</v>
       </c>
       <c r="EC19" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="ED19" t="s">
         <v>197</v>
@@ -16216,11 +17078,11 @@
       <c r="EE19" t="s">
         <v>227</v>
       </c>
-      <c r="EF19" t="s">
-        <v>1253</v>
+      <c r="EF19" s="35" t="s">
+        <v>1150</v>
       </c>
       <c r="EG19" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="EH19">
         <v>78</v>
@@ -16232,46 +17094,46 @@
         <v>198</v>
       </c>
       <c r="EK19" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="EL19" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="EM19" t="s">
         <v>310</v>
       </c>
       <c r="EO19" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="EP19" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="EQ19" t="s">
         <v>197</v>
       </c>
       <c r="ER19" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="ES19" t="s">
         <v>242</v>
       </c>
       <c r="ET19" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="EU19" t="s">
         <v>746</v>
       </c>
       <c r="EW19" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="EX19" t="s">
         <v>284</v>
       </c>
       <c r="EY19" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="EZ19" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="FA19" t="s">
         <v>570</v>
@@ -16280,7 +17142,7 @@
         <v>284</v>
       </c>
       <c r="FC19" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="FD19" t="s">
         <v>591</v>
@@ -16291,14 +17153,14 @@
       <c r="FF19" t="s">
         <v>450</v>
       </c>
-      <c r="FH19" t="s">
-        <v>221</v>
-      </c>
-      <c r="FI19" s="33" t="s">
+      <c r="FH19" s="32" t="s">
         <v>227</v>
       </c>
+      <c r="FI19" s="32" t="s">
+        <v>227</v>
+      </c>
       <c r="FJ19" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="FL19">
         <v>3</v>
@@ -16341,47 +17203,47 @@
       </c>
     </row>
     <row r="20" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>44538.361712962964</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>1263</v>
+      <c r="B20" s="33" t="s">
+        <v>1254</v>
       </c>
       <c r="C20" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E20" s="30">
+        <v>1255</v>
+      </c>
+      <c r="E20" s="29">
         <v>44411</v>
       </c>
       <c r="F20" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="G20" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="H20" t="s">
-        <v>1267</v>
+        <v>1258</v>
       </c>
       <c r="I20" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="J20" t="s">
-        <v>803</v>
-      </c>
-      <c r="K20">
+        <v>802</v>
+      </c>
+      <c r="K20" s="36">
         <v>38</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="41">
         <v>44224</v>
       </c>
       <c r="M20" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="N20" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="O20" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="P20" t="s">
         <v>261</v>
@@ -16420,61 +17282,61 @@
         <v>600</v>
       </c>
       <c r="BA20" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="BD20" t="s">
         <v>263</v>
       </c>
-      <c r="BE20" s="31" t="s">
-        <v>1272</v>
+      <c r="BE20" s="30" t="s">
+        <v>1263</v>
       </c>
       <c r="BF20" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="BG20">
         <v>30</v>
       </c>
       <c r="BH20" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="BI20" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="BJ20" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="BK20" t="s">
         <v>403</v>
       </c>
       <c r="BM20" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="BO20" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="BP20" t="s">
         <v>189</v>
       </c>
       <c r="BQ20" t="s">
-        <v>1278</v>
+        <v>1269</v>
       </c>
       <c r="BR20" t="s">
         <v>274</v>
       </c>
       <c r="BT20" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="BU20" t="s">
         <v>718</v>
       </c>
       <c r="BW20" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="BX20" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="BY20" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="CA20" t="s">
         <v>221</v>
@@ -16486,19 +17348,19 @@
         <v>281</v>
       </c>
       <c r="CE20" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="CF20" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="CG20" t="s">
         <v>284</v>
       </c>
       <c r="CH20" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="CJ20" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="CK20" t="s">
         <v>197</v>
@@ -16510,7 +17372,7 @@
         <v>394</v>
       </c>
       <c r="CO20" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="CQ20" t="s">
         <v>289</v>
@@ -16522,7 +17384,7 @@
         <v>290</v>
       </c>
       <c r="CT20" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="CU20">
         <v>1</v>
@@ -16530,11 +17392,11 @@
       <c r="CV20" t="s">
         <v>292</v>
       </c>
-      <c r="CX20" s="31" t="s">
-        <v>1286</v>
+      <c r="CX20" s="30" t="s">
+        <v>1277</v>
       </c>
       <c r="CY20" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="CZ20">
         <v>1</v>
@@ -16558,31 +17420,31 @@
         <v>212</v>
       </c>
       <c r="DG20" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="DH20" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="DI20">
         <v>1</v>
       </c>
       <c r="DJ20" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="DK20" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="DM20" t="s">
         <v>490</v>
       </c>
       <c r="DN20" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="DP20" t="s">
         <v>219</v>
       </c>
       <c r="DQ20" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="DR20" t="s">
         <v>552</v>
@@ -16591,13 +17453,13 @@
         <v>212</v>
       </c>
       <c r="DU20" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="DV20" t="s">
         <v>302</v>
       </c>
       <c r="DW20" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="DX20" t="s">
         <v>197</v>
@@ -16609,64 +17471,64 @@
         <v>221</v>
       </c>
       <c r="EA20" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="EC20" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="ED20" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="EE20" t="s">
         <v>227</v>
       </c>
-      <c r="EF20" t="s">
-        <v>1297</v>
+      <c r="EF20" s="35" t="s">
+        <v>1150</v>
       </c>
       <c r="EG20" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="EH20">
         <v>11</v>
       </c>
-      <c r="EI20" s="31" t="s">
-        <v>1299</v>
+      <c r="EI20" s="30" t="s">
+        <v>1289</v>
       </c>
       <c r="EJ20" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="EK20" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="EL20" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="EM20" t="s">
         <v>310</v>
       </c>
       <c r="EO20" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="EP20" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="EQ20" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="ER20" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="ES20" t="s">
         <v>242</v>
       </c>
       <c r="ET20" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="EU20" t="s">
         <v>315</v>
       </c>
       <c r="EW20" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="EX20" t="s">
         <v>284</v>
@@ -16675,10 +17537,10 @@
         <v>242</v>
       </c>
       <c r="EZ20" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="FA20" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="FB20" t="s">
         <v>284</v>
@@ -16687,22 +17549,22 @@
         <v>629</v>
       </c>
       <c r="FD20" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="FE20" t="s">
         <v>449</v>
       </c>
       <c r="FF20" t="s">
-        <v>1311</v>
-      </c>
-      <c r="FH20" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="FI20" s="36" t="s">
+        <v>1301</v>
+      </c>
+      <c r="FH20" s="35" t="s">
         <v>227</v>
       </c>
+      <c r="FI20" s="35" t="s">
+        <v>227</v>
+      </c>
       <c r="FJ20" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="FL20">
         <v>1</v>
@@ -16735,66 +17597,66 @@
         <v>0.5</v>
       </c>
       <c r="FY20" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="21" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <v>44538.366678240738</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>574</v>
       </c>
       <c r="C21" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="D21" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E21" s="30">
+        <v>1305</v>
+      </c>
+      <c r="E21" s="29">
         <v>44411</v>
       </c>
       <c r="F21" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="G21" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="H21" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="I21" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="J21">
         <v>5600911</v>
       </c>
       <c r="K21" t="s">
-        <v>1320</v>
-      </c>
-      <c r="L21" s="30">
+        <v>1310</v>
+      </c>
+      <c r="L21" s="29">
         <v>32658</v>
       </c>
       <c r="M21" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="N21" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="O21" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="P21" t="s">
         <v>168</v>
       </c>
-      <c r="Q21" t="s">
-        <v>1323</v>
+      <c r="Q21" s="32" t="s">
+        <v>1531</v>
       </c>
       <c r="R21" t="s">
         <v>170</v>
       </c>
       <c r="T21" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="U21" t="s">
         <v>172</v>
@@ -16803,13 +17665,13 @@
         <v>173</v>
       </c>
       <c r="Y21" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="Z21" t="s">
         <v>168</v>
       </c>
       <c r="AA21" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="AB21" t="s">
         <v>173</v>
@@ -16845,61 +17707,61 @@
         <v>263</v>
       </c>
       <c r="BE21" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="BF21" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="BG21">
         <v>90</v>
       </c>
-      <c r="BH21" s="31" t="s">
-        <v>1327</v>
+      <c r="BH21" s="30" t="s">
+        <v>1316</v>
       </c>
       <c r="BI21" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="BJ21" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="BK21" t="s">
         <v>403</v>
       </c>
       <c r="BM21" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="BN21" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="BO21" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="BP21" t="s">
         <v>189</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="BR21" t="s">
         <v>595</v>
       </c>
       <c r="BT21" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="BU21" t="s">
         <v>718</v>
       </c>
       <c r="BW21" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="BX21" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="BY21" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="BZ21" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="CA21" t="s">
         <v>221</v>
@@ -16911,19 +17773,19 @@
         <v>281</v>
       </c>
       <c r="CE21" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="CF21" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="CG21" t="s">
         <v>602</v>
       </c>
       <c r="CH21" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="CJ21" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="CK21" t="s">
         <v>197</v>
@@ -16935,10 +17797,10 @@
         <v>394</v>
       </c>
       <c r="CO21" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="CQ21" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="CS21" t="s">
         <v>484</v>
@@ -16953,10 +17815,10 @@
         <v>723</v>
       </c>
       <c r="CW21" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
       <c r="CX21" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="CY21" t="s">
         <v>774</v>
@@ -16971,7 +17833,7 @@
         <v>3</v>
       </c>
       <c r="DC21" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="DD21">
         <v>13</v>
@@ -16983,19 +17845,19 @@
         <v>294</v>
       </c>
       <c r="DG21" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="DH21" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="DI21">
         <v>1</v>
       </c>
       <c r="DJ21" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="DK21" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="DM21" t="s">
         <v>225</v>
@@ -17004,10 +17866,10 @@
         <v>609</v>
       </c>
       <c r="DP21" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="DQ21" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="DR21" t="s">
         <v>428</v>
@@ -17016,15 +17878,15 @@
         <v>212</v>
       </c>
       <c r="DU21" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="DV21" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="DW21" t="s">
-        <v>1355</v>
-      </c>
-      <c r="DX21" s="38" t="s">
+        <v>1344</v>
+      </c>
+      <c r="DX21" s="37" t="s">
         <v>197</v>
       </c>
       <c r="DY21" t="s">
@@ -17034,67 +17896,67 @@
         <v>221</v>
       </c>
       <c r="EA21" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="EC21" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="ED21" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="EE21" t="s">
         <v>227</v>
       </c>
-      <c r="EF21" t="s">
-        <v>1359</v>
+      <c r="EF21" s="35" t="s">
+        <v>1150</v>
       </c>
       <c r="EG21" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="EH21" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="EI21" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="EJ21" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="EK21" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="EL21" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="EM21" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="EN21" t="s">
         <v>439</v>
       </c>
       <c r="EO21" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="EP21" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="EQ21" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="ER21" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="ES21" t="s">
         <v>242</v>
       </c>
       <c r="ET21" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="EU21" t="s">
         <v>746</v>
       </c>
       <c r="EW21" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="EX21" t="s">
         <v>381</v>
@@ -17103,10 +17965,10 @@
         <v>242</v>
       </c>
       <c r="EZ21" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="FA21" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="FB21" t="s">
         <v>381</v>
@@ -17115,16 +17977,16 @@
         <v>319</v>
       </c>
       <c r="FD21" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="FE21" t="s">
         <v>449</v>
       </c>
       <c r="FF21" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="FG21" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="FH21" t="s">
         <v>197</v>
@@ -17132,8 +17994,8 @@
       <c r="FI21" t="s">
         <v>197</v>
       </c>
-      <c r="FJ21" s="31" t="s">
-        <v>1376</v>
+      <c r="FJ21" s="30" t="s">
+        <v>1364</v>
       </c>
       <c r="FL21">
         <v>2</v>
@@ -17147,88 +18009,88 @@
       <c r="FP21" t="s">
         <v>302</v>
       </c>
-      <c r="FQ21" s="28" t="s">
+      <c r="FQ21" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FR21" s="28" t="s">
+      <c r="FR21" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FS21" s="28" t="s">
+      <c r="FS21" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FT21" s="28" t="s">
+      <c r="FT21" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FU21" s="28" t="s">
+      <c r="FU21" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="FV21" s="28" t="s">
+      <c r="FV21" s="27" t="s">
         <v>584</v>
       </c>
       <c r="FX21" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="FY21" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <v>44538.47859953704</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>509</v>
       </c>
       <c r="C22" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="D22" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E22" s="30">
+        <v>1367</v>
+      </c>
+      <c r="E22" s="29">
         <v>44410</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>1432</v>
+      <c r="F22" s="34" t="s">
+        <v>1420</v>
       </c>
       <c r="G22" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="H22" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="I22" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="J22" t="s">
         <v>530</v>
       </c>
       <c r="K22" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L22" s="30">
+        <v>1371</v>
+      </c>
+      <c r="L22" s="29">
         <v>40449</v>
       </c>
       <c r="M22" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="N22" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="O22" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="P22" t="s">
         <v>168</v>
       </c>
-      <c r="Q22" t="s">
-        <v>1387</v>
+      <c r="Q22" s="32" t="s">
+        <v>1533</v>
       </c>
       <c r="R22" t="s">
         <v>170</v>
       </c>
       <c r="T22" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="U22" t="s">
         <v>172</v>
@@ -17237,10 +18099,10 @@
         <v>173</v>
       </c>
       <c r="Y22" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="Z22" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="AB22" t="s">
         <v>173</v>
@@ -17276,49 +18138,49 @@
         <v>263</v>
       </c>
       <c r="BE22" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="BF22" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="BG22">
         <v>60</v>
       </c>
-      <c r="BH22" s="31" t="s">
-        <v>1393</v>
+      <c r="BH22" s="30" t="s">
+        <v>1381</v>
       </c>
       <c r="BI22" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="BJ22" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="BK22" t="s">
         <v>764</v>
       </c>
       <c r="BL22" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="BM22" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="BO22" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="BP22" t="s">
         <v>272</v>
       </c>
       <c r="BQ22" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="BR22" t="s">
         <v>168</v>
       </c>
       <c r="BS22" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="BT22" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="BU22" t="s">
         <v>168</v>
@@ -17327,13 +18189,13 @@
         <v>276</v>
       </c>
       <c r="BW22" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="BX22" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="BY22" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="CA22" t="s">
         <v>197</v>
@@ -17345,19 +18207,19 @@
         <v>413</v>
       </c>
       <c r="CE22" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="CF22" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="CG22" t="s">
         <v>381</v>
       </c>
       <c r="CH22" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="CJ22" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="CK22" t="s">
         <v>197</v>
@@ -17369,16 +18231,16 @@
         <v>394</v>
       </c>
       <c r="CO22" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="CQ22" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="CS22" t="s">
         <v>207</v>
       </c>
       <c r="CT22" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="CU22">
         <v>1</v>
@@ -17387,52 +18249,52 @@
         <v>543</v>
       </c>
       <c r="CX22" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="CY22" t="s">
         <v>205</v>
       </c>
       <c r="CZ22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="DA22">
         <v>1</v>
       </c>
       <c r="DB22" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="DC22" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="DD22">
         <v>8</v>
       </c>
-      <c r="DE22" s="37">
+      <c r="DE22" s="36">
         <v>1</v>
       </c>
       <c r="DF22" t="s">
         <v>300</v>
       </c>
       <c r="DG22" t="s">
-        <v>1407</v>
-      </c>
-      <c r="DH22" s="31" t="s">
-        <v>1408</v>
+        <v>1395</v>
+      </c>
+      <c r="DH22" s="30" t="s">
+        <v>1396</v>
       </c>
       <c r="DI22">
         <v>1</v>
       </c>
       <c r="DJ22" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="DK22" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="DM22" t="s">
         <v>426</v>
       </c>
       <c r="DN22" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="DP22" t="s">
         <v>299</v>
@@ -17447,13 +18309,13 @@
         <v>212</v>
       </c>
       <c r="DU22" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="DV22" t="s">
         <v>302</v>
       </c>
       <c r="DW22" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="DX22" t="s">
         <v>197</v>
@@ -17465,10 +18327,10 @@
         <v>197</v>
       </c>
       <c r="EA22" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="EC22" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="ED22" t="s">
         <v>197</v>
@@ -17476,54 +18338,54 @@
       <c r="EE22" t="s">
         <v>197</v>
       </c>
-      <c r="EF22" s="37" t="s">
-        <v>1434</v>
+      <c r="EF22" s="35" t="s">
+        <v>1529</v>
       </c>
       <c r="EG22" t="s">
-        <v>1415</v>
-      </c>
-      <c r="EH22" s="37">
+        <v>1403</v>
+      </c>
+      <c r="EH22" s="36">
         <f>ROUND(107*0.4,0)</f>
         <v>43</v>
       </c>
       <c r="EI22" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="EJ22" t="s">
         <v>198</v>
       </c>
       <c r="EK22" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="EL22" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="EM22" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="EO22" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="EP22" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="EQ22" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="ER22" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="ES22" t="s">
         <v>242</v>
       </c>
       <c r="ET22" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="EU22" t="s">
         <v>315</v>
       </c>
       <c r="EW22" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="EX22" t="s">
         <v>284</v>
@@ -17532,7 +18394,7 @@
         <v>242</v>
       </c>
       <c r="EZ22" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="FA22" t="s">
         <v>570</v>
@@ -17544,24 +18406,24 @@
         <v>629</v>
       </c>
       <c r="FD22" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="FE22" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="FF22" t="s">
         <v>203</v>
       </c>
-      <c r="FH22" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="FI22" s="36" t="s">
+      <c r="FH22" s="35" t="s">
         <v>227</v>
       </c>
+      <c r="FI22" s="35" t="s">
+        <v>227</v>
+      </c>
       <c r="FJ22" t="s">
-        <v>1429</v>
-      </c>
-      <c r="FL22" s="37">
+        <v>1417</v>
+      </c>
+      <c r="FL22" s="36">
         <v>2</v>
       </c>
       <c r="FM22" t="s">
@@ -17574,12 +18436,12 @@
         <v>1</v>
       </c>
       <c r="FP22" t="s">
-        <v>843</v>
-      </c>
-      <c r="FQ22" s="37">
+        <v>842</v>
+      </c>
+      <c r="FQ22" s="36">
         <v>0.5</v>
       </c>
-      <c r="FR22" s="37">
+      <c r="FR22" s="36">
         <v>0.25</v>
       </c>
       <c r="FS22">
@@ -17595,15 +18457,942 @@
         <v>0</v>
       </c>
       <c r="FX22" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="FY22" t="s">
         <v>697</v>
       </c>
     </row>
+    <row r="23" spans="1:181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>44430.608212476851</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12">
+        <v>44426</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3118588521</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>1425</v>
+      </c>
+      <c r="L23" s="12">
+        <v>41376</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="T23" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="V23" s="13"/>
+      <c r="W23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="1">
+        <v>243</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>50</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>9500</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>28000</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>560</v>
+      </c>
+      <c r="AZ23" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE23" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="BG23" s="1">
+        <v>75</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BI23" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BK23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BN23" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BO23" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BP23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ23" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="BR23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BS23" s="13"/>
+      <c r="BT23" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BU23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW23" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="BX23" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BY23" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="BZ23" s="13"/>
+      <c r="CA23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CC23" s="13"/>
+      <c r="CD23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CE23" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="CF23" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="CG23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH23" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="CI23" s="13"/>
+      <c r="CJ23" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="CK23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CL23" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CM23" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="CN23" s="13"/>
+      <c r="CO23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP23" s="13"/>
+      <c r="CQ23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR23" s="13"/>
+      <c r="CS23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="CT23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CU23" s="1">
+        <v>3</v>
+      </c>
+      <c r="CV23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CW23" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="CX23" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="CY23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CZ23" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="DA23" s="1">
+        <v>2</v>
+      </c>
+      <c r="DB23" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="DC23" s="1">
+        <v>5</v>
+      </c>
+      <c r="DD23" s="1">
+        <v>4</v>
+      </c>
+      <c r="DE23" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="DF23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DG23" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="DH23" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="DI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ23" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="DK23" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="DL23" s="13"/>
+      <c r="DM23" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="DN23" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="DO23" s="13"/>
+      <c r="DP23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="DQ23" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="DR23" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="DS23" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="DT23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU23" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="DV23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DW23" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="DX23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EA23" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="EB23" s="13"/>
+      <c r="EC23" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="ED23" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="EE23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF23" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="EG23" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="EH23" s="1">
+        <v>55</v>
+      </c>
+      <c r="EI23" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="EJ23" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="EK23" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="EL23" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="EM23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN23" s="13"/>
+      <c r="EO23" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="EP23" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="EQ23" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="ER23" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="ES23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET23" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="EU23" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="EV23" s="13"/>
+      <c r="EW23" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="EX23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EZ23" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="FA23" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="FB23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC23" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="FD23" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="FE23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="FF23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="FG23" s="13"/>
+      <c r="FH23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FI23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FJ23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="FK23" s="13"/>
+      <c r="FL23" s="1">
+        <v>1</v>
+      </c>
+      <c r="FM23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN23" s="13"/>
+      <c r="FO23" s="17">
+        <v>2</v>
+      </c>
+      <c r="FP23" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="FQ23" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="FR23" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="FS23" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="FT23" s="24">
+        <v>0</v>
+      </c>
+      <c r="FU23" s="24">
+        <v>0</v>
+      </c>
+      <c r="FV23" s="24">
+        <v>0</v>
+      </c>
+      <c r="FW23" s="13"/>
+      <c r="FX23" s="13"/>
+      <c r="FY23" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>44437.434295497689</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E24" s="12">
+        <v>44456</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3108093921</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L24" s="12">
+        <v>38685</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V24" s="13"/>
+      <c r="W24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>30</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>14500</v>
+      </c>
+      <c r="AX24" s="1">
+        <v>30300</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>1010</v>
+      </c>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE24" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BF24" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>120</v>
+      </c>
+      <c r="BH24" s="1">
+        <v>120</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BJ24" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BK24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL24" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BM24" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BP24" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="BQ24" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="BR24" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="BU24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BV24" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW24" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="BX24" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="BY24" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="BZ24" s="13"/>
+      <c r="CA24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB24" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="CC24" s="13"/>
+      <c r="CD24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="CE24" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="CF24" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="CG24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CH24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="CI24" s="13"/>
+      <c r="CJ24" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="CK24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="CM24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="CN24" s="13"/>
+      <c r="CO24" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="CP24" s="13"/>
+      <c r="CQ24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CR24" s="13"/>
+      <c r="CS24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT24" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="CU24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CV24" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CW24" s="13"/>
+      <c r="CX24" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="CY24" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="CZ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA24" s="1">
+        <v>8</v>
+      </c>
+      <c r="DB24" s="1">
+        <v>8</v>
+      </c>
+      <c r="DC24" s="1">
+        <v>7</v>
+      </c>
+      <c r="DD24" s="1">
+        <v>10</v>
+      </c>
+      <c r="DE24" s="1">
+        <v>10</v>
+      </c>
+      <c r="DF24" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="DG24" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="DH24" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="DI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DJ24" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="DK24" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="DL24" s="13"/>
+      <c r="DM24" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="DN24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DO24" s="13"/>
+      <c r="DP24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DQ24" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="DR24" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="DS24" s="13"/>
+      <c r="DT24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU24" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="DV24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="DW24" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="DX24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="EA24" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="EB24" s="13"/>
+      <c r="EC24" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="ED24" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="EE24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EF24" s="42" t="s">
+        <v>1526</v>
+      </c>
+      <c r="EG24" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="EH24" s="1">
+        <v>6</v>
+      </c>
+      <c r="EI24" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="EJ24" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="EK24" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="EL24" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="EM24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="EN24" s="13"/>
+      <c r="EO24" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="EP24" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="EQ24" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="ER24" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="ES24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="ET24" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="EU24" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="EV24" s="13"/>
+      <c r="EW24" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="EX24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="EZ24" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="FA24" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="FB24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC24" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="FD24" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="FE24" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="FF24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="FG24" s="13"/>
+      <c r="FH24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FI24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="FJ24" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="FK24" s="13"/>
+      <c r="FL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="FM24" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="FN24" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="FO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="FP24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="FQ24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="FR24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="FS24" s="24">
+        <v>0</v>
+      </c>
+      <c r="FT24" s="24">
+        <v>0</v>
+      </c>
+      <c r="FU24" s="24">
+        <v>0</v>
+      </c>
+      <c r="FV24" s="24">
+        <v>0</v>
+      </c>
+      <c r="FW24" s="13"/>
+      <c r="FX24" s="13"/>
+      <c r="FY24" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:FY22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:FY24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A42611-9249-4B25-AC8A-BFFDB6B252F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4D8A75-0FF7-4423-9240-1D845476E6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$FY$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$FZ$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET2" authorId="0" shapeId="0" xr:uid="{8DF9C1F3-970C-4B43-ADDE-2510F4F49791}">
+    <comment ref="EU2" authorId="0" shapeId="0" xr:uid="{8DF9C1F3-970C-4B43-ADDE-2510F4F49791}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EU2" authorId="0" shapeId="0" xr:uid="{EEAAC8CC-B9C5-4D73-9353-64B0B3319B8E}">
+    <comment ref="EV2" authorId="0" shapeId="0" xr:uid="{EEAAC8CC-B9C5-4D73-9353-64B0B3319B8E}">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET3" authorId="0" shapeId="0" xr:uid="{67A6372D-3A64-438C-A22E-6F3C33A9AA45}">
+    <comment ref="EU3" authorId="0" shapeId="0" xr:uid="{67A6372D-3A64-438C-A22E-6F3C33A9AA45}">
       <text>
         <r>
           <rPr>
@@ -592,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET4" authorId="0" shapeId="0" xr:uid="{4725D511-CB64-43F1-AEDE-34007B2F025F}">
+    <comment ref="EU4" authorId="0" shapeId="0" xr:uid="{4725D511-CB64-43F1-AEDE-34007B2F025F}">
       <text>
         <r>
           <rPr>
@@ -688,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET5" authorId="0" shapeId="0" xr:uid="{8EDC4E85-1FFA-44F4-82E3-9F8FD6288D20}">
+    <comment ref="EU5" authorId="0" shapeId="0" xr:uid="{8EDC4E85-1FFA-44F4-82E3-9F8FD6288D20}">
       <text>
         <r>
           <rPr>
@@ -712,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH5" authorId="0" shapeId="0" xr:uid="{BBC68CD3-BFE1-4E08-9483-74EEBCFDF0C5}">
+    <comment ref="FI5" authorId="0" shapeId="0" xr:uid="{BBC68CD3-BFE1-4E08-9483-74EEBCFDF0C5}">
       <text>
         <r>
           <rPr>
@@ -736,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI5" authorId="0" shapeId="0" xr:uid="{2B44DF5A-BD24-4C73-BCC9-5DACADB5BFCA}">
+    <comment ref="FJ5" authorId="0" shapeId="0" xr:uid="{2B44DF5A-BD24-4C73-BCC9-5DACADB5BFCA}">
       <text>
         <r>
           <rPr>
@@ -808,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET6" authorId="0" shapeId="0" xr:uid="{276621DE-72FC-45C8-93AC-E615536912E8}">
+    <comment ref="EU6" authorId="0" shapeId="0" xr:uid="{276621DE-72FC-45C8-93AC-E615536912E8}">
       <text>
         <r>
           <rPr>
@@ -832,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH6" authorId="0" shapeId="0" xr:uid="{DD7FB6CD-5D2C-4505-9E7A-AA0F9FA035B9}">
+    <comment ref="FI6" authorId="0" shapeId="0" xr:uid="{DD7FB6CD-5D2C-4505-9E7A-AA0F9FA035B9}">
       <text>
         <r>
           <rPr>
@@ -856,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI6" authorId="0" shapeId="0" xr:uid="{63217A43-DA46-4141-8BF9-12B693CA653A}">
+    <comment ref="FJ6" authorId="0" shapeId="0" xr:uid="{63217A43-DA46-4141-8BF9-12B693CA653A}">
       <text>
         <r>
           <rPr>
@@ -928,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET7" authorId="0" shapeId="0" xr:uid="{3D5CDBE1-6123-47E8-92EB-018FCF53DA3C}">
+    <comment ref="EU7" authorId="0" shapeId="0" xr:uid="{3D5CDBE1-6123-47E8-92EB-018FCF53DA3C}">
       <text>
         <r>
           <rPr>
@@ -952,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI7" authorId="0" shapeId="0" xr:uid="{847FB797-DD7A-4FA1-851E-F6075BA6900B}">
+    <comment ref="FJ7" authorId="0" shapeId="0" xr:uid="{847FB797-DD7A-4FA1-851E-F6075BA6900B}">
       <text>
         <r>
           <rPr>
@@ -976,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL7" authorId="0" shapeId="0" xr:uid="{EFC53180-A2D7-49A4-BF83-37EB73DA0B54}">
+    <comment ref="FM7" authorId="0" shapeId="0" xr:uid="{EFC53180-A2D7-49A4-BF83-37EB73DA0B54}">
       <text>
         <r>
           <rPr>
@@ -1197,7 +1197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF8" authorId="0" shapeId="0" xr:uid="{1FC3388E-6509-4781-A47B-F7E96CABAA1D}">
+    <comment ref="EG8" authorId="0" shapeId="0" xr:uid="{1FC3388E-6509-4781-A47B-F7E96CABAA1D}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EM8" authorId="0" shapeId="0" xr:uid="{EFDD9C7B-48EB-4577-8A22-BEB873365F3B}">
+    <comment ref="EN8" authorId="0" shapeId="0" xr:uid="{EFDD9C7B-48EB-4577-8A22-BEB873365F3B}">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL8" authorId="0" shapeId="0" xr:uid="{493FE319-E165-4717-AC43-5B7803DA98CA}">
+    <comment ref="FM8" authorId="0" shapeId="0" xr:uid="{493FE319-E165-4717-AC43-5B7803DA98CA}">
       <text>
         <r>
           <rPr>
@@ -1269,7 +1269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO8" authorId="0" shapeId="0" xr:uid="{C3EA03CE-8C44-46A3-9B7E-98DF844657A4}">
+    <comment ref="FP8" authorId="0" shapeId="0" xr:uid="{C3EA03CE-8C44-46A3-9B7E-98DF844657A4}">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EH9" authorId="0" shapeId="0" xr:uid="{2877A2DE-5840-40E0-8497-56BE1CFCFC37}">
+    <comment ref="EI9" authorId="0" shapeId="0" xr:uid="{2877A2DE-5840-40E0-8497-56BE1CFCFC37}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET9" authorId="0" shapeId="0" xr:uid="{BE529271-7829-4F16-8648-565ECD8A1E8A}">
+    <comment ref="EU9" authorId="0" shapeId="0" xr:uid="{BE529271-7829-4F16-8648-565ECD8A1E8A}">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO9" authorId="0" shapeId="0" xr:uid="{3550E71B-B249-4047-885E-75B6C201F5E0}">
+    <comment ref="FP9" authorId="0" shapeId="0" xr:uid="{3550E71B-B249-4047-885E-75B6C201F5E0}">
       <text>
         <r>
           <rPr>
@@ -1800,7 +1800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EM10" authorId="0" shapeId="0" xr:uid="{74854F1E-C751-4533-8CF2-98F0F48C9C62}">
+    <comment ref="EN10" authorId="0" shapeId="0" xr:uid="{74854F1E-C751-4533-8CF2-98F0F48C9C62}">
       <text>
         <r>
           <rPr>
@@ -1824,7 +1824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET10" authorId="0" shapeId="0" xr:uid="{65F37681-07B4-4D5B-8E0A-B31B8A9FF802}">
+    <comment ref="EU10" authorId="0" shapeId="0" xr:uid="{65F37681-07B4-4D5B-8E0A-B31B8A9FF802}">
       <text>
         <r>
           <rPr>
@@ -1848,7 +1848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO10" authorId="0" shapeId="0" xr:uid="{03C31BDD-A839-4BED-8BB2-68342BB93FF3}">
+    <comment ref="FP10" authorId="0" shapeId="0" xr:uid="{03C31BDD-A839-4BED-8BB2-68342BB93FF3}">
       <text>
         <r>
           <rPr>
@@ -1992,7 +1992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF11" authorId="0" shapeId="0" xr:uid="{0D8A1735-0E71-4DD6-B617-96A509AFEE9C}">
+    <comment ref="EG11" authorId="0" shapeId="0" xr:uid="{0D8A1735-0E71-4DD6-B617-96A509AFEE9C}">
       <text>
         <r>
           <rPr>
@@ -2016,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET11" authorId="0" shapeId="0" xr:uid="{0F2FF99B-8061-4027-9206-94357E48FDF9}">
+    <comment ref="EU11" authorId="0" shapeId="0" xr:uid="{0F2FF99B-8061-4027-9206-94357E48FDF9}">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET12" authorId="0" shapeId="0" xr:uid="{742A97B3-427E-4F53-89B7-8F81C175C8FC}">
+    <comment ref="EU12" authorId="0" shapeId="0" xr:uid="{742A97B3-427E-4F53-89B7-8F81C175C8FC}">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF13" authorId="0" shapeId="0" xr:uid="{1DCDE2F6-F4A5-46D0-96CA-AA39AAF1D08C}">
+    <comment ref="EG13" authorId="0" shapeId="0" xr:uid="{1DCDE2F6-F4A5-46D0-96CA-AA39AAF1D08C}">
       <text>
         <r>
           <rPr>
@@ -2209,7 +2209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ES13" authorId="0" shapeId="0" xr:uid="{8B392869-2F00-4DDA-AA25-AE2EE27325D9}">
+    <comment ref="ET13" authorId="0" shapeId="0" xr:uid="{8B392869-2F00-4DDA-AA25-AE2EE27325D9}">
       <text>
         <r>
           <rPr>
@@ -2233,7 +2233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FP13" authorId="0" shapeId="0" xr:uid="{5886A5B2-7C48-434D-A389-108CE67F170D}">
+    <comment ref="FQ13" authorId="0" shapeId="0" xr:uid="{5886A5B2-7C48-434D-A389-108CE67F170D}">
       <text>
         <r>
           <rPr>
@@ -2257,7 +2257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FQ13" authorId="0" shapeId="0" xr:uid="{7C7BBF4A-9FB8-45DC-8B5A-61CB6285B1C9}">
+    <comment ref="FR13" authorId="0" shapeId="0" xr:uid="{7C7BBF4A-9FB8-45DC-8B5A-61CB6285B1C9}">
       <text>
         <r>
           <rPr>
@@ -2329,7 +2329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET14" authorId="0" shapeId="0" xr:uid="{3DCC126F-2F5A-45A2-B92D-C506137990AD}">
+    <comment ref="EU14" authorId="0" shapeId="0" xr:uid="{3DCC126F-2F5A-45A2-B92D-C506137990AD}">
       <text>
         <r>
           <rPr>
@@ -2353,7 +2353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL14" authorId="0" shapeId="0" xr:uid="{85DC5037-615A-4382-A81F-41EED432867E}">
+    <comment ref="FM14" authorId="0" shapeId="0" xr:uid="{85DC5037-615A-4382-A81F-41EED432867E}">
       <text>
         <r>
           <rPr>
@@ -2377,7 +2377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO14" authorId="0" shapeId="0" xr:uid="{A0DD6058-29EE-4C4B-A89E-ACADEBF60AA8}">
+    <comment ref="FP14" authorId="0" shapeId="0" xr:uid="{A0DD6058-29EE-4C4B-A89E-ACADEBF60AA8}">
       <text>
         <r>
           <rPr>
@@ -2426,7 +2426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH15" authorId="0" shapeId="0" xr:uid="{251DF628-C3D8-4081-B292-9FEE4ED07275}">
+    <comment ref="FI15" authorId="0" shapeId="0" xr:uid="{251DF628-C3D8-4081-B292-9FEE4ED07275}">
       <text>
         <r>
           <rPr>
@@ -2450,7 +2450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI15" authorId="0" shapeId="0" xr:uid="{70CFF61B-CC2D-4B7A-AAC4-F12CF22FCA7A}">
+    <comment ref="FJ15" authorId="0" shapeId="0" xr:uid="{70CFF61B-CC2D-4B7A-AAC4-F12CF22FCA7A}">
       <text>
         <r>
           <rPr>
@@ -2474,7 +2474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL15" authorId="0" shapeId="0" xr:uid="{B58C56C5-2637-4B98-9F47-D032605792FD}">
+    <comment ref="FM15" authorId="0" shapeId="0" xr:uid="{B58C56C5-2637-4B98-9F47-D032605792FD}">
       <text>
         <r>
           <rPr>
@@ -2594,7 +2594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EH16" authorId="0" shapeId="0" xr:uid="{A70B17BB-F63C-47DF-ADBE-90FF36A7D839}">
+    <comment ref="EI16" authorId="0" shapeId="0" xr:uid="{A70B17BB-F63C-47DF-ADBE-90FF36A7D839}">
       <text>
         <r>
           <rPr>
@@ -2618,7 +2618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET16" authorId="0" shapeId="0" xr:uid="{F759B86F-1951-45C8-8D35-4D27D55FD7CB}">
+    <comment ref="EU16" authorId="0" shapeId="0" xr:uid="{F759B86F-1951-45C8-8D35-4D27D55FD7CB}">
       <text>
         <r>
           <rPr>
@@ -2642,7 +2642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL16" authorId="0" shapeId="0" xr:uid="{8660F8B6-8860-48CB-AD64-0911FB714DD2}">
+    <comment ref="FM16" authorId="0" shapeId="0" xr:uid="{8660F8B6-8860-48CB-AD64-0911FB714DD2}">
       <text>
         <r>
           <rPr>
@@ -2810,7 +2810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH17" authorId="0" shapeId="0" xr:uid="{E1A6CB52-C4F1-4766-8990-7E2D1B6364CB}">
+    <comment ref="FI17" authorId="0" shapeId="0" xr:uid="{E1A6CB52-C4F1-4766-8990-7E2D1B6364CB}">
       <text>
         <r>
           <rPr>
@@ -2834,7 +2834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI17" authorId="0" shapeId="0" xr:uid="{97DC2321-D4CF-40AF-8D20-C10E57B784EE}">
+    <comment ref="FJ17" authorId="0" shapeId="0" xr:uid="{97DC2321-D4CF-40AF-8D20-C10E57B784EE}">
       <text>
         <r>
           <rPr>
@@ -3002,7 +3002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF18" authorId="0" shapeId="0" xr:uid="{AEC01095-7ADD-443A-9061-46299182A10B}">
+    <comment ref="EG18" authorId="0" shapeId="0" xr:uid="{AEC01095-7ADD-443A-9061-46299182A10B}">
       <text>
         <r>
           <rPr>
@@ -3050,7 +3050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF19" authorId="0" shapeId="0" xr:uid="{B71DE272-22BD-42D4-B8F7-22481AF01DAE}">
+    <comment ref="EG19" authorId="0" shapeId="0" xr:uid="{B71DE272-22BD-42D4-B8F7-22481AF01DAE}">
       <text>
         <r>
           <rPr>
@@ -3074,7 +3074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET19" authorId="0" shapeId="0" xr:uid="{CC0F804C-7092-4506-B015-E202113E0BD2}">
+    <comment ref="EU19" authorId="0" shapeId="0" xr:uid="{CC0F804C-7092-4506-B015-E202113E0BD2}">
       <text>
         <r>
           <rPr>
@@ -3098,7 +3098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH19" authorId="0" shapeId="0" xr:uid="{778757E7-A548-4B7A-8D1F-8112404AEE2F}">
+    <comment ref="FI19" authorId="0" shapeId="0" xr:uid="{778757E7-A548-4B7A-8D1F-8112404AEE2F}">
       <text>
         <r>
           <rPr>
@@ -3122,7 +3122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI19" authorId="0" shapeId="0" xr:uid="{6E11D447-767B-40CB-B2AF-0CD686137FC5}">
+    <comment ref="FJ19" authorId="0" shapeId="0" xr:uid="{6E11D447-767B-40CB-B2AF-0CD686137FC5}">
       <text>
         <r>
           <rPr>
@@ -3172,7 +3172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF20" authorId="0" shapeId="0" xr:uid="{93DCFFD2-E72C-4EAC-8553-1222ED2C5F6B}">
+    <comment ref="EG20" authorId="0" shapeId="0" xr:uid="{93DCFFD2-E72C-4EAC-8553-1222ED2C5F6B}">
       <text>
         <r>
           <rPr>
@@ -3268,7 +3268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF21" authorId="0" shapeId="0" xr:uid="{CE5D332F-BEA2-4B22-8327-5F0026033960}">
+    <comment ref="EG21" authorId="0" shapeId="0" xr:uid="{CE5D332F-BEA2-4B22-8327-5F0026033960}">
       <text>
         <r>
           <rPr>
@@ -3292,7 +3292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EH21" authorId="0" shapeId="0" xr:uid="{DA2D6097-9192-426D-A0AF-5267B6942356}">
+    <comment ref="EI21" authorId="0" shapeId="0" xr:uid="{DA2D6097-9192-426D-A0AF-5267B6942356}">
       <text>
         <r>
           <rPr>
@@ -3316,7 +3316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FF21" authorId="0" shapeId="0" xr:uid="{D1CF1398-3CCE-4DB2-A080-73D1E40B6D6F}">
+    <comment ref="FG21" authorId="0" shapeId="0" xr:uid="{D1CF1398-3CCE-4DB2-A080-73D1E40B6D6F}">
       <text>
         <r>
           <rPr>
@@ -3341,7 +3341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH21" authorId="0" shapeId="0" xr:uid="{2E7735AB-3CB2-46DB-8177-21A71B7506E3}">
+    <comment ref="FI21" authorId="0" shapeId="0" xr:uid="{2E7735AB-3CB2-46DB-8177-21A71B7506E3}">
       <text>
         <r>
           <rPr>
@@ -3365,7 +3365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI21" authorId="0" shapeId="0" xr:uid="{C0B6762C-C985-4076-9854-546A557E4849}">
+    <comment ref="FJ21" authorId="0" shapeId="0" xr:uid="{C0B6762C-C985-4076-9854-546A557E4849}">
       <text>
         <r>
           <rPr>
@@ -3389,7 +3389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL21" authorId="0" shapeId="0" xr:uid="{18FED327-A8FA-4467-8223-D116C57818AC}">
+    <comment ref="FM21" authorId="0" shapeId="0" xr:uid="{18FED327-A8FA-4467-8223-D116C57818AC}">
       <text>
         <r>
           <rPr>
@@ -3509,7 +3509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF22" authorId="0" shapeId="0" xr:uid="{8D03B35A-C69F-479E-9D43-8B45F51EAA29}">
+    <comment ref="EG22" authorId="0" shapeId="0" xr:uid="{8D03B35A-C69F-479E-9D43-8B45F51EAA29}">
       <text>
         <r>
           <rPr>
@@ -3533,7 +3533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET22" authorId="0" shapeId="0" xr:uid="{6363CDAA-BBF6-4C3C-8345-06936088B4B2}">
+    <comment ref="EU22" authorId="0" shapeId="0" xr:uid="{6363CDAA-BBF6-4C3C-8345-06936088B4B2}">
       <text>
         <r>
           <rPr>
@@ -3557,7 +3557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO22" authorId="0" shapeId="0" xr:uid="{4F38D0FC-C8FC-43D0-9B67-ECA07285D3FD}">
+    <comment ref="FP22" authorId="0" shapeId="0" xr:uid="{4F38D0FC-C8FC-43D0-9B67-ECA07285D3FD}">
       <text>
         <r>
           <rPr>
@@ -3605,7 +3605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF23" authorId="0" shapeId="0" xr:uid="{8D0F5BD3-AB50-438A-9F7F-8E405A9BF8C5}">
+    <comment ref="EG23" authorId="0" shapeId="0" xr:uid="{8D0F5BD3-AB50-438A-9F7F-8E405A9BF8C5}">
       <text>
         <r>
           <rPr>
@@ -3630,7 +3630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET23" authorId="0" shapeId="0" xr:uid="{708C50FA-9DDB-4540-B919-E16E4B581BD8}">
+    <comment ref="EU23" authorId="0" shapeId="0" xr:uid="{708C50FA-9DDB-4540-B919-E16E4B581BD8}">
       <text>
         <r>
           <rPr>
@@ -3654,7 +3654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH23" authorId="0" shapeId="0" xr:uid="{68A40619-D32E-43A4-84D9-CCF9A0108A71}">
+    <comment ref="FI23" authorId="0" shapeId="0" xr:uid="{68A40619-D32E-43A4-84D9-CCF9A0108A71}">
       <text>
         <r>
           <rPr>
@@ -3678,7 +3678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI23" authorId="0" shapeId="0" xr:uid="{5E935DC4-BC12-4174-BD7D-18F1D5EFA35F}">
+    <comment ref="FJ23" authorId="0" shapeId="0" xr:uid="{5E935DC4-BC12-4174-BD7D-18F1D5EFA35F}">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF24" authorId="0" shapeId="0" xr:uid="{BEDBEA64-F739-4DDC-9868-836D2B4915C3}">
+    <comment ref="EG24" authorId="0" shapeId="0" xr:uid="{BEDBEA64-F739-4DDC-9868-836D2B4915C3}">
       <text>
         <r>
           <rPr>
@@ -3774,7 +3774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET24" authorId="0" shapeId="0" xr:uid="{0D374BC8-FF16-43C5-9844-085AFFF90945}">
+    <comment ref="EU24" authorId="0" shapeId="0" xr:uid="{0D374BC8-FF16-43C5-9844-085AFFF90945}">
       <text>
         <r>
           <rPr>
@@ -3798,7 +3798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FE24" authorId="0" shapeId="0" xr:uid="{F17CD819-884A-4158-AC68-410D576EC1D5}">
+    <comment ref="FF24" authorId="0" shapeId="0" xr:uid="{F17CD819-884A-4158-AC68-410D576EC1D5}">
       <text>
         <r>
           <rPr>
@@ -3822,7 +3822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH24" authorId="0" shapeId="0" xr:uid="{2304E6DF-06FD-4ED6-916F-C6E3F3577035}">
+    <comment ref="FI24" authorId="0" shapeId="0" xr:uid="{2304E6DF-06FD-4ED6-916F-C6E3F3577035}">
       <text>
         <r>
           <rPr>
@@ -3846,7 +3846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI24" authorId="0" shapeId="0" xr:uid="{BD12CA29-4018-43AA-B8F5-44B6585B2BC2}">
+    <comment ref="FJ24" authorId="0" shapeId="0" xr:uid="{BD12CA29-4018-43AA-B8F5-44B6585B2BC2}">
       <text>
         <r>
           <rPr>
@@ -3870,7 +3870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL24" authorId="0" shapeId="0" xr:uid="{7D4AC39C-F695-4F44-BAC3-BB7186123C4A}">
+    <comment ref="FM24" authorId="0" shapeId="0" xr:uid="{7D4AC39C-F695-4F44-BAC3-BB7186123C4A}">
       <text>
         <r>
           <rPr>
@@ -3942,7 +3942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF25" authorId="0" shapeId="0" xr:uid="{99274FBD-22AC-4174-BBAE-E1C6EF6AD3F1}">
+    <comment ref="EG25" authorId="0" shapeId="0" xr:uid="{99274FBD-22AC-4174-BBAE-E1C6EF6AD3F1}">
       <text>
         <r>
           <rPr>
@@ -3966,7 +3966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO25" authorId="0" shapeId="0" xr:uid="{25E87F1A-BB30-49C5-9D66-23C3E18701B5}">
+    <comment ref="FP25" authorId="0" shapeId="0" xr:uid="{25E87F1A-BB30-49C5-9D66-23C3E18701B5}">
       <text>
         <r>
           <rPr>
@@ -4014,7 +4014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF26" authorId="0" shapeId="0" xr:uid="{938D2B57-A54E-424C-92B1-EEAC5630D08B}">
+    <comment ref="EG26" authorId="0" shapeId="0" xr:uid="{938D2B57-A54E-424C-92B1-EEAC5630D08B}">
       <text>
         <r>
           <rPr>
@@ -4086,7 +4086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET27" authorId="0" shapeId="0" xr:uid="{2E1D87F4-BD47-49D7-9FAD-862FF3AF31BF}">
+    <comment ref="EU27" authorId="0" shapeId="0" xr:uid="{2E1D87F4-BD47-49D7-9FAD-862FF3AF31BF}">
       <text>
         <r>
           <rPr>
@@ -4110,7 +4110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH27" authorId="0" shapeId="0" xr:uid="{41B70E60-D82C-4A2E-B037-C85C821C0214}">
+    <comment ref="FI27" authorId="0" shapeId="0" xr:uid="{41B70E60-D82C-4A2E-B037-C85C821C0214}">
       <text>
         <r>
           <rPr>
@@ -4134,7 +4134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI27" authorId="0" shapeId="0" xr:uid="{E421890D-2A2D-4C02-AA93-DF723C57017C}">
+    <comment ref="FJ27" authorId="0" shapeId="0" xr:uid="{E421890D-2A2D-4C02-AA93-DF723C57017C}">
       <text>
         <r>
           <rPr>
@@ -4254,7 +4254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EH28" authorId="0" shapeId="0" xr:uid="{F027B743-5E2F-46C0-A27F-808C64B16BEA}">
+    <comment ref="EI28" authorId="0" shapeId="0" xr:uid="{F027B743-5E2F-46C0-A27F-808C64B16BEA}">
       <text>
         <r>
           <rPr>
@@ -4279,7 +4279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET28" authorId="0" shapeId="0" xr:uid="{F9C261EB-BA8D-4E3B-B815-0246915D8530}">
+    <comment ref="EU28" authorId="0" shapeId="0" xr:uid="{F9C261EB-BA8D-4E3B-B815-0246915D8530}">
       <text>
         <r>
           <rPr>
@@ -4303,7 +4303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FE28" authorId="0" shapeId="0" xr:uid="{232D9361-B904-4476-ADD2-FF20ED2206FC}">
+    <comment ref="FF28" authorId="0" shapeId="0" xr:uid="{232D9361-B904-4476-ADD2-FF20ED2206FC}">
       <text>
         <r>
           <rPr>
@@ -4327,7 +4327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FH28" authorId="0" shapeId="0" xr:uid="{894F8883-BF5A-4D93-A238-503B5DECEB00}">
+    <comment ref="FI28" authorId="0" shapeId="0" xr:uid="{894F8883-BF5A-4D93-A238-503B5DECEB00}">
       <text>
         <r>
           <rPr>
@@ -4351,7 +4351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FI28" authorId="0" shapeId="0" xr:uid="{DF17CD7F-7063-460D-945E-3E033BFDC3F0}">
+    <comment ref="FJ28" authorId="0" shapeId="0" xr:uid="{DF17CD7F-7063-460D-945E-3E033BFDC3F0}">
       <text>
         <r>
           <rPr>
@@ -4375,7 +4375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL28" authorId="0" shapeId="0" xr:uid="{0AE018F7-2697-4F90-AEBF-4AA34DF32F3B}">
+    <comment ref="FM28" authorId="0" shapeId="0" xr:uid="{0AE018F7-2697-4F90-AEBF-4AA34DF32F3B}">
       <text>
         <r>
           <rPr>
@@ -4522,7 +4522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF29" authorId="0" shapeId="0" xr:uid="{3049FCE3-7F85-4894-8C80-D05C2D0A8240}">
+    <comment ref="EG29" authorId="0" shapeId="0" xr:uid="{3049FCE3-7F85-4894-8C80-D05C2D0A8240}">
       <text>
         <r>
           <rPr>
@@ -4546,7 +4546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET29" authorId="0" shapeId="0" xr:uid="{63860857-BCE3-42DC-A7C4-5E4AA3B77C09}">
+    <comment ref="EU29" authorId="0" shapeId="0" xr:uid="{63860857-BCE3-42DC-A7C4-5E4AA3B77C09}">
       <text>
         <r>
           <rPr>
@@ -4618,7 +4618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF30" authorId="0" shapeId="0" xr:uid="{5DEE1A5B-DEB1-40C2-ADFF-D1AD342A858F}">
+    <comment ref="EG30" authorId="0" shapeId="0" xr:uid="{5DEE1A5B-DEB1-40C2-ADFF-D1AD342A858F}">
       <text>
         <r>
           <rPr>
@@ -4642,7 +4642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FL30" authorId="0" shapeId="0" xr:uid="{86BA7944-1B6D-4F17-9532-CEFB16119B75}">
+    <comment ref="FM30" authorId="0" shapeId="0" xr:uid="{86BA7944-1B6D-4F17-9532-CEFB16119B75}">
       <text>
         <r>
           <rPr>
@@ -4666,7 +4666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="FO30" authorId="0" shapeId="0" xr:uid="{95CA2EC1-F3D9-4C32-9FE2-5D6C023976E6}">
+    <comment ref="FP30" authorId="0" shapeId="0" xr:uid="{95CA2EC1-F3D9-4C32-9FE2-5D6C023976E6}">
       <text>
         <r>
           <rPr>
@@ -5220,7 +5220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EF31" authorId="0" shapeId="0" xr:uid="{7473523C-DE33-4A06-915E-F7F063E62205}">
+    <comment ref="EG31" authorId="0" shapeId="0" xr:uid="{7473523C-DE33-4A06-915E-F7F063E62205}">
       <text>
         <r>
           <rPr>
@@ -5244,7 +5244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EL31" authorId="0" shapeId="0" xr:uid="{48DD8BEA-F666-46C1-81BC-E5FD6D751A0B}">
+    <comment ref="EM31" authorId="0" shapeId="0" xr:uid="{48DD8BEA-F666-46C1-81BC-E5FD6D751A0B}">
       <text>
         <r>
           <rPr>
@@ -5268,7 +5268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="ET31" authorId="0" shapeId="0" xr:uid="{E1F4C0BC-5E6A-47F5-B0BC-4A65704AE8DE}">
+    <comment ref="EU31" authorId="0" shapeId="0" xr:uid="{E1F4C0BC-5E6A-47F5-B0BC-4A65704AE8DE}">
       <text>
         <r>
           <rPr>
@@ -5319,7 +5319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="1910">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -11437,6 +11437,18 @@
   </si>
   <si>
     <t>Almacenamiento en la nube</t>
+  </si>
+  <si>
+    <t>Semafor_Regla</t>
+  </si>
+  <si>
+    <t>3|6</t>
+  </si>
+  <si>
+    <t>6|12</t>
+  </si>
+  <si>
+    <t>3|</t>
   </si>
 </sst>
 </file>
@@ -11907,13 +11919,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:FY31"/>
+  <dimension ref="A1:FZ31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="DW2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="DZ9" sqref="DZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11927,10 +11939,10 @@
     <col min="8" max="8" width="34.85546875" customWidth="1"/>
     <col min="9" max="54" width="21.5703125" customWidth="1"/>
     <col min="55" max="55" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="187" width="21.5703125" customWidth="1"/>
+    <col min="56" max="188" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12315,167 +12327,170 @@
       <c r="DX1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DY1" s="3" t="s">
+        <v>1906</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="EA1" s="3" t="s">
+      <c r="EB1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EL1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="ES1" s="3" t="s">
+      <c r="ET1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EV1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="EW1" s="15" t="s">
+      <c r="EX1" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="FH1" s="3" t="s">
+      <c r="FI1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="FL1" s="45" t="s">
+      <c r="FM1" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="FV1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="FX1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="FY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="FY1" s="3" t="s">
+      <c r="FZ1" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44324.663341099542</v>
       </c>
@@ -12787,127 +12802,127 @@
       <c r="DX2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DY2" s="9" t="s">
+      <c r="DY2" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ2" s="2" t="s">
+      <c r="EA2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA2" s="19" t="s">
+      <c r="EB2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="EB2" s="2" t="s">
+      <c r="EC2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="EC2" s="2" t="s">
+      <c r="ED2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="ED2" s="2" t="s">
+      <c r="EE2" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="EE2" s="2" t="s">
+      <c r="EF2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF2" s="9" t="s">
+      <c r="EG2" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="EG2" s="2" t="s">
+      <c r="EH2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="EH2" s="5" t="s">
+      <c r="EI2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="EI2" s="2" t="s">
+      <c r="EJ2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="EJ2" s="9" t="s">
+      <c r="EK2" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="EK2" s="2" t="s">
+      <c r="EL2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="EL2" s="2" t="s">
+      <c r="EM2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="EM2" s="2" t="s">
+      <c r="EN2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="EO2" s="2" t="s">
+      <c r="EP2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="EP2" s="2" t="s">
+      <c r="EQ2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="EQ2" s="2" t="s">
+      <c r="ER2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="ER2" s="2" t="s">
+      <c r="ES2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="ES2" s="2" t="s">
+      <c r="ET2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET2" s="2" t="s">
+      <c r="EU2" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="EU2" s="5" t="s">
+      <c r="EV2" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="EW2" s="2" t="s">
+      <c r="EX2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="EX2" s="2" t="s">
+      <c r="EY2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="EY2" s="2" t="s">
+      <c r="EZ2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ2" s="2" t="s">
+      <c r="FA2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="FA2" s="2" t="s">
+      <c r="FB2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="FB2" s="2" t="s">
+      <c r="FC2" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="FC2" s="2" t="s">
+      <c r="FD2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="FD2" s="2" t="s">
+      <c r="FE2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="FE2" s="5" t="s">
+      <c r="FF2" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="FF2" s="2" t="s">
+      <c r="FG2" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="FH2" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="FI2" s="2" t="s">
         <v>224</v>
       </c>
       <c r="FJ2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="FL2" s="43"/>
-      <c r="FM2" s="24"/>
+      <c r="FM2" s="43"/>
       <c r="FN2" s="24"/>
       <c r="FO2" s="24"/>
       <c r="FP2" s="24"/>
-      <c r="FQ2" s="50">
+      <c r="FQ2" s="24"/>
+      <c r="FR2" s="50">
         <v>0.75</v>
       </c>
-      <c r="FR2" s="46">
+      <c r="FS2" s="46">
         <v>0.15</v>
       </c>
-      <c r="FS2" s="46">
+      <c r="FT2" s="46">
         <v>0.1</v>
-      </c>
-      <c r="FT2" s="46">
-        <v>0</v>
       </c>
       <c r="FU2" s="46">
         <v>0</v>
@@ -12915,9 +12930,12 @@
       <c r="FV2" s="46">
         <v>0</v>
       </c>
-      <c r="FY2" s="24"/>
+      <c r="FW2" s="46">
+        <v>0</v>
+      </c>
+      <c r="FZ2" s="24"/>
     </row>
-    <row r="3" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44326.360274907405</v>
       </c>
@@ -13209,138 +13227,139 @@
       <c r="DX3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="DY3" s="9" t="s">
+      <c r="DY3" s="2"/>
+      <c r="DZ3" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ3" s="2" t="s">
+      <c r="EA3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="EA3" s="19" t="s">
+      <c r="EB3" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="EC3" s="2" t="s">
+      <c r="ED3" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="ED3" s="2" t="s">
+      <c r="EE3" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EE3" s="2" t="s">
+      <c r="EF3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF3" s="2" t="s">
+      <c r="EG3" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="EG3" s="2" t="s">
+      <c r="EH3" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="EH3" s="2">
+      <c r="EI3" s="2">
         <v>300</v>
       </c>
-      <c r="EI3" s="2" t="s">
+      <c r="EJ3" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="EJ3" s="9" t="s">
+      <c r="EK3" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="EK3" s="2" t="s">
+      <c r="EL3" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="EL3" s="2" t="s">
+      <c r="EM3" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="EM3" s="2" t="s">
+      <c r="EN3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="EO3" s="2" t="s">
+      <c r="EP3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="EP3" s="2" t="s">
+      <c r="EQ3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="EQ3" s="2" t="s">
+      <c r="ER3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="ER3" s="2" t="s">
+      <c r="ES3" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="ES3" s="2" t="s">
+      <c r="ET3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET3" s="2" t="s">
+      <c r="EU3" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EU3" s="2" t="s">
+      <c r="EV3" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW3" s="2" t="s">
+      <c r="EX3" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="EX3" s="2" t="s">
+      <c r="EY3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="EY3" s="2" t="s">
+      <c r="EZ3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ3" s="2" t="s">
+      <c r="FA3" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="FA3" s="2" t="s">
+      <c r="FB3" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="FB3" s="2" t="s">
+      <c r="FC3" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="FC3" s="2" t="s">
+      <c r="FD3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="FD3" s="2" t="s">
+      <c r="FE3" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="FE3" s="5" t="s">
+      <c r="FF3" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="FF3" s="2" t="s">
+      <c r="FG3" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="FH3" s="5" t="s">
+      <c r="FI3" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FI3" s="2" t="s">
+      <c r="FJ3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="FJ3" s="2" t="s">
+      <c r="FK3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="FL3" s="43"/>
-      <c r="FM3" s="26" t="s">
+      <c r="FM3" s="43"/>
+      <c r="FN3" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="FN3" s="26" t="s">
+      <c r="FO3" s="26" t="s">
         <v>1888</v>
       </c>
-      <c r="FO3" s="57">
+      <c r="FP3" s="57">
         <v>1</v>
       </c>
-      <c r="FP3" s="56" t="s">
+      <c r="FQ3" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="FQ3" s="59">
+      <c r="FR3" s="59">
         <v>0.03</v>
       </c>
-      <c r="FR3" s="60">
+      <c r="FS3" s="60">
         <v>0.8</v>
       </c>
-      <c r="FS3" s="60">
+      <c r="FT3" s="60">
         <v>0.15</v>
       </c>
-      <c r="FT3" s="60"/>
-      <c r="FU3" s="60">
+      <c r="FU3" s="60"/>
+      <c r="FV3" s="60">
         <v>0.02</v>
       </c>
-      <c r="FV3" s="60"/>
-      <c r="FY3" s="24"/>
+      <c r="FW3" s="60"/>
+      <c r="FZ3" s="24"/>
     </row>
-    <row r="4" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44326.502545150463</v>
       </c>
@@ -13637,121 +13656,124 @@
       <c r="DX4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DY4" s="9" t="s">
+      <c r="DY4" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ4" s="2" t="s">
+      <c r="EA4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA4" s="19" t="s">
+      <c r="EB4" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="EC4" s="2" t="s">
+      <c r="ED4" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="ED4" s="2" t="s">
+      <c r="EE4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="EE4" s="2" t="s">
+      <c r="EF4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EG4" s="2" t="s">
+      <c r="EH4" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="EH4" s="5" t="s">
+      <c r="EI4" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="EI4" s="2" t="s">
+      <c r="EJ4" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="EJ4" s="9" t="s">
+      <c r="EK4" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="EK4" s="2" t="s">
+      <c r="EL4" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="EL4" s="2" t="s">
+      <c r="EM4" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="EM4" s="2" t="s">
+      <c r="EN4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="EO4" s="2" t="s">
+      <c r="EP4" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="EP4" s="2" t="s">
+      <c r="EQ4" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="EQ4" s="2" t="s">
+      <c r="ER4" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="ER4" s="2" t="s">
+      <c r="ES4" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="ES4" s="2" t="s">
+      <c r="ET4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET4" s="2" t="s">
+      <c r="EU4" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="EU4" s="2" t="s">
+      <c r="EV4" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW4" s="2" t="s">
+      <c r="EX4" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="EX4" s="2" t="s">
+      <c r="EY4" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="EY4" s="2" t="s">
+      <c r="EZ4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ4" s="2" t="s">
+      <c r="FA4" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="FA4" s="2" t="s">
+      <c r="FB4" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="FB4" s="2" t="s">
+      <c r="FC4" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="FC4" s="2" t="s">
+      <c r="FD4" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="FD4" s="2" t="s">
+      <c r="FE4" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="FE4" s="5" t="s">
+      <c r="FF4" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="FF4" s="2" t="s">
+      <c r="FG4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="FH4" s="2" t="s">
+      <c r="FI4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="FI4" s="2" t="s">
+      <c r="FJ4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FJ4" s="2" t="s">
+      <c r="FK4" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="FL4" s="43"/>
-      <c r="FM4" s="24"/>
+      <c r="FM4" s="43"/>
       <c r="FN4" s="24"/>
       <c r="FO4" s="24"/>
       <c r="FP4" s="24"/>
-      <c r="FQ4" s="51"/>
-      <c r="FR4" s="52">
+      <c r="FQ4" s="24"/>
+      <c r="FR4" s="51"/>
+      <c r="FS4" s="52">
         <v>0.03</v>
       </c>
-      <c r="FS4" s="52"/>
       <c r="FT4" s="52"/>
       <c r="FU4" s="52"/>
       <c r="FV4" s="52"/>
-      <c r="FY4" s="24"/>
+      <c r="FW4" s="52"/>
+      <c r="FZ4" s="24"/>
     </row>
-    <row r="5" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44337.64144068287</v>
       </c>
@@ -14047,140 +14069,140 @@
       <c r="DX5" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="DY5" s="9" t="s">
+      <c r="DY5" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="DZ5" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ5" s="2" t="s">
+      <c r="EA5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="EA5" s="2" t="s">
+      <c r="EB5" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="EC5" s="2" t="s">
+      <c r="ED5" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="ED5" s="2" t="s">
+      <c r="EE5" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="EE5" s="2" t="s">
+      <c r="EF5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF5" s="2" t="s">
+      <c r="EG5" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="EG5" s="2" t="s">
+      <c r="EH5" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="EH5" s="2">
+      <c r="EI5" s="2">
         <v>208</v>
       </c>
-      <c r="EI5" s="2" t="s">
+      <c r="EJ5" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="EJ5" s="9" t="s">
+      <c r="EK5" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="EK5" s="2" t="s">
+      <c r="EL5" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="EL5" s="2" t="s">
+      <c r="EM5" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="EM5" s="2" t="s">
+      <c r="EN5" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="EN5" s="2" t="s">
+      <c r="EO5" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="EO5" s="2" t="s">
+      <c r="EP5" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="EP5" s="2" t="s">
+      <c r="EQ5" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="EQ5" s="2" t="s">
+      <c r="ER5" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="ER5" s="2" t="s">
+      <c r="ES5" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="ES5" s="2" t="s">
+      <c r="ET5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET5" s="2" t="s">
+      <c r="EU5" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="EU5" s="2" t="s">
+      <c r="EV5" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW5" s="2" t="s">
+      <c r="EX5" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="EX5" s="2" t="s">
+      <c r="EY5" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="EY5" s="2" t="s">
+      <c r="EZ5" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ5" s="2" t="s">
+      <c r="FA5" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="FA5" s="2" t="s">
+      <c r="FB5" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="FB5" s="5" t="s">
+      <c r="FC5" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="FC5" s="2" t="s">
+      <c r="FD5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="FD5" s="2" t="s">
+      <c r="FE5" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="FE5" s="2" t="s">
+      <c r="FF5" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF5" s="2" t="s">
+      <c r="FG5" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="FH5" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="FI5" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FJ5" s="2" t="s">
+      <c r="FJ5" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK5" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="FK5" s="2" t="s">
+      <c r="FL5" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="FL5" s="36">
+      <c r="FM5" s="36">
         <v>2</v>
       </c>
-      <c r="FM5" s="2" t="s">
+      <c r="FN5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FN5" s="2" t="s">
+      <c r="FO5" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="FO5" s="2">
+      <c r="FP5" s="2">
         <v>1</v>
       </c>
-      <c r="FP5" s="2" t="s">
+      <c r="FQ5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="FQ5" s="53">
+      <c r="FR5" s="53">
         <v>0.15</v>
       </c>
-      <c r="FR5" s="49">
+      <c r="FS5" s="49">
         <v>0.8</v>
       </c>
-      <c r="FS5" s="49">
+      <c r="FT5" s="49">
         <v>0.05</v>
-      </c>
-      <c r="FT5" s="49">
-        <v>0</v>
       </c>
       <c r="FU5" s="49">
         <v>0</v>
@@ -14188,14 +14210,17 @@
       <c r="FV5" s="49">
         <v>0</v>
       </c>
-      <c r="FX5" s="2" t="s">
+      <c r="FW5" s="49">
+        <v>0</v>
+      </c>
+      <c r="FY5" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="FY5" s="2" t="s">
+      <c r="FZ5" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44339.650587766198</v>
       </c>
@@ -14495,134 +14520,134 @@
       <c r="DX6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DY6" s="9" t="s">
+      <c r="DY6" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ6" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ6" s="2" t="s">
+      <c r="EA6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="EA6" s="2" t="s">
+      <c r="EB6" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="EC6" s="2">
+      <c r="ED6" s="2">
         <v>5500</v>
       </c>
-      <c r="ED6" s="2" t="s">
+      <c r="EE6" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="EE6" s="2" t="s">
+      <c r="EF6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF6" s="2" t="s">
+      <c r="EG6" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="EG6" s="2" t="s">
+      <c r="EH6" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="EH6" s="2">
+      <c r="EI6" s="2">
         <v>103</v>
       </c>
-      <c r="EI6" s="2" t="s">
+      <c r="EJ6" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="EJ6" s="9" t="s">
+      <c r="EK6" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="EK6" s="2" t="s">
+      <c r="EL6" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="EL6" s="2" t="s">
+      <c r="EM6" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="EM6" s="2" t="s">
+      <c r="EN6" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="EO6" s="2" t="s">
+      <c r="EP6" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="EP6" s="2" t="s">
+      <c r="EQ6" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="EQ6" s="2" t="s">
+      <c r="ER6" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="ER6" s="2" t="s">
+      <c r="ES6" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="ES6" s="2" t="s">
+      <c r="ET6" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET6" s="2" t="s">
+      <c r="EU6" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="EU6" s="5" t="s">
+      <c r="EV6" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="EV6" s="2" t="s">
+      <c r="EW6" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="EW6" s="2" t="s">
+      <c r="EX6" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="EX6" s="2" t="s">
+      <c r="EY6" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="EY6" s="2" t="s">
+      <c r="EZ6" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ6" s="2" t="s">
+      <c r="FA6" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="FA6" s="2" t="s">
+      <c r="FB6" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="FB6" s="2" t="s">
+      <c r="FC6" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="FC6" s="2" t="s">
+      <c r="FD6" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="FD6" s="2" t="s">
+      <c r="FE6" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="FE6" s="2" t="s">
+      <c r="FF6" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF6" s="2" t="s">
+      <c r="FG6" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="FH6" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="FI6" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FJ6" s="2" t="s">
+      <c r="FJ6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK6" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="FL6" s="36">
+      <c r="FM6" s="36">
         <v>1</v>
       </c>
-      <c r="FM6" s="2" t="s">
+      <c r="FN6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FO6" s="2">
+      <c r="FP6" s="2">
         <v>1</v>
       </c>
-      <c r="FP6" s="2" t="s">
+      <c r="FQ6" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="FQ6" s="53">
+      <c r="FR6" s="53">
         <v>0.8</v>
       </c>
-      <c r="FR6" s="49">
+      <c r="FS6" s="49">
         <v>0.15</v>
       </c>
-      <c r="FS6" s="49">
+      <c r="FT6" s="49">
         <v>0.05</v>
-      </c>
-      <c r="FT6" s="49">
-        <v>0</v>
       </c>
       <c r="FU6" s="49">
         <v>0</v>
@@ -14630,14 +14655,17 @@
       <c r="FV6" s="49">
         <v>0</v>
       </c>
-      <c r="FX6" s="2" t="s">
+      <c r="FW6" s="49">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="FY6" s="2" t="s">
+      <c r="FZ6" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44341.914503842592</v>
       </c>
@@ -14948,146 +14976,149 @@
       <c r="DX7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DY7" s="9" t="s">
+      <c r="DY7" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ7" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ7" s="2" t="s">
+      <c r="EA7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="EA7" s="2" t="s">
+      <c r="EB7" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="EC7" s="2" t="s">
+      <c r="ED7" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="ED7" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="EE7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EG7" s="2" t="s">
+      <c r="EF7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="EH7" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="EH7" s="5" t="s">
+      <c r="EI7" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="EI7" s="2" t="s">
+      <c r="EJ7" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="EJ7" s="9" t="s">
+      <c r="EK7" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="EK7" s="2" t="s">
+      <c r="EL7" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="EL7" s="2" t="s">
+      <c r="EM7" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="EM7" s="2" t="s">
+      <c r="EN7" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="EO7" s="2" t="s">
+      <c r="EP7" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="EP7" s="2" t="s">
+      <c r="EQ7" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="EQ7" s="2" t="s">
+      <c r="ER7" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="ER7" s="2" t="s">
+      <c r="ES7" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="ES7" s="2" t="s">
+      <c r="ET7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET7" s="20" t="s">
+      <c r="EU7" s="20" t="s">
         <v>1100</v>
       </c>
-      <c r="EU7" s="2" t="s">
+      <c r="EV7" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW7" s="2" t="s">
+      <c r="EX7" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="EX7" s="2" t="s">
+      <c r="EY7" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="EY7" s="2" t="s">
+      <c r="EZ7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ7" s="2" t="s">
+      <c r="FA7" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="FA7" s="2" t="s">
+      <c r="FB7" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="FB7" s="2" t="s">
+      <c r="FC7" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="FC7" s="2" t="s">
+      <c r="FD7" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="FD7" s="2" t="s">
+      <c r="FE7" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="FE7" s="2" t="s">
+      <c r="FF7" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="FF7" s="2" t="s">
+      <c r="FG7" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="FH7" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="FI7" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FJ7" s="2" t="s">
+      <c r="FJ7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK7" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="FK7" s="2" t="s">
+      <c r="FL7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FL7" s="36">
+      <c r="FM7" s="36">
         <v>12</v>
       </c>
-      <c r="FM7" s="2" t="s">
+      <c r="FN7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FO7" s="2">
+      <c r="FP7" s="2">
         <v>7</v>
       </c>
-      <c r="FP7" s="2" t="s">
+      <c r="FQ7" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="FQ7" s="53">
+      <c r="FR7" s="53">
         <v>0.7</v>
       </c>
-      <c r="FR7" s="49">
+      <c r="FS7" s="49">
         <v>0.2</v>
       </c>
-      <c r="FS7" s="49">
+      <c r="FT7" s="49">
         <v>0.02</v>
       </c>
-      <c r="FT7" s="49">
+      <c r="FU7" s="49">
         <v>0.08</v>
-      </c>
-      <c r="FU7" s="49">
-        <v>0</v>
       </c>
       <c r="FV7" s="49">
         <v>0</v>
       </c>
-      <c r="FX7" s="2" t="s">
+      <c r="FW7" s="49">
+        <v>0</v>
+      </c>
+      <c r="FY7" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="FY7" s="2" t="s">
+      <c r="FZ7" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44342.470375613426</v>
       </c>
@@ -15353,127 +15384,127 @@
       <c r="DX8" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="DY8" s="9" t="s">
+      <c r="DY8" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="DZ8" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ8" s="2" t="s">
+      <c r="EA8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA8" s="2" t="s">
+      <c r="EB8" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="EC8" s="2" t="s">
+      <c r="ED8" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="ED8" s="2" t="s">
+      <c r="EE8" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="EE8" s="2" t="s">
+      <c r="EF8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF8" s="5" t="s">
+      <c r="EG8" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="EG8" s="2" t="s">
+      <c r="EH8" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="EH8" s="5" t="s">
+      <c r="EI8" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="EI8" s="2" t="s">
+      <c r="EJ8" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="EJ8" s="9" t="s">
+      <c r="EK8" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="EK8" s="2" t="s">
+      <c r="EL8" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="EL8" s="2" t="s">
+      <c r="EM8" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="EM8" s="5" t="s">
+      <c r="EN8" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="EN8" s="2" t="s">
+      <c r="EO8" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="EO8" s="2" t="s">
+      <c r="EP8" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="EP8" s="2" t="s">
+      <c r="EQ8" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="EQ8" s="2" t="s">
+      <c r="ER8" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="ER8" s="2" t="s">
+      <c r="ES8" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="ES8" s="2" t="s">
+      <c r="ET8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET8" s="2" t="s">
+      <c r="EU8" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EU8" s="2" t="s">
+      <c r="EV8" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="EW8" s="2" t="s">
+      <c r="EX8" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="EX8" s="2" t="s">
+      <c r="EY8" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="EY8" s="2" t="s">
+      <c r="EZ8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ8" s="2" t="s">
+      <c r="FA8" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="FA8" s="2" t="s">
+      <c r="FB8" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="FB8" s="2" t="s">
+      <c r="FC8" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="FC8" s="2" t="s">
+      <c r="FD8" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="FD8" s="2" t="s">
+      <c r="FE8" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="FE8" s="2" t="s">
+      <c r="FF8" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF8" s="2" t="s">
+      <c r="FG8" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="FH8" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="FI8" s="2" t="s">
         <v>195</v>
       </c>
       <c r="FJ8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK8" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="FL8" s="36">
+      <c r="FM8" s="36">
         <v>2</v>
       </c>
-      <c r="FM8" s="2" t="s">
+      <c r="FN8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FO8" s="2">
+      <c r="FP8" s="2">
         <v>5</v>
       </c>
-      <c r="FP8" s="2" t="s">
+      <c r="FQ8" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="FQ8" s="53" t="s">
-        <v>576</v>
-      </c>
-      <c r="FR8" s="49" t="s">
+      <c r="FR8" s="53" t="s">
         <v>576</v>
       </c>
       <c r="FS8" s="49" t="s">
@@ -15488,11 +15519,14 @@
       <c r="FV8" s="49" t="s">
         <v>576</v>
       </c>
-      <c r="FY8" s="2" t="s">
+      <c r="FW8" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="FZ8" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44342.499626712961</v>
       </c>
@@ -15812,131 +15846,131 @@
       <c r="DX9" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="DY9" s="9" t="s">
+      <c r="DY9" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="DZ9" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ9" s="2" t="s">
+      <c r="EA9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA9" s="2" t="s">
+      <c r="EB9" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="EC9" s="2" t="s">
+      <c r="ED9" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="ED9" s="2" t="s">
+      <c r="EE9" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="EE9" s="2" t="s">
+      <c r="EF9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EG9" s="2" t="s">
+      <c r="EH9" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="EH9" s="2">
+      <c r="EI9" s="2">
         <v>34</v>
       </c>
-      <c r="EI9" s="2" t="s">
+      <c r="EJ9" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="EJ9" s="9" t="s">
+      <c r="EK9" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="EK9" s="2" t="s">
+      <c r="EL9" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="EL9" s="2" t="s">
+      <c r="EM9" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="EM9" s="2" t="s">
+      <c r="EN9" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="EO9" s="2" t="s">
+      <c r="EP9" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="EP9" s="2" t="s">
+      <c r="EQ9" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="EQ9" s="2" t="s">
+      <c r="ER9" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="ER9" s="2" t="s">
+      <c r="ES9" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="ES9" s="2" t="s">
+      <c r="ET9" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET9" s="2" t="s">
+      <c r="EU9" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EU9" s="2" t="s">
+      <c r="EV9" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW9" s="2" t="s">
+      <c r="EX9" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="EX9" s="2" t="s">
+      <c r="EY9" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="EY9" s="2" t="s">
+      <c r="EZ9" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ9" s="2" t="s">
+      <c r="FA9" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="FA9" s="2" t="s">
+      <c r="FB9" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="FB9" s="2" t="s">
+      <c r="FC9" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="FC9" s="2" t="s">
+      <c r="FD9" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="FD9" s="2" t="s">
+      <c r="FE9" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="FE9" s="2" t="s">
+      <c r="FF9" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF9" s="2" t="s">
+      <c r="FG9" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="FH9" s="2" t="s">
+      <c r="FI9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="FI9" s="2" t="s">
+      <c r="FJ9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FJ9" s="2" t="s">
+      <c r="FK9" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="FK9" s="2" t="s">
+      <c r="FL9" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FL9" s="36">
+      <c r="FM9" s="36">
         <v>2</v>
       </c>
-      <c r="FM9" s="2" t="s">
+      <c r="FN9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FO9" s="2">
+      <c r="FP9" s="2">
         <v>1</v>
       </c>
-      <c r="FP9" s="2" t="s">
+      <c r="FQ9" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="FQ9" s="53">
+      <c r="FR9" s="53">
         <v>0.5</v>
       </c>
-      <c r="FR9" s="49">
+      <c r="FS9" s="49">
         <v>0.45</v>
       </c>
-      <c r="FS9" s="49">
+      <c r="FT9" s="49">
         <v>0.05</v>
-      </c>
-      <c r="FT9" s="49">
-        <v>0</v>
       </c>
       <c r="FU9" s="49">
         <v>0</v>
@@ -15944,11 +15978,14 @@
       <c r="FV9" s="49">
         <v>0</v>
       </c>
-      <c r="FY9" s="2" t="s">
+      <c r="FW9" s="49">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="10" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44342.542538240741</v>
       </c>
@@ -16233,128 +16270,128 @@
       <c r="DX10" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DY10" s="9" t="s">
+      <c r="DY10" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ10" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ10" s="2" t="s">
+      <c r="EA10" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA10" s="2" t="s">
+      <c r="EB10" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="EC10" s="2" t="s">
+      <c r="ED10" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="ED10" s="2" t="s">
+      <c r="EE10" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="EE10" s="2" t="s">
+      <c r="EF10" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EG10" s="2" t="s">
+      <c r="EH10" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="EH10" s="5" t="s">
+      <c r="EI10" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="EI10" s="2" t="s">
+      <c r="EJ10" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="EJ10" s="9" t="s">
+      <c r="EK10" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="EK10" s="2" t="s">
+      <c r="EL10" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="EL10" s="2" t="s">
+      <c r="EM10" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="EM10" s="5" t="s">
+      <c r="EN10" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="EN10" s="2" t="s">
+      <c r="EO10" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="EO10" s="2" t="s">
+      <c r="EP10" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="EP10" s="2" t="s">
+      <c r="EQ10" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="EQ10" s="2" t="s">
+      <c r="ER10" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="ER10" s="2" t="s">
+      <c r="ES10" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="ES10" s="2" t="s">
+      <c r="ET10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET10" s="2" t="s">
+      <c r="EU10" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EU10" s="2" t="s">
+      <c r="EV10" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="EW10" s="2" t="s">
+      <c r="EX10" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="EX10" s="2" t="s">
+      <c r="EY10" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="EY10" s="2" t="s">
+      <c r="EZ10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ10" s="2" t="s">
+      <c r="FA10" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="FA10" s="2" t="s">
+      <c r="FB10" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="FB10" s="2" t="s">
+      <c r="FC10" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="FC10" s="2" t="s">
+      <c r="FD10" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="FD10" s="2" t="s">
+      <c r="FE10" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="FE10" s="2" t="s">
+      <c r="FF10" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF10" s="2" t="s">
+      <c r="FG10" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="FH10" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="FI10" s="2" t="s">
         <v>195</v>
       </c>
       <c r="FJ10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK10" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="FL10" s="36">
+      <c r="FM10" s="36">
         <v>2</v>
       </c>
-      <c r="FM10" s="2" t="s">
+      <c r="FN10" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FO10" s="2">
+      <c r="FP10" s="2">
         <v>5</v>
       </c>
-      <c r="FP10" s="2" t="s">
+      <c r="FQ10" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="FQ10" s="53">
+      <c r="FR10" s="53">
         <v>0.15</v>
       </c>
-      <c r="FR10" s="49">
+      <c r="FS10" s="49">
         <v>0.7</v>
-      </c>
-      <c r="FS10" s="49">
-        <v>0</v>
       </c>
       <c r="FT10" s="49">
         <v>0</v>
@@ -16363,13 +16400,16 @@
         <v>0</v>
       </c>
       <c r="FV10" s="49">
+        <v>0</v>
+      </c>
+      <c r="FW10" s="49">
         <v>0.15</v>
       </c>
-      <c r="FY10" s="2" t="s">
+      <c r="FZ10" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44344.505199409723</v>
       </c>
@@ -16663,130 +16703,130 @@
       <c r="DX11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="DY11" s="9" t="s">
+      <c r="DY11" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ11" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ11" s="2" t="s">
+      <c r="EA11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA11" s="2" t="s">
+      <c r="EB11" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="EC11" s="2" t="s">
+      <c r="ED11" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="ED11" s="2" t="s">
+      <c r="EE11" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="EE11" s="2" t="s">
+      <c r="EF11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF11" s="5" t="s">
+      <c r="EG11" s="5" t="s">
         <v>1886</v>
       </c>
-      <c r="EG11" s="2" t="s">
+      <c r="EH11" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="EH11" s="2">
+      <c r="EI11" s="2">
         <v>80</v>
       </c>
-      <c r="EI11" s="2" t="s">
+      <c r="EJ11" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="EJ11" s="9" t="s">
+      <c r="EK11" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="EK11" s="2" t="s">
+      <c r="EL11" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="EL11" s="2" t="s">
+      <c r="EM11" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="EM11" s="2" t="s">
+      <c r="EN11" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="EO11" s="2" t="s">
+      <c r="EP11" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="EP11" s="2" t="s">
+      <c r="EQ11" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="EQ11" s="2" t="s">
+      <c r="ER11" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="ER11" s="2" t="s">
+      <c r="ES11" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="ES11" s="2" t="s">
+      <c r="ET11" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET11" s="2" t="s">
+      <c r="EU11" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EU11" s="2" t="s">
+      <c r="EV11" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW11" s="2" t="s">
+      <c r="EX11" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="EX11" s="2" t="s">
+      <c r="EY11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="EY11" s="2" t="s">
+      <c r="EZ11" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ11" s="2" t="s">
+      <c r="FA11" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="FA11" s="2" t="s">
+      <c r="FB11" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="FB11" s="2" t="s">
+      <c r="FC11" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="FC11" s="2" t="s">
+      <c r="FD11" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="FD11" s="2" t="s">
+      <c r="FE11" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="FE11" s="2" t="s">
+      <c r="FF11" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="FF11" s="2" t="s">
+      <c r="FG11" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="FH11" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="FI11" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FJ11" s="2" t="s">
+      <c r="FJ11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK11" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="FK11" s="2" t="s">
+      <c r="FL11" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="FL11" s="36">
+      <c r="FM11" s="36">
         <v>2</v>
       </c>
-      <c r="FM11" s="2" t="s">
+      <c r="FN11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="FN11" s="2" t="s">
+      <c r="FO11" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="FO11" s="2">
+      <c r="FP11" s="2">
         <v>1</v>
       </c>
-      <c r="FP11" s="2" t="s">
+      <c r="FQ11" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="FQ11" s="54" t="s">
-        <v>576</v>
-      </c>
-      <c r="FR11" s="55" t="s">
+      <c r="FR11" s="54" t="s">
         <v>576</v>
       </c>
       <c r="FS11" s="55" t="s">
@@ -16801,11 +16841,14 @@
       <c r="FV11" s="55" t="s">
         <v>576</v>
       </c>
-      <c r="FY11" s="2" t="s">
+      <c r="FW11" s="55" t="s">
+        <v>576</v>
+      </c>
+      <c r="FZ11" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="12" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44344.528835266203</v>
       </c>
@@ -17116,146 +17159,149 @@
       <c r="DX12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="DY12" s="9" t="s">
+      <c r="DY12" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ12" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="DZ12" s="2" t="s">
+      <c r="EA12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EA12" s="2" t="s">
+      <c r="EB12" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="EC12" s="2" t="s">
+      <c r="ED12" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="ED12" s="2" t="s">
+      <c r="EE12" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="EE12" s="2" t="s">
+      <c r="EF12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EG12" s="2" t="s">
+      <c r="EH12" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="EH12" s="2">
+      <c r="EI12" s="2">
         <v>245</v>
       </c>
-      <c r="EI12" s="2" t="s">
+      <c r="EJ12" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="EJ12" s="9" t="s">
+      <c r="EK12" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="EK12" s="2" t="s">
+      <c r="EL12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="EL12" s="2" t="s">
+      <c r="EM12" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="EM12" s="2" t="s">
+      <c r="EN12" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="EO12" s="2" t="s">
+      <c r="EP12" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="EP12" s="2" t="s">
+      <c r="EQ12" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="EQ12" s="2" t="s">
+      <c r="ER12" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="ER12" s="2" t="s">
+      <c r="ES12" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="ES12" s="2" t="s">
+      <c r="ET12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="ET12" s="2" t="s">
+      <c r="EU12" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="EU12" s="2" t="s">
+      <c r="EV12" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW12" s="2" t="s">
+      <c r="EX12" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="EX12" s="2" t="s">
+      <c r="EY12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="EY12" s="2" t="s">
+      <c r="EZ12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="EZ12" s="2" t="s">
+      <c r="FA12" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="FA12" s="2" t="s">
+      <c r="FB12" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="FB12" s="2" t="s">
+      <c r="FC12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="FC12" s="2" t="s">
+      <c r="FD12" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="FD12" s="2" t="s">
+      <c r="FE12" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="FE12" s="2" t="s">
+      <c r="FF12" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF12" s="2" t="s">
+      <c r="FG12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="FG12" s="2" t="s">
+      <c r="FH12" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="FH12" s="5" t="s">
+      <c r="FI12" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FI12" s="2" t="s">
+      <c r="FJ12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FJ12" s="2" t="s">
+      <c r="FK12" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="FK12" s="2" t="s">
+      <c r="FL12" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="FL12" s="36">
+      <c r="FM12" s="36">
         <v>2</v>
       </c>
-      <c r="FM12" s="2" t="s">
+      <c r="FN12" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FO12" s="2">
+      <c r="FP12" s="2">
         <v>2</v>
       </c>
-      <c r="FP12" s="2" t="s">
+      <c r="FQ12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="FQ12" s="53">
+      <c r="FR12" s="53">
         <v>0.55000000000000004</v>
       </c>
-      <c r="FR12" s="49">
+      <c r="FS12" s="49">
         <v>0.35</v>
-      </c>
-      <c r="FS12" s="49">
-        <v>0.05</v>
       </c>
       <c r="FT12" s="49">
         <v>0.05</v>
       </c>
       <c r="FU12" s="49">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="FV12" s="49">
         <v>0</v>
       </c>
-      <c r="FY12" s="2" t="s">
+      <c r="FW12" s="49">
+        <v>0</v>
+      </c>
+      <c r="FZ12" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44345.273268472221</v>
       </c>
@@ -17566,53 +17612,51 @@
       <c r="DX13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="DY13" s="9" t="s">
+      <c r="DY13" s="2"/>
+      <c r="DZ13" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="DZ13" s="2" t="s">
+      <c r="EA13" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="EA13" s="2" t="s">
+      <c r="EB13" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="EC13" s="2" t="s">
+      <c r="ED13" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="ED13" s="2" t="s">
+      <c r="EE13" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="EE13" s="2" t="s">
+      <c r="EF13" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="EF13" s="5" t="s">
+      <c r="EG13" s="5" t="s">
         <v>1887</v>
       </c>
-      <c r="EG13" s="2" t="s">
+      <c r="EH13" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="EH13" s="2">
+      <c r="EI13" s="2">
         <v>45</v>
       </c>
-      <c r="EI13" s="2" t="s">
+      <c r="EJ13" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="EJ13" s="9" t="s">
+      <c r="EK13" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="EK13" s="2" t="s">
+      <c r="EL13" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="EL13" s="2" t="s">
+      <c r="EM13" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="EM13" s="2" t="s">
+      <c r="EN13" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="EN13" s="2" t="s">
+      <c r="EO13" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="EO13" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="EP13" s="2" t="s">
         <v>549</v>
@@ -17621,78 +17665,78 @@
         <v>549</v>
       </c>
       <c r="ER13" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="ES13" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="ES13" s="5" t="s">
+      <c r="ET13" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="ET13" s="2" t="s">
+      <c r="EU13" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="EU13" s="2" t="s">
+      <c r="EV13" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="EW13" s="2" t="s">
+      <c r="EX13" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="EX13" s="2" t="s">
+      <c r="EY13" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="EY13" s="2" t="s">
+      <c r="EZ13" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="EZ13" s="2" t="s">
+      <c r="FA13" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="FA13" s="2" t="s">
+      <c r="FB13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="FB13" s="2" t="s">
+      <c r="FC13" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="FC13" s="2" t="s">
+      <c r="FD13" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="FD13" s="2" t="s">
+      <c r="FE13" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="FE13" s="2" t="s">
+      <c r="FF13" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="FF13" s="2" t="s">
+      <c r="FG13" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="FH13" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="FI13" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="FJ13" s="2" t="s">
+      <c r="FJ13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK13" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="FK13" s="2" t="s">
+      <c r="FL13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="FL13" s="36">
+      <c r="FM13" s="36">
         <v>2</v>
       </c>
-      <c r="FM13" s="2" t="s">
+      <c r="FN13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="FN13" s="2" t="s">
+      <c r="FO13" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="FO13" s="2">
+      <c r="FP13" s="2">
         <v>2</v>
       </c>
-      <c r="FP13" s="5" t="s">
+      <c r="FQ13" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="FQ13" s="53">
-        <v>0</v>
-      </c>
-      <c r="FR13" s="49">
+      <c r="FR13" s="53">
         <v>0</v>
       </c>
       <c r="FS13" s="49">
@@ -17705,16 +17749,19 @@
         <v>0</v>
       </c>
       <c r="FV13" s="49">
+        <v>0</v>
+      </c>
+      <c r="FW13" s="49">
         <v>1</v>
       </c>
-      <c r="FX13" s="2" t="s">
+      <c r="FY13" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="FY13" s="2" t="s">
+      <c r="FZ13" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:181" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:182" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44384.71444163195</v>
       </c>
@@ -17994,134 +18041,134 @@
       <c r="DX14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="DY14" s="16" t="s">
+      <c r="DY14" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ14" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="DZ14" s="1" t="s">
+      <c r="EA14" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="EA14" s="1" t="s">
+      <c r="EB14" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="EC14" s="1" t="s">
+      <c r="ED14" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="ED14" s="1" t="s">
+      <c r="EE14" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="EE14" s="1" t="s">
+      <c r="EF14" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="EF14" s="1" t="s">
+      <c r="EG14" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="EG14" s="1" t="s">
+      <c r="EH14" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="EH14" s="1">
+      <c r="EI14" s="1">
         <v>43</v>
       </c>
-      <c r="EI14" s="1" t="s">
+      <c r="EJ14" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="EJ14" s="16">
+      <c r="EK14" s="16">
         <v>0</v>
       </c>
-      <c r="EK14" s="1" t="s">
+      <c r="EL14" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="EL14" s="1" t="s">
+      <c r="EM14" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="EM14" s="1" t="s">
+      <c r="EN14" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="EO14" s="1" t="s">
+      <c r="EP14" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="EP14" s="1" t="s">
+      <c r="EQ14" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="EQ14" s="1" t="s">
+      <c r="ER14" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="ER14" s="1" t="s">
+      <c r="ES14" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="ES14" s="1" t="s">
+      <c r="ET14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="ET14" s="14" t="s">
+      <c r="EU14" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="EU14" s="1" t="s">
+      <c r="EV14" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="EW14" s="1" t="s">
+      <c r="EX14" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="EX14" s="1" t="s">
+      <c r="EY14" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="EY14" s="1" t="s">
+      <c r="EZ14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="EZ14" s="1" t="s">
+      <c r="FA14" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="FA14" s="1" t="s">
+      <c r="FB14" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="FB14" s="1" t="s">
+      <c r="FC14" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="FC14" s="1" t="s">
+      <c r="FD14" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="FD14" s="1" t="s">
+      <c r="FE14" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="FE14" s="1" t="s">
+      <c r="FF14" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="FF14" s="1" t="s">
+      <c r="FG14" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="FH14" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="FI14" s="1" t="s">
         <v>195</v>
       </c>
       <c r="FJ14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="FL14" s="44">
+      <c r="FM14" s="44">
         <v>1.5</v>
       </c>
-      <c r="FM14" s="1" t="s">
+      <c r="FN14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FN14" s="1" t="s">
+      <c r="FO14" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="FO14" s="14">
+      <c r="FP14" s="14">
         <v>3</v>
       </c>
-      <c r="FP14" s="1" t="s">
+      <c r="FQ14" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="FQ14" s="53">
+      <c r="FR14" s="53">
         <v>0.8</v>
       </c>
-      <c r="FR14" s="49">
+      <c r="FS14" s="49">
         <v>0.15</v>
       </c>
-      <c r="FS14" s="49">
+      <c r="FT14" s="49">
         <v>0.05</v>
-      </c>
-      <c r="FT14" s="49" t="s">
-        <v>790</v>
       </c>
       <c r="FU14" s="49" t="s">
         <v>790</v>
@@ -18129,14 +18176,17 @@
       <c r="FV14" s="49" t="s">
         <v>790</v>
       </c>
-      <c r="FX14" s="1" t="s">
+      <c r="FW14" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="FY14" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="FY14" s="1" t="s">
+      <c r="FZ14" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:181" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:182" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44385.476659016203</v>
       </c>
@@ -18416,125 +18466,125 @@
       <c r="DX15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="DY15" s="16" t="s">
+      <c r="DY15" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ15" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="DZ15" s="1" t="s">
+      <c r="EA15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="EA15" s="1" t="s">
+      <c r="EB15" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="EC15" s="1" t="s">
+      <c r="ED15" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="ED15" s="1" t="s">
+      <c r="EE15" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="EE15" s="1" t="s">
+      <c r="EF15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="EG15" s="1" t="s">
+      <c r="EH15" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="EH15" s="1">
+      <c r="EI15" s="1">
         <v>220</v>
       </c>
-      <c r="EI15" s="1" t="s">
+      <c r="EJ15" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="EJ15" s="16" t="s">
+      <c r="EK15" s="16" t="s">
         <v>1017</v>
       </c>
-      <c r="EK15" s="1" t="s">
+      <c r="EL15" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="EL15" s="1" t="s">
+      <c r="EM15" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="EM15" s="1" t="s">
+      <c r="EN15" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="EO15" s="1" t="s">
+      <c r="EP15" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="EP15" s="1" t="s">
+      <c r="EQ15" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="EQ15" s="1" t="s">
+      <c r="ER15" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="ER15" s="1" t="s">
+      <c r="ES15" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="ES15" s="1" t="s">
+      <c r="ET15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="ET15" s="1" t="s">
+      <c r="EU15" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="EU15" s="1" t="s">
+      <c r="EV15" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="EW15" s="1" t="s">
+      <c r="EX15" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="EX15" s="1" t="s">
+      <c r="EY15" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="EY15" s="1" t="s">
+      <c r="EZ15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="EZ15" s="1" t="s">
+      <c r="FA15" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="FA15" s="1" t="s">
+      <c r="FB15" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="FB15" s="5" t="s">
+      <c r="FC15" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="FC15" s="1" t="s">
+      <c r="FD15" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="FD15" s="1" t="s">
+      <c r="FE15" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="FE15" s="1" t="s">
+      <c r="FF15" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="FF15" s="1" t="s">
+      <c r="FG15" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="FH15" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="FI15" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="FJ15" s="1" t="s">
+      <c r="FJ15" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK15" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="FL15" s="36">
+      <c r="FM15" s="36">
         <f>2.5</f>
         <v>2.5</v>
       </c>
-      <c r="FM15" s="1" t="s">
+      <c r="FN15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="FN15" s="1" t="s">
+      <c r="FO15" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="FO15" s="1">
+      <c r="FP15" s="1">
         <v>1</v>
       </c>
-      <c r="FP15" s="1" t="s">
+      <c r="FQ15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="FQ15" s="53" t="s">
-        <v>1029</v>
-      </c>
-      <c r="FR15" s="49" t="s">
+      <c r="FR15" s="53" t="s">
         <v>1029</v>
       </c>
       <c r="FS15" s="49" t="s">
@@ -18549,11 +18599,14 @@
       <c r="FV15" s="49" t="s">
         <v>1029</v>
       </c>
-      <c r="FY15" s="1" t="s">
+      <c r="FW15" s="49" t="s">
+        <v>1029</v>
+      </c>
+      <c r="FZ15" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="16" spans="1:181" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:182" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44385.485729236112</v>
       </c>
@@ -18855,134 +18908,132 @@
       <c r="DX16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DY16" s="16" t="s">
+      <c r="DY16" s="1"/>
+      <c r="DZ16" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="DZ16" s="1" t="s">
+      <c r="EA16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="EA16" s="1" t="s">
+      <c r="EB16" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="EC16" s="1" t="s">
+      <c r="ED16" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="ED16" s="1" t="s">
+      <c r="EE16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="EE16" s="1" t="s">
+      <c r="EF16" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="EF16" s="1" t="s">
+      <c r="EG16" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="EG16" s="1" t="s">
+      <c r="EH16" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="EH16" s="1">
+      <c r="EI16" s="1">
         <v>130</v>
       </c>
-      <c r="EI16" s="1" t="s">
+      <c r="EJ16" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="EJ16" s="16">
+      <c r="EK16" s="16">
         <v>1</v>
       </c>
-      <c r="EK16" s="1" t="s">
+      <c r="EL16" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="EL16" s="1" t="s">
+      <c r="EM16" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="EM16" s="1" t="s">
+      <c r="EN16" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="EO16" s="1" t="s">
+      <c r="EP16" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="EP16" s="1" t="s">
+      <c r="EQ16" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="EQ16" s="1" t="s">
+      <c r="ER16" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="ER16" s="1" t="s">
+      <c r="ES16" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="ES16" s="1" t="s">
+      <c r="ET16" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="ET16" s="1" t="s">
+      <c r="EU16" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="EU16" s="1" t="s">
+      <c r="EV16" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="EW16" s="1" t="s">
+      <c r="EX16" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="EX16" s="1" t="s">
+      <c r="EY16" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="EY16" s="1" t="s">
+      <c r="EZ16" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="EZ16" s="1" t="s">
+      <c r="FA16" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="FA16" s="1" t="s">
+      <c r="FB16" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="FB16" s="1" t="s">
+      <c r="FC16" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="FC16" s="1" t="s">
+      <c r="FD16" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="FD16" s="1" t="s">
+      <c r="FE16" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="FE16" s="1" t="s">
+      <c r="FF16" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="FF16" s="1" t="s">
+      <c r="FG16" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="FH16" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="FI16" s="1" t="s">
         <v>224</v>
       </c>
       <c r="FJ16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK16" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="FL16" s="36">
+      <c r="FM16" s="36">
         <v>2</v>
       </c>
-      <c r="FM16" s="1" t="s">
+      <c r="FN16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FN16" s="1" t="s">
+      <c r="FO16" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="FO16" s="1">
+      <c r="FP16" s="1">
         <v>1</v>
       </c>
-      <c r="FP16" s="1" t="s">
+      <c r="FQ16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="FQ16" s="53">
+      <c r="FR16" s="53">
         <v>0.4</v>
       </c>
-      <c r="FR16" s="49">
+      <c r="FS16" s="49">
         <v>0.1</v>
       </c>
-      <c r="FS16" s="49">
+      <c r="FT16" s="49">
         <v>0.5</v>
-      </c>
-      <c r="FT16" s="49">
-        <v>0</v>
       </c>
       <c r="FU16" s="49">
         <v>0</v>
@@ -18990,11 +19041,14 @@
       <c r="FV16" s="49">
         <v>0</v>
       </c>
-      <c r="FY16" s="1" t="s">
+      <c r="FW16" s="49">
+        <v>0</v>
+      </c>
+      <c r="FZ16" s="1" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="17" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
         <v>44447.520694444444</v>
       </c>
@@ -19270,136 +19324,136 @@
       <c r="DX17" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="DY17" t="s">
+      <c r="DY17" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ17" t="s">
         <v>224</v>
       </c>
-      <c r="DZ17" t="s">
+      <c r="EA17" t="s">
         <v>195</v>
       </c>
-      <c r="EA17" t="s">
+      <c r="EB17" t="s">
         <v>773</v>
       </c>
-      <c r="EC17" t="s">
+      <c r="ED17" t="s">
         <v>1139</v>
       </c>
-      <c r="ED17" t="s">
+      <c r="EE17" t="s">
         <v>1140</v>
       </c>
-      <c r="EE17" t="s">
+      <c r="EF17" t="s">
         <v>195</v>
       </c>
-      <c r="EG17" t="s">
+      <c r="EH17" t="s">
         <v>1141</v>
       </c>
-      <c r="EH17">
+      <c r="EI17">
         <v>2</v>
-      </c>
-      <c r="EI17" t="s">
-        <v>1142</v>
       </c>
       <c r="EJ17" t="s">
         <v>1142</v>
       </c>
       <c r="EK17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="EL17" t="s">
         <v>1143</v>
       </c>
-      <c r="EL17" t="e" cm="1">
-        <f t="array" ref="EL17">- el paciente llega con La prescripción en el recetario oficial
+      <c r="EM17" t="e" cm="1">
+        <f t="array" ref="EM17">- el paciente llega con La prescripción en el recetario oficial
 - Se hace revisión de La formula y epicrisis o historia clínica
 - Se comprueba documento de identidad
 - realiza La consignación a La cuenta bancaria del FRE
 - Se realiza el Despacho del medicamento que requiere el paciente</f>
         <v>#NAME?</v>
       </c>
-      <c r="EM17" t="s">
+      <c r="EN17" t="s">
         <v>306</v>
       </c>
-      <c r="EO17" t="s">
+      <c r="EP17" t="s">
         <v>1144</v>
       </c>
-      <c r="EP17" t="s">
+      <c r="EQ17" t="s">
         <v>1145</v>
       </c>
-      <c r="EQ17" t="s">
+      <c r="ER17" t="s">
         <v>1146</v>
       </c>
-      <c r="ER17" s="22" t="s">
+      <c r="ES17" s="22" t="s">
         <v>1147</v>
       </c>
-      <c r="ES17" t="s">
+      <c r="ET17" t="s">
         <v>239</v>
       </c>
-      <c r="ET17" t="s">
+      <c r="EU17" t="s">
         <v>1148</v>
       </c>
-      <c r="EU17" t="s">
+      <c r="EV17" t="s">
         <v>734</v>
       </c>
-      <c r="EW17" t="s">
+      <c r="EX17" t="s">
         <v>1149</v>
       </c>
-      <c r="EX17" t="s">
+      <c r="EY17" t="s">
         <v>280</v>
       </c>
-      <c r="EY17" t="s">
+      <c r="EZ17" t="s">
         <v>239</v>
       </c>
-      <c r="EZ17" s="22" t="s">
+      <c r="FA17" s="22" t="s">
         <v>1147</v>
       </c>
-      <c r="FA17" t="s">
+      <c r="FB17" t="s">
         <v>1150</v>
       </c>
-      <c r="FB17" t="s">
+      <c r="FC17" t="s">
         <v>280</v>
       </c>
-      <c r="FC17" t="s">
+      <c r="FD17" t="s">
         <v>973</v>
       </c>
-      <c r="FD17" t="s">
+      <c r="FE17" t="s">
         <v>1151</v>
       </c>
-      <c r="FE17" t="s">
+      <c r="FF17" t="s">
         <v>445</v>
       </c>
-      <c r="FF17" t="s">
+      <c r="FG17" t="s">
         <v>245</v>
-      </c>
-      <c r="FH17" s="27" t="s">
-        <v>195</v>
       </c>
       <c r="FI17" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="FJ17" t="s">
+      <c r="FJ17" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK17" t="s">
         <v>246</v>
       </c>
-      <c r="FL17" s="40">
+      <c r="FM17" s="40">
         <v>1</v>
       </c>
-      <c r="FM17" t="s">
+      <c r="FN17" t="s">
         <v>195</v>
       </c>
-      <c r="FN17" t="s">
+      <c r="FO17" t="s">
         <v>1152</v>
       </c>
-      <c r="FO17">
+      <c r="FP17">
         <v>1</v>
       </c>
-      <c r="FP17" t="s">
+      <c r="FQ17" t="s">
         <v>976</v>
-      </c>
-      <c r="FQ17" s="46">
-        <v>0.25</v>
       </c>
       <c r="FR17" s="46">
         <v>0.25</v>
       </c>
       <c r="FS17" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="FT17" s="46">
         <v>0.5</v>
-      </c>
-      <c r="FT17" s="46">
-        <v>0</v>
       </c>
       <c r="FU17" s="46">
         <v>0</v>
@@ -19407,14 +19461,17 @@
       <c r="FV17" s="46">
         <v>0</v>
       </c>
-      <c r="FW17" t="s">
+      <c r="FW17" s="46">
+        <v>0</v>
+      </c>
+      <c r="FX17" t="s">
         <v>1153</v>
       </c>
-      <c r="FY17" t="s">
+      <c r="FZ17" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="18" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
         <v>44508.834780092591</v>
       </c>
@@ -19697,134 +19754,132 @@
       <c r="DX18" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="DY18" t="s">
+      <c r="DY18" s="26"/>
+      <c r="DZ18" t="s">
         <v>224</v>
       </c>
-      <c r="DZ18" t="s">
+      <c r="EA18" t="s">
         <v>218</v>
       </c>
-      <c r="EA18" t="s">
+      <c r="EB18" t="s">
         <v>427</v>
       </c>
-      <c r="EC18" t="s">
+      <c r="ED18" t="s">
         <v>1187</v>
       </c>
-      <c r="ED18" t="s">
+      <c r="EE18" t="s">
         <v>195</v>
       </c>
-      <c r="EE18" t="s">
+      <c r="EF18" t="s">
         <v>224</v>
       </c>
-      <c r="EF18" s="26" t="s">
+      <c r="EG18" s="26" t="s">
         <v>1094</v>
       </c>
-      <c r="EG18" t="s">
+      <c r="EH18" t="s">
         <v>1188</v>
       </c>
-      <c r="EH18">
+      <c r="EI18">
         <v>78</v>
       </c>
-      <c r="EI18" t="s">
+      <c r="EJ18" t="s">
         <v>553</v>
       </c>
-      <c r="EJ18" t="s">
+      <c r="EK18" t="s">
         <v>196</v>
       </c>
-      <c r="EK18" t="s">
+      <c r="EL18" t="s">
         <v>1189</v>
       </c>
-      <c r="EL18" t="s">
+      <c r="EM18" t="s">
         <v>1190</v>
       </c>
-      <c r="EM18" t="s">
+      <c r="EN18" t="s">
         <v>306</v>
       </c>
-      <c r="EO18" t="s">
+      <c r="EP18" t="s">
         <v>1191</v>
       </c>
-      <c r="EP18" t="s">
+      <c r="EQ18" t="s">
         <v>1192</v>
       </c>
-      <c r="EQ18" t="s">
+      <c r="ER18" t="s">
         <v>195</v>
       </c>
-      <c r="ER18" t="s">
+      <c r="ES18" t="s">
         <v>1193</v>
       </c>
-      <c r="ES18" t="s">
+      <c r="ET18" t="s">
         <v>239</v>
       </c>
-      <c r="ET18" t="s">
+      <c r="EU18" t="s">
         <v>1100</v>
       </c>
-      <c r="EU18" t="s">
+      <c r="EV18" t="s">
         <v>734</v>
       </c>
-      <c r="EW18" t="s">
+      <c r="EX18" t="s">
         <v>1194</v>
       </c>
-      <c r="EX18" t="s">
+      <c r="EY18" t="s">
         <v>280</v>
       </c>
-      <c r="EY18" t="s">
+      <c r="EZ18" t="s">
         <v>1080</v>
       </c>
-      <c r="EZ18" t="s">
+      <c r="FA18" t="s">
         <v>1195</v>
       </c>
-      <c r="FA18" t="s">
+      <c r="FB18" t="s">
         <v>562</v>
       </c>
-      <c r="FB18" t="s">
+      <c r="FC18" t="s">
         <v>280</v>
       </c>
-      <c r="FC18" t="s">
+      <c r="FD18" t="s">
         <v>973</v>
       </c>
-      <c r="FD18" t="s">
+      <c r="FE18" t="s">
         <v>583</v>
       </c>
-      <c r="FE18" t="s">
+      <c r="FF18" t="s">
         <v>564</v>
       </c>
-      <c r="FF18" t="s">
+      <c r="FG18" t="s">
         <v>446</v>
-      </c>
-      <c r="FH18" s="23" t="s">
-        <v>224</v>
       </c>
       <c r="FI18" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="FJ18" t="s">
+      <c r="FJ18" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK18" t="s">
         <v>1196</v>
       </c>
-      <c r="FL18" s="40">
+      <c r="FM18" s="40">
         <v>3</v>
       </c>
-      <c r="FM18" t="s">
+      <c r="FN18" t="s">
         <v>195</v>
       </c>
-      <c r="FN18" t="s">
+      <c r="FO18" t="s">
         <v>196</v>
       </c>
-      <c r="FO18">
+      <c r="FP18">
         <v>1</v>
       </c>
-      <c r="FP18" t="s">
+      <c r="FQ18" t="s">
         <v>547</v>
       </c>
-      <c r="FQ18" s="40">
+      <c r="FR18" s="40">
         <v>0.42</v>
-      </c>
-      <c r="FR18" s="40">
-        <v>0.28999999999999998</v>
       </c>
       <c r="FS18" s="40">
         <v>0.28999999999999998</v>
       </c>
       <c r="FT18" s="40">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="FU18" s="40">
         <v>0</v>
@@ -19832,14 +19887,17 @@
       <c r="FV18" s="40">
         <v>0</v>
       </c>
-      <c r="FX18" t="s">
+      <c r="FW18" s="40">
+        <v>0</v>
+      </c>
+      <c r="FY18" t="s">
         <v>449</v>
       </c>
-      <c r="FY18" t="s">
+      <c r="FZ18" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21">
         <v>44538.361712962964</v>
       </c>
@@ -20101,143 +20159,146 @@
       <c r="DX19" t="s">
         <v>195</v>
       </c>
-      <c r="DY19" t="s">
+      <c r="DY19" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ19" t="s">
         <v>195</v>
       </c>
-      <c r="DZ19" t="s">
+      <c r="EA19" t="s">
         <v>218</v>
       </c>
-      <c r="EA19" t="s">
+      <c r="EB19" t="s">
         <v>1229</v>
       </c>
-      <c r="EC19" t="s">
+      <c r="ED19" t="s">
         <v>1230</v>
       </c>
-      <c r="ED19" t="s">
+      <c r="EE19" t="s">
         <v>1015</v>
       </c>
-      <c r="EE19" t="s">
+      <c r="EF19" t="s">
         <v>224</v>
       </c>
-      <c r="EF19" s="26" t="s">
+      <c r="EG19" s="26" t="s">
         <v>1094</v>
       </c>
-      <c r="EG19" t="s">
+      <c r="EH19" t="s">
         <v>1231</v>
       </c>
-      <c r="EH19">
+      <c r="EI19">
         <v>11</v>
       </c>
-      <c r="EI19" s="22" t="s">
+      <c r="EJ19" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="EJ19" t="s">
+      <c r="EK19" t="s">
         <v>1233</v>
       </c>
-      <c r="EK19" t="s">
+      <c r="EL19" t="s">
         <v>1234</v>
       </c>
-      <c r="EL19" t="s">
+      <c r="EM19" t="s">
         <v>1235</v>
       </c>
-      <c r="EM19" t="s">
+      <c r="EN19" t="s">
         <v>306</v>
       </c>
-      <c r="EO19" t="s">
+      <c r="EP19" t="s">
         <v>1236</v>
       </c>
-      <c r="EP19" t="s">
+      <c r="EQ19" t="s">
         <v>1237</v>
       </c>
-      <c r="EQ19" t="s">
+      <c r="ER19" t="s">
         <v>1238</v>
       </c>
-      <c r="ER19" t="s">
+      <c r="ES19" t="s">
         <v>1239</v>
       </c>
-      <c r="ES19" t="s">
+      <c r="ET19" t="s">
         <v>239</v>
       </c>
-      <c r="ET19" s="5" t="s">
+      <c r="EU19" s="5" t="s">
         <v>1023</v>
       </c>
-      <c r="EU19" t="s">
+      <c r="EV19" t="s">
         <v>311</v>
       </c>
-      <c r="EW19" t="s">
+      <c r="EX19" t="s">
         <v>1240</v>
       </c>
-      <c r="EX19" t="s">
+      <c r="EY19" t="s">
         <v>280</v>
       </c>
-      <c r="EY19" t="s">
+      <c r="EZ19" t="s">
         <v>239</v>
       </c>
-      <c r="EZ19" t="s">
+      <c r="FA19" t="s">
         <v>1241</v>
       </c>
-      <c r="FA19" t="s">
+      <c r="FB19" t="s">
         <v>1242</v>
       </c>
-      <c r="FB19" t="s">
+      <c r="FC19" t="s">
         <v>280</v>
       </c>
-      <c r="FC19" t="s">
+      <c r="FD19" t="s">
         <v>620</v>
       </c>
-      <c r="FD19" t="s">
+      <c r="FE19" t="s">
         <v>1243</v>
       </c>
-      <c r="FE19" t="s">
+      <c r="FF19" t="s">
         <v>445</v>
       </c>
-      <c r="FF19" t="s">
+      <c r="FG19" t="s">
         <v>1244</v>
-      </c>
-      <c r="FH19" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="FI19" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="FJ19" t="s">
+      <c r="FJ19" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK19" t="s">
         <v>1245</v>
       </c>
-      <c r="FL19" s="40">
+      <c r="FM19" s="40">
         <v>1</v>
       </c>
-      <c r="FM19" t="s">
+      <c r="FN19" t="s">
         <v>195</v>
       </c>
-      <c r="FO19">
+      <c r="FP19">
         <v>1</v>
       </c>
-      <c r="FP19" t="s">
+      <c r="FQ19" t="s">
         <v>222</v>
       </c>
-      <c r="FQ19" s="40">
+      <c r="FR19" s="40">
         <v>0.3</v>
       </c>
-      <c r="FR19" s="40">
+      <c r="FS19" s="40">
         <v>0.05</v>
       </c>
-      <c r="FS19" s="40">
+      <c r="FT19" s="40">
         <v>0.15</v>
-      </c>
-      <c r="FT19" s="40">
-        <v>0</v>
       </c>
       <c r="FU19" s="40">
         <v>0</v>
       </c>
       <c r="FV19" s="40">
+        <v>0</v>
+      </c>
+      <c r="FW19" s="40">
         <v>0.5</v>
       </c>
-      <c r="FY19" t="s">
+      <c r="FZ19" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="20" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21">
         <v>44538.366678240738</v>
       </c>
@@ -20526,128 +20587,128 @@
       <c r="DX20" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="DY20" t="s">
+      <c r="DY20" s="28" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ20" t="s">
         <v>224</v>
       </c>
-      <c r="DZ20" t="s">
+      <c r="EA20" t="s">
         <v>218</v>
       </c>
-      <c r="EA20" t="s">
+      <c r="EB20" t="s">
         <v>1288</v>
       </c>
-      <c r="EC20" t="s">
+      <c r="ED20" t="s">
         <v>1289</v>
       </c>
-      <c r="ED20" t="s">
+      <c r="EE20" t="s">
         <v>1290</v>
       </c>
-      <c r="EE20" t="s">
+      <c r="EF20" t="s">
         <v>224</v>
       </c>
-      <c r="EF20" s="25" t="s">
+      <c r="EG20" s="25" t="s">
         <v>1094</v>
       </c>
-      <c r="EG20" t="s">
+      <c r="EH20" t="s">
         <v>1291</v>
       </c>
-      <c r="EH20" t="s">
+      <c r="EI20" t="s">
         <v>1278</v>
       </c>
-      <c r="EI20" t="s">
+      <c r="EJ20" t="s">
         <v>1292</v>
       </c>
-      <c r="EJ20" t="s">
+      <c r="EK20" t="s">
         <v>1293</v>
       </c>
-      <c r="EK20" t="s">
+      <c r="EL20" t="s">
         <v>1294</v>
       </c>
-      <c r="EL20" t="s">
+      <c r="EM20" t="s">
         <v>1295</v>
       </c>
-      <c r="EM20" t="s">
+      <c r="EN20" t="s">
         <v>1296</v>
       </c>
-      <c r="EN20" t="s">
+      <c r="EO20" t="s">
         <v>435</v>
       </c>
-      <c r="EO20" t="s">
+      <c r="EP20" t="s">
         <v>1297</v>
       </c>
-      <c r="EP20" t="s">
+      <c r="EQ20" t="s">
         <v>1298</v>
       </c>
-      <c r="EQ20" t="s">
+      <c r="ER20" t="s">
         <v>923</v>
       </c>
-      <c r="ER20" t="s">
+      <c r="ES20" t="s">
         <v>1299</v>
       </c>
-      <c r="ES20" t="s">
+      <c r="ET20" t="s">
         <v>239</v>
       </c>
-      <c r="ET20" t="s">
+      <c r="EU20" t="s">
         <v>1300</v>
       </c>
-      <c r="EU20" t="s">
+      <c r="EV20" t="s">
         <v>734</v>
       </c>
-      <c r="EW20" t="s">
+      <c r="EX20" t="s">
         <v>1301</v>
       </c>
-      <c r="EX20" t="s">
+      <c r="EY20" t="s">
         <v>377</v>
       </c>
-      <c r="EY20" t="s">
+      <c r="EZ20" t="s">
         <v>239</v>
       </c>
-      <c r="EZ20" t="s">
+      <c r="FA20" t="s">
         <v>1302</v>
       </c>
-      <c r="FA20" t="s">
+      <c r="FB20" t="s">
         <v>1303</v>
       </c>
-      <c r="FB20" t="s">
+      <c r="FC20" t="s">
         <v>377</v>
       </c>
-      <c r="FC20" t="s">
+      <c r="FD20" t="s">
         <v>315</v>
       </c>
-      <c r="FD20" t="s">
+      <c r="FE20" t="s">
         <v>1304</v>
       </c>
-      <c r="FE20" t="s">
+      <c r="FF20" t="s">
         <v>445</v>
       </c>
-      <c r="FF20" t="s">
+      <c r="FG20" t="s">
         <v>1305</v>
       </c>
-      <c r="FG20" t="s">
+      <c r="FH20" t="s">
         <v>1306</v>
-      </c>
-      <c r="FH20" t="s">
-        <v>195</v>
       </c>
       <c r="FI20" t="s">
         <v>195</v>
       </c>
-      <c r="FJ20" s="22" t="s">
+      <c r="FJ20" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK20" s="22" t="s">
         <v>1307</v>
       </c>
-      <c r="FL20" s="40">
+      <c r="FM20" s="40">
         <v>2</v>
       </c>
-      <c r="FM20" t="s">
+      <c r="FN20" t="s">
         <v>195</v>
       </c>
-      <c r="FO20">
+      <c r="FP20">
         <v>1</v>
       </c>
-      <c r="FP20" t="s">
+      <c r="FQ20" t="s">
         <v>298</v>
-      </c>
-      <c r="FQ20" s="54" t="s">
-        <v>576</v>
       </c>
       <c r="FR20" s="54" t="s">
         <v>576</v>
@@ -20664,14 +20725,17 @@
       <c r="FV20" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="FX20" t="s">
+      <c r="FW20" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="FY20" t="s">
         <v>1308</v>
       </c>
-      <c r="FY20" t="s">
+      <c r="FZ20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>44538.47859953704</v>
       </c>
@@ -20957,135 +21021,135 @@
       <c r="DX21" t="s">
         <v>195</v>
       </c>
-      <c r="DY21" t="s">
-        <v>195</v>
+      <c r="DY21" s="23" t="s">
+        <v>790</v>
       </c>
       <c r="DZ21" t="s">
         <v>195</v>
       </c>
       <c r="EA21" t="s">
+        <v>195</v>
+      </c>
+      <c r="EB21" t="s">
         <v>1344</v>
       </c>
-      <c r="EC21" t="s">
+      <c r="ED21" t="s">
         <v>1345</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>195</v>
       </c>
       <c r="EE21" t="s">
         <v>195</v>
       </c>
-      <c r="EF21" s="26" t="s">
+      <c r="EF21" t="s">
+        <v>195</v>
+      </c>
+      <c r="EG21" s="26" t="s">
         <v>1884</v>
       </c>
-      <c r="EG21" t="s">
+      <c r="EH21" t="s">
         <v>1346</v>
       </c>
-      <c r="EH21" s="27">
+      <c r="EI21" s="27">
         <f>ROUND(107*0.4,0)</f>
         <v>43</v>
       </c>
-      <c r="EI21" t="s">
+      <c r="EJ21" t="s">
         <v>1347</v>
       </c>
-      <c r="EJ21" t="s">
+      <c r="EK21" t="s">
         <v>196</v>
       </c>
-      <c r="EK21" t="s">
+      <c r="EL21" t="s">
         <v>1348</v>
       </c>
-      <c r="EL21" t="s">
+      <c r="EM21" t="s">
         <v>1349</v>
       </c>
-      <c r="EM21" t="s">
+      <c r="EN21" t="s">
         <v>1350</v>
       </c>
-      <c r="EO21" t="s">
+      <c r="EP21" t="s">
         <v>1351</v>
       </c>
-      <c r="EP21" t="s">
+      <c r="EQ21" t="s">
         <v>1352</v>
       </c>
-      <c r="EQ21" t="s">
+      <c r="ER21" t="s">
         <v>1353</v>
       </c>
-      <c r="ER21" t="s">
+      <c r="ES21" t="s">
         <v>1354</v>
       </c>
-      <c r="ES21" t="s">
+      <c r="ET21" t="s">
         <v>239</v>
       </c>
-      <c r="ET21" t="s">
+      <c r="EU21" t="s">
         <v>1355</v>
       </c>
-      <c r="EU21" t="s">
+      <c r="EV21" t="s">
         <v>311</v>
       </c>
-      <c r="EW21" t="s">
+      <c r="EX21" t="s">
         <v>1356</v>
       </c>
-      <c r="EX21" t="s">
+      <c r="EY21" t="s">
         <v>280</v>
       </c>
-      <c r="EY21" t="s">
+      <c r="EZ21" t="s">
         <v>239</v>
       </c>
-      <c r="EZ21" t="s">
+      <c r="FA21" t="s">
         <v>1357</v>
       </c>
-      <c r="FA21" t="s">
+      <c r="FB21" t="s">
         <v>562</v>
       </c>
-      <c r="FB21" t="s">
+      <c r="FC21" t="s">
         <v>280</v>
       </c>
-      <c r="FC21" t="s">
+      <c r="FD21" t="s">
         <v>620</v>
       </c>
-      <c r="FD21" t="s">
+      <c r="FE21" t="s">
         <v>1358</v>
       </c>
-      <c r="FE21" t="s">
+      <c r="FF21" t="s">
         <v>1359</v>
       </c>
-      <c r="FF21" s="26" t="s">
+      <c r="FG21" s="26" t="s">
         <v>1905</v>
-      </c>
-      <c r="FH21" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="FI21" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="FJ21" t="s">
+      <c r="FJ21" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK21" t="s">
         <v>1360</v>
       </c>
-      <c r="FL21" s="39">
+      <c r="FM21" s="39">
         <v>2</v>
       </c>
-      <c r="FM21" t="s">
+      <c r="FN21" t="s">
         <v>195</v>
       </c>
-      <c r="FN21" t="s">
+      <c r="FO21" t="s">
         <v>196</v>
       </c>
-      <c r="FO21">
+      <c r="FP21">
         <v>1</v>
       </c>
-      <c r="FP21" t="s">
+      <c r="FQ21" t="s">
         <v>828</v>
       </c>
-      <c r="FQ21" s="38">
+      <c r="FR21" s="38">
         <v>0.5</v>
       </c>
-      <c r="FR21" s="38">
+      <c r="FS21" s="38">
         <v>0.25</v>
       </c>
-      <c r="FS21" s="46">
+      <c r="FT21" s="46">
         <v>0.25</v>
-      </c>
-      <c r="FT21" s="46">
-        <v>0</v>
       </c>
       <c r="FU21" s="46">
         <v>0</v>
@@ -21093,14 +21157,17 @@
       <c r="FV21" s="46">
         <v>0</v>
       </c>
-      <c r="FX21" t="s">
+      <c r="FW21" s="46">
+        <v>0</v>
+      </c>
+      <c r="FY21" t="s">
         <v>1361</v>
       </c>
-      <c r="FY21" t="s">
+      <c r="FZ21" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="22" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44430.608212476851</v>
       </c>
@@ -21425,137 +21492,135 @@
       <c r="DX22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DY22" s="1" t="s">
+      <c r="DY22" s="1"/>
+      <c r="DZ22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DZ22" s="1" t="s">
+      <c r="EA22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="EA22" s="1" t="s">
+      <c r="EB22" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="EB22" s="13"/>
-      <c r="EC22" s="1" t="s">
+      <c r="EC22" s="13"/>
+      <c r="ED22" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="ED22" s="1" t="s">
+      <c r="EE22" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="EE22" s="1" t="s">
+      <c r="EF22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="EF22" s="15" t="s">
+      <c r="EG22" s="15" t="s">
         <v>1094</v>
       </c>
-      <c r="EG22" s="1" t="s">
+      <c r="EH22" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="EH22" s="1">
+      <c r="EI22" s="1">
         <v>55</v>
       </c>
-      <c r="EI22" s="1" t="s">
+      <c r="EJ22" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="EJ22" s="1" t="s">
+      <c r="EK22" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="EK22" s="1" t="s">
+      <c r="EL22" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="EL22" s="1" t="s">
+      <c r="EM22" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="EM22" s="1" t="s">
+      <c r="EN22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="EN22" s="13"/>
-      <c r="EO22" s="1" t="s">
+      <c r="EO22" s="13"/>
+      <c r="EP22" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="EP22" s="1" t="s">
+      <c r="EQ22" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="EQ22" s="1" t="s">
+      <c r="ER22" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="ER22" s="1" t="s">
+      <c r="ES22" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="ES22" s="1" t="s">
+      <c r="ET22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="ET22" s="17" t="s">
+      <c r="EU22" s="17" t="s">
         <v>1100</v>
       </c>
-      <c r="EU22" s="1" t="s">
+      <c r="EV22" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="EV22" s="13"/>
-      <c r="EW22" s="1" t="s">
+      <c r="EW22" s="13"/>
+      <c r="EX22" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="EX22" s="1" t="s">
+      <c r="EY22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="EY22" s="1" t="s">
+      <c r="EZ22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="EZ22" s="1" t="s">
+      <c r="FA22" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="FA22" s="1" t="s">
+      <c r="FB22" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="FB22" s="1" t="s">
+      <c r="FC22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="FC22" s="1" t="s">
+      <c r="FD22" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="FD22" s="1" t="s">
+      <c r="FE22" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="FE22" s="1" t="s">
+      <c r="FF22" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="FF22" s="1" t="s">
+      <c r="FG22" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="FG22" s="13"/>
-      <c r="FH22" s="1" t="s">
+      <c r="FH22" s="13"/>
+      <c r="FI22" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="FI22" s="1" t="s">
+      <c r="FJ22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FJ22" s="1" t="s">
+      <c r="FK22" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="FK22" s="13"/>
-      <c r="FL22" s="36">
+      <c r="FL22" s="13"/>
+      <c r="FM22" s="36">
         <v>1</v>
       </c>
-      <c r="FM22" s="1" t="s">
+      <c r="FN22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FN22" s="13"/>
-      <c r="FO22" s="17">
+      <c r="FO22" s="13"/>
+      <c r="FP22" s="17">
         <v>2</v>
       </c>
-      <c r="FP22" s="1" t="s">
+      <c r="FQ22" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="FQ22" s="49">
+      <c r="FR22" s="49">
         <v>0.65</v>
       </c>
-      <c r="FR22" s="49">
+      <c r="FS22" s="49">
         <v>0.25</v>
       </c>
-      <c r="FS22" s="49">
+      <c r="FT22" s="49">
         <v>0.1</v>
-      </c>
-      <c r="FT22" s="49">
-        <v>0</v>
       </c>
       <c r="FU22" s="49">
         <v>0</v>
@@ -21563,13 +21628,16 @@
       <c r="FV22" s="49">
         <v>0</v>
       </c>
-      <c r="FW22" s="13"/>
+      <c r="FW22" s="49">
+        <v>0</v>
+      </c>
       <c r="FX22" s="13"/>
-      <c r="FY22" s="1" t="s">
+      <c r="FY22" s="13"/>
+      <c r="FZ22" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="23" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44437.434295497689</v>
       </c>
@@ -21880,136 +21948,136 @@
       <c r="DX23" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="DY23" s="1" t="s">
+      <c r="DY23" s="15" t="s">
+        <v>1907</v>
+      </c>
+      <c r="DZ23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DZ23" s="1" t="s">
+      <c r="EA23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="EA23" s="1" t="s">
+      <c r="EB23" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="EB23" s="13"/>
-      <c r="EC23" s="1" t="s">
+      <c r="EC23" s="13"/>
+      <c r="ED23" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="ED23" s="1" t="s">
+      <c r="EE23" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="EE23" s="1" t="s">
+      <c r="EF23" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="EF23" s="31" t="s">
+      <c r="EG23" s="31" t="s">
         <v>1468</v>
       </c>
-      <c r="EG23" s="1" t="s">
+      <c r="EH23" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="EH23" s="1">
+      <c r="EI23" s="1">
         <v>6</v>
       </c>
-      <c r="EI23" s="1" t="s">
+      <c r="EJ23" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="EJ23" s="1" t="s">
+      <c r="EK23" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="EK23" s="1" t="s">
+      <c r="EL23" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="EL23" s="1" t="s">
+      <c r="EM23" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="EM23" s="1" t="s">
+      <c r="EN23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="EN23" s="13"/>
-      <c r="EO23" s="1" t="s">
+      <c r="EO23" s="13"/>
+      <c r="EP23" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="EP23" s="1" t="s">
+      <c r="EQ23" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="EQ23" s="1" t="s">
+      <c r="ER23" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="ER23" s="1" t="s">
+      <c r="ES23" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="ES23" s="1" t="s">
+      <c r="ET23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="ET23" s="15" t="s">
+      <c r="EU23" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="EU23" s="1" t="s">
+      <c r="EV23" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="EV23" s="13"/>
-      <c r="EW23" s="1" t="s">
+      <c r="EW23" s="13"/>
+      <c r="EX23" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="EX23" s="1" t="s">
+      <c r="EY23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="EY23" s="1" t="s">
+      <c r="EZ23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="EZ23" s="1" t="s">
+      <c r="FA23" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="FA23" s="1" t="s">
+      <c r="FB23" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="FB23" s="1" t="s">
+      <c r="FC23" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="FC23" s="1" t="s">
+      <c r="FD23" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="FD23" s="1" t="s">
+      <c r="FE23" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="FE23" s="1" t="s">
+      <c r="FF23" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="FF23" s="1" t="s">
+      <c r="FG23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="FG23" s="13"/>
-      <c r="FH23" s="15" t="s">
-        <v>224</v>
-      </c>
+      <c r="FH23" s="13"/>
       <c r="FI23" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="FJ23" s="1" t="s">
+      <c r="FJ23" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK23" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="FK23" s="13"/>
-      <c r="FL23" s="36">
+      <c r="FL23" s="13"/>
+      <c r="FM23" s="36">
         <v>1</v>
       </c>
-      <c r="FM23" s="1" t="s">
+      <c r="FN23" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="FN23" s="1" t="s">
+      <c r="FO23" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="FO23" s="1">
+      <c r="FP23" s="1">
         <v>1</v>
       </c>
-      <c r="FP23" s="1" t="s">
+      <c r="FQ23" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="FQ23" s="49">
-        <v>0.5</v>
       </c>
       <c r="FR23" s="49">
         <v>0.5</v>
       </c>
       <c r="FS23" s="49">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FT23" s="49">
         <v>0</v>
@@ -22020,13 +22088,16 @@
       <c r="FV23" s="49">
         <v>0</v>
       </c>
-      <c r="FW23" s="13"/>
+      <c r="FW23" s="49">
+        <v>0</v>
+      </c>
       <c r="FX23" s="13"/>
-      <c r="FY23" s="1" t="s">
+      <c r="FY23" s="13"/>
+      <c r="FZ23" s="1" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="24" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
         <v>44438.904224537036</v>
       </c>
@@ -22327,149 +22398,152 @@
       <c r="DX24" t="s">
         <v>195</v>
       </c>
-      <c r="DY24" t="s">
+      <c r="DY24" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ24" t="s">
         <v>224</v>
       </c>
-      <c r="DZ24" t="s">
+      <c r="EA24" t="s">
         <v>218</v>
       </c>
-      <c r="EA24" t="s">
+      <c r="EB24" t="s">
         <v>1511</v>
       </c>
-      <c r="EC24" s="23" t="s">
+      <c r="ED24" s="23" t="s">
         <v>1512</v>
       </c>
-      <c r="ED24" s="22" t="s">
+      <c r="EE24" s="22" t="s">
         <v>1513</v>
       </c>
-      <c r="EE24" t="s">
+      <c r="EF24" t="s">
         <v>224</v>
       </c>
-      <c r="EF24" s="26" t="s">
+      <c r="EG24" s="26" t="s">
         <v>1636</v>
       </c>
-      <c r="EG24" s="32" t="s">
+      <c r="EH24" s="32" t="s">
         <v>1514</v>
       </c>
-      <c r="EH24">
+      <c r="EI24">
         <v>146</v>
       </c>
-      <c r="EI24" t="s">
+      <c r="EJ24" t="s">
         <v>1515</v>
       </c>
-      <c r="EJ24" t="s">
+      <c r="EK24" t="s">
         <v>790</v>
       </c>
-      <c r="EK24" t="s">
+      <c r="EL24" t="s">
         <v>1516</v>
       </c>
-      <c r="EL24" t="s">
+      <c r="EM24" t="s">
         <v>895</v>
       </c>
-      <c r="EM24" t="s">
+      <c r="EN24" t="s">
         <v>1517</v>
       </c>
-      <c r="EO24" t="s">
+      <c r="EP24" t="s">
         <v>216</v>
       </c>
-      <c r="EP24" t="s">
+      <c r="EQ24" t="s">
         <v>1518</v>
       </c>
-      <c r="EQ24" t="s">
+      <c r="ER24" t="s">
         <v>790</v>
       </c>
-      <c r="ER24" t="s">
+      <c r="ES24" t="s">
         <v>1519</v>
       </c>
-      <c r="ES24" t="s">
+      <c r="ET24" t="s">
         <v>239</v>
       </c>
-      <c r="ET24" s="26" t="s">
+      <c r="EU24" s="26" t="s">
         <v>1300</v>
       </c>
-      <c r="EU24" t="s">
+      <c r="EV24" t="s">
         <v>311</v>
       </c>
-      <c r="EW24" t="s">
+      <c r="EX24" t="s">
         <v>1520</v>
       </c>
-      <c r="EX24" t="s">
+      <c r="EY24" t="s">
         <v>280</v>
       </c>
-      <c r="EY24" t="s">
+      <c r="EZ24" t="s">
         <v>239</v>
       </c>
-      <c r="EZ24" t="s">
+      <c r="FA24" t="s">
         <v>1521</v>
       </c>
-      <c r="FA24" t="s">
+      <c r="FB24" t="s">
         <v>562</v>
       </c>
-      <c r="FB24" t="s">
+      <c r="FC24" t="s">
         <v>280</v>
       </c>
-      <c r="FC24" t="s">
+      <c r="FD24" t="s">
         <v>243</v>
       </c>
-      <c r="FD24" t="s">
+      <c r="FE24" t="s">
         <v>1522</v>
       </c>
-      <c r="FE24" s="26" t="s">
+      <c r="FF24" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="FF24" t="s">
+      <c r="FG24" t="s">
         <v>317</v>
-      </c>
-      <c r="FH24" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="FI24" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="FJ24" t="s">
+      <c r="FJ24" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK24" t="s">
         <v>1523</v>
       </c>
-      <c r="FL24" s="39">
+      <c r="FM24" s="39">
         <v>12</v>
       </c>
-      <c r="FM24" t="s">
+      <c r="FN24" t="s">
         <v>195</v>
       </c>
-      <c r="FN24" t="s">
+      <c r="FO24" t="s">
         <v>790</v>
       </c>
-      <c r="FO24">
+      <c r="FP24">
         <v>1</v>
       </c>
-      <c r="FP24" t="s">
+      <c r="FQ24" t="s">
         <v>298</v>
       </c>
-      <c r="FQ24" s="46">
+      <c r="FR24" s="46">
         <v>0.8</v>
       </c>
-      <c r="FR24" s="46">
+      <c r="FS24" s="46">
         <v>0.15</v>
       </c>
-      <c r="FS24" s="46">
+      <c r="FT24" s="46">
         <v>0.03</v>
       </c>
-      <c r="FT24" s="46">
+      <c r="FU24" s="46">
         <v>0</v>
       </c>
-      <c r="FU24" s="46">
+      <c r="FV24" s="46">
         <v>0.02</v>
       </c>
-      <c r="FV24" s="46">
+      <c r="FW24" s="46">
         <v>0</v>
       </c>
-      <c r="FX24" t="s">
+      <c r="FY24" t="s">
         <v>1524</v>
       </c>
-      <c r="FY24" t="s">
+      <c r="FZ24" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
         <v>44325.680474537039</v>
       </c>
@@ -22752,146 +22826,149 @@
       <c r="DX25" t="s">
         <v>195</v>
       </c>
-      <c r="DY25" t="s">
+      <c r="DY25" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ25" t="s">
         <v>224</v>
       </c>
-      <c r="DZ25" t="s">
+      <c r="EA25" t="s">
         <v>195</v>
       </c>
-      <c r="EA25" t="s">
+      <c r="EB25" t="s">
         <v>773</v>
       </c>
-      <c r="EC25" t="s">
+      <c r="ED25" t="s">
         <v>1561</v>
       </c>
-      <c r="ED25" t="s">
+      <c r="EE25" t="s">
         <v>1562</v>
       </c>
-      <c r="EE25" t="s">
+      <c r="EF25" t="s">
         <v>224</v>
       </c>
-      <c r="EF25" s="26" t="s">
+      <c r="EG25" s="26" t="s">
         <v>1094</v>
       </c>
-      <c r="EG25" s="22" t="s">
+      <c r="EH25" s="22" t="s">
         <v>1563</v>
       </c>
-      <c r="EH25">
+      <c r="EI25">
         <v>3</v>
       </c>
-      <c r="EI25" s="22" t="s">
+      <c r="EJ25" s="22" t="s">
         <v>1564</v>
       </c>
-      <c r="EJ25" t="s">
+      <c r="EK25" t="s">
         <v>1565</v>
       </c>
-      <c r="EK25" t="s">
+      <c r="EL25" t="s">
         <v>1566</v>
       </c>
-      <c r="EL25" s="22" t="s">
+      <c r="EM25" s="22" t="s">
         <v>1567</v>
       </c>
-      <c r="EM25" t="s">
+      <c r="EN25" t="s">
         <v>1568</v>
       </c>
-      <c r="EO25" t="s">
+      <c r="EP25" t="s">
         <v>1569</v>
       </c>
-      <c r="EP25" t="s">
+      <c r="EQ25" t="s">
         <v>1570</v>
       </c>
-      <c r="EQ25" t="s">
+      <c r="ER25" t="s">
         <v>1571</v>
       </c>
-      <c r="ER25" t="s">
+      <c r="ES25" t="s">
         <v>1572</v>
       </c>
-      <c r="ES25" t="s">
+      <c r="ET25" t="s">
         <v>239</v>
       </c>
-      <c r="ET25" t="s">
+      <c r="EU25" t="s">
         <v>1148</v>
       </c>
-      <c r="EU25" t="s">
+      <c r="EV25" t="s">
         <v>924</v>
       </c>
-      <c r="EW25" t="s">
+      <c r="EX25" t="s">
         <v>1573</v>
       </c>
-      <c r="EX25" t="s">
+      <c r="EY25" t="s">
         <v>280</v>
       </c>
-      <c r="EY25" t="s">
+      <c r="EZ25" t="s">
         <v>239</v>
       </c>
-      <c r="EZ25" t="s">
+      <c r="FA25" t="s">
         <v>1572</v>
       </c>
-      <c r="FA25" t="s">
+      <c r="FB25" t="s">
         <v>1574</v>
       </c>
-      <c r="FB25" t="s">
+      <c r="FC25" t="s">
         <v>280</v>
       </c>
-      <c r="FC25" t="s">
+      <c r="FD25" t="s">
         <v>973</v>
       </c>
-      <c r="FD25" t="s">
+      <c r="FE25" t="s">
         <v>1575</v>
       </c>
-      <c r="FE25" t="s">
+      <c r="FF25" t="s">
         <v>445</v>
       </c>
-      <c r="FF25" t="s">
+      <c r="FG25" t="s">
         <v>245</v>
-      </c>
-      <c r="FH25" t="s">
-        <v>195</v>
       </c>
       <c r="FI25" t="s">
         <v>195</v>
       </c>
       <c r="FJ25" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK25" t="s">
         <v>1576</v>
       </c>
-      <c r="FL25" s="40">
+      <c r="FM25" s="40">
         <v>1</v>
       </c>
-      <c r="FM25" t="s">
+      <c r="FN25" t="s">
         <v>218</v>
       </c>
-      <c r="FN25" t="s">
+      <c r="FO25" t="s">
         <v>1577</v>
       </c>
-      <c r="FO25" s="34">
+      <c r="FP25" s="34">
         <v>2.5</v>
       </c>
-      <c r="FP25" t="s">
+      <c r="FQ25" t="s">
         <v>547</v>
       </c>
-      <c r="FQ25" s="46">
+      <c r="FR25" s="46">
         <v>0.35</v>
       </c>
-      <c r="FR25" s="46">
+      <c r="FS25" s="46">
         <v>0.46</v>
       </c>
-      <c r="FS25" s="46">
+      <c r="FT25" s="46">
         <v>0.11</v>
       </c>
-      <c r="FT25" s="46">
+      <c r="FU25" s="46">
         <v>0</v>
       </c>
-      <c r="FU25" s="46">
+      <c r="FV25" s="46">
         <v>0.08</v>
       </c>
-      <c r="FV25" s="46">
+      <c r="FW25" s="46">
         <v>0</v>
       </c>
-      <c r="FY25" t="s">
+      <c r="FZ25" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="26" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
         <v>44386.04614583333</v>
       </c>
@@ -23180,137 +23257,137 @@
       <c r="DX26" t="s">
         <v>195</v>
       </c>
-      <c r="DY26" t="s">
+      <c r="DY26" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ26" t="s">
         <v>224</v>
       </c>
-      <c r="DZ26" t="s">
+      <c r="EA26" t="s">
         <v>218</v>
       </c>
-      <c r="EA26" t="s">
+      <c r="EB26" t="s">
         <v>773</v>
       </c>
-      <c r="EC26" t="s">
+      <c r="ED26" t="s">
         <v>1613</v>
       </c>
-      <c r="ED26" t="s">
+      <c r="EE26" t="s">
         <v>1290</v>
       </c>
-      <c r="EE26" t="s">
+      <c r="EF26" t="s">
         <v>224</v>
       </c>
-      <c r="EF26" s="26" t="s">
+      <c r="EG26" s="26" t="s">
         <v>1635</v>
       </c>
-      <c r="EG26" t="s">
+      <c r="EH26" t="s">
         <v>1614</v>
       </c>
-      <c r="EH26">
+      <c r="EI26">
         <v>13</v>
       </c>
-      <c r="EI26" t="s">
+      <c r="EJ26" t="s">
         <v>1292</v>
       </c>
-      <c r="EJ26" t="s">
+      <c r="EK26" t="s">
         <v>1293</v>
       </c>
-      <c r="EK26" t="s">
+      <c r="EL26" t="s">
         <v>283</v>
       </c>
-      <c r="EL26" t="s">
+      <c r="EM26" t="s">
         <v>1615</v>
       </c>
-      <c r="EM26" t="s">
+      <c r="EN26" t="s">
         <v>434</v>
       </c>
-      <c r="EN26" t="s">
+      <c r="EO26" t="s">
         <v>435</v>
       </c>
-      <c r="EO26" t="s">
+      <c r="EP26" t="s">
         <v>1616</v>
       </c>
-      <c r="EP26" t="s">
+      <c r="EQ26" t="s">
         <v>1617</v>
       </c>
-      <c r="EQ26" t="s">
+      <c r="ER26" t="s">
         <v>1618</v>
       </c>
-      <c r="ER26" t="s">
+      <c r="ES26" t="s">
         <v>1619</v>
       </c>
-      <c r="ES26" t="s">
+      <c r="ET26" t="s">
         <v>239</v>
       </c>
-      <c r="ET26" t="s">
+      <c r="EU26" t="s">
         <v>1023</v>
       </c>
-      <c r="EU26" t="s">
+      <c r="EV26" t="s">
         <v>311</v>
       </c>
-      <c r="EW26" t="s">
+      <c r="EX26" t="s">
         <v>1620</v>
       </c>
-      <c r="EX26" t="s">
+      <c r="EY26" t="s">
         <v>377</v>
       </c>
-      <c r="EY26" t="s">
+      <c r="EZ26" t="s">
         <v>239</v>
       </c>
-      <c r="EZ26" t="s">
+      <c r="FA26" t="s">
         <v>1621</v>
       </c>
-      <c r="FA26" s="23" t="s">
+      <c r="FB26" s="23" t="s">
         <v>1622</v>
       </c>
-      <c r="FB26" t="s">
+      <c r="FC26" t="s">
         <v>377</v>
       </c>
-      <c r="FC26" t="s">
+      <c r="FD26" t="s">
         <v>443</v>
       </c>
-      <c r="FD26" t="s">
+      <c r="FE26" t="s">
         <v>1623</v>
       </c>
-      <c r="FE26" t="s">
+      <c r="FF26" t="s">
         <v>445</v>
       </c>
-      <c r="FF26" t="s">
+      <c r="FG26" t="s">
         <v>1624</v>
-      </c>
-      <c r="FH26" t="s">
-        <v>195</v>
       </c>
       <c r="FI26" t="s">
         <v>195</v>
       </c>
-      <c r="FJ26" s="22" t="s">
+      <c r="FJ26" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK26" s="22" t="s">
         <v>1625</v>
       </c>
-      <c r="FL26" s="40">
+      <c r="FM26" s="40">
         <v>2</v>
       </c>
-      <c r="FM26" t="s">
+      <c r="FN26" t="s">
         <v>195</v>
       </c>
-      <c r="FN26" t="s">
+      <c r="FO26" t="s">
         <v>576</v>
       </c>
-      <c r="FO26">
+      <c r="FP26">
         <v>1</v>
       </c>
-      <c r="FP26" t="s">
+      <c r="FQ26" t="s">
         <v>547</v>
       </c>
-      <c r="FQ26" s="46">
+      <c r="FR26" s="46">
         <v>0.4</v>
       </c>
-      <c r="FR26" s="46">
+      <c r="FS26" s="46">
         <v>0.5</v>
       </c>
-      <c r="FS26" s="46">
+      <c r="FT26" s="46">
         <v>0.1</v>
-      </c>
-      <c r="FT26" s="46">
-        <v>0</v>
       </c>
       <c r="FU26" s="46">
         <v>0</v>
@@ -23318,11 +23395,14 @@
       <c r="FV26" s="46">
         <v>0</v>
       </c>
-      <c r="FY26" t="s">
+      <c r="FW26" s="46">
+        <v>0</v>
+      </c>
+      <c r="FZ26" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="27" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
         <v>44417.745393518519</v>
       </c>
@@ -23617,128 +23697,128 @@
       <c r="DX27" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="DY27" t="s">
+      <c r="DY27" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="DZ27" t="s">
         <v>224</v>
       </c>
-      <c r="DZ27" t="s">
+      <c r="EA27" t="s">
         <v>218</v>
       </c>
-      <c r="EA27" t="s">
+      <c r="EB27" t="s">
         <v>892</v>
       </c>
-      <c r="EC27" t="s">
+      <c r="ED27" t="s">
         <v>1674</v>
       </c>
-      <c r="ED27" t="s">
+      <c r="EE27" t="s">
         <v>1675</v>
       </c>
-      <c r="EE27" t="s">
+      <c r="EF27" t="s">
         <v>224</v>
       </c>
-      <c r="EF27" s="23" t="s">
+      <c r="EG27" s="23" t="s">
         <v>1094</v>
       </c>
-      <c r="EG27" s="22" t="s">
+      <c r="EH27" s="22" t="s">
         <v>1676</v>
       </c>
-      <c r="EH27">
+      <c r="EI27">
         <v>62</v>
       </c>
-      <c r="EI27" s="22" t="s">
+      <c r="EJ27" s="22" t="s">
         <v>1232</v>
       </c>
-      <c r="EJ27" s="22" t="s">
+      <c r="EK27" s="22" t="s">
         <v>1677</v>
       </c>
-      <c r="EK27" t="s">
+      <c r="EL27" t="s">
         <v>1678</v>
       </c>
-      <c r="EL27" s="22" t="s">
+      <c r="EM27" s="22" t="s">
         <v>1679</v>
       </c>
-      <c r="EM27" t="s">
+      <c r="EN27" t="s">
         <v>835</v>
       </c>
-      <c r="EO27" t="s">
+      <c r="EP27" t="s">
         <v>1680</v>
       </c>
-      <c r="EP27" t="s">
+      <c r="EQ27" t="s">
         <v>1681</v>
       </c>
-      <c r="EQ27" t="s">
+      <c r="ER27" t="s">
         <v>1682</v>
       </c>
-      <c r="ER27" t="s">
+      <c r="ES27" t="s">
         <v>1683</v>
       </c>
-      <c r="ES27" t="s">
+      <c r="ET27" t="s">
         <v>239</v>
       </c>
-      <c r="ET27" s="26" t="s">
+      <c r="EU27" s="26" t="s">
         <v>1100</v>
       </c>
-      <c r="EU27" t="s">
+      <c r="EV27" t="s">
         <v>311</v>
       </c>
-      <c r="EW27" t="s">
+      <c r="EX27" t="s">
         <v>1684</v>
       </c>
-      <c r="EX27" t="s">
+      <c r="EY27" t="s">
         <v>280</v>
       </c>
-      <c r="EY27" t="s">
+      <c r="EZ27" t="s">
         <v>239</v>
       </c>
-      <c r="EZ27" t="s">
+      <c r="FA27" t="s">
         <v>1685</v>
       </c>
-      <c r="FA27" t="s">
+      <c r="FB27" t="s">
         <v>1686</v>
       </c>
-      <c r="FB27" t="s">
+      <c r="FC27" t="s">
         <v>280</v>
       </c>
-      <c r="FC27" t="s">
+      <c r="FD27" t="s">
         <v>973</v>
       </c>
-      <c r="FD27" t="s">
+      <c r="FE27" t="s">
         <v>1687</v>
       </c>
-      <c r="FE27" t="s">
+      <c r="FF27" t="s">
         <v>445</v>
       </c>
-      <c r="FF27" t="s">
+      <c r="FG27" t="s">
         <v>1244</v>
-      </c>
-      <c r="FH27" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="FI27" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="FJ27" t="s">
+      <c r="FJ27" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="FK27" t="s">
         <v>1688</v>
       </c>
-      <c r="FL27" s="40">
+      <c r="FM27" s="40">
         <v>2</v>
       </c>
-      <c r="FM27" t="s">
+      <c r="FN27" t="s">
         <v>195</v>
       </c>
-      <c r="FO27">
+      <c r="FP27">
         <v>1</v>
       </c>
-      <c r="FP27" t="s">
+      <c r="FQ27" t="s">
         <v>976</v>
       </c>
-      <c r="FQ27" s="46">
+      <c r="FR27" s="46">
         <v>0.8</v>
       </c>
-      <c r="FR27" s="46">
+      <c r="FS27" s="46">
         <v>0.2</v>
-      </c>
-      <c r="FS27" s="46">
-        <v>0</v>
       </c>
       <c r="FT27" s="46">
         <v>0</v>
@@ -23749,14 +23829,17 @@
       <c r="FV27" s="46">
         <v>0</v>
       </c>
-      <c r="FW27" t="s">
+      <c r="FW27" s="46">
+        <v>0</v>
+      </c>
+      <c r="FX27" t="s">
         <v>1663</v>
       </c>
-      <c r="FY27" t="s">
+      <c r="FZ27" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="28" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
         <v>44539.722870370373</v>
       </c>
@@ -24033,131 +24116,131 @@
       <c r="DX28" t="s">
         <v>195</v>
       </c>
-      <c r="DY28" t="s">
-        <v>195</v>
+      <c r="DY28" s="23" t="s">
+        <v>790</v>
       </c>
       <c r="DZ28" t="s">
         <v>195</v>
       </c>
       <c r="EA28" t="s">
+        <v>195</v>
+      </c>
+      <c r="EB28" t="s">
         <v>550</v>
       </c>
-      <c r="EC28" t="s">
+      <c r="ED28" t="s">
         <v>1723</v>
       </c>
-      <c r="ED28" t="s">
+      <c r="EE28" t="s">
         <v>1724</v>
       </c>
-      <c r="EE28" t="s">
+      <c r="EF28" t="s">
         <v>195</v>
       </c>
-      <c r="EG28" t="s">
+      <c r="EH28" t="s">
         <v>1725</v>
       </c>
-      <c r="EH28" s="5">
+      <c r="EI28" s="5">
         <v>336</v>
       </c>
-      <c r="EI28" t="s">
+      <c r="EJ28" t="s">
         <v>1726</v>
-      </c>
-      <c r="EJ28" t="s">
-        <v>790</v>
       </c>
       <c r="EK28" t="s">
         <v>790</v>
       </c>
       <c r="EL28" t="s">
+        <v>790</v>
+      </c>
+      <c r="EM28" t="s">
         <v>1727</v>
       </c>
-      <c r="EM28" t="s">
+      <c r="EN28" t="s">
         <v>1728</v>
       </c>
-      <c r="EO28" t="s">
+      <c r="EP28" t="s">
         <v>1729</v>
       </c>
-      <c r="EP28" t="s">
+      <c r="EQ28" t="s">
         <v>1730</v>
       </c>
-      <c r="EQ28" t="s">
+      <c r="ER28" t="s">
         <v>549</v>
       </c>
-      <c r="ER28" t="s">
+      <c r="ES28" t="s">
         <v>1731</v>
       </c>
-      <c r="ES28" t="s">
+      <c r="ET28" t="s">
         <v>239</v>
       </c>
-      <c r="ET28" s="26" t="s">
+      <c r="EU28" s="26" t="s">
         <v>1148</v>
       </c>
-      <c r="EU28" s="26" t="s">
+      <c r="EV28" s="26" t="s">
         <v>1890</v>
       </c>
-      <c r="EV28" s="23" t="s">
+      <c r="EW28" s="23" t="s">
         <v>1883</v>
       </c>
-      <c r="EW28" t="s">
+      <c r="EX28" t="s">
         <v>1732</v>
       </c>
-      <c r="EX28" t="s">
+      <c r="EY28" t="s">
         <v>390</v>
       </c>
-      <c r="EY28" t="s">
+      <c r="EZ28" t="s">
         <v>1080</v>
       </c>
-      <c r="EZ28" t="s">
+      <c r="FA28" t="s">
         <v>1733</v>
       </c>
-      <c r="FA28" t="s">
+      <c r="FB28" t="s">
         <v>562</v>
       </c>
-      <c r="FB28" t="s">
+      <c r="FC28" t="s">
         <v>280</v>
       </c>
-      <c r="FC28" t="s">
+      <c r="FD28" t="s">
         <v>620</v>
       </c>
-      <c r="FD28" t="s">
+      <c r="FE28" t="s">
         <v>873</v>
       </c>
-      <c r="FE28" s="26" t="s">
+      <c r="FF28" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="FF28" t="s">
+      <c r="FG28" t="s">
         <v>317</v>
       </c>
-      <c r="FH28" s="26" t="s">
+      <c r="FI28" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="FI28" s="26" t="s">
+      <c r="FJ28" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="FJ28" t="s">
+      <c r="FK28" t="s">
         <v>1734</v>
       </c>
-      <c r="FL28" s="41">
+      <c r="FM28" s="41">
         <v>3</v>
       </c>
-      <c r="FM28" t="s">
+      <c r="FN28" t="s">
         <v>218</v>
       </c>
-      <c r="FN28" s="22" t="s">
+      <c r="FO28" s="22" t="s">
         <v>1735</v>
       </c>
-      <c r="FO28">
+      <c r="FP28">
         <v>1</v>
       </c>
-      <c r="FP28" t="s">
+      <c r="FQ28" t="s">
         <v>222</v>
       </c>
-      <c r="FQ28" s="46">
+      <c r="FR28" s="46">
         <v>0.77</v>
       </c>
-      <c r="FR28" s="46">
+      <c r="FS28" s="46">
         <v>0.23</v>
-      </c>
-      <c r="FS28" s="46">
-        <v>0</v>
       </c>
       <c r="FT28" s="46">
         <v>0</v>
@@ -24168,11 +24251,14 @@
       <c r="FV28" s="46">
         <v>0</v>
       </c>
-      <c r="FY28" t="s">
+      <c r="FW28" s="46">
+        <v>0</v>
+      </c>
+      <c r="FZ28" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>44452.834814814814</v>
       </c>
@@ -24467,134 +24553,134 @@
       <c r="DX29" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="DY29" t="s">
+      <c r="DY29" s="28" t="s">
+        <v>1908</v>
+      </c>
+      <c r="DZ29" t="s">
         <v>224</v>
       </c>
-      <c r="DZ29" t="s">
+      <c r="EA29" t="s">
         <v>195</v>
       </c>
-      <c r="EA29" t="s">
+      <c r="EB29" t="s">
         <v>1773</v>
       </c>
-      <c r="EC29" t="s">
+      <c r="ED29" t="s">
         <v>1774</v>
       </c>
-      <c r="ED29" t="s">
+      <c r="EE29" t="s">
         <v>1290</v>
       </c>
-      <c r="EE29" t="s">
+      <c r="EF29" t="s">
         <v>224</v>
       </c>
-      <c r="EF29" s="26" t="s">
+      <c r="EG29" s="26" t="s">
         <v>1875</v>
       </c>
-      <c r="EG29" t="s">
+      <c r="EH29" t="s">
         <v>1775</v>
       </c>
-      <c r="EH29">
+      <c r="EI29">
         <v>1</v>
       </c>
-      <c r="EI29" t="s">
+      <c r="EJ29" t="s">
         <v>1292</v>
       </c>
-      <c r="EJ29" t="s">
+      <c r="EK29" t="s">
         <v>576</v>
       </c>
-      <c r="EK29" t="s">
+      <c r="EL29" t="s">
         <v>1776</v>
       </c>
-      <c r="EL29" t="s">
+      <c r="EM29" t="s">
         <v>1777</v>
       </c>
-      <c r="EM29" t="s">
+      <c r="EN29" t="s">
         <v>1778</v>
       </c>
-      <c r="EN29" t="s">
+      <c r="EO29" t="s">
         <v>435</v>
       </c>
-      <c r="EO29" t="s">
+      <c r="EP29" t="s">
         <v>1779</v>
       </c>
-      <c r="EP29" t="s">
+      <c r="EQ29" t="s">
         <v>1780</v>
       </c>
-      <c r="EQ29" t="s">
+      <c r="ER29" t="s">
         <v>1781</v>
       </c>
-      <c r="ER29" t="s">
+      <c r="ES29" t="s">
         <v>1782</v>
       </c>
-      <c r="ES29" t="s">
+      <c r="ET29" t="s">
         <v>239</v>
       </c>
-      <c r="ET29" s="26" t="s">
+      <c r="EU29" s="26" t="s">
         <v>1882</v>
       </c>
-      <c r="EU29" s="23" t="s">
+      <c r="EV29" s="23" t="s">
         <v>1783</v>
       </c>
-      <c r="EW29" t="s">
+      <c r="EX29" t="s">
         <v>1784</v>
       </c>
-      <c r="EX29" t="s">
+      <c r="EY29" t="s">
         <v>390</v>
       </c>
-      <c r="EY29" t="s">
+      <c r="EZ29" t="s">
         <v>239</v>
       </c>
-      <c r="EZ29" t="s">
+      <c r="FA29" t="s">
         <v>1785</v>
       </c>
-      <c r="FA29" t="s">
+      <c r="FB29" t="s">
         <v>1786</v>
       </c>
-      <c r="FB29" s="5" t="s">
+      <c r="FC29" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="FC29" t="s">
+      <c r="FD29" t="s">
         <v>443</v>
       </c>
-      <c r="FD29" t="s">
+      <c r="FE29" t="s">
         <v>1787</v>
       </c>
-      <c r="FE29" t="s">
+      <c r="FF29" t="s">
         <v>445</v>
       </c>
-      <c r="FF29" t="s">
+      <c r="FG29" t="s">
         <v>1788</v>
-      </c>
-      <c r="FH29" t="s">
-        <v>195</v>
       </c>
       <c r="FI29" t="s">
         <v>195</v>
       </c>
-      <c r="FJ29" s="22" t="s">
+      <c r="FJ29" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK29" s="22" t="s">
         <v>1789</v>
       </c>
-      <c r="FL29" s="40">
+      <c r="FM29" s="40">
         <v>1</v>
       </c>
-      <c r="FM29" t="s">
+      <c r="FN29" t="s">
         <v>195</v>
       </c>
-      <c r="FN29" t="s">
+      <c r="FO29" t="s">
         <v>576</v>
       </c>
-      <c r="FO29">
+      <c r="FP29">
         <v>3</v>
       </c>
-      <c r="FP29" t="s">
+      <c r="FQ29" t="s">
         <v>976</v>
       </c>
-      <c r="FQ29" s="46">
+      <c r="FR29" s="46">
         <v>0.6</v>
       </c>
-      <c r="FR29" s="46">
+      <c r="FS29" s="46">
         <v>0.1</v>
-      </c>
-      <c r="FS29" s="46">
-        <v>0</v>
       </c>
       <c r="FT29" s="46">
         <v>0</v>
@@ -24603,13 +24689,16 @@
         <v>0</v>
       </c>
       <c r="FV29" s="46">
+        <v>0</v>
+      </c>
+      <c r="FW29" s="46">
         <v>0.3</v>
       </c>
-      <c r="FY29" t="s">
+      <c r="FZ29" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="30" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
         <v>44456.611226851855</v>
       </c>
@@ -24907,132 +24996,132 @@
       <c r="DX30" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="DY30" t="s">
+      <c r="DY30" s="26" t="s">
+        <v>1909</v>
+      </c>
+      <c r="DZ30" t="s">
         <v>224</v>
       </c>
-      <c r="DZ30" t="s">
+      <c r="EA30" t="s">
         <v>195</v>
       </c>
-      <c r="EA30" t="s">
+      <c r="EB30" t="s">
         <v>773</v>
       </c>
-      <c r="EC30" t="s">
+      <c r="ED30" t="s">
         <v>1820</v>
       </c>
-      <c r="ED30" t="s">
+      <c r="EE30" t="s">
         <v>1821</v>
       </c>
-      <c r="EE30" t="s">
+      <c r="EF30" t="s">
         <v>224</v>
       </c>
-      <c r="EF30" s="5" t="s">
+      <c r="EG30" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="EG30" s="42" t="s">
+      <c r="EH30" s="42" t="s">
         <v>1876</v>
       </c>
-      <c r="EH30">
+      <c r="EI30">
         <v>224</v>
       </c>
-      <c r="EI30" s="42" t="s">
+      <c r="EJ30" s="42" t="s">
         <v>1877</v>
       </c>
-      <c r="EJ30" t="s">
+      <c r="EK30" t="s">
         <v>1822</v>
       </c>
-      <c r="EK30" t="s">
+      <c r="EL30" t="s">
         <v>1823</v>
       </c>
-      <c r="EL30" s="42" t="s">
+      <c r="EM30" s="42" t="s">
         <v>1881</v>
       </c>
-      <c r="EM30" t="s">
+      <c r="EN30" t="s">
         <v>234</v>
       </c>
-      <c r="EO30" t="s">
+      <c r="EP30" t="s">
         <v>1824</v>
       </c>
-      <c r="EP30" t="s">
+      <c r="EQ30" t="s">
         <v>1825</v>
       </c>
-      <c r="EQ30" t="s">
+      <c r="ER30" t="s">
         <v>1826</v>
       </c>
-      <c r="ER30" t="s">
+      <c r="ES30" t="s">
         <v>1827</v>
       </c>
-      <c r="ES30" t="s">
+      <c r="ET30" t="s">
         <v>239</v>
       </c>
-      <c r="ET30" t="s">
+      <c r="EU30" t="s">
         <v>1828</v>
       </c>
-      <c r="EU30" t="s">
+      <c r="EV30" t="s">
         <v>734</v>
       </c>
-      <c r="EW30" t="s">
+      <c r="EX30" t="s">
         <v>1829</v>
       </c>
-      <c r="EX30" t="s">
+      <c r="EY30" t="s">
         <v>280</v>
       </c>
-      <c r="EY30" t="s">
+      <c r="EZ30" t="s">
         <v>239</v>
       </c>
-      <c r="EZ30" t="s">
+      <c r="FA30" t="s">
         <v>1827</v>
       </c>
-      <c r="FA30" t="s">
+      <c r="FB30" t="s">
         <v>1830</v>
       </c>
-      <c r="FB30" t="s">
+      <c r="FC30" t="s">
         <v>280</v>
       </c>
-      <c r="FC30" t="s">
+      <c r="FD30" t="s">
         <v>973</v>
       </c>
-      <c r="FD30" t="s">
+      <c r="FE30" t="s">
         <v>1831</v>
       </c>
-      <c r="FE30" t="s">
+      <c r="FF30" t="s">
         <v>445</v>
       </c>
-      <c r="FF30" t="s">
+      <c r="FG30" t="s">
         <v>245</v>
       </c>
-      <c r="FH30" t="s">
+      <c r="FI30" t="s">
         <v>224</v>
       </c>
-      <c r="FI30" t="s">
+      <c r="FJ30" t="s">
         <v>195</v>
       </c>
-      <c r="FJ30" t="s">
+      <c r="FK30" t="s">
         <v>246</v>
       </c>
-      <c r="FL30" s="47">
+      <c r="FM30" s="47">
         <v>4.5</v>
       </c>
-      <c r="FM30" t="s">
+      <c r="FN30" t="s">
         <v>218</v>
       </c>
-      <c r="FN30" t="s">
+      <c r="FO30" t="s">
         <v>1832</v>
       </c>
-      <c r="FO30" s="48">
+      <c r="FP30" s="48">
         <f>(5+1)/2</f>
         <v>3</v>
       </c>
-      <c r="FP30" t="s">
+      <c r="FQ30" t="s">
         <v>547</v>
       </c>
-      <c r="FQ30" s="46">
+      <c r="FR30" s="46">
         <v>0.85</v>
       </c>
-      <c r="FR30" s="46">
+      <c r="FS30" s="46">
         <v>0.15</v>
-      </c>
-      <c r="FS30" s="46">
-        <v>0</v>
       </c>
       <c r="FT30" s="46">
         <v>0</v>
@@ -25043,11 +25132,14 @@
       <c r="FV30" s="46">
         <v>0</v>
       </c>
-      <c r="FY30" t="s">
+      <c r="FW30" s="46">
+        <v>0</v>
+      </c>
+      <c r="FZ30" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="31" spans="1:181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
         <v>44458.952546296299</v>
       </c>
@@ -25372,134 +25464,134 @@
       <c r="DX31" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="DY31" t="s">
+      <c r="DY31" s="28" t="s">
+        <v>1907</v>
+      </c>
+      <c r="DZ31" t="s">
         <v>224</v>
       </c>
-      <c r="DZ31" t="s">
+      <c r="EA31" t="s">
         <v>195</v>
       </c>
-      <c r="EA31" t="s">
+      <c r="EB31" t="s">
         <v>550</v>
       </c>
-      <c r="EC31" t="s">
+      <c r="ED31" t="s">
         <v>1863</v>
       </c>
-      <c r="ED31" t="s">
+      <c r="EE31" t="s">
         <v>921</v>
       </c>
-      <c r="EE31" t="s">
+      <c r="EF31" t="s">
         <v>224</v>
       </c>
-      <c r="EF31" s="26" t="s">
+      <c r="EG31" s="26" t="s">
         <v>1885</v>
       </c>
-      <c r="EG31" t="s">
+      <c r="EH31" t="s">
         <v>1864</v>
       </c>
-      <c r="EH31">
+      <c r="EI31">
         <v>13</v>
       </c>
-      <c r="EI31" t="s">
+      <c r="EJ31" t="s">
         <v>922</v>
       </c>
-      <c r="EJ31" t="s">
+      <c r="EK31" t="s">
         <v>576</v>
       </c>
-      <c r="EK31" t="s">
+      <c r="EL31" t="s">
         <v>1865</v>
       </c>
-      <c r="EL31" t="s">
+      <c r="EM31" t="s">
         <v>1866</v>
       </c>
-      <c r="EM31" t="s">
+      <c r="EN31" t="s">
         <v>434</v>
       </c>
-      <c r="EO31" t="s">
+      <c r="EP31" t="s">
         <v>1867</v>
       </c>
-      <c r="EP31" t="s">
+      <c r="EQ31" t="s">
         <v>1868</v>
       </c>
-      <c r="EQ31" t="s">
+      <c r="ER31" t="s">
         <v>923</v>
       </c>
-      <c r="ER31" t="s">
+      <c r="ES31" t="s">
         <v>1869</v>
       </c>
-      <c r="ES31" t="s">
+      <c r="ET31" t="s">
         <v>239</v>
       </c>
-      <c r="ET31" s="26" t="s">
+      <c r="EU31" s="26" t="s">
         <v>1300</v>
       </c>
-      <c r="EU31" t="s">
+      <c r="EV31" t="s">
         <v>311</v>
       </c>
-      <c r="EW31" t="s">
+      <c r="EX31" t="s">
         <v>1870</v>
       </c>
-      <c r="EX31" t="s">
+      <c r="EY31" t="s">
         <v>280</v>
       </c>
-      <c r="EY31" t="s">
+      <c r="EZ31" t="s">
         <v>239</v>
       </c>
-      <c r="EZ31" t="s">
+      <c r="FA31" t="s">
         <v>1871</v>
       </c>
-      <c r="FA31" t="s">
+      <c r="FB31" t="s">
         <v>1872</v>
       </c>
-      <c r="FB31" t="s">
+      <c r="FC31" t="s">
         <v>280</v>
       </c>
-      <c r="FC31" t="s">
+      <c r="FD31" t="s">
         <v>379</v>
       </c>
-      <c r="FD31" t="s">
+      <c r="FE31" t="s">
         <v>1873</v>
       </c>
-      <c r="FE31" t="s">
+      <c r="FF31" t="s">
         <v>925</v>
       </c>
-      <c r="FF31" t="s">
+      <c r="FG31" t="s">
         <v>683</v>
-      </c>
-      <c r="FH31" t="s">
-        <v>195</v>
       </c>
       <c r="FI31" t="s">
         <v>195</v>
       </c>
       <c r="FJ31" t="s">
+        <v>195</v>
+      </c>
+      <c r="FK31" t="s">
         <v>1874</v>
       </c>
-      <c r="FK31" t="s">
+      <c r="FL31" t="s">
         <v>172</v>
       </c>
-      <c r="FL31" s="40">
+      <c r="FM31" s="40">
         <v>2</v>
       </c>
-      <c r="FM31" t="s">
+      <c r="FN31" t="s">
         <v>195</v>
       </c>
-      <c r="FN31" t="s">
+      <c r="FO31" t="s">
         <v>576</v>
       </c>
-      <c r="FO31">
+      <c r="FP31">
         <v>1</v>
       </c>
-      <c r="FP31" t="s">
+      <c r="FQ31" t="s">
         <v>298</v>
       </c>
-      <c r="FQ31" s="46">
+      <c r="FR31" s="46">
         <v>0.4</v>
       </c>
-      <c r="FR31" s="46">
+      <c r="FS31" s="46">
         <v>0.6</v>
-      </c>
-      <c r="FS31" s="38">
-        <v>0</v>
       </c>
       <c r="FT31" s="38">
         <v>0</v>
@@ -25510,7 +25602,10 @@
       <c r="FV31" s="38">
         <v>0</v>
       </c>
-      <c r="FY31" t="s">
+      <c r="FW31" s="38">
+        <v>0</v>
+      </c>
+      <c r="FZ31" t="s">
         <v>685</v>
       </c>
     </row>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CCA62A-27EC-4CD0-B601-39743E5EA701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFAB21-954A-4963-98FA-313A2C8B0AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,6 +568,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="FM3" authorId="0" shapeId="0" xr:uid="{E0B3BBA2-00D0-41FD-9802-2B63E2A50FF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cada 3 o 4 meses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FZ3" authorId="0" shapeId="0" xr:uid="{1C632549-839D-4C4C-A259-D380F79AB8BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ahorita no pueden comprar medicamentos</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="GG3" authorId="0" shapeId="0" xr:uid="{23065538-636C-4895-9484-A68F541C536A}">
       <text>
         <r>
@@ -853,6 +901,30 @@
           </rPr>
           <t xml:space="preserve">
 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="FZ4" authorId="0" shapeId="0" xr:uid="{9F1BE831-AE3C-43BC-A8C9-4540E4A3FE83}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sólo hay MME, pero Hillary observó que hay recetarios almacenados ahí también</t>
         </r>
       </text>
     </comment>
@@ -3948,7 +4020,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Se va a revisar</t>
+Se va a revisar""
+Estaba antes de 2020</t>
         </r>
       </text>
     </comment>
@@ -6723,6 +6796,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{5F0362AC-95C2-4D50-BCAF-91D16EBE623D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ingeniera ambiental con especialización en seguridad del trabajo.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="CC32" authorId="0" shapeId="0" xr:uid="{BD9BCD64-C2E3-47B6-B6ED-75D762420475}">
       <text>
         <r>
@@ -6841,6 +6938,30 @@
           </rPr>
           <t xml:space="preserve">
 NO SE HACE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="EG32" authorId="0" shapeId="0" xr:uid="{F5DF8D81-C484-4B37-B8B5-D1F819CA3F2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Estaba un listado</t>
         </r>
       </text>
     </comment>
@@ -6884,7 +7005,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1993">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -13129,9 +13250,6 @@
     <t>Eliecer Pérez Galvis</t>
   </si>
   <si>
-    <t>Ingeniera ambiental con especialización en seguridad del trabajo.</t>
-  </si>
-  <si>
     <t>9/20/2021 15:40:04</t>
   </si>
   <si>
@@ -13195,9 +13313,6 @@
   </si>
   <si>
     <t>No se hace almacenamiento</t>
-  </si>
-  <si>
-    <t>Lista adjunta</t>
   </si>
   <si>
     <t>solo una institución inscrita</t>
@@ -13255,6 +13370,24 @@
   </si>
   <si>
     <t>Verificación de base de ventas, Verificación de recambios, Visitas a instituciones/clientes, Otro</t>
+  </si>
+  <si>
+    <t>Ingeniera ambiental</t>
+  </si>
+  <si>
+    <t>Farmacia Junín, Pasteur, Hospital Pablo Tobón Uribe, Medical Care Droguería, Ahorro Droguería Andes, Regentes asociados</t>
+  </si>
+  <si>
+    <t>Fenobarbital Solución inyectable x 200 mg, Fenobarbital Solución inyectable x 40 mg, Hidromorfona 2mg/mL, Meperidina 100mg/2mL, Morfina 10mg/mL</t>
+  </si>
+  <si>
+    <t>N21/C1</t>
+  </si>
+  <si>
+    <t>Decreto 38 de 2018</t>
+  </si>
+  <si>
+    <t>Realización de compras en meses específicos, Desabastecimiento de ciertos medicamentos, Puntos de reórden definidos (con cantidad de compra y tiempos de espera)</t>
   </si>
 </sst>
 </file>
@@ -13326,7 +13459,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13363,12 +13496,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -13384,7 +13511,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -13404,14 +13531,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -13451,9 +13576,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13471,12 +13593,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -13527,9 +13643,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13758,10 +13884,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="FZ19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FZ32" sqref="FZ32"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13778,7 +13904,7 @@
     <col min="56" max="182" width="21.5703125" customWidth="1"/>
     <col min="183" max="183" width="17.42578125" customWidth="1"/>
     <col min="184" max="187" width="11.85546875" customWidth="1"/>
-    <col min="188" max="188" width="21.5703125" style="39" customWidth="1"/>
+    <col min="188" max="188" width="21.5703125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13815,7 +13941,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -14106,7 +14232,7 @@
       <c r="DD1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="DE1" s="35" t="s">
+      <c r="DE1" s="33" t="s">
         <v>88</v>
       </c>
       <c r="DF1" s="1" t="s">
@@ -14286,7 +14412,7 @@
       <c r="FL1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="FM1" s="44" t="s">
+      <c r="FM1" s="41" t="s">
         <v>144</v>
       </c>
       <c r="FN1" s="2" t="s">
@@ -14328,7 +14454,7 @@
       <c r="FZ1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="GA1" s="23" t="s">
+      <c r="GA1" s="22" t="s">
         <v>1879</v>
       </c>
       <c r="GB1" t="s">
@@ -14337,16 +14463,16 @@
       <c r="GC1" t="s">
         <v>1871</v>
       </c>
-      <c r="GD1" s="23" t="s">
+      <c r="GD1" s="22" t="s">
         <v>1870</v>
       </c>
-      <c r="GE1" s="23" t="s">
+      <c r="GE1" s="22" t="s">
         <v>1872</v>
       </c>
-      <c r="GF1" s="66" t="s">
+      <c r="GF1" s="61" t="s">
         <v>1880</v>
       </c>
-      <c r="GG1" s="35" t="s">
+      <c r="GG1" s="33" t="s">
         <v>1901</v>
       </c>
     </row>
@@ -14355,7 +14481,7 @@
         <v>44324.663341099542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -14384,7 +14510,7 @@
       <c r="K2" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="63" t="s">
         <v>773</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -14607,7 +14733,7 @@
       <c r="DD2" s="2">
         <v>5</v>
       </c>
-      <c r="DE2" s="34" t="s">
+      <c r="DE2" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF2" s="2" t="s">
@@ -14671,8 +14797,8 @@
       <c r="EA2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="EB2" s="19" t="s">
-        <v>216</v>
+      <c r="EB2" s="5" t="s">
+        <v>872</v>
       </c>
       <c r="EC2" s="2" t="s">
         <v>223</v>
@@ -14686,7 +14812,7 @@
       <c r="EF2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="EG2" s="60" t="s">
+      <c r="EG2" s="55" t="s">
         <v>1878</v>
       </c>
       <c r="EH2" s="2" t="s">
@@ -14770,61 +14896,61 @@
       <c r="FK2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="FM2" s="61">
+      <c r="FM2" s="56">
         <v>1</v>
       </c>
-      <c r="FN2" s="55" t="s">
+      <c r="FN2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="FO2" s="56" t="s">
+      <c r="FO2" s="51" t="s">
         <v>954</v>
       </c>
-      <c r="FP2" s="62">
+      <c r="FP2" s="57">
         <v>1</v>
       </c>
       <c r="FQ2" t="s">
         <v>532</v>
       </c>
-      <c r="FR2" s="49">
+      <c r="FR2" s="46">
         <v>0.75</v>
       </c>
-      <c r="FS2" s="45">
+      <c r="FS2" s="42">
         <v>0.15</v>
       </c>
-      <c r="FT2" s="45">
+      <c r="FT2" s="42">
         <v>0.1</v>
       </c>
-      <c r="FU2" s="45">
+      <c r="FU2" s="42">
         <v>0</v>
       </c>
-      <c r="FV2" s="45">
+      <c r="FV2" s="42">
         <v>0</v>
       </c>
-      <c r="FW2" s="45">
+      <c r="FW2" s="42">
         <v>0</v>
       </c>
-      <c r="FZ2" s="56" t="s">
+      <c r="FZ2" s="51" t="s">
         <v>775</v>
       </c>
       <c r="GA2" t="s">
         <v>158</v>
       </c>
-      <c r="GB2" s="39">
+      <c r="GB2" s="37">
         <v>3</v>
       </c>
-      <c r="GC2" s="39" t="s">
+      <c r="GC2" s="37" t="s">
         <v>1902</v>
       </c>
-      <c r="GD2" s="64">
+      <c r="GD2" s="59">
         <v>0</v>
       </c>
-      <c r="GE2" s="39" t="s">
+      <c r="GE2" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF2" s="39" t="s">
+      <c r="GF2" s="37" t="s">
         <v>1904</v>
       </c>
-      <c r="GG2" s="35" t="s">
+      <c r="GG2" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -14862,7 +14988,7 @@
       <c r="K3" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="63">
         <v>27411</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -14928,7 +15054,7 @@
       <c r="BB3" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="BC3" s="29">
+      <c r="BC3" s="27">
         <v>0.8</v>
       </c>
       <c r="BD3" s="2" t="s">
@@ -14968,7 +15094,7 @@
         <v>266</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT3" s="2" t="s">
         <v>267</v>
@@ -15072,7 +15198,7 @@
       <c r="DD3" s="2">
         <v>3</v>
       </c>
-      <c r="DE3" s="35">
+      <c r="DE3" s="33">
         <v>3</v>
       </c>
       <c r="DF3" s="2" t="s">
@@ -15132,8 +15258,8 @@
       <c r="EA3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="EB3" s="19" t="s">
-        <v>193</v>
+      <c r="EB3" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="ED3" s="2" t="s">
         <v>293</v>
@@ -15183,7 +15309,7 @@
       <c r="ET3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="EU3" s="2" t="s">
+      <c r="EU3" s="5" t="s">
         <v>1076</v>
       </c>
       <c r="EV3" s="2" t="s">
@@ -15228,63 +15354,71 @@
       <c r="FK3" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="FM3" s="42"/>
-      <c r="FN3" s="26" t="s">
+      <c r="FM3" s="36">
+        <v>3.5</v>
+      </c>
+      <c r="FN3" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="FO3" s="26" t="s">
+      <c r="FO3" s="24" t="s">
         <v>1847</v>
       </c>
-      <c r="FP3" s="56">
+      <c r="FP3" s="51">
         <v>1</v>
       </c>
-      <c r="FQ3" s="55" t="s">
+      <c r="FQ3" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="FR3" s="58">
+      <c r="FR3" s="53">
         <v>0.03</v>
       </c>
-      <c r="FS3" s="59">
+      <c r="FS3" s="54">
         <v>0.8</v>
       </c>
-      <c r="FT3" s="59">
+      <c r="FT3" s="54">
         <v>0.15</v>
       </c>
-      <c r="FU3" s="59"/>
-      <c r="FV3" s="59">
+      <c r="FU3" s="54">
+        <v>0</v>
+      </c>
+      <c r="FV3" s="54">
         <v>0.02</v>
       </c>
-      <c r="FW3" s="59"/>
-      <c r="FZ3" s="24"/>
+      <c r="FW3" s="54">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="25" t="s">
+        <v>775</v>
+      </c>
       <c r="GA3" t="s">
         <v>882</v>
       </c>
-      <c r="GB3" s="39">
+      <c r="GB3" s="37">
         <v>2</v>
       </c>
-      <c r="GC3" s="39" t="s">
+      <c r="GC3" s="37" t="s">
         <v>1905</v>
       </c>
-      <c r="GD3" s="64">
+      <c r="GD3" s="59">
         <v>1</v>
       </c>
-      <c r="GE3" s="39" t="s">
+      <c r="GE3" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF3" s="39">
+      <c r="GF3" s="37">
         <v>300</v>
       </c>
-      <c r="GG3" s="35" t="s">
+      <c r="GG3" s="33" t="s">
         <v>1886</v>
       </c>
-      <c r="GH3" s="23"/>
+      <c r="GH3" s="22"/>
     </row>
     <row r="4" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44326.502545150463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>312</v>
@@ -15310,7 +15444,7 @@
       <c r="K4" s="5">
         <v>11213</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="63">
         <v>37972</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -15417,7 +15551,7 @@
         <v>334</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT4" s="2" t="s">
         <v>335</v>
@@ -15459,7 +15593,7 @@
         <v>196</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="CI4" s="2" t="s">
         <v>339</v>
@@ -15521,7 +15655,7 @@
       <c r="DD4" s="5">
         <v>7</v>
       </c>
-      <c r="DE4" s="34" t="s">
+      <c r="DE4" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF4" s="2" t="s">
@@ -15588,8 +15722,8 @@
       <c r="EA4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="EB4" s="19" t="s">
-        <v>193</v>
+      <c r="EB4" s="69" t="s">
+        <v>1992</v>
       </c>
       <c r="ED4" s="2" t="s">
         <v>354</v>
@@ -15681,39 +15815,61 @@
       <c r="FK4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="FM4" s="42"/>
-      <c r="FN4" s="24"/>
-      <c r="FO4" s="24"/>
-      <c r="FP4" s="24"/>
-      <c r="FQ4" s="24"/>
-      <c r="FR4" s="50"/>
-      <c r="FS4" s="51">
+      <c r="FM4" s="36">
+        <v>12</v>
+      </c>
+      <c r="FN4" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="FO4" s="24" t="s">
+        <v>1988</v>
+      </c>
+      <c r="FP4" s="25">
+        <v>12</v>
+      </c>
+      <c r="FQ4" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="FR4" s="66">
+        <v>0.85</v>
+      </c>
+      <c r="FS4" s="35">
         <v>0.03</v>
       </c>
-      <c r="FT4" s="51"/>
-      <c r="FU4" s="51"/>
-      <c r="FV4" s="51"/>
-      <c r="FW4" s="51"/>
-      <c r="FZ4" s="24"/>
+      <c r="FT4" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="FU4" s="54">
+        <v>0</v>
+      </c>
+      <c r="FV4" s="54">
+        <v>0</v>
+      </c>
+      <c r="FW4" s="54">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="25" t="s">
+        <v>439</v>
+      </c>
       <c r="GA4" t="s">
         <v>313</v>
       </c>
-      <c r="GB4" s="39">
+      <c r="GB4" s="37">
         <v>3</v>
       </c>
-      <c r="GC4" s="39" t="s">
+      <c r="GC4" s="37" t="s">
         <v>1907</v>
       </c>
-      <c r="GD4" s="64">
-        <v>0</v>
-      </c>
-      <c r="GE4" s="39" t="s">
-        <v>1903</v>
-      </c>
-      <c r="GF4" s="39">
+      <c r="GD4" s="67">
+        <v>22</v>
+      </c>
+      <c r="GE4" s="38" t="s">
+        <v>1990</v>
+      </c>
+      <c r="GF4" s="37">
         <v>1054</v>
       </c>
-      <c r="GG4" s="35" t="s">
+      <c r="GG4" s="33" t="s">
         <v>1885</v>
       </c>
     </row>
@@ -15748,7 +15904,7 @@
       <c r="K5" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="63">
         <v>24688</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -15962,7 +16118,7 @@
       <c r="DD5" s="2">
         <v>9</v>
       </c>
-      <c r="DE5" s="34" t="s">
+      <c r="DE5" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF5" s="2" t="s">
@@ -16124,7 +16280,7 @@
       <c r="FL5" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="FM5" s="35">
+      <c r="FM5" s="33">
         <v>2</v>
       </c>
       <c r="FN5" s="2" t="s">
@@ -16139,22 +16295,22 @@
       <c r="FQ5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="FR5" s="52">
+      <c r="FR5" s="47">
         <v>0.15</v>
       </c>
-      <c r="FS5" s="48">
+      <c r="FS5" s="45">
         <v>0.8</v>
       </c>
-      <c r="FT5" s="48">
+      <c r="FT5" s="45">
         <v>0.05</v>
       </c>
-      <c r="FU5" s="48">
+      <c r="FU5" s="45">
         <v>0</v>
       </c>
-      <c r="FV5" s="48">
+      <c r="FV5" s="45">
         <v>0</v>
       </c>
-      <c r="FW5" s="48">
+      <c r="FW5" s="45">
         <v>0</v>
       </c>
       <c r="FY5" s="2" t="s">
@@ -16166,22 +16322,22 @@
       <c r="GA5" t="s">
         <v>372</v>
       </c>
-      <c r="GB5" s="39">
+      <c r="GB5" s="37">
         <v>2</v>
       </c>
-      <c r="GC5" s="39" t="s">
+      <c r="GC5" s="37" t="s">
         <v>1908</v>
       </c>
-      <c r="GD5" s="64">
+      <c r="GD5" s="59">
         <v>0</v>
       </c>
-      <c r="GE5" s="39" t="s">
+      <c r="GE5" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF5" s="39">
+      <c r="GF5" s="37">
         <v>208</v>
       </c>
-      <c r="GG5" s="35" t="s">
+      <c r="GG5" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -16190,7 +16346,7 @@
         <v>44339.650587766198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>440</v>
@@ -16216,7 +16372,7 @@
       <c r="K6" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="63">
         <v>41429</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -16338,7 +16494,7 @@
         <v>460</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT6" s="2" t="s">
         <v>461</v>
@@ -16433,7 +16589,7 @@
       <c r="DD6" s="2">
         <v>2</v>
       </c>
-      <c r="DE6" s="35">
+      <c r="DE6" s="33">
         <v>2</v>
       </c>
       <c r="DF6" s="2" t="s">
@@ -16593,7 +16749,7 @@
       <c r="FK6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="FM6" s="35">
+      <c r="FM6" s="33">
         <v>1</v>
       </c>
       <c r="FN6" s="2" t="s">
@@ -16605,22 +16761,22 @@
       <c r="FQ6" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="FR6" s="52">
+      <c r="FR6" s="47">
         <v>0.8</v>
       </c>
-      <c r="FS6" s="48">
+      <c r="FS6" s="45">
         <v>0.15</v>
       </c>
-      <c r="FT6" s="48">
+      <c r="FT6" s="45">
         <v>0.05</v>
       </c>
-      <c r="FU6" s="48">
+      <c r="FU6" s="45">
         <v>0</v>
       </c>
-      <c r="FV6" s="48">
+      <c r="FV6" s="45">
         <v>0</v>
       </c>
-      <c r="FW6" s="48">
+      <c r="FW6" s="45">
         <v>0</v>
       </c>
       <c r="FY6" s="2" t="s">
@@ -16632,22 +16788,22 @@
       <c r="GA6" t="s">
         <v>441</v>
       </c>
-      <c r="GB6" s="39">
+      <c r="GB6" s="37">
         <v>4</v>
       </c>
-      <c r="GC6" s="39" t="s">
+      <c r="GC6" s="37" t="s">
         <v>1909</v>
       </c>
-      <c r="GD6" s="64">
+      <c r="GD6" s="59">
         <v>0</v>
       </c>
-      <c r="GE6" s="39" t="s">
+      <c r="GE6" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF6" s="39">
+      <c r="GF6" s="37">
         <v>103</v>
       </c>
-      <c r="GG6" s="35" t="s">
+      <c r="GG6" s="33" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -16682,7 +16838,7 @@
       <c r="K7" s="2" t="s">
         <v>1858</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="63">
         <v>39699</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -16810,7 +16966,7 @@
         <v>515</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="BT7" s="2" t="s">
         <v>516</v>
@@ -16911,7 +17067,7 @@
       <c r="DD7" s="2">
         <v>8</v>
       </c>
-      <c r="DE7" s="34" t="s">
+      <c r="DE7" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF7" s="2" t="s">
@@ -17019,7 +17175,7 @@
       <c r="ET7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="EU7" s="20" t="s">
+      <c r="EU7" s="19" t="s">
         <v>1076</v>
       </c>
       <c r="EV7" s="2" t="s">
@@ -17067,7 +17223,7 @@
       <c r="FL7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FM7" s="35">
+      <c r="FM7" s="33">
         <v>12</v>
       </c>
       <c r="FN7" s="2" t="s">
@@ -17079,22 +17235,22 @@
       <c r="FQ7" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="FR7" s="52">
+      <c r="FR7" s="47">
         <v>0.7</v>
       </c>
-      <c r="FS7" s="48">
+      <c r="FS7" s="45">
         <v>0.2</v>
       </c>
-      <c r="FT7" s="48">
+      <c r="FT7" s="45">
         <v>0.02</v>
       </c>
-      <c r="FU7" s="48">
+      <c r="FU7" s="45">
         <v>0.08</v>
       </c>
-      <c r="FV7" s="48">
+      <c r="FV7" s="45">
         <v>0</v>
       </c>
-      <c r="FW7" s="48">
+      <c r="FW7" s="45">
         <v>0</v>
       </c>
       <c r="FY7" s="2" t="s">
@@ -17106,22 +17262,22 @@
       <c r="GA7" t="s">
         <v>493</v>
       </c>
-      <c r="GB7" s="39">
+      <c r="GB7" s="37">
         <v>3</v>
       </c>
-      <c r="GC7" s="39" t="s">
+      <c r="GC7" s="37" t="s">
         <v>1902</v>
       </c>
-      <c r="GD7" s="64">
+      <c r="GD7" s="59">
         <v>0</v>
       </c>
-      <c r="GE7" s="39" t="s">
+      <c r="GE7" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF7" s="39">
+      <c r="GF7" s="37">
         <v>358</v>
       </c>
-      <c r="GG7" s="35" t="s">
+      <c r="GG7" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -17159,7 +17315,7 @@
       <c r="K8" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="63">
         <v>32843</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -17251,7 +17407,7 @@
         <v>571</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="BT8" s="2" t="s">
         <v>572</v>
@@ -17346,7 +17502,7 @@
       <c r="DD8" s="5">
         <v>2</v>
       </c>
-      <c r="DE8" s="34">
+      <c r="DE8" s="32">
         <v>4</v>
       </c>
       <c r="DF8" s="2" t="s">
@@ -17505,7 +17661,7 @@
       <c r="FK8" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="FM8" s="35">
+      <c r="FM8" s="33">
         <v>2</v>
       </c>
       <c r="FN8" s="2" t="s">
@@ -17517,22 +17673,22 @@
       <c r="FQ8" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="FR8" s="52" t="s">
+      <c r="FR8" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="FS8" s="48" t="s">
+      <c r="FS8" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="FT8" s="48" t="s">
+      <c r="FT8" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="FU8" s="48" t="s">
+      <c r="FU8" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="FV8" s="48" t="s">
+      <c r="FV8" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="FW8" s="48" t="s">
+      <c r="FW8" s="45" t="s">
         <v>561</v>
       </c>
       <c r="FZ8" s="2" t="s">
@@ -17541,22 +17697,22 @@
       <c r="GA8" t="s">
         <v>554</v>
       </c>
-      <c r="GB8" s="39">
+      <c r="GB8" s="37">
         <v>1</v>
       </c>
-      <c r="GC8" s="39" t="s">
+      <c r="GC8" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD8" s="64">
+      <c r="GD8" s="59">
         <v>1</v>
       </c>
-      <c r="GE8" s="39" t="s">
+      <c r="GE8" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF8" s="39">
+      <c r="GF8" s="37">
         <v>176</v>
       </c>
-      <c r="GG8" s="35" t="s">
+      <c r="GG8" s="33" t="s">
         <v>1889</v>
       </c>
     </row>
@@ -17594,7 +17750,7 @@
       <c r="K9" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="63">
         <v>32819</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -17832,7 +17988,7 @@
       <c r="DD9" s="5">
         <v>10</v>
       </c>
-      <c r="DE9" s="34">
+      <c r="DE9" s="32">
         <v>2</v>
       </c>
       <c r="DF9" s="2" t="s">
@@ -17991,7 +18147,7 @@
       <c r="FL9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FM9" s="35">
+      <c r="FM9" s="33">
         <v>2</v>
       </c>
       <c r="FN9" s="2" t="s">
@@ -18003,22 +18159,22 @@
       <c r="FQ9" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="FR9" s="52">
+      <c r="FR9" s="47">
         <v>0.5</v>
       </c>
-      <c r="FS9" s="48">
+      <c r="FS9" s="45">
         <v>0.45</v>
       </c>
-      <c r="FT9" s="48">
+      <c r="FT9" s="45">
         <v>0.05</v>
       </c>
-      <c r="FU9" s="48">
+      <c r="FU9" s="45">
         <v>0</v>
       </c>
-      <c r="FV9" s="48">
+      <c r="FV9" s="45">
         <v>0</v>
       </c>
-      <c r="FW9" s="48">
+      <c r="FW9" s="45">
         <v>0</v>
       </c>
       <c r="FZ9" s="2" t="s">
@@ -18027,22 +18183,22 @@
       <c r="GA9" t="s">
         <v>611</v>
       </c>
-      <c r="GB9" s="39">
+      <c r="GB9" s="37">
         <v>4</v>
       </c>
-      <c r="GC9" s="39" t="s">
+      <c r="GC9" s="37" t="s">
         <v>1911</v>
       </c>
-      <c r="GD9" s="64">
+      <c r="GD9" s="59">
         <v>2</v>
       </c>
-      <c r="GE9" s="39" t="s">
+      <c r="GE9" s="37" t="s">
         <v>1912</v>
       </c>
-      <c r="GF9" s="39">
+      <c r="GF9" s="37">
         <v>34</v>
       </c>
-      <c r="GG9" s="35" t="s">
+      <c r="GG9" s="33" t="s">
         <v>1886</v>
       </c>
     </row>
@@ -18077,7 +18233,7 @@
       <c r="K10" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="63">
         <v>40058</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -18188,7 +18344,7 @@
         <v>688</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="BT10" s="2" t="s">
         <v>689</v>
@@ -18286,7 +18442,7 @@
       <c r="DD10" s="5">
         <v>3.5</v>
       </c>
-      <c r="DE10" s="34">
+      <c r="DE10" s="32">
         <v>5</v>
       </c>
       <c r="DF10" s="2" t="s">
@@ -18442,34 +18598,37 @@
       <c r="FK10" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="FM10" s="35">
+      <c r="FM10" s="33">
         <v>2</v>
       </c>
       <c r="FN10" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="FO10">
+        <v>2</v>
+      </c>
       <c r="FP10" s="2">
         <v>5</v>
       </c>
       <c r="FQ10" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="FR10" s="67">
+      <c r="FR10" s="62">
         <v>0.3</v>
       </c>
-      <c r="FS10" s="48">
+      <c r="FS10" s="45">
         <v>0.7</v>
       </c>
-      <c r="FT10" s="48">
+      <c r="FT10" s="45">
         <v>0</v>
       </c>
-      <c r="FU10" s="48">
+      <c r="FU10" s="45">
         <v>0</v>
       </c>
-      <c r="FV10" s="48">
+      <c r="FV10" s="45">
         <v>0</v>
       </c>
-      <c r="FW10" s="48">
+      <c r="FW10" s="45">
         <v>0</v>
       </c>
       <c r="FZ10" s="2" t="s">
@@ -18478,22 +18637,22 @@
       <c r="GA10" t="s">
         <v>671</v>
       </c>
-      <c r="GB10" s="39">
+      <c r="GB10" s="37">
         <v>1</v>
       </c>
-      <c r="GC10" s="39" t="s">
+      <c r="GC10" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD10" s="64">
+      <c r="GD10" s="59">
         <v>1</v>
       </c>
-      <c r="GE10" s="39" t="s">
+      <c r="GE10" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF10" s="39" t="s">
+      <c r="GF10" s="37" t="s">
         <v>1913</v>
       </c>
-      <c r="GG10" s="35" t="s">
+      <c r="GG10" s="33" t="s">
         <v>1890</v>
       </c>
     </row>
@@ -18528,7 +18687,7 @@
       <c r="K11" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="63">
         <v>32434</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -18740,7 +18899,7 @@
       <c r="DD11" s="2">
         <v>52</v>
       </c>
-      <c r="DE11" s="34" t="s">
+      <c r="DE11" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF11" s="2" t="s">
@@ -18899,7 +19058,7 @@
       <c r="FL11" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="FM11" s="35">
+      <c r="FM11" s="33">
         <v>2</v>
       </c>
       <c r="FN11" s="2" t="s">
@@ -18914,22 +19073,22 @@
       <c r="FQ11" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="FR11" s="53" t="s">
+      <c r="FR11" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="FS11" s="54" t="s">
+      <c r="FS11" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="FT11" s="54" t="s">
+      <c r="FT11" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="FU11" s="54" t="s">
+      <c r="FU11" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="FV11" s="54" t="s">
+      <c r="FV11" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="FW11" s="54" t="s">
+      <c r="FW11" s="49" t="s">
         <v>561</v>
       </c>
       <c r="FZ11" s="2" t="s">
@@ -18938,22 +19097,22 @@
       <c r="GA11" t="s">
         <v>883</v>
       </c>
-      <c r="GB11" s="39">
+      <c r="GB11" s="37">
         <v>5</v>
       </c>
-      <c r="GC11" s="39" t="s">
+      <c r="GC11" s="37" t="s">
         <v>1914</v>
       </c>
-      <c r="GD11" s="64">
+      <c r="GD11" s="59">
         <v>0</v>
       </c>
-      <c r="GE11" s="39" t="s">
+      <c r="GE11" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF11" s="39">
+      <c r="GF11" s="37">
         <v>80</v>
       </c>
-      <c r="GG11" s="35" t="s">
+      <c r="GG11" s="33" t="s">
         <v>1886</v>
       </c>
     </row>
@@ -18991,7 +19150,7 @@
       <c r="K12" s="2" t="s">
         <v>1859</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="63">
         <v>32331</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -19217,7 +19376,7 @@
       <c r="DD12" s="2">
         <v>4</v>
       </c>
-      <c r="DE12" s="34" t="s">
+      <c r="DE12" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF12" s="2" t="s">
@@ -19376,7 +19535,7 @@
       <c r="FL12" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="FM12" s="35">
+      <c r="FM12" s="33">
         <v>2</v>
       </c>
       <c r="FN12" s="2" t="s">
@@ -19388,22 +19547,22 @@
       <c r="FQ12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="FR12" s="52">
+      <c r="FR12" s="47">
         <v>0.55000000000000004</v>
       </c>
-      <c r="FS12" s="48">
+      <c r="FS12" s="45">
         <v>0.35</v>
       </c>
-      <c r="FT12" s="48">
+      <c r="FT12" s="45">
         <v>0.05</v>
       </c>
-      <c r="FU12" s="48">
+      <c r="FU12" s="45">
         <v>0.05</v>
       </c>
-      <c r="FV12" s="48">
+      <c r="FV12" s="45">
         <v>0</v>
       </c>
-      <c r="FW12" s="48">
+      <c r="FW12" s="45">
         <v>0</v>
       </c>
       <c r="FZ12" s="2" t="s">
@@ -19412,22 +19571,22 @@
       <c r="GA12" t="s">
         <v>778</v>
       </c>
-      <c r="GB12" s="39">
+      <c r="GB12" s="37">
         <v>3</v>
       </c>
-      <c r="GC12" s="39" t="s">
+      <c r="GC12" s="37" t="s">
         <v>1915</v>
       </c>
-      <c r="GD12" s="64">
+      <c r="GD12" s="59">
         <v>8</v>
       </c>
-      <c r="GE12" s="39" t="s">
+      <c r="GE12" s="37" t="s">
         <v>1916</v>
       </c>
-      <c r="GF12" s="39">
+      <c r="GF12" s="37">
         <v>245</v>
       </c>
-      <c r="GG12" s="35" t="s">
+      <c r="GG12" s="33" t="s">
         <v>1891</v>
       </c>
     </row>
@@ -19462,7 +19621,7 @@
       <c r="K13" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="63">
         <v>24243</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -19632,7 +19791,7 @@
         <v>274</v>
       </c>
       <c r="CH13" s="2" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="CJ13" s="2" t="s">
         <v>801</v>
@@ -19691,7 +19850,7 @@
       <c r="DD13" s="2">
         <v>60</v>
       </c>
-      <c r="DE13" s="34" t="s">
+      <c r="DE13" s="32" t="s">
         <v>773</v>
       </c>
       <c r="DF13" s="2" t="s">
@@ -19849,7 +20008,7 @@
       <c r="FL13" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="FM13" s="35">
+      <c r="FM13" s="33">
         <v>2</v>
       </c>
       <c r="FN13" s="2" t="s">
@@ -19864,23 +20023,23 @@
       <c r="FQ13" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="FR13" s="52">
-        <v>0</v>
-      </c>
-      <c r="FS13" s="48">
-        <v>0</v>
-      </c>
-      <c r="FT13" s="48">
-        <v>0</v>
-      </c>
-      <c r="FU13" s="48">
-        <v>0</v>
-      </c>
-      <c r="FV13" s="48">
-        <v>0</v>
-      </c>
-      <c r="FW13" s="48">
-        <v>1</v>
+      <c r="FR13" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="FS13" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="FT13" s="65">
+        <v>0.08</v>
+      </c>
+      <c r="FU13" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="FV13" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="FW13" s="65">
+        <v>0.3</v>
       </c>
       <c r="FY13" s="2" t="s">
         <v>860</v>
@@ -19891,22 +20050,22 @@
       <c r="GA13" t="s">
         <v>830</v>
       </c>
-      <c r="GB13" s="39">
+      <c r="GB13" s="37">
         <v>6</v>
       </c>
-      <c r="GC13" s="39" t="s">
+      <c r="GC13" s="37" t="s">
         <v>1917</v>
       </c>
-      <c r="GD13" s="64">
+      <c r="GD13" s="59">
         <v>0</v>
       </c>
-      <c r="GE13" s="39" t="s">
+      <c r="GE13" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF13" s="38">
+      <c r="GF13" s="36">
         <v>570</v>
       </c>
-      <c r="GG13" s="35" t="s">
+      <c r="GG13" s="33" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -19915,7 +20074,7 @@
         <v>44384.71444163195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>905</v>
@@ -19941,7 +20100,7 @@
       <c r="K14" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="63">
         <v>40816</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -20044,7 +20203,7 @@
         <v>921</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>922</v>
@@ -20080,7 +20239,7 @@
         <v>578</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>927</v>
@@ -20142,7 +20301,7 @@
       <c r="DD14" s="1">
         <v>7</v>
       </c>
-      <c r="DE14" s="34">
+      <c r="DE14" s="32">
         <v>7</v>
       </c>
       <c r="DF14" s="1" t="s">
@@ -20298,7 +20457,7 @@
       <c r="FK14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="FM14" s="43">
+      <c r="FM14" s="40">
         <v>1.5</v>
       </c>
       <c r="FN14" s="1" t="s">
@@ -20313,22 +20472,22 @@
       <c r="FQ14" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="FR14" s="52">
+      <c r="FR14" s="47">
         <v>0.8</v>
       </c>
-      <c r="FS14" s="48">
+      <c r="FS14" s="45">
         <v>0.15</v>
       </c>
-      <c r="FT14" s="48">
+      <c r="FT14" s="45">
         <v>0.05</v>
       </c>
-      <c r="FU14" s="48" t="s">
+      <c r="FU14" s="45" t="s">
         <v>773</v>
       </c>
-      <c r="FV14" s="48" t="s">
+      <c r="FV14" s="45" t="s">
         <v>773</v>
       </c>
-      <c r="FW14" s="48" t="s">
+      <c r="FW14" s="45" t="s">
         <v>773</v>
       </c>
       <c r="FY14" s="1" t="s">
@@ -20340,22 +20499,22 @@
       <c r="GA14" s="13" t="s">
         <v>1066</v>
       </c>
-      <c r="GB14" s="63">
+      <c r="GB14" s="58">
         <v>3</v>
       </c>
-      <c r="GC14" s="63" t="s">
+      <c r="GC14" s="58" t="s">
         <v>1918</v>
       </c>
-      <c r="GD14" s="65">
+      <c r="GD14" s="60">
         <v>0</v>
       </c>
-      <c r="GE14" s="63" t="s">
+      <c r="GE14" s="58" t="s">
         <v>1903</v>
       </c>
-      <c r="GF14" s="63">
+      <c r="GF14" s="58">
         <v>43</v>
       </c>
-      <c r="GG14" s="35" t="s">
+      <c r="GG14" s="33" t="s">
         <v>1892</v>
       </c>
     </row>
@@ -20387,10 +20546,10 @@
       <c r="J15" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="52" t="s">
         <v>962</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="63">
         <v>40602</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -20493,7 +20652,7 @@
         <v>976</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>977</v>
@@ -20591,7 +20750,7 @@
       <c r="DD15" s="1">
         <v>3</v>
       </c>
-      <c r="DE15" s="35">
+      <c r="DE15" s="33">
         <v>3</v>
       </c>
       <c r="DF15" s="1" t="s">
@@ -20744,7 +20903,7 @@
       <c r="FK15" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="FM15" s="35">
+      <c r="FM15" s="33">
         <f>2.5</f>
         <v>2.5</v>
       </c>
@@ -20760,22 +20919,22 @@
       <c r="FQ15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="FR15" s="52" t="s">
+      <c r="FR15" s="47" t="s">
         <v>1008</v>
       </c>
-      <c r="FS15" s="48" t="s">
+      <c r="FS15" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="FT15" s="48" t="s">
+      <c r="FT15" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="FU15" s="48" t="s">
+      <c r="FU15" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="FV15" s="48" t="s">
+      <c r="FV15" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="FW15" s="48" t="s">
+      <c r="FW15" s="45" t="s">
         <v>1008</v>
       </c>
       <c r="FZ15" s="1" t="s">
@@ -20784,22 +20943,22 @@
       <c r="GA15" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="GB15" s="63">
+      <c r="GB15" s="58">
         <v>2</v>
       </c>
-      <c r="GC15" s="63" t="s">
+      <c r="GC15" s="58" t="s">
         <v>1905</v>
       </c>
-      <c r="GD15" s="65">
+      <c r="GD15" s="60">
         <v>6</v>
       </c>
-      <c r="GE15" s="63" t="s">
+      <c r="GE15" s="58" t="s">
         <v>1919</v>
       </c>
-      <c r="GF15" s="63">
+      <c r="GF15" s="58">
         <v>220</v>
       </c>
-      <c r="GG15" s="35" t="s">
+      <c r="GG15" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -20837,7 +20996,7 @@
       <c r="K16" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="L16" s="68">
+      <c r="L16" s="63">
         <v>39783</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -20964,7 +21123,7 @@
         <v>1033</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>1034</v>
@@ -21060,7 +21219,7 @@
       <c r="DD16" s="1">
         <v>13</v>
       </c>
-      <c r="DE16" s="36">
+      <c r="DE16" s="34">
         <v>2.5</v>
       </c>
       <c r="DF16" s="1" t="s">
@@ -21214,7 +21373,7 @@
       <c r="FK16" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="FM16" s="35">
+      <c r="FM16" s="33">
         <v>2</v>
       </c>
       <c r="FN16" s="1" t="s">
@@ -21229,22 +21388,22 @@
       <c r="FQ16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="FR16" s="52">
+      <c r="FR16" s="47">
         <v>0.4</v>
       </c>
-      <c r="FS16" s="48">
+      <c r="FS16" s="45">
         <v>0.1</v>
       </c>
-      <c r="FT16" s="48">
+      <c r="FT16" s="45">
         <v>0.5</v>
       </c>
-      <c r="FU16" s="48">
+      <c r="FU16" s="45">
         <v>0</v>
       </c>
-      <c r="FV16" s="48">
+      <c r="FV16" s="45">
         <v>0</v>
       </c>
-      <c r="FW16" s="48">
+      <c r="FW16" s="45">
         <v>0</v>
       </c>
       <c r="FZ16" s="1" t="s">
@@ -21253,42 +21412,42 @@
       <c r="GA16" s="13" t="s">
         <v>1011</v>
       </c>
-      <c r="GB16" s="63">
+      <c r="GB16" s="58">
         <v>3</v>
       </c>
-      <c r="GC16" s="63" t="s">
+      <c r="GC16" s="58" t="s">
         <v>1902</v>
       </c>
-      <c r="GD16" s="65">
+      <c r="GD16" s="60">
         <v>7</v>
       </c>
-      <c r="GE16" s="63" t="s">
+      <c r="GE16" s="58" t="s">
         <v>1920</v>
       </c>
-      <c r="GF16" s="63">
+      <c r="GF16" s="58">
         <v>130</v>
       </c>
-      <c r="GG16" s="35" t="s">
+      <c r="GG16" s="33" t="s">
         <v>1893</v>
       </c>
     </row>
     <row r="17" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>44447.520694444444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C17" t="s">
         <v>1079</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>44410</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="24" t="s">
         <v>1332</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>1334</v>
       </c>
       <c r="H17" t="s">
@@ -21303,7 +21462,7 @@
       <c r="K17" t="s">
         <v>1082</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="64">
         <v>39277</v>
       </c>
       <c r="M17" t="s">
@@ -21330,10 +21489,10 @@
       <c r="AR17">
         <v>10</v>
       </c>
-      <c r="AS17" s="27">
+      <c r="AS17" s="25">
         <v>4</v>
       </c>
-      <c r="AT17" s="27">
+      <c r="AT17" s="25">
         <v>20</v>
       </c>
       <c r="AU17">
@@ -21351,7 +21510,7 @@
       <c r="AY17">
         <v>400</v>
       </c>
-      <c r="AZ17" s="22" t="s">
+      <c r="AZ17" s="21" t="s">
         <v>1086</v>
       </c>
       <c r="BA17" t="s">
@@ -21399,7 +21558,7 @@
         <v>1093</v>
       </c>
       <c r="BR17" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT17" t="s">
         <v>1094</v>
@@ -21407,7 +21566,7 @@
       <c r="BU17" t="s">
         <v>380</v>
       </c>
-      <c r="BV17" s="26" t="s">
+      <c r="BV17" s="24" t="s">
         <v>1095</v>
       </c>
       <c r="BW17" t="s">
@@ -21416,7 +21575,7 @@
       <c r="BX17" t="s">
         <v>1097</v>
       </c>
-      <c r="BY17" s="23" t="s">
+      <c r="BY17" s="22" t="s">
         <v>1098</v>
       </c>
       <c r="CA17" t="s">
@@ -21425,10 +21584,10 @@
       <c r="CB17" t="s">
         <v>380</v>
       </c>
-      <c r="CD17" s="23" t="s">
+      <c r="CD17" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="CE17" s="22" t="s">
+      <c r="CE17" s="21" t="s">
         <v>1099</v>
       </c>
       <c r="CF17" t="s">
@@ -21438,7 +21597,7 @@
         <v>274</v>
       </c>
       <c r="CH17" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="CJ17" t="s">
         <v>1101</v>
@@ -21473,10 +21632,10 @@
       <c r="CV17" t="s">
         <v>281</v>
       </c>
-      <c r="CW17" s="22" t="s">
+      <c r="CW17" s="21" t="s">
         <v>1104</v>
       </c>
-      <c r="CX17" s="22" t="s">
+      <c r="CX17" s="21" t="s">
         <v>1105</v>
       </c>
       <c r="CY17" t="s">
@@ -21497,7 +21656,7 @@
       <c r="DD17">
         <v>7</v>
       </c>
-      <c r="DE17" s="37">
+      <c r="DE17" s="35">
         <v>7.5</v>
       </c>
       <c r="DF17" t="s">
@@ -21548,10 +21707,10 @@
       <c r="DW17" t="s">
         <v>1113</v>
       </c>
-      <c r="DX17" s="26" t="s">
+      <c r="DX17" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="DY17" s="26" t="s">
+      <c r="DY17" s="24" t="s">
         <v>773</v>
       </c>
       <c r="DZ17" t="s">
@@ -21607,7 +21766,7 @@
       <c r="ER17" t="s">
         <v>1121</v>
       </c>
-      <c r="ES17" s="22" t="s">
+      <c r="ES17" s="21" t="s">
         <v>1122</v>
       </c>
       <c r="ET17" t="s">
@@ -21628,7 +21787,7 @@
       <c r="EZ17" t="s">
         <v>236</v>
       </c>
-      <c r="FA17" s="22" t="s">
+      <c r="FA17" s="21" t="s">
         <v>1122</v>
       </c>
       <c r="FB17" t="s">
@@ -21649,16 +21808,16 @@
       <c r="FG17" t="s">
         <v>242</v>
       </c>
-      <c r="FI17" s="27" t="s">
+      <c r="FI17" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="FJ17" s="27" t="s">
+      <c r="FJ17" s="25" t="s">
         <v>193</v>
       </c>
       <c r="FK17" t="s">
         <v>243</v>
       </c>
-      <c r="FM17" s="39">
+      <c r="FM17" s="37">
         <v>1</v>
       </c>
       <c r="FN17" t="s">
@@ -21673,22 +21832,22 @@
       <c r="FQ17" t="s">
         <v>955</v>
       </c>
-      <c r="FR17" s="45">
+      <c r="FR17" s="42">
         <v>0.25</v>
       </c>
-      <c r="FS17" s="45">
+      <c r="FS17" s="42">
         <v>0.25</v>
       </c>
-      <c r="FT17" s="45">
+      <c r="FT17" s="42">
         <v>0.5</v>
       </c>
-      <c r="FU17" s="45">
+      <c r="FU17" s="42">
         <v>0</v>
       </c>
-      <c r="FV17" s="45">
+      <c r="FV17" s="42">
         <v>0</v>
       </c>
-      <c r="FW17" s="45">
+      <c r="FW17" s="42">
         <v>0</v>
       </c>
       <c r="FX17" t="s">
@@ -21700,27 +21859,27 @@
       <c r="GA17" t="s">
         <v>1332</v>
       </c>
-      <c r="GB17" s="39">
+      <c r="GB17" s="37">
         <v>1</v>
       </c>
-      <c r="GC17" s="39" t="s">
+      <c r="GC17" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD17" s="64">
+      <c r="GD17" s="59">
         <v>0</v>
       </c>
-      <c r="GE17" s="39" t="s">
+      <c r="GE17" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF17" s="39">
+      <c r="GF17" s="37">
         <v>2</v>
       </c>
-      <c r="GG17" s="35" t="s">
+      <c r="GG17" s="33" t="s">
         <v>1894</v>
       </c>
     </row>
     <row r="18" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>44508.834780092591</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -21732,7 +21891,7 @@
       <c r="D18" t="s">
         <v>1130</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <v>44398</v>
       </c>
       <c r="F18" t="s">
@@ -21753,7 +21912,7 @@
       <c r="K18" t="s">
         <v>1136</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="64">
         <v>40255</v>
       </c>
       <c r="M18" t="s">
@@ -21768,7 +21927,7 @@
       <c r="P18" t="s">
         <v>166</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="22" t="s">
         <v>1861</v>
       </c>
       <c r="R18" t="s">
@@ -21780,7 +21939,7 @@
       <c r="U18" t="s">
         <v>166</v>
       </c>
-      <c r="V18" s="31" t="s">
+      <c r="V18" s="29" t="s">
         <v>1852</v>
       </c>
       <c r="W18" t="s">
@@ -21804,10 +21963,10 @@
       <c r="AT18">
         <v>81</v>
       </c>
-      <c r="AU18" s="27">
+      <c r="AU18" s="25">
         <v>3</v>
       </c>
-      <c r="AV18" s="27">
+      <c r="AV18" s="25">
         <v>50</v>
       </c>
       <c r="AW18">
@@ -21834,7 +21993,7 @@
       <c r="BG18">
         <v>120</v>
       </c>
-      <c r="BH18" s="22" t="s">
+      <c r="BH18" s="21" t="s">
         <v>1142</v>
       </c>
       <c r="BI18" t="s">
@@ -21882,7 +22041,7 @@
       <c r="CB18" t="s">
         <v>268</v>
       </c>
-      <c r="CD18" s="26" t="s">
+      <c r="CD18" s="24" t="s">
         <v>399</v>
       </c>
       <c r="CE18" t="s">
@@ -21954,7 +22113,7 @@
       <c r="DD18">
         <v>4</v>
       </c>
-      <c r="DE18" s="38" t="s">
+      <c r="DE18" s="36" t="s">
         <v>773</v>
       </c>
       <c r="DF18" t="s">
@@ -21987,7 +22146,7 @@
       <c r="DQ18" t="s">
         <v>1157</v>
       </c>
-      <c r="DR18" s="26" t="s">
+      <c r="DR18" s="24" t="s">
         <v>1158</v>
       </c>
       <c r="DS18" t="s">
@@ -22005,10 +22164,10 @@
       <c r="DW18" t="s">
         <v>1160</v>
       </c>
-      <c r="DX18" s="26" t="s">
+      <c r="DX18" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="DY18" s="26"/>
+      <c r="DY18" s="24"/>
       <c r="DZ18" t="s">
         <v>222</v>
       </c>
@@ -22027,7 +22186,7 @@
       <c r="EF18" t="s">
         <v>222</v>
       </c>
-      <c r="EG18" s="26" t="s">
+      <c r="EG18" s="24" t="s">
         <v>1071</v>
       </c>
       <c r="EH18" t="s">
@@ -22102,16 +22261,16 @@
       <c r="FG18" t="s">
         <v>435</v>
       </c>
-      <c r="FI18" s="23" t="s">
+      <c r="FI18" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="FJ18" s="23" t="s">
+      <c r="FJ18" s="22" t="s">
         <v>222</v>
       </c>
       <c r="FK18" t="s">
         <v>1170</v>
       </c>
-      <c r="FM18" s="39">
+      <c r="FM18" s="37">
         <v>3</v>
       </c>
       <c r="FN18" t="s">
@@ -22126,22 +22285,22 @@
       <c r="FQ18" t="s">
         <v>532</v>
       </c>
-      <c r="FR18" s="39">
+      <c r="FR18" s="37">
         <v>0.42</v>
       </c>
-      <c r="FS18" s="39">
+      <c r="FS18" s="37">
         <v>0.28999999999999998</v>
       </c>
-      <c r="FT18" s="39">
+      <c r="FT18" s="37">
         <v>0.28999999999999998</v>
       </c>
-      <c r="FU18" s="39">
+      <c r="FU18" s="37">
         <v>0</v>
       </c>
-      <c r="FV18" s="39">
+      <c r="FV18" s="37">
         <v>0</v>
       </c>
-      <c r="FW18" s="39">
+      <c r="FW18" s="37">
         <v>0</v>
       </c>
       <c r="FY18" t="s">
@@ -22153,27 +22312,27 @@
       <c r="GA18" t="s">
         <v>1131</v>
       </c>
-      <c r="GB18" s="39">
+      <c r="GB18" s="37">
         <v>2</v>
       </c>
-      <c r="GC18" s="39" t="s">
+      <c r="GC18" s="37" t="s">
         <v>1908</v>
       </c>
-      <c r="GD18" s="64">
+      <c r="GD18" s="59">
         <v>0</v>
       </c>
-      <c r="GE18" s="39" t="s">
+      <c r="GE18" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF18" s="39">
+      <c r="GF18" s="37">
         <v>78</v>
       </c>
-      <c r="GG18" s="35" t="s">
+      <c r="GG18" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="19" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+      <c r="A19" s="20">
         <v>44538.361712962964</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -22182,7 +22341,7 @@
       <c r="C19" t="s">
         <v>1171</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <v>44411</v>
       </c>
       <c r="F19" t="s">
@@ -22200,11 +22359,11 @@
       <c r="J19" t="s">
         <v>773</v>
       </c>
-      <c r="K19" s="27">
-        <v>38</v>
-      </c>
-      <c r="L19" s="70">
-        <v>44224</v>
+      <c r="K19" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="L19" s="68">
+        <v>43128</v>
       </c>
       <c r="M19" t="s">
         <v>1176</v>
@@ -22257,7 +22416,7 @@
       <c r="BD19" t="s">
         <v>256</v>
       </c>
-      <c r="BE19" s="22" t="s">
+      <c r="BE19" s="21" t="s">
         <v>1179</v>
       </c>
       <c r="BF19" t="s">
@@ -22291,7 +22450,7 @@
         <v>1185</v>
       </c>
       <c r="BR19" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT19" t="s">
         <v>1186</v>
@@ -22327,7 +22486,7 @@
         <v>274</v>
       </c>
       <c r="CH19" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="CJ19" t="s">
         <v>1191</v>
@@ -22362,7 +22521,7 @@
       <c r="CV19" t="s">
         <v>281</v>
       </c>
-      <c r="CX19" s="22" t="s">
+      <c r="CX19" s="21" t="s">
         <v>1193</v>
       </c>
       <c r="CY19" t="s">
@@ -22383,7 +22542,7 @@
       <c r="DD19">
         <v>7</v>
       </c>
-      <c r="DE19" s="39">
+      <c r="DE19" s="37">
         <v>4</v>
       </c>
       <c r="DF19" t="s">
@@ -22407,7 +22566,7 @@
       <c r="DM19" t="s">
         <v>473</v>
       </c>
-      <c r="DN19" s="23" t="s">
+      <c r="DN19" s="22" t="s">
         <v>1198</v>
       </c>
       <c r="DP19" t="s">
@@ -22455,7 +22614,7 @@
       <c r="EF19" t="s">
         <v>222</v>
       </c>
-      <c r="EG19" s="26" t="s">
+      <c r="EG19" s="24" t="s">
         <v>1071</v>
       </c>
       <c r="EH19" t="s">
@@ -22464,7 +22623,7 @@
       <c r="EI19">
         <v>11</v>
       </c>
-      <c r="EJ19" s="22" t="s">
+      <c r="EJ19" s="21" t="s">
         <v>1205</v>
       </c>
       <c r="EK19" t="s">
@@ -22530,16 +22689,16 @@
       <c r="FG19" t="s">
         <v>1217</v>
       </c>
-      <c r="FI19" s="26" t="s">
+      <c r="FI19" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="FJ19" s="26" t="s">
+      <c r="FJ19" s="24" t="s">
         <v>222</v>
       </c>
       <c r="FK19" t="s">
         <v>1218</v>
       </c>
-      <c r="FM19" s="39">
+      <c r="FM19" s="37">
         <v>1</v>
       </c>
       <c r="FN19" t="s">
@@ -22551,22 +22710,22 @@
       <c r="FQ19" t="s">
         <v>220</v>
       </c>
-      <c r="FR19" s="39">
+      <c r="FR19" s="37">
         <v>0.3</v>
       </c>
-      <c r="FS19" s="39">
+      <c r="FS19" s="37">
         <v>0.05</v>
       </c>
-      <c r="FT19" s="39">
+      <c r="FT19" s="37">
         <v>0.15</v>
       </c>
-      <c r="FU19" s="39">
+      <c r="FU19" s="37">
         <v>0</v>
       </c>
-      <c r="FV19" s="39">
+      <c r="FV19" s="37">
         <v>0</v>
       </c>
-      <c r="FW19" s="39">
+      <c r="FW19" s="37">
         <v>0.5</v>
       </c>
       <c r="FZ19" t="s">
@@ -22575,30 +22734,30 @@
       <c r="GA19" t="s">
         <v>1172</v>
       </c>
-      <c r="GB19" s="39">
+      <c r="GB19" s="37">
         <v>1</v>
       </c>
-      <c r="GC19" s="39" t="s">
+      <c r="GC19" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD19" s="64">
+      <c r="GD19" s="59">
         <v>1</v>
       </c>
-      <c r="GE19" s="39" t="s">
+      <c r="GE19" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF19" s="39">
+      <c r="GF19" s="37">
         <v>11</v>
       </c>
-      <c r="GG19" s="35" t="s">
+      <c r="GG19" s="33" t="s">
         <v>1895</v>
       </c>
     </row>
     <row r="20" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>44538.366678240738</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>551</v>
       </c>
       <c r="C20" t="s">
@@ -22607,7 +22766,7 @@
       <c r="D20" t="s">
         <v>1221</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <v>44411</v>
       </c>
       <c r="F20" t="s">
@@ -22628,7 +22787,7 @@
       <c r="K20" t="s">
         <v>1226</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="64">
         <v>32658</v>
       </c>
       <c r="M20" t="s">
@@ -22643,7 +22802,7 @@
       <c r="P20" t="s">
         <v>166</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="22" t="s">
         <v>1854</v>
       </c>
       <c r="R20" t="s">
@@ -22709,7 +22868,7 @@
       <c r="BG20">
         <v>90</v>
       </c>
-      <c r="BH20" s="22" t="s">
+      <c r="BH20" s="21" t="s">
         <v>1232</v>
       </c>
       <c r="BI20" t="s">
@@ -22737,7 +22896,7 @@
         <v>1238</v>
       </c>
       <c r="BR20" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="BT20" t="s">
         <v>1239</v>
@@ -22754,7 +22913,7 @@
       <c r="BY20" t="s">
         <v>1242</v>
       </c>
-      <c r="BZ20" s="26" t="s">
+      <c r="BZ20" s="24" t="s">
         <v>1931</v>
       </c>
       <c r="CA20" t="s">
@@ -22776,7 +22935,7 @@
         <v>578</v>
       </c>
       <c r="CH20" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="CJ20" t="s">
         <v>1245</v>
@@ -22829,13 +22988,13 @@
       <c r="DB20">
         <v>3</v>
       </c>
-      <c r="DC20" s="26" t="s">
+      <c r="DC20" s="24" t="s">
         <v>773</v>
       </c>
       <c r="DD20">
         <v>13</v>
       </c>
-      <c r="DE20" s="39">
+      <c r="DE20" s="37">
         <v>5</v>
       </c>
       <c r="DF20" t="s">
@@ -22883,10 +23042,10 @@
       <c r="DW20" t="s">
         <v>1258</v>
       </c>
-      <c r="DX20" s="28" t="s">
+      <c r="DX20" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="DY20" s="28" t="s">
+      <c r="DY20" s="26" t="s">
         <v>773</v>
       </c>
       <c r="DZ20" t="s">
@@ -22907,7 +23066,7 @@
       <c r="EF20" t="s">
         <v>222</v>
       </c>
-      <c r="EG20" s="25" t="s">
+      <c r="EG20" s="23" t="s">
         <v>1071</v>
       </c>
       <c r="EH20" t="s">
@@ -22994,10 +23153,10 @@
       <c r="FJ20" t="s">
         <v>193</v>
       </c>
-      <c r="FK20" s="22" t="s">
+      <c r="FK20" s="21" t="s">
         <v>1278</v>
       </c>
-      <c r="FM20" s="39">
+      <c r="FM20" s="37">
         <v>2</v>
       </c>
       <c r="FN20" t="s">
@@ -23009,22 +23168,22 @@
       <c r="FQ20" t="s">
         <v>291</v>
       </c>
-      <c r="FR20" s="53" t="s">
+      <c r="FR20" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="FS20" s="53" t="s">
+      <c r="FS20" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="FT20" s="53" t="s">
+      <c r="FT20" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="FU20" s="53" t="s">
+      <c r="FU20" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="FV20" s="53" t="s">
+      <c r="FV20" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="FW20" s="53" t="s">
+      <c r="FW20" s="48" t="s">
         <v>561</v>
       </c>
       <c r="FY20" t="s">
@@ -23036,27 +23195,27 @@
       <c r="GA20" t="s">
         <v>1222</v>
       </c>
-      <c r="GB20" s="39">
+      <c r="GB20" s="37">
         <v>1</v>
       </c>
-      <c r="GC20" s="39" t="s">
+      <c r="GC20" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD20" s="64">
+      <c r="GD20" s="59">
         <v>1</v>
       </c>
-      <c r="GE20" s="39" t="s">
+      <c r="GE20" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF20" s="39" t="s">
+      <c r="GF20" s="37" t="s">
         <v>1921</v>
       </c>
-      <c r="GG20" s="35" t="s">
+      <c r="GG20" s="33" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="21" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>44538.47859953704</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -23068,10 +23227,10 @@
       <c r="D21" t="s">
         <v>1281</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>44410</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="23" t="s">
         <v>1333</v>
       </c>
       <c r="G21" t="s">
@@ -23089,7 +23248,7 @@
       <c r="K21" t="s">
         <v>1285</v>
       </c>
-      <c r="L21" s="69">
+      <c r="L21" s="64">
         <v>40449</v>
       </c>
       <c r="M21" t="s">
@@ -23104,7 +23263,7 @@
       <c r="P21" t="s">
         <v>166</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="22" t="s">
         <v>1289</v>
       </c>
       <c r="R21" t="s">
@@ -23167,7 +23326,7 @@
       <c r="BG21">
         <v>60</v>
       </c>
-      <c r="BH21" s="22" t="s">
+      <c r="BH21" s="21" t="s">
         <v>1295</v>
       </c>
       <c r="BI21" t="s">
@@ -23237,7 +23396,7 @@
         <v>367</v>
       </c>
       <c r="CH21" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="CJ21" t="s">
         <v>1307</v>
@@ -23290,7 +23449,7 @@
       <c r="DD21">
         <v>8</v>
       </c>
-      <c r="DE21" s="38">
+      <c r="DE21" s="36">
         <v>1</v>
       </c>
       <c r="DF21" t="s">
@@ -23299,7 +23458,7 @@
       <c r="DG21" t="s">
         <v>1309</v>
       </c>
-      <c r="DH21" s="22" t="s">
+      <c r="DH21" s="21" t="s">
         <v>1310</v>
       </c>
       <c r="DI21">
@@ -23341,7 +23500,7 @@
       <c r="DX21" t="s">
         <v>193</v>
       </c>
-      <c r="DY21" s="23" t="s">
+      <c r="DY21" s="22" t="s">
         <v>773</v>
       </c>
       <c r="DZ21" t="s">
@@ -23362,13 +23521,13 @@
       <c r="EF21" t="s">
         <v>193</v>
       </c>
-      <c r="EG21" s="26" t="s">
+      <c r="EG21" s="24" t="s">
         <v>1843</v>
       </c>
       <c r="EH21" t="s">
         <v>1317</v>
       </c>
-      <c r="EI21" s="27">
+      <c r="EI21" s="25">
         <f>ROUND(107*0.4,0)</f>
         <v>43</v>
       </c>
@@ -23435,19 +23594,19 @@
       <c r="FF21" t="s">
         <v>1329</v>
       </c>
-      <c r="FG21" s="26" t="s">
+      <c r="FG21" s="24" t="s">
         <v>1864</v>
       </c>
-      <c r="FI21" s="26" t="s">
+      <c r="FI21" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="FJ21" s="26" t="s">
+      <c r="FJ21" s="24" t="s">
         <v>222</v>
       </c>
       <c r="FK21" t="s">
         <v>1330</v>
       </c>
-      <c r="FM21" s="38">
+      <c r="FM21" s="36">
         <v>2</v>
       </c>
       <c r="FN21" t="s">
@@ -23462,22 +23621,22 @@
       <c r="FQ21" t="s">
         <v>810</v>
       </c>
-      <c r="FR21" s="37">
+      <c r="FR21" s="35">
         <v>0.5</v>
       </c>
-      <c r="FS21" s="37">
+      <c r="FS21" s="35">
         <v>0.25</v>
       </c>
-      <c r="FT21" s="45">
+      <c r="FT21" s="42">
         <v>0.25</v>
       </c>
-      <c r="FU21" s="45">
+      <c r="FU21" s="42">
         <v>0</v>
       </c>
-      <c r="FV21" s="45">
+      <c r="FV21" s="42">
         <v>0</v>
       </c>
-      <c r="FW21" s="45">
+      <c r="FW21" s="42">
         <v>0</v>
       </c>
       <c r="FY21" t="s">
@@ -23489,22 +23648,22 @@
       <c r="GA21" t="s">
         <v>1333</v>
       </c>
-      <c r="GB21" s="39">
+      <c r="GB21" s="37">
         <v>3</v>
       </c>
-      <c r="GC21" s="39" t="s">
+      <c r="GC21" s="37" t="s">
         <v>1902</v>
       </c>
-      <c r="GD21" s="64">
+      <c r="GD21" s="59">
         <v>0</v>
       </c>
-      <c r="GE21" s="39" t="s">
+      <c r="GE21" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF21" s="39">
+      <c r="GF21" s="37">
         <v>43</v>
       </c>
-      <c r="GG21" s="35" t="s">
+      <c r="GG21" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
@@ -23513,7 +23672,7 @@
         <v>44430.608212476851</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1335</v>
@@ -23540,7 +23699,7 @@
       <c r="K22" s="17" t="s">
         <v>1877</v>
       </c>
-      <c r="L22" s="68">
+      <c r="L22" s="63">
         <v>41376</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -23675,7 +23834,7 @@
         <v>1353</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BS22" s="13"/>
       <c r="BT22" s="1" t="s">
@@ -23717,7 +23876,7 @@
         <v>274</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="CI22" s="13"/>
       <c r="CJ22" s="1" t="s">
@@ -23781,7 +23940,7 @@
       <c r="DD22" s="1">
         <v>4</v>
       </c>
-      <c r="DE22" s="36">
+      <c r="DE22" s="34">
         <v>7.5</v>
       </c>
       <c r="DF22" s="1" t="s">
@@ -23945,7 +24104,7 @@
         <v>243</v>
       </c>
       <c r="FL22" s="13"/>
-      <c r="FM22" s="35">
+      <c r="FM22" s="33">
         <v>1</v>
       </c>
       <c r="FN22" s="1" t="s">
@@ -23958,22 +24117,22 @@
       <c r="FQ22" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="FR22" s="48">
+      <c r="FR22" s="45">
         <v>0.65</v>
       </c>
-      <c r="FS22" s="48">
+      <c r="FS22" s="45">
         <v>0.25</v>
       </c>
-      <c r="FT22" s="48">
+      <c r="FT22" s="45">
         <v>0.1</v>
       </c>
-      <c r="FU22" s="48">
+      <c r="FU22" s="45">
         <v>0</v>
       </c>
-      <c r="FV22" s="48">
+      <c r="FV22" s="45">
         <v>0</v>
       </c>
-      <c r="FW22" s="48">
+      <c r="FW22" s="45">
         <v>0</v>
       </c>
       <c r="FX22" s="13"/>
@@ -23984,22 +24143,22 @@
       <c r="GA22" t="s">
         <v>1435</v>
       </c>
-      <c r="GB22" s="39">
+      <c r="GB22" s="37">
         <v>4</v>
       </c>
-      <c r="GC22" s="39" t="s">
+      <c r="GC22" s="37" t="s">
         <v>1922</v>
       </c>
-      <c r="GD22" s="64">
+      <c r="GD22" s="59">
         <v>0</v>
       </c>
-      <c r="GE22" s="39" t="s">
+      <c r="GE22" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF22" s="39">
+      <c r="GF22" s="37">
         <v>55</v>
       </c>
-      <c r="GG22" s="35" t="s">
+      <c r="GG22" s="33" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -24037,7 +24196,7 @@
       <c r="K23" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="L23" s="68">
+      <c r="L23" s="63">
         <v>38685</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -24262,7 +24421,7 @@
       <c r="DD23" s="1">
         <v>10</v>
       </c>
-      <c r="DE23" s="35">
+      <c r="DE23" s="33">
         <v>10</v>
       </c>
       <c r="DF23" s="1" t="s">
@@ -24338,7 +24497,7 @@
       <c r="EF23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="EG23" s="30" t="s">
+      <c r="EG23" s="28" t="s">
         <v>1437</v>
       </c>
       <c r="EH23" s="1" t="s">
@@ -24426,7 +24585,7 @@
         <v>1433</v>
       </c>
       <c r="FL23" s="13"/>
-      <c r="FM23" s="35">
+      <c r="FM23" s="33">
         <v>1</v>
       </c>
       <c r="FN23" s="1" t="s">
@@ -24441,22 +24600,22 @@
       <c r="FQ23" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="FR23" s="48">
+      <c r="FR23" s="45">
         <v>0.5</v>
       </c>
-      <c r="FS23" s="48">
+      <c r="FS23" s="45">
         <v>0.5</v>
       </c>
-      <c r="FT23" s="48">
+      <c r="FT23" s="45">
         <v>0</v>
       </c>
-      <c r="FU23" s="48">
+      <c r="FU23" s="45">
         <v>0</v>
       </c>
-      <c r="FV23" s="48">
+      <c r="FV23" s="45">
         <v>0</v>
       </c>
-      <c r="FW23" s="48">
+      <c r="FW23" s="45">
         <v>0</v>
       </c>
       <c r="FX23" s="13"/>
@@ -24467,27 +24626,27 @@
       <c r="GA23" t="s">
         <v>1388</v>
       </c>
-      <c r="GB23" s="39">
+      <c r="GB23" s="37">
         <v>1</v>
       </c>
-      <c r="GC23" s="39" t="s">
+      <c r="GC23" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD23" s="64">
+      <c r="GD23" s="59">
         <v>1</v>
       </c>
-      <c r="GE23" s="39" t="s">
+      <c r="GE23" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF23" s="39">
+      <c r="GF23" s="37">
         <v>6</v>
       </c>
-      <c r="GG23" s="35" t="s">
+      <c r="GG23" s="33" t="s">
         <v>1897</v>
       </c>
     </row>
     <row r="24" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>44438.904224537036</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -24496,7 +24655,7 @@
       <c r="C24" t="s">
         <v>1439</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>44425</v>
       </c>
       <c r="F24" t="s">
@@ -24517,7 +24676,7 @@
       <c r="K24" t="s">
         <v>1444</v>
       </c>
-      <c r="L24" s="69">
+      <c r="L24" s="64">
         <v>38588</v>
       </c>
       <c r="M24" t="s">
@@ -24529,7 +24688,7 @@
       <c r="O24" t="s">
         <v>1439</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="22" t="s">
         <v>895</v>
       </c>
       <c r="Q24" t="s">
@@ -24607,7 +24766,7 @@
       <c r="BG24">
         <v>60</v>
       </c>
-      <c r="BH24" s="23" t="s">
+      <c r="BH24" s="22" t="s">
         <v>1455</v>
       </c>
       <c r="BI24" t="s">
@@ -24631,7 +24790,7 @@
       <c r="BP24" t="s">
         <v>392</v>
       </c>
-      <c r="BQ24" s="23" t="s">
+      <c r="BQ24" s="22" t="s">
         <v>1460</v>
       </c>
       <c r="BR24" t="s">
@@ -24643,7 +24802,7 @@
       <c r="BU24" t="s">
         <v>166</v>
       </c>
-      <c r="BV24" s="26" t="s">
+      <c r="BV24" s="24" t="s">
         <v>190</v>
       </c>
       <c r="BW24" t="s">
@@ -24652,7 +24811,7 @@
       <c r="BX24" t="s">
         <v>1463</v>
       </c>
-      <c r="BY24" s="26" t="s">
+      <c r="BY24" s="24" t="s">
         <v>1941</v>
       </c>
       <c r="CA24" t="s">
@@ -24685,7 +24844,7 @@
       <c r="CL24" t="s">
         <v>1467</v>
       </c>
-      <c r="CM24" s="26" t="s">
+      <c r="CM24" s="24" t="s">
         <v>1929</v>
       </c>
       <c r="CN24" t="s">
@@ -24736,7 +24895,7 @@
       <c r="DD24">
         <v>3</v>
       </c>
-      <c r="DE24" s="40" t="s">
+      <c r="DE24" s="38" t="s">
         <v>773</v>
       </c>
       <c r="DF24" t="s">
@@ -24745,7 +24904,7 @@
       <c r="DG24" t="s">
         <v>1471</v>
       </c>
-      <c r="DH24" s="22" t="s">
+      <c r="DH24" s="21" t="s">
         <v>1472</v>
       </c>
       <c r="DI24">
@@ -24781,13 +24940,13 @@
       <c r="DV24" t="s">
         <v>810</v>
       </c>
-      <c r="DW24" s="23" t="s">
+      <c r="DW24" s="22" t="s">
         <v>1477</v>
       </c>
       <c r="DX24" t="s">
         <v>193</v>
       </c>
-      <c r="DY24" s="23" t="s">
+      <c r="DY24" s="22" t="s">
         <v>773</v>
       </c>
       <c r="DZ24" t="s">
@@ -24799,19 +24958,19 @@
       <c r="EB24" t="s">
         <v>1478</v>
       </c>
-      <c r="ED24" s="23" t="s">
+      <c r="ED24" s="22" t="s">
         <v>1479</v>
       </c>
-      <c r="EE24" s="22" t="s">
+      <c r="EE24" s="21" t="s">
         <v>1480</v>
       </c>
       <c r="EF24" t="s">
         <v>222</v>
       </c>
-      <c r="EG24" s="26" t="s">
+      <c r="EG24" s="24" t="s">
         <v>1599</v>
       </c>
-      <c r="EH24" s="31" t="s">
+      <c r="EH24" s="29" t="s">
         <v>1481</v>
       </c>
       <c r="EI24">
@@ -24829,7 +24988,7 @@
       <c r="EM24" t="s">
         <v>875</v>
       </c>
-      <c r="EN24" s="26" t="s">
+      <c r="EN24" s="24" t="s">
         <v>763</v>
       </c>
       <c r="EP24" t="s">
@@ -24847,7 +25006,7 @@
       <c r="ET24" t="s">
         <v>236</v>
       </c>
-      <c r="EU24" s="26" t="s">
+      <c r="EU24" s="24" t="s">
         <v>1271</v>
       </c>
       <c r="EV24" t="s">
@@ -24877,22 +25036,22 @@
       <c r="FE24" t="s">
         <v>1488</v>
       </c>
-      <c r="FF24" s="26" t="s">
+      <c r="FF24" s="24" t="s">
         <v>434</v>
       </c>
       <c r="FG24" t="s">
         <v>310</v>
       </c>
-      <c r="FI24" s="26" t="s">
+      <c r="FI24" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="FJ24" s="26" t="s">
+      <c r="FJ24" s="24" t="s">
         <v>222</v>
       </c>
       <c r="FK24" t="s">
         <v>1489</v>
       </c>
-      <c r="FM24" s="38">
+      <c r="FM24" s="36">
         <v>12</v>
       </c>
       <c r="FN24" t="s">
@@ -24907,22 +25066,22 @@
       <c r="FQ24" t="s">
         <v>291</v>
       </c>
-      <c r="FR24" s="45">
+      <c r="FR24" s="42">
         <v>0.8</v>
       </c>
-      <c r="FS24" s="45">
+      <c r="FS24" s="42">
         <v>0.15</v>
       </c>
-      <c r="FT24" s="45">
+      <c r="FT24" s="42">
         <v>0.03</v>
       </c>
-      <c r="FU24" s="45">
+      <c r="FU24" s="42">
         <v>0</v>
       </c>
-      <c r="FV24" s="45">
+      <c r="FV24" s="42">
         <v>0.02</v>
       </c>
-      <c r="FW24" s="45">
+      <c r="FW24" s="42">
         <v>0</v>
       </c>
       <c r="FY24" t="s">
@@ -24934,42 +25093,42 @@
       <c r="GA24" t="s">
         <v>1440</v>
       </c>
-      <c r="GB24" s="39">
+      <c r="GB24" s="37">
         <v>1</v>
       </c>
-      <c r="GC24" s="39" t="s">
+      <c r="GC24" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD24" s="64">
+      <c r="GD24" s="59">
         <v>2</v>
       </c>
-      <c r="GE24" s="39" t="s">
+      <c r="GE24" s="37" t="s">
         <v>1912</v>
       </c>
-      <c r="GF24" s="39">
+      <c r="GF24" s="37">
         <v>69</v>
       </c>
-      <c r="GG24" s="35" t="s">
+      <c r="GG24" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="25" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>44325.680474537039</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C25" t="s">
         <v>1491</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>44439</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>1592</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>1594</v>
       </c>
       <c r="H25" t="s">
@@ -24984,7 +25143,7 @@
       <c r="K25" t="s">
         <v>1494</v>
       </c>
-      <c r="L25" s="69">
+      <c r="L25" s="64">
         <v>37986</v>
       </c>
       <c r="M25" t="s">
@@ -24996,7 +25155,7 @@
       <c r="O25" t="s">
         <v>1497</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="22" t="s">
         <v>254</v>
       </c>
       <c r="R25" t="s">
@@ -25008,7 +25167,7 @@
       <c r="U25" t="s">
         <v>166</v>
       </c>
-      <c r="V25" s="23" t="s">
+      <c r="V25" s="22" t="s">
         <v>1857</v>
       </c>
       <c r="W25" t="s">
@@ -25026,7 +25185,7 @@
       <c r="AR25">
         <v>450</v>
       </c>
-      <c r="AS25" s="32">
+      <c r="AS25" s="30">
         <v>15</v>
       </c>
       <c r="AT25">
@@ -25047,7 +25206,7 @@
       <c r="AY25">
         <v>700</v>
       </c>
-      <c r="AZ25" s="22" t="s">
+      <c r="AZ25" s="21" t="s">
         <v>1500</v>
       </c>
       <c r="BA25" t="s">
@@ -25056,22 +25215,22 @@
       <c r="BD25" t="s">
         <v>256</v>
       </c>
-      <c r="BE25" s="22" t="s">
+      <c r="BE25" s="21" t="s">
         <v>1502</v>
       </c>
       <c r="BF25" t="s">
         <v>1503</v>
       </c>
-      <c r="BG25" s="27">
+      <c r="BG25" s="25">
         <v>60</v>
       </c>
-      <c r="BH25" s="22" t="s">
+      <c r="BH25" s="21" t="s">
         <v>1504</v>
       </c>
       <c r="BI25" t="s">
         <v>1505</v>
       </c>
-      <c r="BJ25" s="22" t="s">
+      <c r="BJ25" s="21" t="s">
         <v>1506</v>
       </c>
       <c r="BK25" t="s">
@@ -25086,11 +25245,11 @@
       <c r="BP25" t="s">
         <v>459</v>
       </c>
-      <c r="BQ25" s="23" t="s">
+      <c r="BQ25" s="22" t="s">
         <v>1509</v>
       </c>
-      <c r="BR25" s="23" t="s">
-        <v>1984</v>
+      <c r="BR25" s="22" t="s">
+        <v>1982</v>
       </c>
       <c r="BT25" t="s">
         <v>1510</v>
@@ -25126,7 +25285,7 @@
         <v>274</v>
       </c>
       <c r="CH25" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="CJ25" t="s">
         <v>1515</v>
@@ -25140,13 +25299,13 @@
       <c r="CM25" t="s">
         <v>380</v>
       </c>
-      <c r="CN25" s="22" t="s">
+      <c r="CN25" s="21" t="s">
         <v>1516</v>
       </c>
       <c r="CO25" t="s">
         <v>278</v>
       </c>
-      <c r="CP25" s="23" t="s">
+      <c r="CP25" s="22" t="s">
         <v>438</v>
       </c>
       <c r="CQ25" t="s">
@@ -25167,7 +25326,7 @@
       <c r="CV25" t="s">
         <v>1517</v>
       </c>
-      <c r="CW25" s="22" t="s">
+      <c r="CW25" s="21" t="s">
         <v>1518</v>
       </c>
       <c r="CX25" t="s">
@@ -25191,7 +25350,7 @@
       <c r="DD25">
         <v>30</v>
       </c>
-      <c r="DE25" s="38">
+      <c r="DE25" s="36">
         <v>22.5</v>
       </c>
       <c r="DF25" t="s">
@@ -25242,7 +25401,7 @@
       <c r="DX25" t="s">
         <v>193</v>
       </c>
-      <c r="DY25" s="23" t="s">
+      <c r="DY25" s="22" t="s">
         <v>773</v>
       </c>
       <c r="DZ25" t="s">
@@ -25263,16 +25422,16 @@
       <c r="EF25" t="s">
         <v>222</v>
       </c>
-      <c r="EG25" s="26" t="s">
+      <c r="EG25" s="24" t="s">
         <v>1071</v>
       </c>
-      <c r="EH25" s="22" t="s">
+      <c r="EH25" s="21" t="s">
         <v>1529</v>
       </c>
       <c r="EI25">
         <v>3</v>
       </c>
-      <c r="EJ25" s="22" t="s">
+      <c r="EJ25" s="21" t="s">
         <v>1530</v>
       </c>
       <c r="EK25" t="s">
@@ -25281,13 +25440,13 @@
       <c r="EL25" t="s">
         <v>1532</v>
       </c>
-      <c r="EM25" s="22" t="s">
+      <c r="EM25" s="21" t="s">
         <v>1533</v>
       </c>
-      <c r="EN25" s="23" t="s">
+      <c r="EN25" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="EO25" s="23" t="s">
+      <c r="EO25" s="22" t="s">
         <v>424</v>
       </c>
       <c r="EP25" t="s">
@@ -25350,7 +25509,7 @@
       <c r="FK25" t="s">
         <v>1541</v>
       </c>
-      <c r="FM25" s="39">
+      <c r="FM25" s="37">
         <v>1</v>
       </c>
       <c r="FN25" t="s">
@@ -25359,28 +25518,28 @@
       <c r="FO25" t="s">
         <v>1542</v>
       </c>
-      <c r="FP25" s="33">
+      <c r="FP25" s="31">
         <v>2.5</v>
       </c>
       <c r="FQ25" t="s">
         <v>532</v>
       </c>
-      <c r="FR25" s="45">
+      <c r="FR25" s="42">
         <v>0.35</v>
       </c>
-      <c r="FS25" s="45">
+      <c r="FS25" s="42">
         <v>0.46</v>
       </c>
-      <c r="FT25" s="45">
+      <c r="FT25" s="42">
         <v>0.11</v>
       </c>
-      <c r="FU25" s="45">
+      <c r="FU25" s="42">
         <v>0</v>
       </c>
-      <c r="FV25" s="45">
+      <c r="FV25" s="42">
         <v>0.08</v>
       </c>
-      <c r="FW25" s="45">
+      <c r="FW25" s="42">
         <v>0</v>
       </c>
       <c r="FZ25" t="s">
@@ -25389,27 +25548,27 @@
       <c r="GA25" t="s">
         <v>1594</v>
       </c>
-      <c r="GB25" s="39">
+      <c r="GB25" s="37">
         <v>2</v>
       </c>
-      <c r="GC25" s="39" t="s">
+      <c r="GC25" s="37" t="s">
         <v>1908</v>
       </c>
-      <c r="GD25" s="64">
+      <c r="GD25" s="59">
         <v>0</v>
       </c>
-      <c r="GE25" s="39" t="s">
+      <c r="GE25" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF25" s="39">
+      <c r="GF25" s="37">
         <v>3</v>
       </c>
-      <c r="GG25" s="35" t="s">
+      <c r="GG25" s="33" t="s">
         <v>1898</v>
       </c>
     </row>
     <row r="26" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>44386.04614583333</v>
       </c>
       <c r="B26" t="s">
@@ -25421,13 +25580,13 @@
       <c r="D26" t="s">
         <v>1544</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>44425</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>1593</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>1593</v>
       </c>
       <c r="H26" t="s">
@@ -25442,7 +25601,7 @@
       <c r="K26" t="s">
         <v>1548</v>
       </c>
-      <c r="L26" s="69">
+      <c r="L26" s="64">
         <v>38596</v>
       </c>
       <c r="M26" t="s">
@@ -25517,7 +25676,7 @@
       <c r="BG26">
         <v>90</v>
       </c>
-      <c r="BH26" s="22" t="s">
+      <c r="BH26" s="21" t="s">
         <v>1591</v>
       </c>
       <c r="BI26" t="s">
@@ -25544,11 +25703,11 @@
       <c r="BP26" t="s">
         <v>187</v>
       </c>
-      <c r="BQ26" s="23" t="s">
+      <c r="BQ26" s="22" t="s">
         <v>1560</v>
       </c>
       <c r="BR26" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="BS26" t="s">
         <v>1561</v>
@@ -25649,7 +25808,7 @@
       <c r="DD26">
         <v>10</v>
       </c>
-      <c r="DE26" s="39">
+      <c r="DE26" s="37">
         <v>3</v>
       </c>
       <c r="DF26" t="s">
@@ -25682,7 +25841,7 @@
       <c r="DQ26" t="s">
         <v>1574</v>
       </c>
-      <c r="DR26" s="26" t="s">
+      <c r="DR26" s="24" t="s">
         <v>1111</v>
       </c>
       <c r="DS26" t="s">
@@ -25703,7 +25862,7 @@
       <c r="DX26" t="s">
         <v>193</v>
       </c>
-      <c r="DY26" s="23" t="s">
+      <c r="DY26" s="22" t="s">
         <v>773</v>
       </c>
       <c r="DZ26" t="s">
@@ -25724,7 +25883,7 @@
       <c r="EF26" t="s">
         <v>222</v>
       </c>
-      <c r="EG26" s="26" t="s">
+      <c r="EG26" s="24" t="s">
         <v>1598</v>
       </c>
       <c r="EH26" t="s">
@@ -25784,7 +25943,7 @@
       <c r="FA26" t="s">
         <v>1586</v>
       </c>
-      <c r="FB26" s="23" t="s">
+      <c r="FB26" s="22" t="s">
         <v>1587</v>
       </c>
       <c r="FC26" t="s">
@@ -25808,10 +25967,10 @@
       <c r="FJ26" t="s">
         <v>193</v>
       </c>
-      <c r="FK26" s="22" t="s">
+      <c r="FK26" s="21" t="s">
         <v>1590</v>
       </c>
-      <c r="FM26" s="39">
+      <c r="FM26" s="37">
         <v>2</v>
       </c>
       <c r="FN26" t="s">
@@ -25826,22 +25985,22 @@
       <c r="FQ26" t="s">
         <v>532</v>
       </c>
-      <c r="FR26" s="45">
+      <c r="FR26" s="42">
         <v>0.4</v>
       </c>
-      <c r="FS26" s="45">
+      <c r="FS26" s="42">
         <v>0.5</v>
       </c>
-      <c r="FT26" s="45">
+      <c r="FT26" s="42">
         <v>0.1</v>
       </c>
-      <c r="FU26" s="45">
+      <c r="FU26" s="42">
         <v>0</v>
       </c>
-      <c r="FV26" s="45">
+      <c r="FV26" s="42">
         <v>0</v>
       </c>
-      <c r="FW26" s="45">
+      <c r="FW26" s="42">
         <v>0</v>
       </c>
       <c r="FZ26" t="s">
@@ -25850,27 +26009,27 @@
       <c r="GA26" t="s">
         <v>1593</v>
       </c>
-      <c r="GB26" s="39">
+      <c r="GB26" s="37">
         <v>3</v>
       </c>
-      <c r="GC26" s="39" t="s">
+      <c r="GC26" s="37" t="s">
         <v>1915</v>
       </c>
-      <c r="GD26" s="64">
+      <c r="GD26" s="59">
         <v>0</v>
       </c>
-      <c r="GE26" s="39" t="s">
+      <c r="GE26" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF26" s="39" t="s">
+      <c r="GF26" s="37" t="s">
         <v>1923</v>
       </c>
-      <c r="GG26" s="35" t="s">
+      <c r="GG26" s="33" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="27" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="A27" s="20">
         <v>44417.745393518519</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -25882,7 +26041,7 @@
       <c r="D27" t="s">
         <v>1601</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>44438</v>
       </c>
       <c r="F27" t="s">
@@ -25903,7 +26062,7 @@
       <c r="K27" t="s">
         <v>1607</v>
       </c>
-      <c r="L27" s="69">
+      <c r="L27" s="64">
         <v>32827</v>
       </c>
       <c r="M27" t="s">
@@ -25981,7 +26140,7 @@
       <c r="BD27" t="s">
         <v>256</v>
       </c>
-      <c r="BE27" s="22" t="s">
+      <c r="BE27" s="21" t="s">
         <v>1614</v>
       </c>
       <c r="BF27" t="s">
@@ -25996,7 +26155,7 @@
       <c r="BI27" t="s">
         <v>1617</v>
       </c>
-      <c r="BJ27" s="22" t="s">
+      <c r="BJ27" s="21" t="s">
         <v>1618</v>
       </c>
       <c r="BK27" t="s">
@@ -26015,7 +26174,7 @@
         <v>1621</v>
       </c>
       <c r="BR27" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT27" t="s">
         <v>1622</v>
@@ -26032,7 +26191,7 @@
       <c r="BX27" t="s">
         <v>1624</v>
       </c>
-      <c r="BY27" s="26" t="s">
+      <c r="BY27" s="24" t="s">
         <v>1935</v>
       </c>
       <c r="CA27" t="s">
@@ -26041,7 +26200,7 @@
       <c r="CB27" t="s">
         <v>166</v>
       </c>
-      <c r="CC27" s="23" t="s">
+      <c r="CC27" s="22" t="s">
         <v>1625</v>
       </c>
       <c r="CD27" t="s">
@@ -26113,7 +26272,7 @@
       <c r="DD27">
         <v>7</v>
       </c>
-      <c r="DE27" s="39">
+      <c r="DE27" s="37">
         <v>3</v>
       </c>
       <c r="DF27" t="s">
@@ -26122,7 +26281,7 @@
       <c r="DG27" t="s">
         <v>1630</v>
       </c>
-      <c r="DH27" s="22" t="s">
+      <c r="DH27" s="21" t="s">
         <v>1631</v>
       </c>
       <c r="DI27">
@@ -26146,10 +26305,10 @@
       <c r="DQ27" t="s">
         <v>1633</v>
       </c>
-      <c r="DR27" s="23" t="s">
+      <c r="DR27" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="DS27" s="26" t="s">
+      <c r="DS27" s="24" t="s">
         <v>1839</v>
       </c>
       <c r="DT27" t="s">
@@ -26164,10 +26323,10 @@
       <c r="DW27" t="s">
         <v>1635</v>
       </c>
-      <c r="DX27" s="26" t="s">
+      <c r="DX27" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="DY27" s="26" t="s">
+      <c r="DY27" s="24" t="s">
         <v>773</v>
       </c>
       <c r="DZ27" t="s">
@@ -26188,25 +26347,25 @@
       <c r="EF27" t="s">
         <v>222</v>
       </c>
-      <c r="EG27" s="23" t="s">
+      <c r="EG27" s="22" t="s">
         <v>1071</v>
       </c>
-      <c r="EH27" s="22" t="s">
+      <c r="EH27" s="21" t="s">
         <v>1638</v>
       </c>
       <c r="EI27">
         <v>62</v>
       </c>
-      <c r="EJ27" s="22" t="s">
+      <c r="EJ27" s="21" t="s">
         <v>1205</v>
       </c>
-      <c r="EK27" s="22" t="s">
+      <c r="EK27" s="21" t="s">
         <v>1639</v>
       </c>
       <c r="EL27" t="s">
         <v>1640</v>
       </c>
-      <c r="EM27" s="22" t="s">
+      <c r="EM27" s="21" t="s">
         <v>1641</v>
       </c>
       <c r="EN27" t="s">
@@ -26227,7 +26386,7 @@
       <c r="ET27" t="s">
         <v>236</v>
       </c>
-      <c r="EU27" s="26" t="s">
+      <c r="EU27" s="24" t="s">
         <v>1076</v>
       </c>
       <c r="EV27" t="s">
@@ -26263,16 +26422,16 @@
       <c r="FG27" t="s">
         <v>1217</v>
       </c>
-      <c r="FI27" s="26" t="s">
+      <c r="FI27" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="FJ27" s="26" t="s">
+      <c r="FJ27" s="24" t="s">
         <v>222</v>
       </c>
       <c r="FK27" t="s">
         <v>1650</v>
       </c>
-      <c r="FM27" s="39">
+      <c r="FM27" s="37">
         <v>2</v>
       </c>
       <c r="FN27" t="s">
@@ -26284,22 +26443,22 @@
       <c r="FQ27" t="s">
         <v>955</v>
       </c>
-      <c r="FR27" s="45">
+      <c r="FR27" s="42">
         <v>0.8</v>
       </c>
-      <c r="FS27" s="45">
+      <c r="FS27" s="42">
         <v>0.2</v>
       </c>
-      <c r="FT27" s="45">
+      <c r="FT27" s="42">
         <v>0</v>
       </c>
-      <c r="FU27" s="45">
+      <c r="FU27" s="42">
         <v>0</v>
       </c>
-      <c r="FV27" s="45">
+      <c r="FV27" s="42">
         <v>0</v>
       </c>
-      <c r="FW27" s="45">
+      <c r="FW27" s="42">
         <v>0</v>
       </c>
       <c r="FX27" t="s">
@@ -26311,27 +26470,27 @@
       <c r="GA27" t="s">
         <v>1924</v>
       </c>
-      <c r="GB27" s="39">
+      <c r="GB27" s="37">
         <v>3</v>
       </c>
-      <c r="GC27" s="39" t="s">
+      <c r="GC27" s="37" t="s">
         <v>1915</v>
       </c>
-      <c r="GD27" s="64">
+      <c r="GD27" s="59">
         <v>5</v>
       </c>
-      <c r="GE27" s="39" t="s">
+      <c r="GE27" s="37" t="s">
         <v>1925</v>
       </c>
-      <c r="GF27" s="39">
+      <c r="GF27" s="37">
         <v>62</v>
       </c>
-      <c r="GG27" s="35" t="s">
+      <c r="GG27" s="33" t="s">
         <v>1886</v>
       </c>
     </row>
     <row r="28" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>44539.722870370373</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -26343,10 +26502,10 @@
       <c r="D28" t="s">
         <v>1652</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>44439</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>1653</v>
       </c>
       <c r="G28" t="s">
@@ -26364,7 +26523,7 @@
       <c r="K28" t="s">
         <v>1657</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="64">
         <v>42004</v>
       </c>
       <c r="M28" t="s">
@@ -26430,16 +26589,16 @@
       <c r="BF28" t="s">
         <v>1664</v>
       </c>
-      <c r="BG28" s="26">
+      <c r="BG28" s="24">
         <v>60</v>
       </c>
-      <c r="BH28" s="22" t="s">
+      <c r="BH28" s="21" t="s">
         <v>1665</v>
       </c>
       <c r="BI28" t="s">
         <v>1666</v>
       </c>
-      <c r="BJ28" s="22" t="s">
+      <c r="BJ28" s="21" t="s">
         <v>1667</v>
       </c>
       <c r="BK28" t="s">
@@ -26458,7 +26617,7 @@
         <v>1669</v>
       </c>
       <c r="BR28" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="BT28" t="s">
         <v>1670</v>
@@ -26466,7 +26625,7 @@
       <c r="BU28" t="s">
         <v>166</v>
       </c>
-      <c r="BV28" s="26" t="s">
+      <c r="BV28" s="24" t="s">
         <v>978</v>
       </c>
       <c r="BW28" t="s">
@@ -26490,7 +26649,7 @@
       <c r="CD28" t="s">
         <v>856</v>
       </c>
-      <c r="CE28" s="22" t="s">
+      <c r="CE28" s="21" t="s">
         <v>1675</v>
       </c>
       <c r="CF28" t="s">
@@ -26532,7 +26691,7 @@
       <c r="CT28" t="s">
         <v>929</v>
       </c>
-      <c r="CU28" s="26">
+      <c r="CU28" s="24">
         <v>2</v>
       </c>
       <c r="CV28" t="s">
@@ -26559,7 +26718,7 @@
       <c r="DD28">
         <v>5</v>
       </c>
-      <c r="DE28" s="40" t="s">
+      <c r="DE28" s="38" t="s">
         <v>773</v>
       </c>
       <c r="DF28" t="s">
@@ -26610,7 +26769,7 @@
       <c r="DX28" t="s">
         <v>193</v>
       </c>
-      <c r="DY28" s="23" t="s">
+      <c r="DY28" s="22" t="s">
         <v>773</v>
       </c>
       <c r="DZ28" t="s">
@@ -26667,13 +26826,13 @@
       <c r="ET28" t="s">
         <v>236</v>
       </c>
-      <c r="EU28" s="26" t="s">
+      <c r="EU28" s="24" t="s">
         <v>1123</v>
       </c>
-      <c r="EV28" s="26" t="s">
+      <c r="EV28" s="24" t="s">
         <v>1849</v>
       </c>
-      <c r="EW28" s="23" t="s">
+      <c r="EW28" s="22" t="s">
         <v>1842</v>
       </c>
       <c r="EX28" t="s">
@@ -26700,28 +26859,28 @@
       <c r="FE28" t="s">
         <v>855</v>
       </c>
-      <c r="FF28" s="26" t="s">
+      <c r="FF28" s="24" t="s">
         <v>773</v>
       </c>
       <c r="FG28" t="s">
         <v>310</v>
       </c>
-      <c r="FI28" s="26" t="s">
+      <c r="FI28" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="FJ28" s="26" t="s">
+      <c r="FJ28" s="24" t="s">
         <v>222</v>
       </c>
       <c r="FK28" t="s">
         <v>1696</v>
       </c>
-      <c r="FM28" s="40">
+      <c r="FM28" s="38">
         <v>3</v>
       </c>
       <c r="FN28" t="s">
         <v>216</v>
       </c>
-      <c r="FO28" s="22" t="s">
+      <c r="FO28" s="21" t="s">
         <v>1697</v>
       </c>
       <c r="FP28">
@@ -26730,22 +26889,22 @@
       <c r="FQ28" t="s">
         <v>220</v>
       </c>
-      <c r="FR28" s="45">
+      <c r="FR28" s="42">
         <v>0.77</v>
       </c>
-      <c r="FS28" s="45">
+      <c r="FS28" s="42">
         <v>0.23</v>
       </c>
-      <c r="FT28" s="45">
+      <c r="FT28" s="42">
         <v>0</v>
       </c>
-      <c r="FU28" s="45">
+      <c r="FU28" s="42">
         <v>0</v>
       </c>
-      <c r="FV28" s="45">
+      <c r="FV28" s="42">
         <v>0</v>
       </c>
-      <c r="FW28" s="45">
+      <c r="FW28" s="42">
         <v>0</v>
       </c>
       <c r="FZ28" t="s">
@@ -26754,27 +26913,27 @@
       <c r="GA28" t="s">
         <v>1653</v>
       </c>
-      <c r="GB28" s="39">
+      <c r="GB28" s="37">
         <v>3</v>
       </c>
-      <c r="GC28" s="39" t="s">
+      <c r="GC28" s="37" t="s">
         <v>1915</v>
       </c>
-      <c r="GD28" s="64">
+      <c r="GD28" s="59">
         <v>5</v>
       </c>
-      <c r="GE28" s="39" t="s">
+      <c r="GE28" s="37" t="s">
         <v>1926</v>
       </c>
-      <c r="GF28" s="39">
+      <c r="GF28" s="37">
         <v>336</v>
       </c>
-      <c r="GG28" s="35" t="s">
+      <c r="GG28" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="29" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+      <c r="A29" s="20">
         <v>44452.834814814814</v>
       </c>
       <c r="B29" t="s">
@@ -26786,7 +26945,7 @@
       <c r="D29" t="s">
         <v>1699</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>44439</v>
       </c>
       <c r="F29" t="s">
@@ -26807,7 +26966,7 @@
       <c r="K29" t="s">
         <v>1703</v>
       </c>
-      <c r="L29" s="69">
+      <c r="L29" s="64">
         <v>39981</v>
       </c>
       <c r="M29" t="s">
@@ -26867,7 +27026,7 @@
       <c r="AV29">
         <v>80</v>
       </c>
-      <c r="AW29" s="26" t="s">
+      <c r="AW29" s="24" t="s">
         <v>773</v>
       </c>
       <c r="AX29">
@@ -26894,7 +27053,7 @@
       <c r="BG29">
         <v>180</v>
       </c>
-      <c r="BH29" s="22" t="s">
+      <c r="BH29" s="21" t="s">
         <v>1711</v>
       </c>
       <c r="BI29" t="s">
@@ -26921,8 +27080,8 @@
       <c r="BQ29" t="s">
         <v>1716</v>
       </c>
-      <c r="BR29" s="23" t="s">
-        <v>1986</v>
+      <c r="BR29" s="22" t="s">
+        <v>1984</v>
       </c>
       <c r="BT29" t="s">
         <v>1717</v>
@@ -26930,7 +27089,7 @@
       <c r="BU29" t="s">
         <v>166</v>
       </c>
-      <c r="BV29" s="23" t="s">
+      <c r="BV29" s="22" t="s">
         <v>190</v>
       </c>
       <c r="BW29" t="s">
@@ -26978,7 +27137,7 @@
       <c r="CO29" t="s">
         <v>278</v>
       </c>
-      <c r="CP29" s="26" t="s">
+      <c r="CP29" s="24" t="s">
         <v>438</v>
       </c>
       <c r="CQ29" t="s">
@@ -27011,13 +27170,13 @@
       <c r="DB29">
         <v>2</v>
       </c>
-      <c r="DC29" s="26" t="s">
+      <c r="DC29" s="24" t="s">
         <v>773</v>
       </c>
       <c r="DD29">
         <v>4</v>
       </c>
-      <c r="DE29" s="39">
+      <c r="DE29" s="37">
         <v>6</v>
       </c>
       <c r="DF29" t="s">
@@ -27050,10 +27209,10 @@
       <c r="DQ29" t="s">
         <v>1730</v>
       </c>
-      <c r="DR29" s="26" t="s">
+      <c r="DR29" s="24" t="s">
         <v>1850</v>
       </c>
-      <c r="DS29" s="23" t="s">
+      <c r="DS29" s="22" t="s">
         <v>1731</v>
       </c>
       <c r="DT29" t="s">
@@ -27068,10 +27227,10 @@
       <c r="DW29" t="s">
         <v>1733</v>
       </c>
-      <c r="DX29" s="28" t="s">
+      <c r="DX29" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="DY29" s="28" t="s">
+      <c r="DY29" s="26" t="s">
         <v>1867</v>
       </c>
       <c r="DZ29" t="s">
@@ -27092,7 +27251,7 @@
       <c r="EF29" t="s">
         <v>222</v>
       </c>
-      <c r="EG29" s="26" t="s">
+      <c r="EG29" s="24" t="s">
         <v>1834</v>
       </c>
       <c r="EH29" t="s">
@@ -27134,10 +27293,10 @@
       <c r="ET29" t="s">
         <v>236</v>
       </c>
-      <c r="EU29" s="26" t="s">
+      <c r="EU29" s="24" t="s">
         <v>1841</v>
       </c>
-      <c r="EV29" s="23" t="s">
+      <c r="EV29" s="22" t="s">
         <v>1744</v>
       </c>
       <c r="EX29" t="s">
@@ -27176,10 +27335,10 @@
       <c r="FJ29" t="s">
         <v>193</v>
       </c>
-      <c r="FK29" s="22" t="s">
+      <c r="FK29" s="21" t="s">
         <v>1750</v>
       </c>
-      <c r="FM29" s="39">
+      <c r="FM29" s="37">
         <v>1</v>
       </c>
       <c r="FN29" t="s">
@@ -27194,22 +27353,22 @@
       <c r="FQ29" t="s">
         <v>955</v>
       </c>
-      <c r="FR29" s="45">
+      <c r="FR29" s="42">
         <v>0.6</v>
       </c>
-      <c r="FS29" s="45">
+      <c r="FS29" s="42">
         <v>0.1</v>
       </c>
-      <c r="FT29" s="45">
+      <c r="FT29" s="42">
         <v>0</v>
       </c>
-      <c r="FU29" s="45">
+      <c r="FU29" s="42">
         <v>0</v>
       </c>
-      <c r="FV29" s="45">
+      <c r="FV29" s="42">
         <v>0</v>
       </c>
-      <c r="FW29" s="45">
+      <c r="FW29" s="42">
         <v>0.3</v>
       </c>
       <c r="FZ29" t="s">
@@ -27218,31 +27377,31 @@
       <c r="GA29" t="s">
         <v>1873</v>
       </c>
-      <c r="GB29" s="39">
+      <c r="GB29" s="37">
         <v>0</v>
       </c>
-      <c r="GC29" s="39" t="s">
+      <c r="GC29" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GD29" s="64">
+      <c r="GD29" s="59">
         <v>2</v>
       </c>
-      <c r="GE29" s="39" t="s">
+      <c r="GE29" s="37" t="s">
         <v>1912</v>
       </c>
-      <c r="GF29" s="39">
+      <c r="GF29" s="37">
         <v>2</v>
       </c>
-      <c r="GG29" s="35" t="s">
+      <c r="GG29" s="33" t="s">
         <v>1899</v>
       </c>
     </row>
     <row r="30" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>44456.611226851855</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C30" t="s">
         <v>1751</v>
@@ -27250,7 +27409,7 @@
       <c r="D30" t="s">
         <v>1752</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>44452</v>
       </c>
       <c r="F30" t="s">
@@ -27271,7 +27430,7 @@
       <c r="K30" t="s">
         <v>1757</v>
       </c>
-      <c r="L30" s="69">
+      <c r="L30" s="64">
         <v>39925</v>
       </c>
       <c r="M30" t="s">
@@ -27340,7 +27499,7 @@
       <c r="AY30">
         <v>240</v>
       </c>
-      <c r="AZ30" s="22" t="s">
+      <c r="AZ30" s="21" t="s">
         <v>1764</v>
       </c>
       <c r="BA30" t="s">
@@ -27349,7 +27508,7 @@
       <c r="BD30" t="s">
         <v>256</v>
       </c>
-      <c r="BE30" s="41" t="s">
+      <c r="BE30" s="39" t="s">
         <v>1837</v>
       </c>
       <c r="BF30" t="s">
@@ -27358,14 +27517,14 @@
       <c r="BG30">
         <v>60</v>
       </c>
-      <c r="BH30" s="22" t="s">
+      <c r="BH30" s="21" t="s">
         <v>1766</v>
       </c>
       <c r="BI30" t="s">
         <v>1767</v>
       </c>
-      <c r="BJ30" s="41" t="s">
-        <v>1979</v>
+      <c r="BJ30" s="39" t="s">
+        <v>1977</v>
       </c>
       <c r="BK30" t="s">
         <v>262</v>
@@ -27383,7 +27542,7 @@
         <v>1770</v>
       </c>
       <c r="BR30" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="BT30" t="s">
         <v>1771</v>
@@ -27400,7 +27559,7 @@
       <c r="BX30" t="s">
         <v>1773</v>
       </c>
-      <c r="BY30" s="26" t="s">
+      <c r="BY30" s="24" t="s">
         <v>1937</v>
       </c>
       <c r="CA30" t="s">
@@ -27439,7 +27598,7 @@
       <c r="CO30" t="s">
         <v>278</v>
       </c>
-      <c r="CP30" s="26" t="s">
+      <c r="CP30" s="24" t="s">
         <v>438</v>
       </c>
       <c r="CQ30" t="s">
@@ -27460,7 +27619,7 @@
       <c r="CV30" t="s">
         <v>281</v>
       </c>
-      <c r="CX30" s="41" t="s">
+      <c r="CX30" s="39" t="s">
         <v>1838</v>
       </c>
       <c r="CY30" t="s">
@@ -27481,7 +27640,7 @@
       <c r="DD30">
         <v>3</v>
       </c>
-      <c r="DE30" s="40" t="s">
+      <c r="DE30" s="38" t="s">
         <v>773</v>
       </c>
       <c r="DF30" t="s">
@@ -27534,10 +27693,10 @@
       <c r="DW30" t="s">
         <v>1779</v>
       </c>
-      <c r="DX30" s="26" t="s">
+      <c r="DX30" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="DY30" s="26" t="s">
+      <c r="DY30" s="24" t="s">
         <v>1868</v>
       </c>
       <c r="DZ30" t="s">
@@ -27561,13 +27720,13 @@
       <c r="EG30" s="5" t="s">
         <v>1071</v>
       </c>
-      <c r="EH30" s="41" t="s">
+      <c r="EH30" s="39" t="s">
         <v>1835</v>
       </c>
       <c r="EI30">
         <v>224</v>
       </c>
-      <c r="EJ30" s="41" t="s">
+      <c r="EJ30" s="39" t="s">
         <v>1836</v>
       </c>
       <c r="EK30" t="s">
@@ -27576,7 +27735,7 @@
       <c r="EL30" t="s">
         <v>1783</v>
       </c>
-      <c r="EM30" s="41" t="s">
+      <c r="EM30" s="39" t="s">
         <v>1840</v>
       </c>
       <c r="EN30" t="s">
@@ -27642,7 +27801,7 @@
       <c r="FK30" t="s">
         <v>243</v>
       </c>
-      <c r="FM30" s="46">
+      <c r="FM30" s="43">
         <v>4.5</v>
       </c>
       <c r="FN30" t="s">
@@ -27651,29 +27810,29 @@
       <c r="FO30" t="s">
         <v>1792</v>
       </c>
-      <c r="FP30" s="47">
+      <c r="FP30" s="44">
         <f>(5+1)/2</f>
         <v>3</v>
       </c>
       <c r="FQ30" t="s">
         <v>532</v>
       </c>
-      <c r="FR30" s="45">
+      <c r="FR30" s="42">
         <v>0.85</v>
       </c>
-      <c r="FS30" s="45">
+      <c r="FS30" s="42">
         <v>0.15</v>
       </c>
-      <c r="FT30" s="45">
+      <c r="FT30" s="42">
         <v>0</v>
       </c>
-      <c r="FU30" s="45">
+      <c r="FU30" s="42">
         <v>0</v>
       </c>
-      <c r="FV30" s="45">
+      <c r="FV30" s="42">
         <v>0</v>
       </c>
-      <c r="FW30" s="45">
+      <c r="FW30" s="42">
         <v>0</v>
       </c>
       <c r="FZ30" t="s">
@@ -27682,27 +27841,27 @@
       <c r="GA30" t="s">
         <v>1874</v>
       </c>
-      <c r="GB30" s="39">
+      <c r="GB30" s="37">
         <v>4</v>
       </c>
-      <c r="GC30" s="39" t="s">
+      <c r="GC30" s="37" t="s">
         <v>1909</v>
       </c>
-      <c r="GD30" s="64">
+      <c r="GD30" s="59">
         <v>0</v>
       </c>
-      <c r="GE30" s="39" t="s">
+      <c r="GE30" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF30" s="39">
+      <c r="GF30" s="37">
         <v>224</v>
       </c>
-      <c r="GG30" s="35" t="s">
+      <c r="GG30" s="33" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="31" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
+      <c r="A31" s="20">
         <v>44458.952546296299</v>
       </c>
       <c r="B31" t="s">
@@ -27714,7 +27873,7 @@
       <c r="D31" t="s">
         <v>886</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>44453</v>
       </c>
       <c r="F31" t="s">
@@ -27735,7 +27894,7 @@
       <c r="K31" t="s">
         <v>1795</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L31" s="64">
         <v>41859</v>
       </c>
       <c r="M31" t="s">
@@ -27750,7 +27909,7 @@
       <c r="P31" t="s">
         <v>166</v>
       </c>
-      <c r="Q31" s="26" t="s">
+      <c r="Q31" s="24" t="s">
         <v>1798</v>
       </c>
       <c r="R31" t="s">
@@ -27837,7 +27996,7 @@
       <c r="BD31" t="s">
         <v>256</v>
       </c>
-      <c r="BE31" s="23" t="s">
+      <c r="BE31" s="22" t="s">
         <v>1800</v>
       </c>
       <c r="BF31" t="s">
@@ -27846,7 +28005,7 @@
       <c r="BG31">
         <v>50</v>
       </c>
-      <c r="BH31" s="22" t="s">
+      <c r="BH31" s="21" t="s">
         <v>1802</v>
       </c>
       <c r="BI31" t="s">
@@ -27870,16 +28029,16 @@
       <c r="BP31" t="s">
         <v>737</v>
       </c>
-      <c r="BQ31" s="22" t="s">
+      <c r="BQ31" s="21" t="s">
         <v>1805</v>
       </c>
-      <c r="BR31" s="23" t="s">
-        <v>1988</v>
+      <c r="BR31" s="22" t="s">
+        <v>1986</v>
       </c>
       <c r="BS31" t="s">
         <v>1806</v>
       </c>
-      <c r="BT31" s="31" t="s">
+      <c r="BT31" s="29" t="s">
         <v>1807</v>
       </c>
       <c r="BU31" t="s">
@@ -27921,10 +28080,10 @@
       <c r="CH31" t="s">
         <v>410</v>
       </c>
-      <c r="CJ31" s="27" t="s">
+      <c r="CJ31" s="25" t="s">
         <v>1812</v>
       </c>
-      <c r="CK31" s="27" t="s">
+      <c r="CK31" s="25" t="s">
         <v>193</v>
       </c>
       <c r="CL31" t="s">
@@ -27945,13 +28104,13 @@
       <c r="CR31" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="CS31" s="27" t="s">
+      <c r="CS31" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="CT31" s="27" t="s">
+      <c r="CT31" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="CU31" s="27">
+      <c r="CU31" s="25">
         <v>0</v>
       </c>
       <c r="CV31" t="s">
@@ -27972,22 +28131,22 @@
       <c r="DB31">
         <v>7</v>
       </c>
-      <c r="DC31" s="26" t="s">
+      <c r="DC31" s="24" t="s">
         <v>773</v>
       </c>
       <c r="DD31">
         <v>4</v>
       </c>
-      <c r="DE31" s="39">
+      <c r="DE31" s="37">
         <v>3</v>
       </c>
       <c r="DF31" t="s">
         <v>283</v>
       </c>
-      <c r="DG31" s="27" t="s">
+      <c r="DG31" s="25" t="s">
         <v>1814</v>
       </c>
-      <c r="DH31" s="27" t="s">
+      <c r="DH31" s="25" t="s">
         <v>1815</v>
       </c>
       <c r="DI31">
@@ -28011,10 +28170,10 @@
       <c r="DQ31" t="s">
         <v>1818</v>
       </c>
-      <c r="DR31" s="26" t="s">
+      <c r="DR31" s="24" t="s">
         <v>1851</v>
       </c>
-      <c r="DS31" s="23" t="s">
+      <c r="DS31" s="22" t="s">
         <v>1819</v>
       </c>
       <c r="DT31" t="s">
@@ -28029,10 +28188,10 @@
       <c r="DW31" t="s">
         <v>1821</v>
       </c>
-      <c r="DX31" s="28" t="s">
+      <c r="DX31" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="DY31" s="28" t="s">
+      <c r="DY31" s="26" t="s">
         <v>1866</v>
       </c>
       <c r="DZ31" t="s">
@@ -28053,7 +28212,7 @@
       <c r="EF31" t="s">
         <v>222</v>
       </c>
-      <c r="EG31" s="26" t="s">
+      <c r="EG31" s="24" t="s">
         <v>1844</v>
       </c>
       <c r="EH31" t="s">
@@ -28092,7 +28251,7 @@
       <c r="ET31" t="s">
         <v>236</v>
       </c>
-      <c r="EU31" s="26" t="s">
+      <c r="EU31" s="24" t="s">
         <v>1271</v>
       </c>
       <c r="EV31" t="s">
@@ -28140,7 +28299,7 @@
       <c r="FL31" t="s">
         <v>171</v>
       </c>
-      <c r="FM31" s="39">
+      <c r="FM31" s="37">
         <v>2</v>
       </c>
       <c r="FN31" t="s">
@@ -28155,22 +28314,22 @@
       <c r="FQ31" t="s">
         <v>291</v>
       </c>
-      <c r="FR31" s="45">
+      <c r="FR31" s="42">
         <v>0.4</v>
       </c>
-      <c r="FS31" s="45">
+      <c r="FS31" s="42">
         <v>0.6</v>
       </c>
-      <c r="FT31" s="37">
+      <c r="FT31" s="35">
         <v>0</v>
       </c>
-      <c r="FU31" s="37">
+      <c r="FU31" s="35">
         <v>0</v>
       </c>
-      <c r="FV31" s="37">
+      <c r="FV31" s="35">
         <v>0</v>
       </c>
-      <c r="FW31" s="37">
+      <c r="FW31" s="35">
         <v>0</v>
       </c>
       <c r="FZ31" t="s">
@@ -28179,28 +28338,28 @@
       <c r="GA31" t="s">
         <v>1875</v>
       </c>
-      <c r="GB31" s="39">
+      <c r="GB31" s="37">
         <v>0</v>
       </c>
-      <c r="GC31" s="39" t="s">
+      <c r="GC31" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GD31" s="64">
+      <c r="GD31" s="59">
         <v>5</v>
       </c>
-      <c r="GE31" s="39" t="s">
+      <c r="GE31" s="37" t="s">
         <v>1925</v>
       </c>
-      <c r="GF31" s="39">
+      <c r="GF31" s="37">
         <v>13</v>
       </c>
-      <c r="GG31" s="35" t="s">
+      <c r="GG31" s="33" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="32" spans="1:189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>828</v>
@@ -28211,7 +28370,7 @@
       <c r="D32" t="s">
         <v>1943</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>44453</v>
       </c>
       <c r="F32" t="s">
@@ -28229,10 +28388,10 @@
       <c r="J32">
         <v>3213945338</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="L32" s="66" t="s">
+      <c r="L32" s="61" t="s">
         <v>773</v>
       </c>
       <c r="M32" t="s">
@@ -28247,20 +28406,20 @@
       <c r="P32" t="s">
         <v>166</v>
       </c>
-      <c r="Q32" t="s">
-        <v>1948</v>
+      <c r="Q32" s="24" t="s">
+        <v>1987</v>
       </c>
       <c r="R32" t="s">
         <v>168</v>
       </c>
       <c r="T32" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="U32" t="s">
         <v>166</v>
       </c>
       <c r="V32" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="W32" t="s">
         <v>171</v>
@@ -28290,7 +28449,7 @@
         <v>1100</v>
       </c>
       <c r="AZ32" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="BA32" t="s">
         <v>175</v>
@@ -28299,43 +28458,43 @@
         <v>256</v>
       </c>
       <c r="BE32" t="s">
+        <v>1952</v>
+      </c>
+      <c r="BF32" t="s">
         <v>1953</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>1954</v>
       </c>
       <c r="BG32">
         <v>60</v>
       </c>
       <c r="BH32" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="BI32" t="s">
         <v>511</v>
       </c>
       <c r="BJ32" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="BK32" t="s">
         <v>262</v>
       </c>
       <c r="BM32" t="s">
+        <v>1956</v>
+      </c>
+      <c r="BO32" t="s">
         <v>1957</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>1958</v>
       </c>
       <c r="BP32" t="s">
         <v>187</v>
       </c>
       <c r="BQ32" t="s">
+        <v>1958</v>
+      </c>
+      <c r="BR32" s="22" t="s">
+        <v>1984</v>
+      </c>
+      <c r="BT32" t="s">
         <v>1959</v>
-      </c>
-      <c r="BR32" s="23" t="s">
-        <v>1986</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>1960</v>
       </c>
       <c r="BU32" t="s">
         <v>380</v>
@@ -28347,25 +28506,25 @@
         <v>1157</v>
       </c>
       <c r="BX32" t="s">
+        <v>1960</v>
+      </c>
+      <c r="BY32" t="s">
         <v>1961</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>1962</v>
       </c>
       <c r="CA32" t="s">
         <v>193</v>
       </c>
-      <c r="CB32" s="23" t="s">
+      <c r="CB32" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="CC32" s="23" t="s">
-        <v>1963</v>
+      <c r="CC32" s="22" t="s">
+        <v>1962</v>
       </c>
       <c r="CD32" t="s">
         <v>856</v>
       </c>
       <c r="CE32" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CF32" t="s">
         <v>547</v>
@@ -28409,46 +28568,46 @@
       <c r="CV32" t="s">
         <v>281</v>
       </c>
-      <c r="CX32" s="22" t="s">
-        <v>1965</v>
+      <c r="CX32" s="21" t="s">
+        <v>1964</v>
       </c>
       <c r="CY32" t="s">
         <v>1192</v>
       </c>
-      <c r="CZ32" s="26" t="s">
+      <c r="CZ32" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="DA32" s="26" t="s">
+      <c r="DA32" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="DB32" s="26" t="s">
+      <c r="DB32" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="DC32" s="26" t="s">
+      <c r="DC32" s="24" t="s">
         <v>773</v>
       </c>
       <c r="DD32">
         <v>15</v>
       </c>
-      <c r="DE32" s="40" t="s">
+      <c r="DE32" s="38" t="s">
         <v>773</v>
       </c>
       <c r="DF32" t="s">
         <v>283</v>
       </c>
       <c r="DG32" t="s">
+        <v>1965</v>
+      </c>
+      <c r="DH32" t="s">
         <v>1966</v>
       </c>
-      <c r="DH32" t="s">
-        <v>1967</v>
-      </c>
-      <c r="DI32" s="23" t="s">
+      <c r="DI32" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="DJ32" s="23" t="s">
+      <c r="DJ32" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="DK32" s="23" t="s">
+      <c r="DK32" s="22" t="s">
         <v>773</v>
       </c>
       <c r="DM32" t="s">
@@ -28470,12 +28629,12 @@
         <v>208</v>
       </c>
       <c r="DU32" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="DV32" t="s">
         <v>380</v>
       </c>
-      <c r="DX32" s="26" t="s">
+      <c r="DX32" s="24" t="s">
         <v>193</v>
       </c>
       <c r="DY32" t="s">
@@ -28491,7 +28650,7 @@
         <v>756</v>
       </c>
       <c r="ED32" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="EE32" t="s">
         <v>193</v>
@@ -28499,11 +28658,11 @@
       <c r="EF32" t="s">
         <v>222</v>
       </c>
-      <c r="EG32" t="s">
-        <v>1970</v>
+      <c r="EG32" s="24" t="s">
+        <v>1989</v>
       </c>
       <c r="EH32" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="EI32">
         <v>1</v>
@@ -28515,7 +28674,7 @@
         <v>773</v>
       </c>
       <c r="EL32" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="EM32" t="s">
         <v>1157</v>
@@ -28533,13 +28692,13 @@
         <v>1157</v>
       </c>
       <c r="ES32" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="ET32" t="s">
         <v>236</v>
       </c>
       <c r="EU32" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="EV32" t="s">
         <v>1059</v>
@@ -28554,10 +28713,10 @@
         <v>236</v>
       </c>
       <c r="FA32" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="FB32" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="FC32" t="s">
         <v>274</v>
@@ -28566,7 +28725,7 @@
         <v>491</v>
       </c>
       <c r="FE32" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="FF32" t="s">
         <v>434</v>
@@ -28574,16 +28733,16 @@
       <c r="FG32" t="s">
         <v>199</v>
       </c>
-      <c r="FI32" s="23" t="s">
+      <c r="FI32" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="FJ32" s="23" t="s">
+      <c r="FJ32" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="FK32" s="23" t="s">
+      <c r="FK32" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="FM32" s="39">
+      <c r="FM32" s="37">
         <v>2</v>
       </c>
       <c r="FN32" t="s">
@@ -28595,22 +28754,22 @@
       <c r="FQ32" t="s">
         <v>380</v>
       </c>
-      <c r="FR32" s="37">
+      <c r="FR32" s="35">
         <v>0.5</v>
       </c>
-      <c r="FS32" s="37">
+      <c r="FS32" s="35">
         <v>0.5</v>
       </c>
-      <c r="FT32" s="45">
+      <c r="FT32" s="42">
         <v>0</v>
       </c>
-      <c r="FU32" s="45">
+      <c r="FU32" s="42">
         <v>0</v>
       </c>
-      <c r="FV32" s="45">
+      <c r="FV32" s="42">
         <v>0</v>
       </c>
-      <c r="FW32" s="45">
+      <c r="FW32" s="42">
         <v>0</v>
       </c>
       <c r="FZ32" s="15" t="s">
@@ -28619,22 +28778,22 @@
       <c r="GA32" t="s">
         <v>1927</v>
       </c>
-      <c r="GB32" s="39">
+      <c r="GB32" s="37">
         <v>2</v>
       </c>
-      <c r="GC32" s="39" t="s">
+      <c r="GC32" s="37" t="s">
         <v>1910</v>
       </c>
-      <c r="GD32" s="64">
+      <c r="GD32" s="59">
         <v>1</v>
       </c>
-      <c r="GE32" s="39" t="s">
+      <c r="GE32" s="37" t="s">
         <v>1906</v>
       </c>
-      <c r="GF32" s="39">
+      <c r="GF32" s="37">
         <v>1</v>
       </c>
-      <c r="GG32" s="35" t="s">
+      <c r="GG32" s="33" t="s">
         <v>1900</v>
       </c>
     </row>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFAB21-954A-4963-98FA-313A2C8B0AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA746EA-E9BE-4C80-A0F5-CD4404011D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EI2" authorId="0" shapeId="0" xr:uid="{63FCDCEA-425C-4EC7-AAED-D528A07B9487}">
+    <comment ref="EI2" authorId="0" shapeId="0" xr:uid="{6FE0336A-0AD1-4736-A6F2-4FA3360E662E}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Decía: "Dato en bases de datos"</t>
+Decía dato en base datos</t>
         </r>
       </text>
     </comment>
@@ -856,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="EI4" authorId="0" shapeId="0" xr:uid="{BABA5DDC-4305-4DFD-8004-56BD70F8D114}">
+    <comment ref="EI4" authorId="0" shapeId="0" xr:uid="{A0193806-C2CF-4DF8-BCE7-1A558A3E4376}">
       <text>
         <r>
           <rPr>
@@ -2053,30 +2053,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="EI9" authorId="0" shapeId="0" xr:uid="{2877A2DE-5840-40E0-8497-56BE1CFCFC37}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel S. Parra G.:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-34 establecimientos.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="EU9" authorId="0" shapeId="0" xr:uid="{BE529271-7829-4F16-8648-565ECD8A1E8A}">
       <text>
         <r>
@@ -3472,30 +3448,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="EI16" authorId="0" shapeId="0" xr:uid="{A70B17BB-F63C-47DF-ADBE-90FF36A7D839}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel S. Parra G.:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-130 inscritas, Todas compran</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="EU16" authorId="0" shapeId="0" xr:uid="{F759B86F-1951-45C8-8D35-4D27D55FD7CB}">
       <text>
         <r>
@@ -4219,6 +4171,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="EI20" authorId="0" shapeId="0" xr:uid="{5AC2EAE5-DC20-4839-991D-EF6E6A4506FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No respondieron durante la encuesta.
+En anexos 2 se tenía 163-433</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="GG20" authorId="0" shapeId="0" xr:uid="{1B5BEB03-1DD9-49D5-82F1-6973500C4257}">
       <text>
         <r>
@@ -4339,30 +4316,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="EI21" authorId="0" shapeId="0" xr:uid="{DA2D6097-9192-426D-A0AF-5267B6942356}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel S. Parra G.:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-107 instituciones inscritas más o menos el 40% ha comprado</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="EU21" authorId="0" shapeId="0" xr:uid="{0F47986C-FECA-4824-849A-6356BA883551}">
       <text>
         <r>
@@ -5611,31 +5564,6 @@
           </rPr>
           <t xml:space="preserve">
 No se hacen traslados</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="EI28" authorId="0" shapeId="0" xr:uid="{F027B743-5E2F-46C0-A27F-808C64B16BEA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Daniel S. Parra G.:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-El 50% de las entidades inscritas (Dato pendiente)
-Este número se calculó acá</t>
         </r>
       </text>
     </comment>
@@ -7005,7 +6933,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1989">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -13118,9 +13046,6 @@
     <t>N0/C0</t>
   </si>
   <si>
-    <t>?612-445</t>
-  </si>
-  <si>
     <t>N2/C0</t>
   </si>
   <si>
@@ -13145,9 +13070,6 @@
     <t>N0/C2</t>
   </si>
   <si>
-    <t>?527--329</t>
-  </si>
-  <si>
     <t>N5/C0</t>
   </si>
   <si>
@@ -13169,13 +13091,7 @@
     <t>N0/C7</t>
   </si>
   <si>
-    <t>?163-433</t>
-  </si>
-  <si>
     <t>N0/C4</t>
-  </si>
-  <si>
-    <t>?281-266</t>
   </si>
   <si>
     <t>Meta</t>
@@ -13459,7 +13375,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13496,6 +13412,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -13511,7 +13433,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -13656,6 +13578,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13884,10 +13809,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="FY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="GG1" sqref="GG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14481,7 +14406,7 @@
         <v>44324.663341099542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -14644,7 +14569,7 @@
         <v>192</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="CA2" s="2" t="s">
         <v>193</v>
@@ -14818,7 +14743,7 @@
       <c r="EH2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="EI2" s="5">
+      <c r="EI2" s="32">
         <v>78</v>
       </c>
       <c r="EJ2" s="2" t="s">
@@ -14947,8 +14872,8 @@
       <c r="GE2" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF2" s="37" t="s">
-        <v>1904</v>
+      <c r="GF2" s="37">
+        <v>78</v>
       </c>
       <c r="GG2" s="33" t="s">
         <v>1887</v>
@@ -15094,7 +15019,7 @@
         <v>266</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT3" s="2" t="s">
         <v>267</v>
@@ -15112,10 +15037,10 @@
         <v>270</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="CA3" s="2" t="s">
         <v>216</v>
@@ -15276,7 +15201,7 @@
       <c r="EH3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="EI3" s="2">
+      <c r="EI3" s="33">
         <v>300</v>
       </c>
       <c r="EJ3" s="2" t="s">
@@ -15397,13 +15322,13 @@
         <v>2</v>
       </c>
       <c r="GC3" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GD3" s="59">
         <v>1</v>
       </c>
       <c r="GE3" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GF3" s="37">
         <v>300</v>
@@ -15418,7 +15343,7 @@
         <v>44326.502545150463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>312</v>
@@ -15551,7 +15476,7 @@
         <v>334</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT4" s="2" t="s">
         <v>335</v>
@@ -15569,7 +15494,7 @@
         <v>337</v>
       </c>
       <c r="BY4" s="5" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="CA4" s="2" t="s">
         <v>193</v>
@@ -15593,7 +15518,7 @@
         <v>196</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="CI4" s="2" t="s">
         <v>339</v>
@@ -15723,7 +15648,7 @@
         <v>193</v>
       </c>
       <c r="EB4" s="69" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="ED4" s="2" t="s">
         <v>354</v>
@@ -15737,8 +15662,8 @@
       <c r="EH4" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="EI4" s="5">
-        <v>78</v>
+      <c r="EI4" s="32">
+        <v>1054</v>
       </c>
       <c r="EJ4" s="2" t="s">
         <v>357</v>
@@ -15822,7 +15747,7 @@
         <v>216</v>
       </c>
       <c r="FO4" s="24" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="FP4" s="25">
         <v>12</v>
@@ -15858,16 +15783,16 @@
         <v>3</v>
       </c>
       <c r="GC4" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="GD4" s="67">
         <v>22</v>
       </c>
       <c r="GE4" s="38" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="GF4" s="37">
-        <v>1054</v>
+        <v>78</v>
       </c>
       <c r="GG4" s="33" t="s">
         <v>1885</v>
@@ -16196,7 +16121,7 @@
       <c r="EH5" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="EI5" s="2">
+      <c r="EI5" s="33">
         <v>208</v>
       </c>
       <c r="EJ5" s="2" t="s">
@@ -16326,7 +16251,7 @@
         <v>2</v>
       </c>
       <c r="GC5" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="GD5" s="59">
         <v>0</v>
@@ -16346,7 +16271,7 @@
         <v>44339.650587766198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>440</v>
@@ -16494,7 +16419,7 @@
         <v>460</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT6" s="2" t="s">
         <v>461</v>
@@ -16668,7 +16593,7 @@
       <c r="EH6" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="EI6" s="2">
+      <c r="EI6" s="33">
         <v>103</v>
       </c>
       <c r="EJ6" s="2" t="s">
@@ -16792,7 +16717,7 @@
         <v>4</v>
       </c>
       <c r="GC6" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD6" s="59">
         <v>0</v>
@@ -16966,7 +16891,7 @@
         <v>515</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="BT7" s="2" t="s">
         <v>516</v>
@@ -16984,7 +16909,7 @@
         <v>518</v>
       </c>
       <c r="BY7" s="5" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="CA7" s="2" t="s">
         <v>193</v>
@@ -17142,8 +17067,8 @@
       <c r="EH7" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="EI7" s="5" t="s">
-        <v>537</v>
+      <c r="EI7" s="32">
+        <v>358</v>
       </c>
       <c r="EJ7" s="2" t="s">
         <v>538</v>
@@ -17274,8 +17199,8 @@
       <c r="GE7" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF7" s="37">
-        <v>358</v>
+      <c r="GF7" s="37" t="s">
+        <v>537</v>
       </c>
       <c r="GG7" s="33" t="s">
         <v>1887</v>
@@ -17407,7 +17332,7 @@
         <v>571</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="BT8" s="2" t="s">
         <v>572</v>
@@ -17580,8 +17505,8 @@
       <c r="EH8" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="EI8" s="5" t="s">
-        <v>593</v>
+      <c r="EI8" s="32">
+        <v>176</v>
       </c>
       <c r="EJ8" s="2" t="s">
         <v>594</v>
@@ -17701,16 +17626,16 @@
         <v>1</v>
       </c>
       <c r="GC8" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD8" s="59">
         <v>1</v>
       </c>
       <c r="GE8" s="37" t="s">
-        <v>1906</v>
-      </c>
-      <c r="GF8" s="37">
-        <v>176</v>
+        <v>1905</v>
+      </c>
+      <c r="GF8" s="37" t="s">
+        <v>593</v>
       </c>
       <c r="GG8" s="33" t="s">
         <v>1889</v>
@@ -17908,7 +17833,7 @@
         <v>637</v>
       </c>
       <c r="BZ9" s="2" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="CA9" s="2" t="s">
         <v>216</v>
@@ -18066,7 +17991,7 @@
       <c r="EH9" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="EI9" s="2">
+      <c r="EI9" s="33">
         <v>34</v>
       </c>
       <c r="EJ9" s="2" t="s">
@@ -18187,13 +18112,13 @@
         <v>4</v>
       </c>
       <c r="GC9" s="37" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="GD9" s="59">
         <v>2</v>
       </c>
       <c r="GE9" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="GF9" s="37">
         <v>34</v>
@@ -18344,7 +18269,7 @@
         <v>688</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="BT10" s="2" t="s">
         <v>689</v>
@@ -18517,8 +18442,8 @@
       <c r="EH10" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="EI10" s="5" t="s">
-        <v>709</v>
+      <c r="EI10" s="32">
+        <v>119</v>
       </c>
       <c r="EJ10" s="2" t="s">
         <v>710</v>
@@ -18641,16 +18566,16 @@
         <v>1</v>
       </c>
       <c r="GC10" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD10" s="59">
         <v>1</v>
       </c>
       <c r="GE10" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GF10" s="37" t="s">
-        <v>1913</v>
+        <v>709</v>
       </c>
       <c r="GG10" s="33" t="s">
         <v>1890</v>
@@ -18977,7 +18902,7 @@
       <c r="EH11" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="EI11" s="2">
+      <c r="EI11" s="33">
         <v>80</v>
       </c>
       <c r="EJ11" s="2" t="s">
@@ -19101,7 +19026,7 @@
         <v>5</v>
       </c>
       <c r="GC11" s="37" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="GD11" s="59">
         <v>0</v>
@@ -19296,7 +19221,7 @@
         <v>800</v>
       </c>
       <c r="BY12" s="5" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="CA12" s="2" t="s">
         <v>193</v>
@@ -19451,7 +19376,7 @@
       <c r="EH12" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="EI12" s="2">
+      <c r="EI12" s="33">
         <v>245</v>
       </c>
       <c r="EJ12" s="2" t="s">
@@ -19575,13 +19500,13 @@
         <v>3</v>
       </c>
       <c r="GC12" s="37" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="GD12" s="59">
         <v>8</v>
       </c>
       <c r="GE12" s="37" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="GF12" s="37">
         <v>245</v>
@@ -19770,7 +19695,7 @@
         <v>855</v>
       </c>
       <c r="BY13" s="5" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="CA13" s="2" t="s">
         <v>193</v>
@@ -19791,7 +19716,7 @@
         <v>274</v>
       </c>
       <c r="CH13" s="2" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="CJ13" s="2" t="s">
         <v>801</v>
@@ -19926,8 +19851,8 @@
       <c r="EH13" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="EI13" s="2">
-        <v>45</v>
+      <c r="EI13" s="33">
+        <v>570</v>
       </c>
       <c r="EJ13" s="2" t="s">
         <v>874</v>
@@ -20054,7 +19979,7 @@
         <v>6</v>
       </c>
       <c r="GC13" s="37" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="GD13" s="59">
         <v>0</v>
@@ -20063,7 +19988,7 @@
         <v>1903</v>
       </c>
       <c r="GF13" s="36">
-        <v>570</v>
+        <v>45</v>
       </c>
       <c r="GG13" s="33" t="s">
         <v>1888</v>
@@ -20074,7 +19999,7 @@
         <v>44384.71444163195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>905</v>
@@ -20203,7 +20128,7 @@
         <v>921</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>922</v>
@@ -20239,7 +20164,7 @@
         <v>578</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>927</v>
@@ -20379,7 +20304,7 @@
       <c r="EH14" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="EI14" s="1">
+      <c r="EI14" s="33">
         <v>43</v>
       </c>
       <c r="EJ14" s="1" t="s">
@@ -20503,7 +20428,7 @@
         <v>3</v>
       </c>
       <c r="GC14" s="58" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="GD14" s="60">
         <v>0</v>
@@ -20652,7 +20577,7 @@
         <v>976</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>977</v>
@@ -20825,7 +20750,7 @@
       <c r="EH15" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="EI15" s="1">
+      <c r="EI15" s="33">
         <v>220</v>
       </c>
       <c r="EJ15" s="1" t="s">
@@ -20947,13 +20872,13 @@
         <v>2</v>
       </c>
       <c r="GC15" s="58" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GD15" s="60">
         <v>6</v>
       </c>
       <c r="GE15" s="58" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="GF15" s="58">
         <v>220</v>
@@ -21123,7 +21048,7 @@
         <v>1033</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>1034</v>
@@ -21138,7 +21063,7 @@
         <v>1036</v>
       </c>
       <c r="BY16" s="15" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>193</v>
@@ -21295,7 +21220,7 @@
       <c r="EH16" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="EI16" s="1">
+      <c r="EI16" s="33">
         <v>130</v>
       </c>
       <c r="EJ16" s="1" t="s">
@@ -21422,7 +21347,7 @@
         <v>7</v>
       </c>
       <c r="GE16" s="58" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="GF16" s="58">
         <v>130</v>
@@ -21436,7 +21361,7 @@
         <v>44447.520694444444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C17" t="s">
         <v>1079</v>
@@ -21558,7 +21483,7 @@
         <v>1093</v>
       </c>
       <c r="BR17" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT17" t="s">
         <v>1094</v>
@@ -21597,7 +21522,7 @@
         <v>274</v>
       </c>
       <c r="CH17" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="CJ17" t="s">
         <v>1101</v>
@@ -21734,7 +21659,7 @@
       <c r="EH17" t="s">
         <v>1116</v>
       </c>
-      <c r="EI17">
+      <c r="EI17" s="37">
         <v>2</v>
       </c>
       <c r="EJ17" t="s">
@@ -21863,7 +21788,7 @@
         <v>1</v>
       </c>
       <c r="GC17" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD17" s="59">
         <v>0</v>
@@ -22192,7 +22117,7 @@
       <c r="EH18" t="s">
         <v>1162</v>
       </c>
-      <c r="EI18">
+      <c r="EI18" s="37">
         <v>78</v>
       </c>
       <c r="EJ18" t="s">
@@ -22316,7 +22241,7 @@
         <v>2</v>
       </c>
       <c r="GC18" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="GD18" s="59">
         <v>0</v>
@@ -22360,7 +22285,7 @@
         <v>773</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="L19" s="68">
         <v>43128</v>
@@ -22450,7 +22375,7 @@
         <v>1185</v>
       </c>
       <c r="BR19" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT19" t="s">
         <v>1186</v>
@@ -22486,7 +22411,7 @@
         <v>274</v>
       </c>
       <c r="CH19" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="CJ19" t="s">
         <v>1191</v>
@@ -22620,7 +22545,7 @@
       <c r="EH19" t="s">
         <v>1204</v>
       </c>
-      <c r="EI19">
+      <c r="EI19" s="37">
         <v>11</v>
       </c>
       <c r="EJ19" s="21" t="s">
@@ -22738,13 +22663,13 @@
         <v>1</v>
       </c>
       <c r="GC19" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD19" s="59">
         <v>1</v>
       </c>
       <c r="GE19" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GF19" s="37">
         <v>11</v>
@@ -22896,7 +22821,7 @@
         <v>1238</v>
       </c>
       <c r="BR20" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="BT20" t="s">
         <v>1239</v>
@@ -22914,7 +22839,7 @@
         <v>1242</v>
       </c>
       <c r="BZ20" s="24" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="CA20" t="s">
         <v>216</v>
@@ -22935,7 +22860,7 @@
         <v>578</v>
       </c>
       <c r="CH20" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="CJ20" t="s">
         <v>1245</v>
@@ -23072,8 +22997,9 @@
       <c r="EH20" t="s">
         <v>1262</v>
       </c>
-      <c r="EI20" t="s">
-        <v>1249</v>
+      <c r="EI20" s="70">
+        <f>(433+163)/2</f>
+        <v>298</v>
       </c>
       <c r="EJ20" t="s">
         <v>1263</v>
@@ -23199,16 +23125,16 @@
         <v>1</v>
       </c>
       <c r="GC20" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD20" s="59">
         <v>1</v>
       </c>
       <c r="GE20" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GF20" s="37" t="s">
-        <v>1921</v>
+        <v>1249</v>
       </c>
       <c r="GG20" s="33" t="s">
         <v>1888</v>
@@ -23396,7 +23322,7 @@
         <v>367</v>
       </c>
       <c r="CH21" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="CJ21" t="s">
         <v>1307</v>
@@ -23527,8 +23453,7 @@
       <c r="EH21" t="s">
         <v>1317</v>
       </c>
-      <c r="EI21" s="25">
-        <f>ROUND(107*0.4,0)</f>
+      <c r="EI21" s="36">
         <v>43</v>
       </c>
       <c r="EJ21" t="s">
@@ -23672,7 +23597,7 @@
         <v>44430.608212476851</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1335</v>
@@ -23834,7 +23759,7 @@
         <v>1353</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BS22" s="13"/>
       <c r="BT22" s="1" t="s">
@@ -23876,7 +23801,7 @@
         <v>274</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="CI22" s="13"/>
       <c r="CJ22" s="1" t="s">
@@ -24022,7 +23947,7 @@
       <c r="EH22" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="EI22" s="1">
+      <c r="EI22" s="33">
         <v>55</v>
       </c>
       <c r="EJ22" s="1" t="s">
@@ -24147,7 +24072,7 @@
         <v>4</v>
       </c>
       <c r="GC22" s="37" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="GD22" s="59">
         <v>0</v>
@@ -24503,7 +24428,7 @@
       <c r="EH23" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="EI23" s="1">
+      <c r="EI23" s="33">
         <v>6</v>
       </c>
       <c r="EJ23" s="1" t="s">
@@ -24630,13 +24555,13 @@
         <v>1</v>
       </c>
       <c r="GC23" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD23" s="59">
         <v>1</v>
       </c>
       <c r="GE23" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GF23" s="37">
         <v>6</v>
@@ -24812,7 +24737,7 @@
         <v>1463</v>
       </c>
       <c r="BY24" s="24" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="CA24" t="s">
         <v>216</v>
@@ -24845,7 +24770,7 @@
         <v>1467</v>
       </c>
       <c r="CM24" s="24" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="CN24" t="s">
         <v>1468</v>
@@ -24973,8 +24898,8 @@
       <c r="EH24" s="29" t="s">
         <v>1481</v>
       </c>
-      <c r="EI24">
-        <v>146</v>
+      <c r="EI24" s="37">
+        <v>69</v>
       </c>
       <c r="EJ24" t="s">
         <v>1482</v>
@@ -25097,16 +25022,16 @@
         <v>1</v>
       </c>
       <c r="GC24" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD24" s="59">
         <v>2</v>
       </c>
       <c r="GE24" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="GF24" s="37">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="GG24" s="33" t="s">
         <v>1887</v>
@@ -25117,7 +25042,7 @@
         <v>44325.680474537039</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C25" t="s">
         <v>1491</v>
@@ -25249,7 +25174,7 @@
         <v>1509</v>
       </c>
       <c r="BR25" s="22" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT25" t="s">
         <v>1510</v>
@@ -25285,7 +25210,7 @@
         <v>274</v>
       </c>
       <c r="CH25" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="CJ25" t="s">
         <v>1515</v>
@@ -25428,7 +25353,7 @@
       <c r="EH25" s="21" t="s">
         <v>1529</v>
       </c>
-      <c r="EI25">
+      <c r="EI25" s="37">
         <v>3</v>
       </c>
       <c r="EJ25" s="21" t="s">
@@ -25552,7 +25477,7 @@
         <v>2</v>
       </c>
       <c r="GC25" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="GD25" s="59">
         <v>0</v>
@@ -25707,7 +25632,7 @@
         <v>1560</v>
       </c>
       <c r="BR26" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="BS26" t="s">
         <v>1561</v>
@@ -25889,8 +25814,8 @@
       <c r="EH26" t="s">
         <v>1579</v>
       </c>
-      <c r="EI26">
-        <v>13</v>
+      <c r="EI26" s="37">
+        <v>19</v>
       </c>
       <c r="EJ26" t="s">
         <v>1263</v>
@@ -26013,7 +25938,7 @@
         <v>3</v>
       </c>
       <c r="GC26" s="37" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="GD26" s="59">
         <v>0</v>
@@ -26021,8 +25946,8 @@
       <c r="GE26" s="37" t="s">
         <v>1903</v>
       </c>
-      <c r="GF26" s="37" t="s">
-        <v>1923</v>
+      <c r="GF26" s="37">
+        <v>13</v>
       </c>
       <c r="GG26" s="33" t="s">
         <v>1888</v>
@@ -26174,7 +26099,7 @@
         <v>1621</v>
       </c>
       <c r="BR27" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT27" t="s">
         <v>1622</v>
@@ -26192,7 +26117,7 @@
         <v>1624</v>
       </c>
       <c r="BY27" s="24" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="CA27" t="s">
         <v>216</v>
@@ -26353,7 +26278,7 @@
       <c r="EH27" s="21" t="s">
         <v>1638</v>
       </c>
-      <c r="EI27">
+      <c r="EI27" s="37">
         <v>62</v>
       </c>
       <c r="EJ27" s="21" t="s">
@@ -26468,19 +26393,19 @@
         <v>1219</v>
       </c>
       <c r="GA27" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="GB27" s="37">
         <v>3</v>
       </c>
       <c r="GC27" s="37" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="GD27" s="59">
         <v>5</v>
       </c>
       <c r="GE27" s="37" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="GF27" s="37">
         <v>62</v>
@@ -26617,7 +26542,7 @@
         <v>1669</v>
       </c>
       <c r="BR28" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="BT28" t="s">
         <v>1670</v>
@@ -26793,7 +26718,7 @@
       <c r="EH28" t="s">
         <v>1687</v>
       </c>
-      <c r="EI28" s="5">
+      <c r="EI28" s="32">
         <v>336</v>
       </c>
       <c r="EJ28" t="s">
@@ -26917,13 +26842,13 @@
         <v>3</v>
       </c>
       <c r="GC28" s="37" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="GD28" s="59">
         <v>5</v>
       </c>
       <c r="GE28" s="37" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="GF28" s="37">
         <v>336</v>
@@ -27081,7 +27006,7 @@
         <v>1716</v>
       </c>
       <c r="BR29" s="22" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="BT29" t="s">
         <v>1717</v>
@@ -27257,7 +27182,7 @@
       <c r="EH29" t="s">
         <v>1736</v>
       </c>
-      <c r="EI29">
+      <c r="EI29" s="37">
         <v>1</v>
       </c>
       <c r="EJ29" t="s">
@@ -27387,10 +27312,10 @@
         <v>2</v>
       </c>
       <c r="GE29" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="GF29" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GG29" s="33" t="s">
         <v>1899</v>
@@ -27401,7 +27326,7 @@
         <v>44456.611226851855</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="C30" t="s">
         <v>1751</v>
@@ -27524,7 +27449,7 @@
         <v>1767</v>
       </c>
       <c r="BJ30" s="39" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="BK30" t="s">
         <v>262</v>
@@ -27542,7 +27467,7 @@
         <v>1770</v>
       </c>
       <c r="BR30" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="BT30" t="s">
         <v>1771</v>
@@ -27560,7 +27485,7 @@
         <v>1773</v>
       </c>
       <c r="BY30" s="24" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="CA30" t="s">
         <v>193</v>
@@ -27723,7 +27648,7 @@
       <c r="EH30" s="39" t="s">
         <v>1835</v>
       </c>
-      <c r="EI30">
+      <c r="EI30" s="37">
         <v>224</v>
       </c>
       <c r="EJ30" s="39" t="s">
@@ -27845,7 +27770,7 @@
         <v>4</v>
       </c>
       <c r="GC30" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD30" s="59">
         <v>0</v>
@@ -28033,7 +27958,7 @@
         <v>1805</v>
       </c>
       <c r="BR31" s="22" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="BS31" t="s">
         <v>1806</v>
@@ -28218,7 +28143,7 @@
       <c r="EH31" t="s">
         <v>1823</v>
       </c>
-      <c r="EI31">
+      <c r="EI31" s="37">
         <v>13</v>
       </c>
       <c r="EJ31" t="s">
@@ -28348,7 +28273,7 @@
         <v>5</v>
       </c>
       <c r="GE31" s="37" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="GF31" s="37">
         <v>13</v>
@@ -28359,31 +28284,31 @@
     </row>
     <row r="32" spans="1:189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>828</v>
       </c>
       <c r="C32" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="D32" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="E32" s="20">
         <v>44453</v>
       </c>
       <c r="F32" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="G32" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="H32" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="I32" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="J32">
         <v>3213945338</v>
@@ -28395,31 +28320,31 @@
         <v>773</v>
       </c>
       <c r="M32" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="N32" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="O32" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="P32" t="s">
         <v>166</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="R32" t="s">
         <v>168</v>
       </c>
       <c r="T32" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="U32" t="s">
         <v>166</v>
       </c>
       <c r="V32" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="W32" t="s">
         <v>171</v>
@@ -28449,7 +28374,7 @@
         <v>1100</v>
       </c>
       <c r="AZ32" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="BA32" t="s">
         <v>175</v>
@@ -28458,43 +28383,43 @@
         <v>256</v>
       </c>
       <c r="BE32" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="BF32" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="BG32">
         <v>60</v>
       </c>
       <c r="BH32" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="BI32" t="s">
         <v>511</v>
       </c>
       <c r="BJ32" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="BK32" t="s">
         <v>262</v>
       </c>
       <c r="BM32" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="BO32" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="BP32" t="s">
         <v>187</v>
       </c>
       <c r="BQ32" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="BR32" s="22" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="BT32" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="BU32" t="s">
         <v>380</v>
@@ -28506,10 +28431,10 @@
         <v>1157</v>
       </c>
       <c r="BX32" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="BY32" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="CA32" t="s">
         <v>193</v>
@@ -28518,13 +28443,13 @@
         <v>268</v>
       </c>
       <c r="CC32" s="22" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="CD32" t="s">
         <v>856</v>
       </c>
       <c r="CE32" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="CF32" t="s">
         <v>547</v>
@@ -28569,7 +28494,7 @@
         <v>281</v>
       </c>
       <c r="CX32" s="21" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="CY32" t="s">
         <v>1192</v>
@@ -28596,10 +28521,10 @@
         <v>283</v>
       </c>
       <c r="DG32" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="DH32" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="DI32" s="22" t="s">
         <v>773</v>
@@ -28629,7 +28554,7 @@
         <v>208</v>
       </c>
       <c r="DU32" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="DV32" t="s">
         <v>380</v>
@@ -28650,7 +28575,7 @@
         <v>756</v>
       </c>
       <c r="ED32" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="EE32" t="s">
         <v>193</v>
@@ -28659,12 +28584,12 @@
         <v>222</v>
       </c>
       <c r="EG32" s="24" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="EH32" t="s">
-        <v>1969</v>
-      </c>
-      <c r="EI32">
+        <v>1965</v>
+      </c>
+      <c r="EI32" s="37">
         <v>1</v>
       </c>
       <c r="EJ32" t="s">
@@ -28674,7 +28599,7 @@
         <v>773</v>
       </c>
       <c r="EL32" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="EM32" t="s">
         <v>1157</v>
@@ -28692,13 +28617,13 @@
         <v>1157</v>
       </c>
       <c r="ES32" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="ET32" t="s">
         <v>236</v>
       </c>
       <c r="EU32" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="EV32" t="s">
         <v>1059</v>
@@ -28713,10 +28638,10 @@
         <v>236</v>
       </c>
       <c r="FA32" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="FB32" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="FC32" t="s">
         <v>274</v>
@@ -28725,7 +28650,7 @@
         <v>491</v>
       </c>
       <c r="FE32" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="FF32" t="s">
         <v>434</v>
@@ -28776,19 +28701,19 @@
         <v>1078</v>
       </c>
       <c r="GA32" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="GB32" s="37">
         <v>2</v>
       </c>
       <c r="GC32" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD32" s="59">
         <v>1</v>
       </c>
       <c r="GE32" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GF32" s="37">
         <v>1</v>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA746EA-E9BE-4C80-A0F5-CD4404011D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E86528-AC48-4AFF-AF12-420693FEF833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4244,6 +4244,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="BS21" authorId="0" shapeId="0" xr:uid="{3313EA44-8761-446E-806A-BEFCF7F046AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No hay una tarea específica</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="CZ21" authorId="0" shapeId="0" xr:uid="{90A1747D-33FC-433A-8537-5C8562A21A6B}">
       <text>
         <r>
@@ -6933,7 +6957,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="1988">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -11008,9 +11032,6 @@
     <t>No hay ninguna opinión por desconocimiento del tema</t>
   </si>
   <si>
-    <t>No hay una tarea específica</t>
-  </si>
-  <si>
     <t xml:space="preserve">No hay una tarea específica, Cuando ellos presentan los informes, las instituciones envían escaneados los recetarios, adjunto a ese informe debe venir a los recetarios escaneados, en IVC se toma un muestreo de que coincidan con registro de venta </t>
   </si>
   <si>
@@ -13142,9 +13163,6 @@
     <t>Marcas de agua, Banda de seguridad, Filamentos de seguridad, Tinta invisibles o fluorescentes, Codificación</t>
   </si>
   <si>
-    <t>Marcas de agua, Banda de seguridad, Filamentos de seguridad, Fondos especiales (membretes), Microletras / microtexto, Imagen latente, Relieve / laminado, Tinta invisibles o fluorescentes, Sellos/Escudos, Codificación</t>
-  </si>
-  <si>
     <t>Marcas de agua, Banda de seguridad, Filamentos de seguridad, Fondos especiales (membretes), Microletras / microtexto, Tinta invisibles o fluorescentes, Sellos/Escudos, Codificación</t>
   </si>
   <si>
@@ -13304,6 +13322,9 @@
   </si>
   <si>
     <t>Realización de compras en meses específicos, Desabastecimiento de ciertos medicamentos, Puntos de reórden definidos (con cantidad de compra y tiempos de espera)</t>
+  </si>
+  <si>
+    <t>Marcas de agua, Banda de seguridad, Filamentos de seguridad, Fondos especiales (membretes), Microletras / microtexto, Relieve / laminado, Tinta invisibles o fluorescentes, Sellos/Escudos, Codificación</t>
   </si>
 </sst>
 </file>
@@ -13809,10 +13830,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="FY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="BU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="GG1" sqref="GG1"/>
+      <selection pane="bottomRight" activeCell="BY1" sqref="BY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14218,7 +14239,7 @@
         <v>105</v>
       </c>
       <c r="DY1" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="DZ1" s="1" t="s">
         <v>106</v>
@@ -14380,25 +14401,25 @@
         <v>155</v>
       </c>
       <c r="GA1" s="22" t="s">
+        <v>1878</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="GD1" s="22" t="s">
+        <v>1869</v>
+      </c>
+      <c r="GE1" s="22" t="s">
+        <v>1871</v>
+      </c>
+      <c r="GF1" s="61" t="s">
         <v>1879</v>
       </c>
-      <c r="GB1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>1871</v>
-      </c>
-      <c r="GD1" s="22" t="s">
-        <v>1870</v>
-      </c>
-      <c r="GE1" s="22" t="s">
-        <v>1872</v>
-      </c>
-      <c r="GF1" s="61" t="s">
-        <v>1880</v>
-      </c>
       <c r="GG1" s="33" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14406,7 +14427,7 @@
         <v>44324.663341099542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -14433,7 +14454,7 @@
         <v>162</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="L2" s="63" t="s">
         <v>773</v>
@@ -14551,7 +14572,7 @@
         <v>188</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>189</v>
@@ -14569,7 +14590,7 @@
         <v>192</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="CA2" s="2" t="s">
         <v>193</v>
@@ -14677,7 +14698,7 @@
         <v>211</v>
       </c>
       <c r="DK2" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="DL2" s="2"/>
       <c r="DM2" s="1" t="s">
@@ -14738,7 +14759,7 @@
         <v>222</v>
       </c>
       <c r="EG2" s="55" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="EH2" s="2" t="s">
         <v>226</v>
@@ -14780,7 +14801,7 @@
         <v>773</v>
       </c>
       <c r="EV2" s="5" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="EX2" s="2" t="s">
         <v>237</v>
@@ -14798,7 +14819,7 @@
         <v>239</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="FD2" s="2" t="s">
         <v>240</v>
@@ -14864,19 +14885,19 @@
         <v>3</v>
       </c>
       <c r="GC2" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD2" s="59">
         <v>0</v>
       </c>
       <c r="GE2" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF2" s="37">
         <v>78</v>
       </c>
       <c r="GG2" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="3" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15019,7 +15040,7 @@
         <v>266</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT3" s="2" t="s">
         <v>267</v>
@@ -15037,10 +15058,10 @@
         <v>270</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="CA3" s="2" t="s">
         <v>216</v>
@@ -15175,7 +15196,7 @@
         <v>222</v>
       </c>
       <c r="DY3" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="DZ3" s="9" t="s">
         <v>222</v>
@@ -15286,7 +15307,7 @@
         <v>216</v>
       </c>
       <c r="FO3" s="24" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="FP3" s="51">
         <v>1</v>
@@ -15322,19 +15343,19 @@
         <v>2</v>
       </c>
       <c r="GC3" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="GD3" s="59">
         <v>1</v>
       </c>
       <c r="GE3" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF3" s="37">
         <v>300</v>
       </c>
       <c r="GG3" s="33" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="GH3" s="22"/>
     </row>
@@ -15343,7 +15364,7 @@
         <v>44326.502545150463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>312</v>
@@ -15476,7 +15497,7 @@
         <v>334</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT4" s="2" t="s">
         <v>335</v>
@@ -15494,7 +15515,7 @@
         <v>337</v>
       </c>
       <c r="BY4" s="5" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="CA4" s="2" t="s">
         <v>193</v>
@@ -15518,7 +15539,7 @@
         <v>196</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="CI4" s="2" t="s">
         <v>339</v>
@@ -15648,7 +15669,7 @@
         <v>193</v>
       </c>
       <c r="EB4" s="69" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="ED4" s="2" t="s">
         <v>354</v>
@@ -15747,7 +15768,7 @@
         <v>216</v>
       </c>
       <c r="FO4" s="24" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="FP4" s="25">
         <v>12</v>
@@ -15783,19 +15804,19 @@
         <v>3</v>
       </c>
       <c r="GC4" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GD4" s="67">
         <v>22</v>
       </c>
       <c r="GE4" s="38" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="GF4" s="37">
         <v>78</v>
       </c>
       <c r="GG4" s="33" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16002,7 +16023,7 @@
         <v>404</v>
       </c>
       <c r="CP5" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ5" s="2" t="s">
         <v>278</v>
@@ -16095,7 +16116,7 @@
         <v>222</v>
       </c>
       <c r="DY5" s="5" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="DZ5" s="9" t="s">
         <v>222</v>
@@ -16116,7 +16137,7 @@
         <v>222</v>
       </c>
       <c r="EG5" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="EH5" s="2" t="s">
         <v>419</v>
@@ -16179,7 +16200,7 @@
         <v>431</v>
       </c>
       <c r="FC5" s="5" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="FD5" s="2" t="s">
         <v>432</v>
@@ -16251,19 +16272,19 @@
         <v>2</v>
       </c>
       <c r="GC5" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="GD5" s="59">
         <v>0</v>
       </c>
       <c r="GE5" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF5" s="37">
         <v>208</v>
       </c>
       <c r="GG5" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16271,7 +16292,7 @@
         <v>44339.650587766198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>440</v>
@@ -16295,7 +16316,7 @@
         <v>6605726</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="L6" s="63">
         <v>41429</v>
@@ -16343,7 +16364,7 @@
         <v>166</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>171</v>
@@ -16419,7 +16440,7 @@
         <v>460</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT6" s="2" t="s">
         <v>461</v>
@@ -16479,7 +16500,7 @@
         <v>201</v>
       </c>
       <c r="CR6" s="5" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="CS6" s="2" t="s">
         <v>467</v>
@@ -16717,19 +16738,19 @@
         <v>4</v>
       </c>
       <c r="GC6" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="GD6" s="59">
         <v>0</v>
       </c>
       <c r="GE6" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF6" s="37">
         <v>103</v>
       </c>
       <c r="GG6" s="33" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16761,7 +16782,7 @@
         <v>3112133711</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="L7" s="63">
         <v>39699</v>
@@ -16851,7 +16872,7 @@
         <v>400</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="BC7" s="11"/>
       <c r="BD7" s="2" t="s">
@@ -16891,7 +16912,7 @@
         <v>515</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="BT7" s="2" t="s">
         <v>516</v>
@@ -16909,7 +16930,7 @@
         <v>518</v>
       </c>
       <c r="BY7" s="5" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="CA7" s="2" t="s">
         <v>193</v>
@@ -17191,19 +17212,19 @@
         <v>3</v>
       </c>
       <c r="GC7" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD7" s="59">
         <v>0</v>
       </c>
       <c r="GE7" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF7" s="37" t="s">
         <v>537</v>
       </c>
       <c r="GG7" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17332,7 +17353,7 @@
         <v>571</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="BT8" s="2" t="s">
         <v>572</v>
@@ -17386,7 +17407,7 @@
         <v>404</v>
       </c>
       <c r="CP8" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ8" s="2" t="s">
         <v>278</v>
@@ -17479,7 +17500,7 @@
         <v>222</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="DZ8" s="9" t="s">
         <v>222</v>
@@ -17626,19 +17647,19 @@
         <v>1</v>
       </c>
       <c r="GC8" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD8" s="59">
         <v>1</v>
       </c>
       <c r="GE8" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF8" s="37" t="s">
         <v>593</v>
       </c>
       <c r="GG8" s="33" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="9" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17691,7 +17712,7 @@
         <v>166</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>168</v>
@@ -17721,7 +17742,7 @@
         <v>166</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>168</v>
@@ -17812,7 +17833,7 @@
         <v>632</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="BS9" s="2" t="s">
         <v>633</v>
@@ -17833,7 +17854,7 @@
         <v>637</v>
       </c>
       <c r="BZ9" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="CA9" s="2" t="s">
         <v>216</v>
@@ -17968,7 +17989,7 @@
         <v>222</v>
       </c>
       <c r="DY9" s="5" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="DZ9" s="9" t="s">
         <v>222</v>
@@ -18112,19 +18133,19 @@
         <v>4</v>
       </c>
       <c r="GC9" s="37" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GD9" s="59">
         <v>2</v>
       </c>
       <c r="GE9" s="37" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="GF9" s="37">
         <v>34</v>
       </c>
       <c r="GG9" s="33" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18269,7 +18290,7 @@
         <v>688</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="BT10" s="2" t="s">
         <v>689</v>
@@ -18566,19 +18587,19 @@
         <v>1</v>
       </c>
       <c r="GC10" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD10" s="59">
         <v>1</v>
       </c>
       <c r="GE10" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF10" s="37" t="s">
         <v>709</v>
       </c>
       <c r="GG10" s="33" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18789,7 +18810,7 @@
         <v>746</v>
       </c>
       <c r="CR11" s="5" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="CS11" s="2" t="s">
         <v>279</v>
@@ -18897,7 +18918,7 @@
         <v>222</v>
       </c>
       <c r="EG11" s="5" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="EH11" s="2" t="s">
         <v>759</v>
@@ -19026,19 +19047,19 @@
         <v>5</v>
       </c>
       <c r="GC11" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="GD11" s="59">
         <v>0</v>
       </c>
       <c r="GE11" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF11" s="37">
         <v>80</v>
       </c>
       <c r="GG11" s="33" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19073,7 +19094,7 @@
         <v>782</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="L12" s="63">
         <v>32331</v>
@@ -19091,7 +19112,7 @@
         <v>166</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>168</v>
@@ -19221,7 +19242,7 @@
         <v>800</v>
       </c>
       <c r="BY12" s="5" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="CA12" s="2" t="s">
         <v>193</v>
@@ -19500,19 +19521,19 @@
         <v>3</v>
       </c>
       <c r="GC12" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="GD12" s="59">
         <v>8</v>
       </c>
       <c r="GE12" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="GF12" s="37">
         <v>245</v>
       </c>
       <c r="GG12" s="33" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19695,7 +19716,7 @@
         <v>855</v>
       </c>
       <c r="BY13" s="5" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="CA13" s="2" t="s">
         <v>193</v>
@@ -19716,7 +19737,7 @@
         <v>274</v>
       </c>
       <c r="CH13" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="CJ13" s="2" t="s">
         <v>801</v>
@@ -19846,7 +19867,7 @@
         <v>222</v>
       </c>
       <c r="EG13" s="5" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="EH13" s="2" t="s">
         <v>873</v>
@@ -19979,19 +20000,19 @@
         <v>6</v>
       </c>
       <c r="GC13" s="37" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="GD13" s="59">
         <v>0</v>
       </c>
       <c r="GE13" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF13" s="36">
         <v>45</v>
       </c>
       <c r="GG13" s="33" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="14" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19999,7 +20020,7 @@
         <v>44384.71444163195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>905</v>
@@ -20128,7 +20149,7 @@
         <v>921</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>922</v>
@@ -20164,7 +20185,7 @@
         <v>578</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>927</v>
@@ -20428,19 +20449,19 @@
         <v>3</v>
       </c>
       <c r="GC14" s="58" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="GD14" s="60">
         <v>0</v>
       </c>
       <c r="GE14" s="58" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF14" s="58">
         <v>43</v>
       </c>
       <c r="GG14" s="33" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="15" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20577,7 +20598,7 @@
         <v>976</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>977</v>
@@ -20805,7 +20826,7 @@
         <v>1005</v>
       </c>
       <c r="FC15" s="5" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="FD15" s="1" t="s">
         <v>605</v>
@@ -20872,19 +20893,19 @@
         <v>2</v>
       </c>
       <c r="GC15" s="58" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="GD15" s="60">
         <v>6</v>
       </c>
       <c r="GE15" s="58" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="GF15" s="58">
         <v>220</v>
       </c>
       <c r="GG15" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="16" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20967,7 +20988,7 @@
         <v>166</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>171</v>
@@ -21048,7 +21069,7 @@
         <v>1033</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>1034</v>
@@ -21063,7 +21084,7 @@
         <v>1036</v>
       </c>
       <c r="BY16" s="15" t="s">
-        <v>1936</v>
+        <v>1987</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>193</v>
@@ -21102,7 +21123,7 @@
         <v>404</v>
       </c>
       <c r="CP16" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ16" s="1" t="s">
         <v>278</v>
@@ -21215,7 +21236,7 @@
         <v>222</v>
       </c>
       <c r="EG16" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="EH16" s="1" t="s">
         <v>1050</v>
@@ -21341,19 +21362,19 @@
         <v>3</v>
       </c>
       <c r="GC16" s="58" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD16" s="60">
         <v>7</v>
       </c>
       <c r="GE16" s="58" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="GF16" s="58">
         <v>130</v>
       </c>
       <c r="GG16" s="33" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="17" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21361,7 +21382,7 @@
         <v>44447.520694444444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C17" t="s">
         <v>1079</v>
@@ -21370,10 +21391,10 @@
         <v>44410</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H17" t="s">
         <v>1080</v>
@@ -21483,7 +21504,7 @@
         <v>1093</v>
       </c>
       <c r="BR17" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT17" t="s">
         <v>1094</v>
@@ -21522,7 +21543,7 @@
         <v>274</v>
       </c>
       <c r="CH17" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="CJ17" t="s">
         <v>1101</v>
@@ -21782,25 +21803,25 @@
         <v>669</v>
       </c>
       <c r="GA17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="GB17" s="37">
         <v>1</v>
       </c>
       <c r="GC17" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD17" s="59">
         <v>0</v>
       </c>
       <c r="GE17" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF17" s="37">
         <v>2</v>
       </c>
       <c r="GG17" s="33" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="18" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21853,7 +21874,7 @@
         <v>166</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="R18" t="s">
         <v>168</v>
@@ -21865,7 +21886,7 @@
         <v>166</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="W18" t="s">
         <v>171</v>
@@ -21997,7 +22018,7 @@
         <v>404</v>
       </c>
       <c r="CP18" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ18" t="s">
         <v>278</v>
@@ -22241,19 +22262,19 @@
         <v>2</v>
       </c>
       <c r="GC18" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="GD18" s="59">
         <v>0</v>
       </c>
       <c r="GE18" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF18" s="37">
         <v>78</v>
       </c>
       <c r="GG18" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="19" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22285,7 +22306,7 @@
         <v>773</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="L19" s="68">
         <v>43128</v>
@@ -22375,7 +22396,7 @@
         <v>1185</v>
       </c>
       <c r="BR19" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BT19" t="s">
         <v>1186</v>
@@ -22411,7 +22432,7 @@
         <v>274</v>
       </c>
       <c r="CH19" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="CJ19" t="s">
         <v>1191</v>
@@ -22663,19 +22684,19 @@
         <v>1</v>
       </c>
       <c r="GC19" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD19" s="59">
         <v>1</v>
       </c>
       <c r="GE19" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF19" s="37">
         <v>11</v>
       </c>
       <c r="GG19" s="33" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="20" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22728,7 +22749,7 @@
         <v>166</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="R20" t="s">
         <v>168</v>
@@ -22821,7 +22842,7 @@
         <v>1238</v>
       </c>
       <c r="BR20" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="BT20" t="s">
         <v>1239</v>
@@ -22839,7 +22860,7 @@
         <v>1242</v>
       </c>
       <c r="BZ20" s="24" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="CA20" t="s">
         <v>216</v>
@@ -22860,7 +22881,7 @@
         <v>578</v>
       </c>
       <c r="CH20" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="CJ20" t="s">
         <v>1245</v>
@@ -22878,7 +22899,7 @@
         <v>1246</v>
       </c>
       <c r="CP20" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ20" t="s">
         <v>1246</v>
@@ -23125,19 +23146,19 @@
         <v>1</v>
       </c>
       <c r="GC20" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD20" s="59">
         <v>1</v>
       </c>
       <c r="GE20" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF20" s="37" t="s">
         <v>1249</v>
       </c>
       <c r="GG20" s="33" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="21" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23157,7 +23178,7 @@
         <v>44410</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G21" t="s">
         <v>1282</v>
@@ -23282,11 +23303,11 @@
       <c r="BR21" t="s">
         <v>166</v>
       </c>
-      <c r="BS21" t="s">
+      <c r="BS21" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="BT21" t="s">
         <v>1302</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>1303</v>
       </c>
       <c r="BU21" t="s">
         <v>166</v>
@@ -23295,13 +23316,13 @@
         <v>268</v>
       </c>
       <c r="BW21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="BX21" t="s">
         <v>1304</v>
       </c>
-      <c r="BX21" t="s">
+      <c r="BY21" t="s">
         <v>1305</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>1306</v>
       </c>
       <c r="CA21" t="s">
         <v>193</v>
@@ -23322,10 +23343,10 @@
         <v>367</v>
       </c>
       <c r="CH21" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="CJ21" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="CK21" t="s">
         <v>193</v>
@@ -23355,7 +23376,7 @@
         <v>522</v>
       </c>
       <c r="CX21" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="CY21" t="s">
         <v>201</v>
@@ -23382,19 +23403,19 @@
         <v>289</v>
       </c>
       <c r="DG21" t="s">
+        <v>1308</v>
+      </c>
+      <c r="DH21" s="21" t="s">
         <v>1309</v>
-      </c>
-      <c r="DH21" s="21" t="s">
-        <v>1310</v>
       </c>
       <c r="DI21">
         <v>1</v>
       </c>
       <c r="DJ21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="DK21" t="s">
         <v>1311</v>
-      </c>
-      <c r="DK21" t="s">
-        <v>1312</v>
       </c>
       <c r="DM21" t="s">
         <v>411</v>
@@ -23415,13 +23436,13 @@
         <v>208</v>
       </c>
       <c r="DU21" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="DV21" t="s">
         <v>291</v>
       </c>
       <c r="DW21" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="DX21" t="s">
         <v>193</v>
@@ -23436,10 +23457,10 @@
         <v>193</v>
       </c>
       <c r="EB21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="ED21" t="s">
         <v>1315</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>1316</v>
       </c>
       <c r="EE21" t="s">
         <v>193</v>
@@ -23448,40 +23469,40 @@
         <v>193</v>
       </c>
       <c r="EG21" s="24" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="EH21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="EI21" s="36">
         <v>43</v>
       </c>
       <c r="EJ21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="EK21" t="s">
         <v>194</v>
       </c>
       <c r="EL21" t="s">
+        <v>1318</v>
+      </c>
+      <c r="EM21" t="s">
         <v>1319</v>
       </c>
-      <c r="EM21" t="s">
+      <c r="EN21" t="s">
         <v>1320</v>
       </c>
-      <c r="EN21" t="s">
+      <c r="EP21" t="s">
         <v>1321</v>
       </c>
-      <c r="EP21" t="s">
+      <c r="EQ21" t="s">
         <v>1322</v>
       </c>
-      <c r="EQ21" t="s">
+      <c r="ER21" t="s">
         <v>1323</v>
       </c>
-      <c r="ER21" t="s">
+      <c r="ES21" t="s">
         <v>1324</v>
-      </c>
-      <c r="ES21" t="s">
-        <v>1325</v>
       </c>
       <c r="ET21" t="s">
         <v>236</v>
@@ -23493,7 +23514,7 @@
         <v>304</v>
       </c>
       <c r="EX21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="EY21" t="s">
         <v>274</v>
@@ -23502,7 +23523,7 @@
         <v>236</v>
       </c>
       <c r="FA21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="FB21" t="s">
         <v>547</v>
@@ -23514,13 +23535,13 @@
         <v>605</v>
       </c>
       <c r="FE21" t="s">
+        <v>1327</v>
+      </c>
+      <c r="FF21" t="s">
         <v>1328</v>
       </c>
-      <c r="FF21" t="s">
-        <v>1329</v>
-      </c>
       <c r="FG21" s="24" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="FI21" s="24" t="s">
         <v>222</v>
@@ -23529,7 +23550,7 @@
         <v>222</v>
       </c>
       <c r="FK21" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="FM21" s="36">
         <v>2</v>
@@ -23565,31 +23586,31 @@
         <v>0</v>
       </c>
       <c r="FY21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="FZ21" t="s">
         <v>669</v>
       </c>
       <c r="GA21" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="GB21" s="37">
         <v>3</v>
       </c>
       <c r="GC21" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD21" s="59">
         <v>0</v>
       </c>
       <c r="GE21" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF21" s="37">
         <v>43</v>
       </c>
       <c r="GG21" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="22" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23597,44 +23618,44 @@
         <v>44430.608212476851</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="12">
         <v>44426</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>1436</v>
-      </c>
       <c r="H22" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="J22" s="1">
         <v>3118588521</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="L22" s="63">
         <v>41376</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>254</v>
@@ -23645,7 +23666,7 @@
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>1292</v>
@@ -23656,7 +23677,7 @@
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>170</v>
@@ -23667,7 +23688,7 @@
       </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>170</v>
@@ -23690,7 +23711,7 @@
         <v>243</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AT22" s="1">
         <v>3</v>
@@ -23711,7 +23732,7 @@
         <v>560</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="BA22" s="1" t="s">
         <v>382</v>
@@ -23722,48 +23743,48 @@
         <v>256</v>
       </c>
       <c r="BE22" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BF22" s="1" t="s">
         <v>1346</v>
-      </c>
-      <c r="BF22" s="1" t="s">
-        <v>1347</v>
       </c>
       <c r="BG22" s="1">
         <v>75</v>
       </c>
       <c r="BH22" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BI22" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="BI22" s="1" t="s">
+      <c r="BJ22" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>262</v>
       </c>
       <c r="BL22" s="13"/>
       <c r="BM22" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="BN22" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="BN22" s="1" t="s">
+      <c r="BO22" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="BO22" s="1" t="s">
-        <v>1353</v>
       </c>
       <c r="BP22" s="1" t="s">
         <v>187</v>
       </c>
       <c r="BQ22" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="BS22" s="13"/>
       <c r="BT22" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BU22" s="1" t="s">
         <v>166</v>
@@ -23772,10 +23793,10 @@
         <v>268</v>
       </c>
       <c r="BW22" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="BX22" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="BX22" s="1" t="s">
-        <v>1356</v>
       </c>
       <c r="BY22" s="1" t="s">
         <v>924</v>
@@ -23792,20 +23813,20 @@
         <v>271</v>
       </c>
       <c r="CE22" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="CF22" s="1" t="s">
         <v>1357</v>
-      </c>
-      <c r="CF22" s="1" t="s">
-        <v>1358</v>
       </c>
       <c r="CG22" s="1" t="s">
         <v>274</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="CI22" s="13"/>
       <c r="CJ22" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="CK22" s="1" t="s">
         <v>222</v>
@@ -23814,7 +23835,7 @@
         <v>262</v>
       </c>
       <c r="CM22" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="CN22" s="13"/>
       <c r="CO22" s="1" t="s">
@@ -23842,10 +23863,10 @@
         <v>281</v>
       </c>
       <c r="CW22" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="CX22" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="CX22" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="CY22" s="1" t="s">
         <v>278</v>
@@ -23872,19 +23893,19 @@
         <v>208</v>
       </c>
       <c r="DG22" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="DH22" s="1" t="s">
         <v>1363</v>
-      </c>
-      <c r="DH22" s="1" t="s">
-        <v>1364</v>
       </c>
       <c r="DI22" s="1">
         <v>1</v>
       </c>
       <c r="DJ22" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="DK22" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="DK22" s="1" t="s">
-        <v>1366</v>
       </c>
       <c r="DL22" s="13"/>
       <c r="DM22" s="1" t="s">
@@ -23898,25 +23919,25 @@
         <v>288</v>
       </c>
       <c r="DQ22" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="DR22" s="15" t="s">
+        <v>1849</v>
+      </c>
+      <c r="DS22" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="DR22" s="15" t="s">
-        <v>1850</v>
-      </c>
-      <c r="DS22" s="1" t="s">
-        <v>1368</v>
       </c>
       <c r="DT22" s="1" t="s">
         <v>208</v>
       </c>
       <c r="DU22" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="DV22" s="1" t="s">
         <v>291</v>
       </c>
       <c r="DW22" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="DX22" s="1" t="s">
         <v>222</v>
@@ -23933,10 +23954,10 @@
       </c>
       <c r="EC22" s="13"/>
       <c r="ED22" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="EE22" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="EE22" s="1" t="s">
-        <v>1372</v>
       </c>
       <c r="EF22" s="1" t="s">
         <v>222</v>
@@ -23945,38 +23966,38 @@
         <v>1071</v>
       </c>
       <c r="EH22" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="EI22" s="33">
         <v>55</v>
       </c>
       <c r="EJ22" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="EK22" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="EK22" s="1" t="s">
+      <c r="EL22" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="EL22" s="1" t="s">
+      <c r="EM22" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="EM22" s="1" t="s">
-        <v>1377</v>
       </c>
       <c r="EN22" s="1" t="s">
         <v>299</v>
       </c>
       <c r="EO22" s="13"/>
       <c r="EP22" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="EQ22" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="EQ22" s="1" t="s">
+      <c r="ER22" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="ER22" s="1" t="s">
+      <c r="ES22" s="1" t="s">
         <v>1380</v>
-      </c>
-      <c r="ES22" s="1" t="s">
-        <v>1381</v>
       </c>
       <c r="ET22" s="1" t="s">
         <v>236</v>
@@ -23989,7 +24010,7 @@
       </c>
       <c r="EW22" s="13"/>
       <c r="EX22" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="EY22" s="1" t="s">
         <v>274</v>
@@ -23998,10 +24019,10 @@
         <v>236</v>
       </c>
       <c r="FA22" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="FB22" s="1" t="s">
         <v>1383</v>
-      </c>
-      <c r="FB22" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="FC22" s="1" t="s">
         <v>274</v>
@@ -24010,7 +24031,7 @@
         <v>952</v>
       </c>
       <c r="FE22" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="FF22" s="1" t="s">
         <v>434</v>
@@ -24066,25 +24087,25 @@
         <v>1219</v>
       </c>
       <c r="GA22" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="GB22" s="37">
         <v>4</v>
       </c>
       <c r="GC22" s="37" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="GD22" s="59">
         <v>0</v>
       </c>
       <c r="GE22" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF22" s="37">
         <v>55</v>
       </c>
       <c r="GG22" s="33" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="23" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24095,56 +24116,56 @@
         <v>244</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1387</v>
       </c>
       <c r="E23" s="12">
         <v>44456</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>1390</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>1391</v>
       </c>
       <c r="J23" s="1">
         <v>3108093921</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="L23" s="63">
         <v>38685</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>1395</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>166</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>168</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>170</v>
@@ -24207,10 +24228,10 @@
         <v>256</v>
       </c>
       <c r="BE23" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="BF23" s="1" t="s">
         <v>1398</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>1399</v>
       </c>
       <c r="BG23" s="1">
         <v>120</v>
@@ -24219,36 +24240,36 @@
         <v>120</v>
       </c>
       <c r="BI23" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
         <v>1400</v>
-      </c>
-      <c r="BJ23" s="1" t="s">
-        <v>1401</v>
       </c>
       <c r="BK23" s="1" t="s">
         <v>166</v>
       </c>
       <c r="BL23" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BM23" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="BM23" s="1" t="s">
-        <v>1403</v>
       </c>
       <c r="BN23" s="13"/>
       <c r="BO23" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="BP23" s="1" t="s">
         <v>737</v>
       </c>
       <c r="BQ23" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="BR23" s="1" t="s">
         <v>739</v>
       </c>
       <c r="BS23" s="13"/>
       <c r="BT23" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="BU23" s="1" t="s">
         <v>166</v>
@@ -24257,10 +24278,10 @@
         <v>268</v>
       </c>
       <c r="BW23" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="BX23" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="BX23" s="1" t="s">
-        <v>1408</v>
       </c>
       <c r="BY23" s="1" t="s">
         <v>575</v>
@@ -24277,10 +24298,10 @@
         <v>271</v>
       </c>
       <c r="CE23" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="CF23" s="1" t="s">
         <v>1409</v>
-      </c>
-      <c r="CF23" s="1" t="s">
-        <v>1410</v>
       </c>
       <c r="CG23" s="1" t="s">
         <v>274</v>
@@ -24290,7 +24311,7 @@
       </c>
       <c r="CI23" s="13"/>
       <c r="CJ23" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="CK23" s="1" t="s">
         <v>193</v>
@@ -24326,7 +24347,7 @@
       </c>
       <c r="CW23" s="13"/>
       <c r="CX23" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="CY23" s="1" t="s">
         <v>1192</v>
@@ -24353,16 +24374,16 @@
         <v>289</v>
       </c>
       <c r="DG23" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="DH23" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="DH23" s="1" t="s">
-        <v>1414</v>
       </c>
       <c r="DI23" s="1">
         <v>1</v>
       </c>
       <c r="DJ23" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="DK23" s="1" t="s">
         <v>410</v>
@@ -24379,7 +24400,7 @@
         <v>214</v>
       </c>
       <c r="DQ23" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="DR23" s="1" t="s">
         <v>413</v>
@@ -24389,19 +24410,19 @@
         <v>208</v>
       </c>
       <c r="DU23" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="DV23" s="1" t="s">
         <v>291</v>
       </c>
       <c r="DW23" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="DX23" s="15" t="s">
         <v>222</v>
       </c>
       <c r="DY23" s="15" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="DZ23" s="1" t="s">
         <v>222</v>
@@ -24414,7 +24435,7 @@
       </c>
       <c r="EC23" s="13"/>
       <c r="ED23" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="EE23" s="1" t="s">
         <v>994</v>
@@ -24423,41 +24444,41 @@
         <v>222</v>
       </c>
       <c r="EG23" s="28" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="EH23" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="EI23" s="33">
         <v>6</v>
       </c>
       <c r="EJ23" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="EK23" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="EK23" s="1" t="s">
+      <c r="EL23" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="EL23" s="1" t="s">
+      <c r="EM23" s="1" t="s">
         <v>1423</v>
-      </c>
-      <c r="EM23" s="1" t="s">
-        <v>1424</v>
       </c>
       <c r="EN23" s="1" t="s">
         <v>299</v>
       </c>
       <c r="EO23" s="13"/>
       <c r="EP23" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="EQ23" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="EQ23" s="1" t="s">
+      <c r="ER23" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="ER23" s="1" t="s">
+      <c r="ES23" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="ES23" s="1" t="s">
-        <v>1428</v>
       </c>
       <c r="ET23" s="1" t="s">
         <v>236</v>
@@ -24470,7 +24491,7 @@
       </c>
       <c r="EW23" s="13"/>
       <c r="EX23" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="EY23" s="1" t="s">
         <v>274</v>
@@ -24479,10 +24500,10 @@
         <v>236</v>
       </c>
       <c r="FA23" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="FB23" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="FB23" s="1" t="s">
-        <v>1431</v>
       </c>
       <c r="FC23" s="1" t="s">
         <v>274</v>
@@ -24491,7 +24512,7 @@
         <v>605</v>
       </c>
       <c r="FE23" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="FF23" s="1" t="s">
         <v>434</v>
@@ -24507,7 +24528,7 @@
         <v>222</v>
       </c>
       <c r="FK23" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="FL23" s="13"/>
       <c r="FM23" s="33">
@@ -24517,7 +24538,7 @@
         <v>193</v>
       </c>
       <c r="FO23" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="FP23" s="1">
         <v>1</v>
@@ -24549,25 +24570,25 @@
         <v>1078</v>
       </c>
       <c r="GA23" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="GB23" s="37">
         <v>1</v>
       </c>
       <c r="GC23" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD23" s="59">
         <v>1</v>
       </c>
       <c r="GE23" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF23" s="37">
         <v>6</v>
       </c>
       <c r="GG23" s="33" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="24" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24578,40 +24599,40 @@
         <v>828</v>
       </c>
       <c r="C24" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="E24" s="20">
         <v>44425</v>
       </c>
       <c r="F24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G24" t="s">
         <v>1440</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>1441</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>1442</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1443</v>
       </c>
       <c r="J24">
         <v>3127258632</v>
       </c>
       <c r="K24" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="L24" s="64">
         <v>38588</v>
       </c>
       <c r="M24" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N24" t="s">
         <v>1445</v>
       </c>
-      <c r="N24" t="s">
-        <v>1446</v>
-      </c>
       <c r="O24" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>895</v>
@@ -24623,7 +24644,7 @@
         <v>168</v>
       </c>
       <c r="T24" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="U24" t="s">
         <v>170</v>
@@ -24632,7 +24653,7 @@
         <v>171</v>
       </c>
       <c r="Y24" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Z24" t="s">
         <v>170</v>
@@ -24641,7 +24662,7 @@
         <v>171</v>
       </c>
       <c r="AD24" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="AE24" t="s">
         <v>170</v>
@@ -24674,40 +24695,40 @@
         <v>614</v>
       </c>
       <c r="AZ24" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BA24" t="s">
         <v>1450</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BD24" t="s">
         <v>1451</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BE24" t="s">
         <v>1452</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BF24" t="s">
         <v>1453</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>1454</v>
       </c>
       <c r="BG24">
         <v>60</v>
       </c>
       <c r="BH24" s="22" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BI24" t="s">
         <v>1455</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>1456</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>1457</v>
       </c>
       <c r="BK24" t="s">
         <v>166</v>
       </c>
       <c r="BL24" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BM24" t="s">
         <v>1458</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>1459</v>
       </c>
       <c r="BO24" t="s">
         <v>539</v>
@@ -24716,13 +24737,13 @@
         <v>392</v>
       </c>
       <c r="BQ24" s="22" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BT24" t="s">
         <v>1460</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>1597</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>1461</v>
       </c>
       <c r="BU24" t="s">
         <v>166</v>
@@ -24731,13 +24752,13 @@
         <v>190</v>
       </c>
       <c r="BW24" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BX24" t="s">
         <v>1462</v>
       </c>
-      <c r="BX24" t="s">
-        <v>1463</v>
-      </c>
       <c r="BY24" s="24" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="CA24" t="s">
         <v>216</v>
@@ -24749,10 +24770,10 @@
         <v>856</v>
       </c>
       <c r="CE24" t="s">
+        <v>1463</v>
+      </c>
+      <c r="CF24" t="s">
         <v>1464</v>
-      </c>
-      <c r="CF24" t="s">
-        <v>1465</v>
       </c>
       <c r="CG24" t="s">
         <v>380</v>
@@ -24761,25 +24782,25 @@
         <v>380</v>
       </c>
       <c r="CJ24" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="CK24" t="s">
         <v>222</v>
       </c>
       <c r="CL24" t="s">
+        <v>1466</v>
+      </c>
+      <c r="CM24" s="24" t="s">
+        <v>1924</v>
+      </c>
+      <c r="CN24" t="s">
         <v>1467</v>
-      </c>
-      <c r="CM24" s="24" t="s">
-        <v>1925</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>1468</v>
       </c>
       <c r="CO24" t="s">
         <v>201</v>
       </c>
       <c r="CP24" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="CQ24" t="s">
         <v>278</v>
@@ -24788,7 +24809,7 @@
         <v>521</v>
       </c>
       <c r="CS24" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="CT24" t="s">
         <v>280</v>
@@ -24800,7 +24821,7 @@
         <v>522</v>
       </c>
       <c r="CX24" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="CY24" t="s">
         <v>278</v>
@@ -24827,19 +24848,19 @@
         <v>283</v>
       </c>
       <c r="DG24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="DH24" s="21" t="s">
         <v>1471</v>
-      </c>
-      <c r="DH24" s="21" t="s">
-        <v>1472</v>
       </c>
       <c r="DI24">
         <v>1</v>
       </c>
       <c r="DJ24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="DK24" t="s">
         <v>1473</v>
-      </c>
-      <c r="DK24" t="s">
-        <v>1474</v>
       </c>
       <c r="DM24" t="s">
         <v>411</v>
@@ -24851,7 +24872,7 @@
         <v>288</v>
       </c>
       <c r="DQ24" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="DR24" t="s">
         <v>413</v>
@@ -24860,13 +24881,13 @@
         <v>469</v>
       </c>
       <c r="DU24" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="DV24" t="s">
         <v>810</v>
       </c>
       <c r="DW24" s="22" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="DX24" t="s">
         <v>193</v>
@@ -24881,34 +24902,34 @@
         <v>216</v>
       </c>
       <c r="EB24" t="s">
+        <v>1477</v>
+      </c>
+      <c r="ED24" s="22" t="s">
         <v>1478</v>
       </c>
-      <c r="ED24" s="22" t="s">
+      <c r="EE24" s="21" t="s">
         <v>1479</v>
-      </c>
-      <c r="EE24" s="21" t="s">
-        <v>1480</v>
       </c>
       <c r="EF24" t="s">
         <v>222</v>
       </c>
       <c r="EG24" s="24" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="EH24" s="29" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="EI24" s="37">
         <v>69</v>
       </c>
       <c r="EJ24" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="EK24" t="s">
         <v>773</v>
       </c>
       <c r="EL24" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="EM24" t="s">
         <v>875</v>
@@ -24920,13 +24941,13 @@
         <v>214</v>
       </c>
       <c r="EQ24" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="ER24" t="s">
         <v>773</v>
       </c>
       <c r="ES24" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="ET24" t="s">
         <v>236</v>
@@ -24938,7 +24959,7 @@
         <v>304</v>
       </c>
       <c r="EX24" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="EY24" t="s">
         <v>274</v>
@@ -24947,7 +24968,7 @@
         <v>236</v>
       </c>
       <c r="FA24" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="FB24" t="s">
         <v>547</v>
@@ -24959,7 +24980,7 @@
         <v>240</v>
       </c>
       <c r="FE24" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="FF24" s="24" t="s">
         <v>434</v>
@@ -24974,7 +24995,7 @@
         <v>222</v>
       </c>
       <c r="FK24" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="FM24" s="36">
         <v>12</v>
@@ -25010,31 +25031,31 @@
         <v>0</v>
       </c>
       <c r="FY24" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="FZ24" t="s">
         <v>439</v>
       </c>
       <c r="GA24" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="GB24" s="37">
         <v>1</v>
       </c>
       <c r="GC24" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD24" s="59">
         <v>2</v>
       </c>
       <c r="GE24" s="37" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="GF24" s="37">
         <v>146</v>
       </c>
       <c r="GG24" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="25" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25042,43 +25063,43 @@
         <v>44325.680474537039</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C25" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E25" s="20">
         <v>44439</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H25" t="s">
+        <v>1491</v>
+      </c>
+      <c r="I25" t="s">
         <v>1492</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1493</v>
       </c>
       <c r="J25">
         <v>3157700646</v>
       </c>
       <c r="K25" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="L25" s="64">
         <v>37986</v>
       </c>
       <c r="M25" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N25" t="s">
         <v>1495</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>1496</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1497</v>
       </c>
       <c r="P25" s="22" t="s">
         <v>254</v>
@@ -25087,19 +25108,19 @@
         <v>171</v>
       </c>
       <c r="T25" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="U25" t="s">
         <v>166</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="W25" t="s">
         <v>168</v>
       </c>
       <c r="Y25" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="Z25" t="s">
         <v>1292</v>
@@ -25132,61 +25153,61 @@
         <v>700</v>
       </c>
       <c r="AZ25" s="21" t="s">
+        <v>1499</v>
+      </c>
+      <c r="BA25" t="s">
         <v>1500</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>1501</v>
       </c>
       <c r="BD25" t="s">
         <v>256</v>
       </c>
       <c r="BE25" s="21" t="s">
+        <v>1501</v>
+      </c>
+      <c r="BF25" t="s">
         <v>1502</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>1503</v>
       </c>
       <c r="BG25" s="25">
         <v>60</v>
       </c>
       <c r="BH25" s="21" t="s">
+        <v>1503</v>
+      </c>
+      <c r="BI25" t="s">
         <v>1504</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" s="21" t="s">
         <v>1505</v>
-      </c>
-      <c r="BJ25" s="21" t="s">
-        <v>1506</v>
       </c>
       <c r="BK25" t="s">
         <v>262</v>
       </c>
       <c r="BM25" t="s">
+        <v>1506</v>
+      </c>
+      <c r="BO25" t="s">
         <v>1507</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>1508</v>
       </c>
       <c r="BP25" t="s">
         <v>459</v>
       </c>
       <c r="BQ25" s="22" t="s">
+        <v>1508</v>
+      </c>
+      <c r="BR25" s="22" t="s">
+        <v>1976</v>
+      </c>
+      <c r="BT25" t="s">
         <v>1509</v>
-      </c>
-      <c r="BR25" s="22" t="s">
-        <v>1978</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>1510</v>
       </c>
       <c r="BU25" t="s">
         <v>690</v>
       </c>
       <c r="BW25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="BX25" t="s">
         <v>1511</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>1512</v>
       </c>
       <c r="BY25" t="s">
         <v>924</v>
@@ -25201,19 +25222,19 @@
         <v>271</v>
       </c>
       <c r="CE25" t="s">
+        <v>1512</v>
+      </c>
+      <c r="CF25" t="s">
         <v>1513</v>
-      </c>
-      <c r="CF25" t="s">
-        <v>1514</v>
       </c>
       <c r="CG25" t="s">
         <v>274</v>
       </c>
       <c r="CH25" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="CJ25" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="CK25" t="s">
         <v>193</v>
@@ -25225,7 +25246,7 @@
         <v>380</v>
       </c>
       <c r="CN25" s="21" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="CO25" t="s">
         <v>278</v>
@@ -25249,13 +25270,13 @@
         <v>0</v>
       </c>
       <c r="CV25" t="s">
+        <v>1516</v>
+      </c>
+      <c r="CW25" s="21" t="s">
         <v>1517</v>
       </c>
-      <c r="CW25" s="21" t="s">
+      <c r="CX25" t="s">
         <v>1518</v>
-      </c>
-      <c r="CX25" t="s">
-        <v>1519</v>
       </c>
       <c r="CY25" t="s">
         <v>278</v>
@@ -25282,19 +25303,19 @@
         <v>283</v>
       </c>
       <c r="DG25" t="s">
+        <v>1519</v>
+      </c>
+      <c r="DH25" t="s">
         <v>1520</v>
-      </c>
-      <c r="DH25" t="s">
-        <v>1521</v>
       </c>
       <c r="DI25">
         <v>1</v>
       </c>
       <c r="DJ25" t="s">
+        <v>1521</v>
+      </c>
+      <c r="DK25" t="s">
         <v>1522</v>
-      </c>
-      <c r="DK25" t="s">
-        <v>1523</v>
       </c>
       <c r="DM25" t="s">
         <v>411</v>
@@ -25306,7 +25327,7 @@
         <v>288</v>
       </c>
       <c r="DQ25" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="DR25" t="s">
         <v>869</v>
@@ -25315,13 +25336,13 @@
         <v>289</v>
       </c>
       <c r="DU25" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="DV25" t="s">
         <v>220</v>
       </c>
       <c r="DW25" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="DX25" t="s">
         <v>193</v>
@@ -25339,10 +25360,10 @@
         <v>756</v>
       </c>
       <c r="ED25" t="s">
+        <v>1526</v>
+      </c>
+      <c r="EE25" t="s">
         <v>1527</v>
-      </c>
-      <c r="EE25" t="s">
-        <v>1528</v>
       </c>
       <c r="EF25" t="s">
         <v>222</v>
@@ -25351,22 +25372,22 @@
         <v>1071</v>
       </c>
       <c r="EH25" s="21" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="EI25" s="37">
         <v>3</v>
       </c>
       <c r="EJ25" s="21" t="s">
+        <v>1529</v>
+      </c>
+      <c r="EK25" t="s">
         <v>1530</v>
       </c>
-      <c r="EK25" t="s">
+      <c r="EL25" t="s">
         <v>1531</v>
       </c>
-      <c r="EL25" t="s">
+      <c r="EM25" s="21" t="s">
         <v>1532</v>
-      </c>
-      <c r="EM25" s="21" t="s">
-        <v>1533</v>
       </c>
       <c r="EN25" s="22" t="s">
         <v>299</v>
@@ -25375,16 +25396,16 @@
         <v>424</v>
       </c>
       <c r="EP25" t="s">
+        <v>1533</v>
+      </c>
+      <c r="EQ25" t="s">
         <v>1534</v>
       </c>
-      <c r="EQ25" t="s">
+      <c r="ER25" t="s">
         <v>1535</v>
       </c>
-      <c r="ER25" t="s">
+      <c r="ES25" t="s">
         <v>1536</v>
-      </c>
-      <c r="ES25" t="s">
-        <v>1537</v>
       </c>
       <c r="ET25" t="s">
         <v>236</v>
@@ -25396,7 +25417,7 @@
         <v>903</v>
       </c>
       <c r="EX25" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="EY25" t="s">
         <v>274</v>
@@ -25405,10 +25426,10 @@
         <v>236</v>
       </c>
       <c r="FA25" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="FB25" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="FC25" t="s">
         <v>274</v>
@@ -25417,7 +25438,7 @@
         <v>952</v>
       </c>
       <c r="FE25" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="FF25" t="s">
         <v>434</v>
@@ -25432,7 +25453,7 @@
         <v>193</v>
       </c>
       <c r="FK25" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="FM25" s="37">
         <v>1</v>
@@ -25441,7 +25462,7 @@
         <v>216</v>
       </c>
       <c r="FO25" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="FP25" s="31">
         <v>2.5</v>
@@ -25471,25 +25492,25 @@
         <v>669</v>
       </c>
       <c r="GA25" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="GB25" s="37">
         <v>2</v>
       </c>
       <c r="GC25" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="GD25" s="59">
         <v>0</v>
       </c>
       <c r="GE25" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF25" s="37">
         <v>3</v>
       </c>
       <c r="GG25" s="33" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="26" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25500,43 +25521,43 @@
         <v>551</v>
       </c>
       <c r="C26" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D26" t="s">
         <v>1543</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1544</v>
       </c>
       <c r="E26" s="20">
         <v>44425</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H26" t="s">
+        <v>1544</v>
+      </c>
+      <c r="I26" t="s">
         <v>1545</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>1546</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>1547</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1548</v>
       </c>
       <c r="L26" s="64">
         <v>38596</v>
       </c>
       <c r="M26" t="s">
+        <v>1548</v>
+      </c>
+      <c r="N26" t="s">
         <v>1549</v>
       </c>
-      <c r="N26" t="s">
-        <v>1550</v>
-      </c>
       <c r="O26" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="P26" t="s">
         <v>254</v>
@@ -25545,7 +25566,7 @@
         <v>171</v>
       </c>
       <c r="T26" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="U26" t="s">
         <v>170</v>
@@ -25554,7 +25575,7 @@
         <v>171</v>
       </c>
       <c r="Y26" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="Z26" t="s">
         <v>1292</v>
@@ -25593,67 +25614,67 @@
         <v>256</v>
       </c>
       <c r="BE26" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BF26" t="s">
         <v>1552</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>1553</v>
       </c>
       <c r="BG26">
         <v>90</v>
       </c>
       <c r="BH26" s="21" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="BI26" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BJ26" t="s">
         <v>1554</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>1555</v>
       </c>
       <c r="BK26" t="s">
         <v>736</v>
       </c>
       <c r="BL26" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BM26" t="s">
         <v>1556</v>
       </c>
-      <c r="BM26" t="s">
+      <c r="BN26" t="s">
         <v>1557</v>
       </c>
-      <c r="BN26" t="s">
+      <c r="BO26" t="s">
         <v>1558</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>1559</v>
       </c>
       <c r="BP26" t="s">
         <v>187</v>
       </c>
       <c r="BQ26" s="22" t="s">
+        <v>1559</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>1979</v>
+      </c>
+      <c r="BS26" t="s">
         <v>1560</v>
       </c>
-      <c r="BR26" t="s">
-        <v>1981</v>
-      </c>
-      <c r="BS26" t="s">
+      <c r="BT26" t="s">
         <v>1561</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>1562</v>
       </c>
       <c r="BU26" t="s">
         <v>690</v>
       </c>
       <c r="BW26" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BX26" t="s">
         <v>1563</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>1564</v>
       </c>
       <c r="BY26" t="s">
         <v>637</v>
       </c>
       <c r="BZ26" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="CA26" t="s">
         <v>216</v>
@@ -25665,10 +25686,10 @@
         <v>271</v>
       </c>
       <c r="CE26" t="s">
+        <v>1565</v>
+      </c>
+      <c r="CF26" t="s">
         <v>1566</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>1567</v>
       </c>
       <c r="CG26" t="s">
         <v>578</v>
@@ -25677,7 +25698,7 @@
         <v>410</v>
       </c>
       <c r="CJ26" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="CK26" t="s">
         <v>193</v>
@@ -25692,13 +25713,13 @@
         <v>404</v>
       </c>
       <c r="CP26" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ26" t="s">
         <v>404</v>
       </c>
       <c r="CR26" s="5" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="CS26" t="s">
         <v>467</v>
@@ -25713,7 +25734,7 @@
         <v>641</v>
       </c>
       <c r="CX26" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="CY26" t="s">
         <v>278</v>
@@ -25740,19 +25761,19 @@
         <v>218</v>
       </c>
       <c r="DG26" t="s">
+        <v>1569</v>
+      </c>
+      <c r="DH26" t="s">
         <v>1570</v>
-      </c>
-      <c r="DH26" t="s">
-        <v>1571</v>
       </c>
       <c r="DI26">
         <v>1</v>
       </c>
       <c r="DJ26" t="s">
+        <v>1571</v>
+      </c>
+      <c r="DK26" t="s">
         <v>1572</v>
-      </c>
-      <c r="DK26" t="s">
-        <v>1573</v>
       </c>
       <c r="DM26" t="s">
         <v>411</v>
@@ -25764,25 +25785,25 @@
         <v>288</v>
       </c>
       <c r="DQ26" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="DR26" s="24" t="s">
         <v>1111</v>
       </c>
       <c r="DS26" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="DT26" t="s">
         <v>289</v>
       </c>
       <c r="DU26" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="DV26" t="s">
         <v>532</v>
       </c>
       <c r="DW26" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="DX26" t="s">
         <v>193</v>
@@ -25800,7 +25821,7 @@
         <v>756</v>
       </c>
       <c r="ED26" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="EE26" t="s">
         <v>1261</v>
@@ -25809,10 +25830,10 @@
         <v>222</v>
       </c>
       <c r="EG26" s="24" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="EH26" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="EI26" s="37">
         <v>19</v>
@@ -25827,7 +25848,7 @@
         <v>276</v>
       </c>
       <c r="EM26" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="EN26" t="s">
         <v>423</v>
@@ -25836,16 +25857,16 @@
         <v>424</v>
       </c>
       <c r="EP26" t="s">
+        <v>1580</v>
+      </c>
+      <c r="EQ26" t="s">
         <v>1581</v>
       </c>
-      <c r="EQ26" t="s">
+      <c r="ER26" t="s">
         <v>1582</v>
       </c>
-      <c r="ER26" t="s">
+      <c r="ES26" t="s">
         <v>1583</v>
-      </c>
-      <c r="ES26" t="s">
-        <v>1584</v>
       </c>
       <c r="ET26" t="s">
         <v>236</v>
@@ -25857,7 +25878,7 @@
         <v>304</v>
       </c>
       <c r="EX26" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="EY26" t="s">
         <v>367</v>
@@ -25866,10 +25887,10 @@
         <v>236</v>
       </c>
       <c r="FA26" t="s">
+        <v>1585</v>
+      </c>
+      <c r="FB26" s="22" t="s">
         <v>1586</v>
-      </c>
-      <c r="FB26" s="22" t="s">
-        <v>1587</v>
       </c>
       <c r="FC26" t="s">
         <v>367</v>
@@ -25878,13 +25899,13 @@
         <v>432</v>
       </c>
       <c r="FE26" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="FF26" t="s">
         <v>434</v>
       </c>
       <c r="FG26" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="FI26" t="s">
         <v>193</v>
@@ -25893,7 +25914,7 @@
         <v>193</v>
       </c>
       <c r="FK26" s="21" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="FM26" s="37">
         <v>2</v>
@@ -25932,25 +25953,25 @@
         <v>669</v>
       </c>
       <c r="GA26" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="GB26" s="37">
         <v>3</v>
       </c>
       <c r="GC26" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="GD26" s="59">
         <v>0</v>
       </c>
       <c r="GE26" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF26" s="37">
         <v>13</v>
       </c>
       <c r="GG26" s="33" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="27" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25961,43 +25982,43 @@
         <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="20">
         <v>44438</v>
       </c>
       <c r="F27" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G27" t="s">
         <v>1602</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>1603</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>1604</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>1605</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>1606</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1607</v>
       </c>
       <c r="L27" s="64">
         <v>32827</v>
       </c>
       <c r="M27" t="s">
+        <v>1607</v>
+      </c>
+      <c r="N27" t="s">
         <v>1608</v>
       </c>
-      <c r="N27" t="s">
-        <v>1609</v>
-      </c>
       <c r="O27" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="P27" t="s">
         <v>254</v>
@@ -26006,7 +26027,7 @@
         <v>168</v>
       </c>
       <c r="T27" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="U27" t="s">
         <v>170</v>
@@ -26015,7 +26036,7 @@
         <v>171</v>
       </c>
       <c r="Y27" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="Z27" t="s">
         <v>166</v>
@@ -26027,13 +26048,13 @@
         <v>171</v>
       </c>
       <c r="AD27" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="AE27" t="s">
         <v>166</v>
       </c>
       <c r="AF27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="AR27">
         <v>4415</v>
@@ -26066,43 +26087,43 @@
         <v>256</v>
       </c>
       <c r="BE27" s="21" t="s">
+        <v>1613</v>
+      </c>
+      <c r="BF27" t="s">
         <v>1614</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>1615</v>
       </c>
       <c r="BG27">
         <v>90</v>
       </c>
       <c r="BH27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="BI27" t="s">
         <v>1616</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" s="21" t="s">
         <v>1617</v>
-      </c>
-      <c r="BJ27" s="21" t="s">
-        <v>1618</v>
       </c>
       <c r="BK27" t="s">
         <v>972</v>
       </c>
       <c r="BM27" t="s">
+        <v>1618</v>
+      </c>
+      <c r="BO27" t="s">
         <v>1619</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>1620</v>
       </c>
       <c r="BP27" t="s">
         <v>392</v>
       </c>
       <c r="BQ27" t="s">
+        <v>1620</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>1976</v>
+      </c>
+      <c r="BT27" t="s">
         <v>1621</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>1978</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>1622</v>
       </c>
       <c r="BU27" t="s">
         <v>166</v>
@@ -26111,13 +26132,13 @@
         <v>268</v>
       </c>
       <c r="BW27" t="s">
+        <v>1622</v>
+      </c>
+      <c r="BX27" t="s">
         <v>1623</v>
       </c>
-      <c r="BX27" t="s">
-        <v>1624</v>
-      </c>
       <c r="BY27" s="24" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="CA27" t="s">
         <v>216</v>
@@ -26126,16 +26147,16 @@
         <v>166</v>
       </c>
       <c r="CC27" s="22" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>1624</v>
+      </c>
+      <c r="CE27" t="s">
         <v>1625</v>
       </c>
-      <c r="CD27" t="s">
-        <v>1625</v>
-      </c>
-      <c r="CE27" t="s">
+      <c r="CF27" t="s">
         <v>1626</v>
-      </c>
-      <c r="CF27" t="s">
-        <v>1627</v>
       </c>
       <c r="CG27" t="s">
         <v>274</v>
@@ -26144,7 +26165,7 @@
         <v>410</v>
       </c>
       <c r="CJ27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="CK27" t="s">
         <v>193</v>
@@ -26177,7 +26198,7 @@
         <v>205</v>
       </c>
       <c r="CX27" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="CY27" t="s">
         <v>278</v>
@@ -26204,16 +26225,16 @@
         <v>218</v>
       </c>
       <c r="DG27" t="s">
+        <v>1629</v>
+      </c>
+      <c r="DH27" s="21" t="s">
         <v>1630</v>
-      </c>
-      <c r="DH27" s="21" t="s">
-        <v>1631</v>
       </c>
       <c r="DI27">
         <v>1</v>
       </c>
       <c r="DJ27" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="DK27" t="s">
         <v>1197</v>
@@ -26228,25 +26249,25 @@
         <v>288</v>
       </c>
       <c r="DQ27" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="DR27" s="22" t="s">
         <v>753</v>
       </c>
       <c r="DS27" s="24" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="DT27" t="s">
         <v>289</v>
       </c>
       <c r="DU27" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="DV27" t="s">
         <v>220</v>
       </c>
       <c r="DW27" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="DX27" s="24" t="s">
         <v>193</v>
@@ -26264,10 +26285,10 @@
         <v>872</v>
       </c>
       <c r="ED27" t="s">
+        <v>1635</v>
+      </c>
+      <c r="EE27" t="s">
         <v>1636</v>
-      </c>
-      <c r="EE27" t="s">
-        <v>1637</v>
       </c>
       <c r="EF27" t="s">
         <v>222</v>
@@ -26276,7 +26297,7 @@
         <v>1071</v>
       </c>
       <c r="EH27" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="EI27" s="37">
         <v>62</v>
@@ -26285,28 +26306,28 @@
         <v>1205</v>
       </c>
       <c r="EK27" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="EL27" t="s">
         <v>1639</v>
       </c>
-      <c r="EL27" t="s">
+      <c r="EM27" s="21" t="s">
         <v>1640</v>
-      </c>
-      <c r="EM27" s="21" t="s">
-        <v>1641</v>
       </c>
       <c r="EN27" t="s">
         <v>817</v>
       </c>
       <c r="EP27" t="s">
+        <v>1641</v>
+      </c>
+      <c r="EQ27" t="s">
         <v>1642</v>
       </c>
-      <c r="EQ27" t="s">
+      <c r="ER27" t="s">
         <v>1643</v>
       </c>
-      <c r="ER27" t="s">
+      <c r="ES27" t="s">
         <v>1644</v>
-      </c>
-      <c r="ES27" t="s">
-        <v>1645</v>
       </c>
       <c r="ET27" t="s">
         <v>236</v>
@@ -26318,7 +26339,7 @@
         <v>304</v>
       </c>
       <c r="EX27" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="EY27" t="s">
         <v>274</v>
@@ -26327,10 +26348,10 @@
         <v>236</v>
       </c>
       <c r="FA27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="FB27" t="s">
         <v>1647</v>
-      </c>
-      <c r="FB27" t="s">
-        <v>1648</v>
       </c>
       <c r="FC27" t="s">
         <v>274</v>
@@ -26339,7 +26360,7 @@
         <v>952</v>
       </c>
       <c r="FE27" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="FF27" t="s">
         <v>434</v>
@@ -26354,7 +26375,7 @@
         <v>222</v>
       </c>
       <c r="FK27" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="FM27" s="37">
         <v>2</v>
@@ -26387,31 +26408,31 @@
         <v>0</v>
       </c>
       <c r="FX27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="FZ27" t="s">
         <v>1219</v>
       </c>
       <c r="GA27" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="GB27" s="37">
         <v>3</v>
       </c>
       <c r="GC27" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="GD27" s="59">
         <v>5</v>
       </c>
       <c r="GE27" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="GF27" s="37">
         <v>62</v>
       </c>
       <c r="GG27" s="33" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="28" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26422,43 +26443,43 @@
         <v>828</v>
       </c>
       <c r="C28" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D28" t="s">
         <v>1651</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1652</v>
       </c>
       <c r="E28" s="20">
         <v>44439</v>
       </c>
       <c r="F28" s="22" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G28" t="s">
         <v>1653</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>1654</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>1655</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1656</v>
       </c>
       <c r="J28">
         <v>6970000</v>
       </c>
       <c r="K28" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="L28" s="64">
         <v>42004</v>
       </c>
       <c r="M28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N28" t="s">
         <v>1658</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>1659</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1660</v>
       </c>
       <c r="P28" t="s">
         <v>170</v>
@@ -26467,13 +26488,13 @@
         <v>168</v>
       </c>
       <c r="T28" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="U28" t="s">
         <v>166</v>
       </c>
       <c r="V28" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="W28" t="s">
         <v>171</v>
@@ -26503,28 +26524,28 @@
         <v>400</v>
       </c>
       <c r="BA28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BE28" t="s">
         <v>1662</v>
       </c>
-      <c r="BD28" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>1663</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>1664</v>
       </c>
       <c r="BG28" s="24">
         <v>60</v>
       </c>
       <c r="BH28" s="21" t="s">
+        <v>1664</v>
+      </c>
+      <c r="BI28" t="s">
         <v>1665</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BJ28" s="21" t="s">
         <v>1666</v>
-      </c>
-      <c r="BJ28" s="21" t="s">
-        <v>1667</v>
       </c>
       <c r="BK28" t="s">
         <v>262</v>
@@ -26533,19 +26554,19 @@
         <v>263</v>
       </c>
       <c r="BO28" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="BP28" t="s">
         <v>737</v>
       </c>
       <c r="BQ28" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="BT28" t="s">
         <v>1669</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>1979</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>1670</v>
       </c>
       <c r="BU28" t="s">
         <v>166</v>
@@ -26554,16 +26575,16 @@
         <v>978</v>
       </c>
       <c r="BW28" t="s">
+        <v>1670</v>
+      </c>
+      <c r="BX28" t="s">
         <v>1671</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="BY28" t="s">
         <v>1672</v>
       </c>
-      <c r="BY28" t="s">
+      <c r="BZ28" t="s">
         <v>1673</v>
-      </c>
-      <c r="BZ28" t="s">
-        <v>1674</v>
       </c>
       <c r="CA28" t="s">
         <v>193</v>
@@ -26575,7 +26596,7 @@
         <v>856</v>
       </c>
       <c r="CE28" s="21" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="CF28" t="s">
         <v>1157</v>
@@ -26587,7 +26608,7 @@
         <v>380</v>
       </c>
       <c r="CJ28" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="CK28" t="s">
         <v>193</v>
@@ -26602,7 +26623,7 @@
         <v>201</v>
       </c>
       <c r="CP28" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="CQ28" t="s">
         <v>278</v>
@@ -26623,7 +26644,7 @@
         <v>522</v>
       </c>
       <c r="CX28" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="CY28" t="s">
         <v>278</v>
@@ -26650,19 +26671,19 @@
         <v>289</v>
       </c>
       <c r="DG28" t="s">
+        <v>1678</v>
+      </c>
+      <c r="DH28" t="s">
         <v>1679</v>
-      </c>
-      <c r="DH28" t="s">
-        <v>1680</v>
       </c>
       <c r="DI28">
         <v>1</v>
       </c>
       <c r="DJ28" t="s">
+        <v>1680</v>
+      </c>
+      <c r="DK28" t="s">
         <v>1681</v>
-      </c>
-      <c r="DK28" t="s">
-        <v>1682</v>
       </c>
       <c r="DM28" t="s">
         <v>411</v>
@@ -26683,13 +26704,13 @@
         <v>469</v>
       </c>
       <c r="DU28" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="DV28" t="s">
         <v>532</v>
       </c>
       <c r="DW28" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="DX28" t="s">
         <v>193</v>
@@ -26707,22 +26728,22 @@
         <v>535</v>
       </c>
       <c r="ED28" t="s">
+        <v>1684</v>
+      </c>
+      <c r="EE28" t="s">
         <v>1685</v>
-      </c>
-      <c r="EE28" t="s">
-        <v>1686</v>
       </c>
       <c r="EF28" t="s">
         <v>193</v>
       </c>
       <c r="EH28" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="EI28" s="32">
         <v>336</v>
       </c>
       <c r="EJ28" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="EK28" t="s">
         <v>773</v>
@@ -26731,22 +26752,22 @@
         <v>773</v>
       </c>
       <c r="EM28" t="s">
+        <v>1688</v>
+      </c>
+      <c r="EN28" t="s">
         <v>1689</v>
       </c>
-      <c r="EN28" t="s">
+      <c r="EP28" t="s">
         <v>1690</v>
       </c>
-      <c r="EP28" t="s">
+      <c r="EQ28" t="s">
         <v>1691</v>
-      </c>
-      <c r="EQ28" t="s">
-        <v>1692</v>
       </c>
       <c r="ER28" t="s">
         <v>534</v>
       </c>
       <c r="ES28" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="ET28" t="s">
         <v>236</v>
@@ -26755,13 +26776,13 @@
         <v>1123</v>
       </c>
       <c r="EV28" s="24" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="EW28" s="22" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="EX28" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="EY28" t="s">
         <v>380</v>
@@ -26770,7 +26791,7 @@
         <v>1058</v>
       </c>
       <c r="FA28" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="FB28" t="s">
         <v>547</v>
@@ -26797,7 +26818,7 @@
         <v>222</v>
       </c>
       <c r="FK28" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="FM28" s="38">
         <v>3</v>
@@ -26806,7 +26827,7 @@
         <v>216</v>
       </c>
       <c r="FO28" s="21" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="FP28">
         <v>1</v>
@@ -26836,25 +26857,25 @@
         <v>439</v>
       </c>
       <c r="GA28" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="GB28" s="37">
         <v>3</v>
       </c>
       <c r="GC28" s="37" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="GD28" s="59">
         <v>5</v>
       </c>
       <c r="GE28" s="37" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="GF28" s="37">
         <v>336</v>
       </c>
       <c r="GG28" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="29" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26865,43 +26886,43 @@
         <v>551</v>
       </c>
       <c r="C29" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D29" t="s">
         <v>1698</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1699</v>
       </c>
       <c r="E29" s="20">
         <v>44439</v>
       </c>
       <c r="F29" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G29" t="s">
         <v>1700</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>1701</v>
       </c>
-      <c r="H29" t="s">
-        <v>1702</v>
-      </c>
       <c r="I29" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J29">
         <v>3102746741</v>
       </c>
       <c r="K29" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="L29" s="64">
         <v>39981</v>
       </c>
       <c r="M29" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N29" t="s">
         <v>1704</v>
       </c>
-      <c r="N29" t="s">
-        <v>1705</v>
-      </c>
       <c r="O29" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="P29" t="s">
         <v>254</v>
@@ -26910,7 +26931,7 @@
         <v>171</v>
       </c>
       <c r="T29" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="U29" t="s">
         <v>170</v>
@@ -26919,7 +26940,7 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="Z29" t="s">
         <v>1292</v>
@@ -26928,7 +26949,7 @@
         <v>171</v>
       </c>
       <c r="AD29" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="AE29" t="s">
         <v>1292</v>
@@ -26961,7 +26982,7 @@
         <v>250</v>
       </c>
       <c r="AZ29" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="BA29" t="s">
         <v>322</v>
@@ -26970,28 +26991,28 @@
         <v>178</v>
       </c>
       <c r="BE29" t="s">
+        <v>1708</v>
+      </c>
+      <c r="BF29" t="s">
         <v>1709</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>1710</v>
       </c>
       <c r="BG29">
         <v>180</v>
       </c>
       <c r="BH29" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BI29" t="s">
         <v>1711</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BJ29" t="s">
         <v>1712</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>1713</v>
       </c>
-      <c r="BK29" t="s">
+      <c r="BL29" t="s">
         <v>1714</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>1715</v>
       </c>
       <c r="BM29" t="s">
         <v>569</v>
@@ -27003,13 +27024,13 @@
         <v>737</v>
       </c>
       <c r="BQ29" t="s">
+        <v>1715</v>
+      </c>
+      <c r="BR29" s="22" t="s">
+        <v>1978</v>
+      </c>
+      <c r="BT29" t="s">
         <v>1716</v>
-      </c>
-      <c r="BR29" s="22" t="s">
-        <v>1980</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>1717</v>
       </c>
       <c r="BU29" t="s">
         <v>166</v>
@@ -27018,10 +27039,10 @@
         <v>190</v>
       </c>
       <c r="BW29" t="s">
+        <v>1717</v>
+      </c>
+      <c r="BX29" t="s">
         <v>1718</v>
-      </c>
-      <c r="BX29" t="s">
-        <v>1719</v>
       </c>
       <c r="BY29" t="s">
         <v>693</v>
@@ -27036,10 +27057,10 @@
         <v>271</v>
       </c>
       <c r="CE29" t="s">
+        <v>1719</v>
+      </c>
+      <c r="CF29" t="s">
         <v>1720</v>
-      </c>
-      <c r="CF29" t="s">
-        <v>1721</v>
       </c>
       <c r="CG29" t="s">
         <v>578</v>
@@ -27048,7 +27069,7 @@
         <v>197</v>
       </c>
       <c r="CJ29" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="CK29" t="s">
         <v>193</v>
@@ -27069,7 +27090,7 @@
         <v>1192</v>
       </c>
       <c r="CS29" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="CT29" t="s">
         <v>1103</v>
@@ -27078,10 +27099,10 @@
         <v>1</v>
       </c>
       <c r="CV29" t="s">
+        <v>1723</v>
+      </c>
+      <c r="CX29" t="s">
         <v>1724</v>
-      </c>
-      <c r="CX29" t="s">
-        <v>1725</v>
       </c>
       <c r="CY29" t="s">
         <v>1192</v>
@@ -27108,19 +27129,19 @@
         <v>283</v>
       </c>
       <c r="DG29" t="s">
+        <v>1725</v>
+      </c>
+      <c r="DH29" t="s">
         <v>1726</v>
-      </c>
-      <c r="DH29" t="s">
-        <v>1727</v>
       </c>
       <c r="DI29">
         <v>1</v>
       </c>
       <c r="DJ29" t="s">
+        <v>1727</v>
+      </c>
+      <c r="DK29" t="s">
         <v>1728</v>
-      </c>
-      <c r="DK29" t="s">
-        <v>1729</v>
       </c>
       <c r="DM29" t="s">
         <v>411</v>
@@ -27132,31 +27153,31 @@
         <v>214</v>
       </c>
       <c r="DQ29" t="s">
+        <v>1729</v>
+      </c>
+      <c r="DR29" s="24" t="s">
+        <v>1849</v>
+      </c>
+      <c r="DS29" s="22" t="s">
         <v>1730</v>
-      </c>
-      <c r="DR29" s="24" t="s">
-        <v>1850</v>
-      </c>
-      <c r="DS29" s="22" t="s">
-        <v>1731</v>
       </c>
       <c r="DT29" t="s">
         <v>208</v>
       </c>
       <c r="DU29" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="DV29" t="s">
         <v>291</v>
       </c>
       <c r="DW29" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="DX29" s="26" t="s">
         <v>222</v>
       </c>
       <c r="DY29" s="26" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="DZ29" t="s">
         <v>222</v>
@@ -27165,10 +27186,10 @@
         <v>193</v>
       </c>
       <c r="EB29" t="s">
+        <v>1733</v>
+      </c>
+      <c r="ED29" t="s">
         <v>1734</v>
-      </c>
-      <c r="ED29" t="s">
-        <v>1735</v>
       </c>
       <c r="EE29" t="s">
         <v>1261</v>
@@ -27177,10 +27198,10 @@
         <v>222</v>
       </c>
       <c r="EG29" s="24" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="EH29" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="EI29" s="37">
         <v>1</v>
@@ -27192,40 +27213,40 @@
         <v>561</v>
       </c>
       <c r="EL29" t="s">
+        <v>1736</v>
+      </c>
+      <c r="EM29" t="s">
         <v>1737</v>
       </c>
-      <c r="EM29" t="s">
+      <c r="EN29" t="s">
         <v>1738</v>
-      </c>
-      <c r="EN29" t="s">
-        <v>1739</v>
       </c>
       <c r="EO29" t="s">
         <v>424</v>
       </c>
       <c r="EP29" t="s">
+        <v>1739</v>
+      </c>
+      <c r="EQ29" t="s">
         <v>1740</v>
       </c>
-      <c r="EQ29" t="s">
+      <c r="ER29" t="s">
         <v>1741</v>
       </c>
-      <c r="ER29" t="s">
+      <c r="ES29" t="s">
         <v>1742</v>
-      </c>
-      <c r="ES29" t="s">
-        <v>1743</v>
       </c>
       <c r="ET29" t="s">
         <v>236</v>
       </c>
       <c r="EU29" s="24" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="EV29" s="22" t="s">
+        <v>1743</v>
+      </c>
+      <c r="EX29" t="s">
         <v>1744</v>
-      </c>
-      <c r="EX29" t="s">
-        <v>1745</v>
       </c>
       <c r="EY29" t="s">
         <v>380</v>
@@ -27234,25 +27255,25 @@
         <v>236</v>
       </c>
       <c r="FA29" t="s">
+        <v>1745</v>
+      </c>
+      <c r="FB29" t="s">
         <v>1746</v>
       </c>
-      <c r="FB29" t="s">
-        <v>1747</v>
-      </c>
       <c r="FC29" s="5" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="FD29" t="s">
         <v>432</v>
       </c>
       <c r="FE29" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="FF29" t="s">
         <v>434</v>
       </c>
       <c r="FG29" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="FI29" t="s">
         <v>193</v>
@@ -27261,7 +27282,7 @@
         <v>193</v>
       </c>
       <c r="FK29" s="21" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="FM29" s="37">
         <v>1</v>
@@ -27300,25 +27321,25 @@
         <v>775</v>
       </c>
       <c r="GA29" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="GB29" s="37">
         <v>0</v>
       </c>
       <c r="GC29" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GD29" s="59">
         <v>2</v>
       </c>
       <c r="GE29" s="37" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="GF29" s="37">
         <v>1</v>
       </c>
       <c r="GG29" s="33" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="30" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27326,46 +27347,46 @@
         <v>44456.611226851855</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C30" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D30" t="s">
         <v>1751</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1752</v>
       </c>
       <c r="E30" s="20">
         <v>44452</v>
       </c>
       <c r="F30" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G30" t="s">
         <v>1753</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>1754</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>1755</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1756</v>
       </c>
       <c r="J30">
         <v>3207199193</v>
       </c>
       <c r="K30" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="L30" s="64">
         <v>39925</v>
       </c>
       <c r="M30" t="s">
+        <v>1757</v>
+      </c>
+      <c r="N30" t="s">
         <v>1758</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>1759</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1760</v>
       </c>
       <c r="P30" t="s">
         <v>254</v>
@@ -27374,7 +27395,7 @@
         <v>168</v>
       </c>
       <c r="T30" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="U30" t="s">
         <v>254</v>
@@ -27383,7 +27404,7 @@
         <v>171</v>
       </c>
       <c r="Y30" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="Z30" t="s">
         <v>170</v>
@@ -27392,7 +27413,7 @@
         <v>171</v>
       </c>
       <c r="AD30" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="AE30" t="s">
         <v>170</v>
@@ -27425,7 +27446,7 @@
         <v>240</v>
       </c>
       <c r="AZ30" s="21" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="BA30" t="s">
         <v>175</v>
@@ -27434,43 +27455,43 @@
         <v>256</v>
       </c>
       <c r="BE30" s="39" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="BF30" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="BG30">
         <v>60</v>
       </c>
       <c r="BH30" s="21" t="s">
+        <v>1765</v>
+      </c>
+      <c r="BI30" t="s">
         <v>1766</v>
       </c>
-      <c r="BI30" t="s">
-        <v>1767</v>
-      </c>
       <c r="BJ30" s="39" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="BK30" t="s">
         <v>262</v>
       </c>
       <c r="BM30" t="s">
+        <v>1767</v>
+      </c>
+      <c r="BO30" t="s">
         <v>1768</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>1769</v>
       </c>
       <c r="BP30" t="s">
         <v>737</v>
       </c>
       <c r="BQ30" t="s">
+        <v>1769</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1976</v>
+      </c>
+      <c r="BT30" t="s">
         <v>1770</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>1978</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>1771</v>
       </c>
       <c r="BU30" t="s">
         <v>166</v>
@@ -27479,13 +27500,13 @@
         <v>268</v>
       </c>
       <c r="BW30" t="s">
+        <v>1771</v>
+      </c>
+      <c r="BX30" t="s">
         <v>1772</v>
       </c>
-      <c r="BX30" t="s">
-        <v>1773</v>
-      </c>
       <c r="BY30" s="24" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="CA30" t="s">
         <v>193</v>
@@ -27509,7 +27530,7 @@
         <v>380</v>
       </c>
       <c r="CJ30" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="CK30" t="s">
         <v>193</v>
@@ -27545,7 +27566,7 @@
         <v>281</v>
       </c>
       <c r="CX30" s="39" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="CY30" t="s">
         <v>278</v>
@@ -27572,7 +27593,7 @@
         <v>208</v>
       </c>
       <c r="DG30" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="DH30" t="e" cm="1">
         <f t="array" ref="DH30">- llega el pedido por parte de La empresa transportadora
@@ -27586,7 +27607,7 @@
         <v>1</v>
       </c>
       <c r="DJ30" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="DK30" t="s">
         <v>1109</v>
@@ -27601,7 +27622,7 @@
         <v>214</v>
       </c>
       <c r="DQ30" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="DR30" t="s">
         <v>753</v>
@@ -27610,19 +27631,19 @@
         <v>218</v>
       </c>
       <c r="DU30" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="DV30" t="s">
         <v>220</v>
       </c>
       <c r="DW30" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="DX30" s="24" t="s">
         <v>222</v>
       </c>
       <c r="DY30" s="24" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="DZ30" t="s">
         <v>222</v>
@@ -27634,10 +27655,10 @@
         <v>756</v>
       </c>
       <c r="ED30" t="s">
+        <v>1779</v>
+      </c>
+      <c r="EE30" t="s">
         <v>1780</v>
-      </c>
-      <c r="EE30" t="s">
-        <v>1781</v>
       </c>
       <c r="EF30" t="s">
         <v>222</v>
@@ -27646,49 +27667,49 @@
         <v>1071</v>
       </c>
       <c r="EH30" s="39" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="EI30" s="37">
         <v>224</v>
       </c>
       <c r="EJ30" s="39" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="EK30" t="s">
+        <v>1781</v>
+      </c>
+      <c r="EL30" t="s">
         <v>1782</v>
       </c>
-      <c r="EL30" t="s">
-        <v>1783</v>
-      </c>
       <c r="EM30" s="39" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="EN30" t="s">
         <v>231</v>
       </c>
       <c r="EP30" t="s">
+        <v>1783</v>
+      </c>
+      <c r="EQ30" t="s">
         <v>1784</v>
       </c>
-      <c r="EQ30" t="s">
+      <c r="ER30" t="s">
         <v>1785</v>
       </c>
-      <c r="ER30" t="s">
+      <c r="ES30" t="s">
         <v>1786</v>
-      </c>
-      <c r="ES30" t="s">
-        <v>1787</v>
       </c>
       <c r="ET30" t="s">
         <v>236</v>
       </c>
       <c r="EU30" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="EV30" t="s">
         <v>718</v>
       </c>
       <c r="EX30" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="EY30" t="s">
         <v>274</v>
@@ -27697,10 +27718,10 @@
         <v>236</v>
       </c>
       <c r="FA30" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="FB30" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="FC30" t="s">
         <v>274</v>
@@ -27709,7 +27730,7 @@
         <v>952</v>
       </c>
       <c r="FE30" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="FF30" t="s">
         <v>434</v>
@@ -27733,7 +27754,7 @@
         <v>216</v>
       </c>
       <c r="FO30" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="FP30" s="44">
         <f>(5+1)/2</f>
@@ -27764,25 +27785,25 @@
         <v>775</v>
       </c>
       <c r="GA30" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="GB30" s="37">
         <v>4</v>
       </c>
       <c r="GC30" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="GD30" s="59">
         <v>0</v>
       </c>
       <c r="GE30" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GF30" s="37">
         <v>224</v>
       </c>
       <c r="GG30" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="31" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27802,7 +27823,7 @@
         <v>44453</v>
       </c>
       <c r="F31" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G31" t="s">
         <v>888</v>
@@ -27811,22 +27832,22 @@
         <v>889</v>
       </c>
       <c r="I31" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J31">
         <v>3213946562</v>
       </c>
       <c r="K31" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="L31" s="64">
         <v>41859</v>
       </c>
       <c r="M31" t="s">
+        <v>1795</v>
+      </c>
+      <c r="N31" t="s">
         <v>1796</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1797</v>
       </c>
       <c r="O31" t="s">
         <v>890</v>
@@ -27835,7 +27856,7 @@
         <v>166</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="R31" t="s">
         <v>168</v>
@@ -27847,7 +27868,7 @@
         <v>166</v>
       </c>
       <c r="V31" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="W31" t="s">
         <v>168</v>
@@ -27922,49 +27943,49 @@
         <v>256</v>
       </c>
       <c r="BE31" s="22" t="s">
+        <v>1799</v>
+      </c>
+      <c r="BF31" t="s">
         <v>1800</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>1801</v>
       </c>
       <c r="BG31">
         <v>50</v>
       </c>
       <c r="BH31" s="21" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="BI31" t="s">
         <v>511</v>
       </c>
       <c r="BJ31" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="BK31" t="s">
         <v>262</v>
       </c>
       <c r="BM31" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="BN31" t="s">
         <v>896</v>
       </c>
       <c r="BO31" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="BP31" t="s">
         <v>737</v>
       </c>
       <c r="BQ31" s="21" t="s">
+        <v>1804</v>
+      </c>
+      <c r="BR31" s="22" t="s">
+        <v>1980</v>
+      </c>
+      <c r="BS31" t="s">
         <v>1805</v>
       </c>
-      <c r="BR31" s="22" t="s">
-        <v>1982</v>
-      </c>
-      <c r="BS31" t="s">
+      <c r="BT31" s="29" t="s">
         <v>1806</v>
-      </c>
-      <c r="BT31" s="29" t="s">
-        <v>1807</v>
       </c>
       <c r="BU31" t="s">
         <v>166</v>
@@ -27973,10 +27994,10 @@
         <v>268</v>
       </c>
       <c r="BW31" t="s">
+        <v>1807</v>
+      </c>
+      <c r="BX31" t="s">
         <v>1808</v>
-      </c>
-      <c r="BX31" t="s">
-        <v>1809</v>
       </c>
       <c r="BY31" t="s">
         <v>897</v>
@@ -27994,10 +28015,10 @@
         <v>856</v>
       </c>
       <c r="CE31" t="s">
+        <v>1809</v>
+      </c>
+      <c r="CF31" t="s">
         <v>1810</v>
-      </c>
-      <c r="CF31" t="s">
-        <v>1811</v>
       </c>
       <c r="CG31" t="s">
         <v>367</v>
@@ -28006,7 +28027,7 @@
         <v>410</v>
       </c>
       <c r="CJ31" s="25" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="CK31" s="25" t="s">
         <v>193</v>
@@ -28021,13 +28042,13 @@
         <v>404</v>
       </c>
       <c r="CP31" s="5" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="CQ31" t="s">
         <v>404</v>
       </c>
       <c r="CR31" s="5" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="CS31" s="25" t="s">
         <v>467</v>
@@ -28039,10 +28060,10 @@
         <v>0</v>
       </c>
       <c r="CV31" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="CX31" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="CY31" t="s">
         <v>278</v>
@@ -28069,19 +28090,19 @@
         <v>283</v>
       </c>
       <c r="DG31" s="25" t="s">
+        <v>1813</v>
+      </c>
+      <c r="DH31" s="25" t="s">
         <v>1814</v>
-      </c>
-      <c r="DH31" s="25" t="s">
-        <v>1815</v>
       </c>
       <c r="DI31">
         <v>1</v>
       </c>
       <c r="DJ31" t="s">
+        <v>1815</v>
+      </c>
+      <c r="DK31" t="s">
         <v>1816</v>
-      </c>
-      <c r="DK31" t="s">
-        <v>1817</v>
       </c>
       <c r="DM31" t="s">
         <v>411</v>
@@ -28093,31 +28114,31 @@
         <v>1254</v>
       </c>
       <c r="DQ31" t="s">
+        <v>1817</v>
+      </c>
+      <c r="DR31" s="24" t="s">
+        <v>1850</v>
+      </c>
+      <c r="DS31" s="22" t="s">
         <v>1818</v>
-      </c>
-      <c r="DR31" s="24" t="s">
-        <v>1851</v>
-      </c>
-      <c r="DS31" s="22" t="s">
-        <v>1819</v>
       </c>
       <c r="DT31" t="s">
         <v>208</v>
       </c>
       <c r="DU31" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="DV31" t="s">
         <v>291</v>
       </c>
       <c r="DW31" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="DX31" s="26" t="s">
         <v>222</v>
       </c>
       <c r="DY31" s="26" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="DZ31" t="s">
         <v>222</v>
@@ -28129,7 +28150,7 @@
         <v>535</v>
       </c>
       <c r="ED31" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="EE31" t="s">
         <v>900</v>
@@ -28138,10 +28159,10 @@
         <v>222</v>
       </c>
       <c r="EG31" s="24" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="EH31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="EI31" s="37">
         <v>13</v>
@@ -28153,25 +28174,25 @@
         <v>561</v>
       </c>
       <c r="EL31" t="s">
+        <v>1823</v>
+      </c>
+      <c r="EM31" t="s">
         <v>1824</v>
-      </c>
-      <c r="EM31" t="s">
-        <v>1825</v>
       </c>
       <c r="EN31" t="s">
         <v>423</v>
       </c>
       <c r="EP31" t="s">
+        <v>1825</v>
+      </c>
+      <c r="EQ31" t="s">
         <v>1826</v>
-      </c>
-      <c r="EQ31" t="s">
-        <v>1827</v>
       </c>
       <c r="ER31" t="s">
         <v>902</v>
       </c>
       <c r="ES31" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="ET31" t="s">
         <v>236</v>
@@ -28183,7 +28204,7 @@
         <v>304</v>
       </c>
       <c r="EX31" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="EY31" t="s">
         <v>274</v>
@@ -28192,10 +28213,10 @@
         <v>236</v>
       </c>
       <c r="FA31" t="s">
+        <v>1829</v>
+      </c>
+      <c r="FB31" t="s">
         <v>1830</v>
-      </c>
-      <c r="FB31" t="s">
-        <v>1831</v>
       </c>
       <c r="FC31" t="s">
         <v>274</v>
@@ -28204,7 +28225,7 @@
         <v>369</v>
       </c>
       <c r="FE31" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="FF31" t="s">
         <v>904</v>
@@ -28219,7 +28240,7 @@
         <v>193</v>
       </c>
       <c r="FK31" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="FL31" t="s">
         <v>171</v>
@@ -28261,54 +28282,54 @@
         <v>669</v>
       </c>
       <c r="GA31" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="GB31" s="37">
         <v>0</v>
       </c>
       <c r="GC31" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GD31" s="59">
         <v>5</v>
       </c>
       <c r="GE31" s="37" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="GF31" s="37">
         <v>13</v>
       </c>
       <c r="GG31" s="33" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="32" spans="1:189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>828</v>
       </c>
       <c r="C32" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D32" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E32" s="20">
         <v>44453</v>
       </c>
       <c r="F32" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G32" t="s">
         <v>1923</v>
       </c>
-      <c r="G32" t="s">
-        <v>1924</v>
-      </c>
       <c r="H32" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="I32" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="J32">
         <v>3213945338</v>
@@ -28320,31 +28341,31 @@
         <v>773</v>
       </c>
       <c r="M32" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="N32" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="O32" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="P32" t="s">
         <v>166</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="R32" t="s">
         <v>168</v>
       </c>
       <c r="T32" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="U32" t="s">
         <v>166</v>
       </c>
       <c r="V32" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="W32" t="s">
         <v>171</v>
@@ -28374,7 +28395,7 @@
         <v>1100</v>
       </c>
       <c r="AZ32" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="BA32" t="s">
         <v>175</v>
@@ -28383,43 +28404,43 @@
         <v>256</v>
       </c>
       <c r="BE32" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="BF32" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="BG32">
         <v>60</v>
       </c>
       <c r="BH32" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="BI32" t="s">
         <v>511</v>
       </c>
       <c r="BJ32" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="BK32" t="s">
         <v>262</v>
       </c>
       <c r="BM32" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="BO32" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="BP32" t="s">
         <v>187</v>
       </c>
       <c r="BQ32" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="BR32" s="22" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="BT32" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="BU32" t="s">
         <v>380</v>
@@ -28431,10 +28452,10 @@
         <v>1157</v>
       </c>
       <c r="BX32" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="BY32" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="CA32" t="s">
         <v>193</v>
@@ -28443,13 +28464,13 @@
         <v>268</v>
       </c>
       <c r="CC32" s="22" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="CD32" t="s">
         <v>856</v>
       </c>
       <c r="CE32" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="CF32" t="s">
         <v>547</v>
@@ -28482,7 +28503,7 @@
         <v>521</v>
       </c>
       <c r="CS32" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="CT32" t="s">
         <v>929</v>
@@ -28494,7 +28515,7 @@
         <v>281</v>
       </c>
       <c r="CX32" s="21" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="CY32" t="s">
         <v>1192</v>
@@ -28521,10 +28542,10 @@
         <v>283</v>
       </c>
       <c r="DG32" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="DH32" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="DI32" s="22" t="s">
         <v>773</v>
@@ -28554,7 +28575,7 @@
         <v>208</v>
       </c>
       <c r="DU32" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="DV32" t="s">
         <v>380</v>
@@ -28575,7 +28596,7 @@
         <v>756</v>
       </c>
       <c r="ED32" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="EE32" t="s">
         <v>193</v>
@@ -28584,22 +28605,22 @@
         <v>222</v>
       </c>
       <c r="EG32" s="24" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="EH32" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="EI32" s="37">
         <v>1</v>
       </c>
       <c r="EJ32" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="EK32" t="s">
         <v>773</v>
       </c>
       <c r="EL32" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="EM32" t="s">
         <v>1157</v>
@@ -28617,13 +28638,13 @@
         <v>1157</v>
       </c>
       <c r="ES32" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="ET32" t="s">
         <v>236</v>
       </c>
       <c r="EU32" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="EV32" t="s">
         <v>1059</v>
@@ -28638,10 +28659,10 @@
         <v>236</v>
       </c>
       <c r="FA32" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="FB32" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="FC32" t="s">
         <v>274</v>
@@ -28650,7 +28671,7 @@
         <v>491</v>
       </c>
       <c r="FE32" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="FF32" t="s">
         <v>434</v>
@@ -28701,25 +28722,25 @@
         <v>1078</v>
       </c>
       <c r="GA32" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="GB32" s="37">
         <v>2</v>
       </c>
       <c r="GC32" s="37" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD32" s="59">
         <v>1</v>
       </c>
       <c r="GE32" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GF32" s="37">
         <v>1</v>
       </c>
       <c r="GG32" s="33" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9AEC0-724A-4E9F-8066-AB1118D79931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DE6A0-49CA-4E59-8C38-9578937BC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,6 +207,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="DI2" authorId="0" shapeId="0" xr:uid="{863D1D3F-2FB8-4AD8-A51C-DC8BDD013D41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4 horas</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="DK2" authorId="0" shapeId="0" xr:uid="{371786DF-91E3-47C9-B954-B31E1FF18BEC}">
       <text>
         <r>
@@ -2985,7 +3009,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Depende de la cantidad</t>
+Depende de la cantidad
+Decía que NA</t>
         </r>
       </text>
     </comment>
@@ -7105,7 +7130,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-No se hace</t>
+No se hace
+Se le pone que 1 ya que se esperan tamaños de pedidos pequeños</t>
         </r>
       </text>
     </comment>
@@ -7197,7 +7223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1982">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -13541,6 +13567,18 @@
   </si>
   <si>
     <t>Microletras / microtexto, Sellos/Escudos, Codificación</t>
+  </si>
+  <si>
+    <t>- llega el pedido por parte de La empresa transportadora
+- La regente en farmacia La recepciona en el área de recepción técnica y administrativa
+- Se contrasta con La guía
+- Observación de condiciones
+- almacenamiento de los productos</t>
+  </si>
+  <si>
+    <t>- Se hace La comparación de los productos allegados contra La orden de compra
+- Se realiza inspección física y técnica del material
+- Se disponen los productos para su correspondiente almacenamiento</t>
   </si>
 </sst>
 </file>
@@ -14047,10 +14085,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="BW2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BY1" sqref="BY1"/>
+      <selection pane="bottomRight" activeCell="BQ1" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14908,8 +14946,8 @@
       <c r="DH2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DI2" s="2">
-        <v>4</v>
+      <c r="DI2" s="5">
+        <v>1</v>
       </c>
       <c r="DJ2" s="2" t="s">
         <v>211</v>
@@ -20023,8 +20061,8 @@
       <c r="DH13" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="DI13" s="5" t="s">
-        <v>771</v>
+      <c r="DI13" s="5">
+        <v>1</v>
       </c>
       <c r="DJ13" s="2" t="s">
         <v>863</v>
@@ -21826,11 +21864,8 @@
       <c r="DG17" t="s">
         <v>1103</v>
       </c>
-      <c r="DH17" t="e" cm="1">
-        <f t="array" ref="DH17">- Se hace La comparación de los productos allegados contra La orden de compra
-- Se realiza inspección física y técnica del material
-- Se disponen los productos para su correspondiente almacenamiento</f>
-        <v>#NAME?</v>
+      <c r="DH17" s="39" t="s">
+        <v>1981</v>
       </c>
       <c r="DI17">
         <v>1</v>
@@ -27808,13 +27843,8 @@
       <c r="DG30" t="s">
         <v>1768</v>
       </c>
-      <c r="DH30" t="e" cm="1">
-        <f t="array" ref="DH30">- llega el pedido por parte de La empresa transportadora
-- La regente en farmacia La recepciona en el área de recepción técnica y administrativa
-- Se contrasta con La guía
-- Observación de condiciones
-- almacenamiento de los productos</f>
-        <v>#NAME?</v>
+      <c r="DH30" s="39" t="s">
+        <v>1980</v>
       </c>
       <c r="DI30">
         <v>1</v>
@@ -28757,8 +28787,8 @@
       <c r="DH32" t="s">
         <v>1951</v>
       </c>
-      <c r="DI32" s="22" t="s">
-        <v>771</v>
+      <c r="DI32" s="22">
+        <v>1</v>
       </c>
       <c r="DJ32" s="22" t="s">
         <v>771</v>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DE6A0-49CA-4E59-8C38-9578937BC374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B5206-99FB-4691-9BE2-1F36E47A9554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7223,7 +7223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1981">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -13495,9 +13495,6 @@
   </si>
   <si>
     <t>Revisión de cifras</t>
-  </si>
-  <si>
-    <t>2 semanas</t>
   </si>
   <si>
     <t>solo un inscrito, mismo anexo 13</t>
@@ -14085,10 +14082,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="FY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ1" sqref="BQ1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14682,7 +14679,7 @@
         <v>44324.663341099542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -15295,7 +15292,7 @@
         <v>266</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT3" s="2" t="s">
         <v>267</v>
@@ -15619,7 +15616,7 @@
         <v>44326.502545150463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>312</v>
@@ -15752,7 +15749,7 @@
         <v>334</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT4" s="2" t="s">
         <v>335</v>
@@ -15794,7 +15791,7 @@
         <v>196</v>
       </c>
       <c r="CH4" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="CI4" s="2" t="s">
         <v>339</v>
@@ -15924,7 +15921,7 @@
         <v>193</v>
       </c>
       <c r="EB4" s="69" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="ED4" s="2" t="s">
         <v>354</v>
@@ -16023,7 +16020,7 @@
         <v>216</v>
       </c>
       <c r="FO4" s="24" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="FP4" s="25">
         <v>12</v>
@@ -16065,7 +16062,7 @@
         <v>22</v>
       </c>
       <c r="GE4" s="38" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="GF4" s="37">
         <v>78</v>
@@ -16547,7 +16544,7 @@
         <v>44339.650587766198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>440</v>
@@ -16695,7 +16692,7 @@
         <v>460</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT6" s="2" t="s">
         <v>461</v>
@@ -17167,7 +17164,7 @@
         <v>514</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="BT7" s="2" t="s">
         <v>515</v>
@@ -17608,7 +17605,7 @@
         <v>570</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BT8" s="2" t="s">
         <v>571</v>
@@ -18543,7 +18540,7 @@
         <v>686</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BT10" s="2" t="s">
         <v>687</v>
@@ -19990,7 +19987,7 @@
         <v>274</v>
       </c>
       <c r="CH13" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CJ13" s="2" t="s">
         <v>799</v>
@@ -20273,7 +20270,7 @@
         <v>44384.71444163195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>901</v>
@@ -20402,7 +20399,7 @@
         <v>917</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>918</v>
@@ -20438,7 +20435,7 @@
         <v>577</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>923</v>
@@ -20851,7 +20848,7 @@
         <v>972</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>973</v>
@@ -21322,7 +21319,7 @@
         <v>1029</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>1030</v>
@@ -21337,7 +21334,7 @@
         <v>1032</v>
       </c>
       <c r="BY16" s="15" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>193</v>
@@ -21635,7 +21632,7 @@
         <v>44447.520694444444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C17" t="s">
         <v>1075</v>
@@ -21757,7 +21754,7 @@
         <v>1089</v>
       </c>
       <c r="BR17" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT17" t="s">
         <v>1090</v>
@@ -21796,7 +21793,7 @@
         <v>274</v>
       </c>
       <c r="CH17" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CJ17" t="s">
         <v>1097</v>
@@ -21865,7 +21862,7 @@
         <v>1103</v>
       </c>
       <c r="DH17" s="39" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="DI17">
         <v>1</v>
@@ -22556,7 +22553,7 @@
         <v>771</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="L19" s="68">
         <v>43128</v>
@@ -22646,7 +22643,7 @@
         <v>1181</v>
       </c>
       <c r="BR19" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT19" t="s">
         <v>1182</v>
@@ -22682,7 +22679,7 @@
         <v>274</v>
       </c>
       <c r="CH19" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CJ19" t="s">
         <v>1187</v>
@@ -23092,7 +23089,7 @@
         <v>1234</v>
       </c>
       <c r="BR20" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BT20" t="s">
         <v>1235</v>
@@ -23131,7 +23128,7 @@
         <v>577</v>
       </c>
       <c r="CH20" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="CJ20" t="s">
         <v>1241</v>
@@ -23593,7 +23590,7 @@
         <v>367</v>
       </c>
       <c r="CH21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CJ21" t="s">
         <v>1302</v>
@@ -23868,7 +23865,7 @@
         <v>44430.608212476851</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1330</v>
@@ -24030,7 +24027,7 @@
         <v>1348</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BS22" s="13"/>
       <c r="BT22" s="1" t="s">
@@ -24072,7 +24069,7 @@
         <v>274</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CI22" s="13"/>
       <c r="CJ22" s="1" t="s">
@@ -25313,7 +25310,7 @@
         <v>44325.680474537039</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C25" t="s">
         <v>1485</v>
@@ -25445,7 +25442,7 @@
         <v>1503</v>
       </c>
       <c r="BR25" s="22" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT25" t="s">
         <v>1504</v>
@@ -25481,7 +25478,7 @@
         <v>274</v>
       </c>
       <c r="CH25" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CJ25" t="s">
         <v>1509</v>
@@ -25903,7 +25900,7 @@
         <v>1554</v>
       </c>
       <c r="BR26" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="BS26" t="s">
         <v>1555</v>
@@ -26368,7 +26365,7 @@
         <v>1614</v>
       </c>
       <c r="BR27" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT27" t="s">
         <v>1615</v>
@@ -26811,7 +26808,7 @@
         <v>1662</v>
       </c>
       <c r="BR28" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="BT28" t="s">
         <v>1663</v>
@@ -27275,7 +27272,7 @@
         <v>1709</v>
       </c>
       <c r="BR29" s="22" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BT29" t="s">
         <v>1710</v>
@@ -27595,7 +27592,7 @@
         <v>44456.611226851855</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C30" t="s">
         <v>1744</v>
@@ -27718,7 +27715,7 @@
         <v>1760</v>
       </c>
       <c r="BJ30" s="39" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="BK30" t="s">
         <v>262</v>
@@ -27736,7 +27733,7 @@
         <v>1763</v>
       </c>
       <c r="BR30" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT30" t="s">
         <v>1764</v>
@@ -27844,7 +27841,7 @@
         <v>1768</v>
       </c>
       <c r="DH30" s="39" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="DI30">
         <v>1</v>
@@ -28222,7 +28219,7 @@
         <v>1798</v>
       </c>
       <c r="BR31" s="22" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="BS31" t="s">
         <v>1799</v>
@@ -28243,7 +28240,7 @@
         <v>1802</v>
       </c>
       <c r="BY31" s="24" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="CA31" t="s">
         <v>216</v>
@@ -28593,7 +28590,7 @@
         <v>166</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="R32" t="s">
         <v>168</v>
@@ -28677,7 +28674,7 @@
         <v>1943</v>
       </c>
       <c r="BR32" s="22" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="BT32" t="s">
         <v>1944</v>
@@ -28845,7 +28842,7 @@
         <v>222</v>
       </c>
       <c r="EG32" s="24" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="EH32" t="s">
         <v>1954</v>
@@ -28884,7 +28881,7 @@
         <v>236</v>
       </c>
       <c r="EU32" t="s">
-        <v>1957</v>
+        <v>1781</v>
       </c>
       <c r="EV32" t="s">
         <v>1055</v>
@@ -28899,10 +28896,10 @@
         <v>236</v>
       </c>
       <c r="FA32" t="s">
+        <v>1957</v>
+      </c>
+      <c r="FB32" t="s">
         <v>1958</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>1959</v>
       </c>
       <c r="FC32" t="s">
         <v>274</v>
@@ -28911,7 +28908,7 @@
         <v>491</v>
       </c>
       <c r="FE32" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="FF32" t="s">
         <v>434</v>
@@ -28980,10 +28977,11 @@
         <v>1</v>
       </c>
       <c r="GG32" s="33" t="s">
-        <v>1893</v>
+        <v>1879</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:GG32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B5206-99FB-4691-9BE2-1F36E47A9554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2CC8D-0C31-4838-A895-9C0E98D8B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3473,6 +3473,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="CV16" authorId="0" shapeId="0" xr:uid="{704BF428-81CE-4C6D-93E4-C8296F502353}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+iNSUFICIENTES PARA EL FRE</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="DB16" authorId="0" shapeId="0" xr:uid="{FD8BAB19-B224-4873-A62D-FF6DD2763D3C}">
       <text>
         <r>
@@ -10448,9 +10472,6 @@
     <t>LoS tiene cada IPS Y ELLOS SE ENCARGAN</t>
   </si>
   <si>
-    <t>iNSUFICIENTES PARA EL FRE</t>
-  </si>
-  <si>
     <t>Se calcula con base en consumo histórico y el comportamiento del año inmeditamente anterior de manera articulada con el FNE, sacan solicitud de disponibilidad Presupuestal y se hace la compra.</t>
   </si>
   <si>
@@ -13576,6 +13597,9 @@
     <t>- Se hace La comparación de los productos allegados contra La orden de compra
 - Se realiza inspección física y técnica del material
 - Se disponen los productos para su correspondiente almacenamiento</t>
+  </si>
+  <si>
+    <t>Insuficientes para el FRE</t>
   </si>
 </sst>
 </file>
@@ -14082,10 +14106,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="FY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="DQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="DU25" sqref="DU25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14491,7 +14515,7 @@
         <v>105</v>
       </c>
       <c r="DY1" s="3" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="DZ1" s="1" t="s">
         <v>106</v>
@@ -14653,25 +14677,25 @@
         <v>155</v>
       </c>
       <c r="GA1" s="22" t="s">
+        <v>1871</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="GD1" s="22" t="s">
+        <v>1862</v>
+      </c>
+      <c r="GE1" s="22" t="s">
+        <v>1864</v>
+      </c>
+      <c r="GF1" s="61" t="s">
         <v>1872</v>
       </c>
-      <c r="GB1" t="s">
-        <v>1862</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>1864</v>
-      </c>
-      <c r="GD1" s="22" t="s">
-        <v>1863</v>
-      </c>
-      <c r="GE1" s="22" t="s">
-        <v>1865</v>
-      </c>
-      <c r="GF1" s="61" t="s">
-        <v>1873</v>
-      </c>
       <c r="GG1" s="33" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="2" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14679,7 +14703,7 @@
         <v>44324.663341099542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -14706,7 +14730,7 @@
         <v>162</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="L2" s="63" t="s">
         <v>771</v>
@@ -14824,7 +14848,7 @@
         <v>188</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>189</v>
@@ -14842,7 +14866,7 @@
         <v>192</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="CA2" s="2" t="s">
         <v>193</v>
@@ -14950,7 +14974,7 @@
         <v>211</v>
       </c>
       <c r="DK2" s="5" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="DL2" s="2"/>
       <c r="DM2" s="1" t="s">
@@ -14966,7 +14990,7 @@
         <v>215</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="DS2" s="2" t="s">
         <v>217</v>
@@ -15011,7 +15035,7 @@
         <v>222</v>
       </c>
       <c r="EG2" s="55" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="EH2" s="2" t="s">
         <v>226</v>
@@ -15053,7 +15077,7 @@
         <v>771</v>
       </c>
       <c r="EV2" s="5" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="EX2" s="2" t="s">
         <v>237</v>
@@ -15071,7 +15095,7 @@
         <v>239</v>
       </c>
       <c r="FC2" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="FD2" s="2" t="s">
         <v>240</v>
@@ -15137,19 +15161,19 @@
         <v>3</v>
       </c>
       <c r="GC2" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="GD2" s="59">
         <v>0</v>
       </c>
       <c r="GE2" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF2" s="37">
         <v>78</v>
       </c>
       <c r="GG2" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="3" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15292,7 +15316,7 @@
         <v>266</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BT3" s="2" t="s">
         <v>267</v>
@@ -15310,10 +15334,10 @@
         <v>270</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="CA3" s="2" t="s">
         <v>216</v>
@@ -15448,7 +15472,7 @@
         <v>222</v>
       </c>
       <c r="DY3" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="DZ3" s="9" t="s">
         <v>222</v>
@@ -15469,7 +15493,7 @@
         <v>222</v>
       </c>
       <c r="EG3" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH3" s="2" t="s">
         <v>294</v>
@@ -15508,7 +15532,7 @@
         <v>236</v>
       </c>
       <c r="EU3" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV3" s="2" t="s">
         <v>304</v>
@@ -15559,7 +15583,7 @@
         <v>216</v>
       </c>
       <c r="FO3" s="24" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="FP3" s="51">
         <v>1</v>
@@ -15595,19 +15619,19 @@
         <v>2</v>
       </c>
       <c r="GC3" s="37" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="GD3" s="59">
         <v>1</v>
       </c>
       <c r="GE3" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF3" s="37">
         <v>300</v>
       </c>
       <c r="GG3" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="GH3" s="22"/>
     </row>
@@ -15616,7 +15640,7 @@
         <v>44326.502545150463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>312</v>
@@ -15749,7 +15773,7 @@
         <v>334</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BT4" s="2" t="s">
         <v>335</v>
@@ -15767,7 +15791,7 @@
         <v>337</v>
       </c>
       <c r="BY4" s="5" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="CA4" s="2" t="s">
         <v>193</v>
@@ -15791,7 +15815,7 @@
         <v>196</v>
       </c>
       <c r="CH4" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="CI4" s="2" t="s">
         <v>339</v>
@@ -15891,7 +15915,7 @@
         <v>350</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="DS4" s="2" t="s">
         <v>351</v>
@@ -15921,7 +15945,7 @@
         <v>193</v>
       </c>
       <c r="EB4" s="69" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="ED4" s="2" t="s">
         <v>354</v>
@@ -16020,7 +16044,7 @@
         <v>216</v>
       </c>
       <c r="FO4" s="24" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="FP4" s="25">
         <v>12</v>
@@ -16056,19 +16080,19 @@
         <v>3</v>
       </c>
       <c r="GC4" s="37" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="GD4" s="67">
         <v>22</v>
       </c>
       <c r="GE4" s="38" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="GF4" s="37">
         <v>78</v>
       </c>
       <c r="GG4" s="33" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="5" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16275,7 +16299,7 @@
         <v>404</v>
       </c>
       <c r="CP5" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ5" s="2" t="s">
         <v>278</v>
@@ -16368,7 +16392,7 @@
         <v>222</v>
       </c>
       <c r="DY5" s="5" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="DZ5" s="9" t="s">
         <v>222</v>
@@ -16389,7 +16413,7 @@
         <v>222</v>
       </c>
       <c r="EG5" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="EH5" s="2" t="s">
         <v>419</v>
@@ -16431,7 +16455,7 @@
         <v>236</v>
       </c>
       <c r="EU5" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="EV5" s="2" t="s">
         <v>304</v>
@@ -16452,7 +16476,7 @@
         <v>431</v>
       </c>
       <c r="FC5" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="FD5" s="2" t="s">
         <v>432</v>
@@ -16524,19 +16548,19 @@
         <v>2</v>
       </c>
       <c r="GC5" s="37" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="GD5" s="59">
         <v>0</v>
       </c>
       <c r="GE5" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF5" s="37">
         <v>208</v>
       </c>
       <c r="GG5" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="6" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16544,7 +16568,7 @@
         <v>44339.650587766198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>440</v>
@@ -16568,7 +16592,7 @@
         <v>6605726</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="L6" s="63">
         <v>41429</v>
@@ -16616,7 +16640,7 @@
         <v>166</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>171</v>
@@ -16692,7 +16716,7 @@
         <v>460</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BT6" s="2" t="s">
         <v>461</v>
@@ -16752,7 +16776,7 @@
         <v>201</v>
       </c>
       <c r="CR6" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="CS6" s="2" t="s">
         <v>467</v>
@@ -16861,7 +16885,7 @@
         <v>222</v>
       </c>
       <c r="EG6" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH6" s="2" t="s">
         <v>479</v>
@@ -16990,19 +17014,19 @@
         <v>4</v>
       </c>
       <c r="GC6" s="37" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="GD6" s="59">
         <v>0</v>
       </c>
       <c r="GE6" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF6" s="37">
         <v>103</v>
       </c>
       <c r="GG6" s="33" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="7" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17034,7 +17058,7 @@
         <v>3112133711</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="L7" s="63">
         <v>39699</v>
@@ -17124,7 +17148,7 @@
         <v>400</v>
       </c>
       <c r="BA7" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="BC7" s="11"/>
       <c r="BD7" s="5" t="s">
@@ -17164,7 +17188,7 @@
         <v>514</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="BT7" s="2" t="s">
         <v>515</v>
@@ -17182,7 +17206,7 @@
         <v>517</v>
       </c>
       <c r="BY7" s="5" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="CA7" s="2" t="s">
         <v>193</v>
@@ -17290,7 +17314,7 @@
         <v>473</v>
       </c>
       <c r="DN7" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="DP7" s="2" t="s">
         <v>214</v>
@@ -17374,7 +17398,7 @@
         <v>236</v>
       </c>
       <c r="EU7" s="19" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV7" s="2" t="s">
         <v>304</v>
@@ -17464,19 +17488,19 @@
         <v>3</v>
       </c>
       <c r="GC7" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="GD7" s="59">
         <v>0</v>
       </c>
       <c r="GE7" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF7" s="37" t="s">
         <v>536</v>
       </c>
       <c r="GG7" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="8" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17605,7 +17629,7 @@
         <v>570</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="BT8" s="2" t="s">
         <v>571</v>
@@ -17659,7 +17683,7 @@
         <v>404</v>
       </c>
       <c r="CP8" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ8" s="2" t="s">
         <v>278</v>
@@ -17752,7 +17776,7 @@
         <v>222</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="DZ8" s="9" t="s">
         <v>222</v>
@@ -17773,7 +17797,7 @@
         <v>222</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="EH8" s="2" t="s">
         <v>591</v>
@@ -17815,7 +17839,7 @@
         <v>236</v>
       </c>
       <c r="EU8" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV8" s="2" t="s">
         <v>600</v>
@@ -17899,19 +17923,19 @@
         <v>1</v>
       </c>
       <c r="GC8" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD8" s="59">
         <v>1</v>
       </c>
       <c r="GE8" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF8" s="37" t="s">
         <v>592</v>
       </c>
       <c r="GG8" s="33" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="9" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17964,7 +17988,7 @@
         <v>166</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>168</v>
@@ -17994,7 +18018,7 @@
         <v>166</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>168</v>
@@ -18085,7 +18109,7 @@
         <v>631</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="BS9" s="2" t="s">
         <v>632</v>
@@ -18239,7 +18263,7 @@
         <v>222</v>
       </c>
       <c r="DY9" s="5" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="DZ9" s="9" t="s">
         <v>222</v>
@@ -18296,7 +18320,7 @@
         <v>236</v>
       </c>
       <c r="EU9" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV9" s="2" t="s">
         <v>304</v>
@@ -18383,19 +18407,19 @@
         <v>4</v>
       </c>
       <c r="GC9" s="37" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="GD9" s="59">
         <v>2</v>
       </c>
       <c r="GE9" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="GF9" s="37">
         <v>34</v>
       </c>
       <c r="GG9" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18540,7 +18564,7 @@
         <v>686</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="BT10" s="2" t="s">
         <v>687</v>
@@ -18732,7 +18756,7 @@
         <v>299</v>
       </c>
       <c r="EO10" s="2" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="EP10" s="2" t="s">
         <v>712</v>
@@ -18750,7 +18774,7 @@
         <v>236</v>
       </c>
       <c r="EU10" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV10" s="2" t="s">
         <v>716</v>
@@ -18837,19 +18861,19 @@
         <v>1</v>
       </c>
       <c r="GC10" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD10" s="59">
         <v>1</v>
       </c>
       <c r="GE10" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF10" s="37" t="s">
         <v>707</v>
       </c>
       <c r="GG10" s="33" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="11" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19060,7 +19084,7 @@
         <v>744</v>
       </c>
       <c r="CR11" s="5" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="CS11" s="2" t="s">
         <v>279</v>
@@ -19168,7 +19192,7 @@
         <v>222</v>
       </c>
       <c r="EG11" s="5" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="EH11" s="2" t="s">
         <v>757</v>
@@ -19207,7 +19231,7 @@
         <v>236</v>
       </c>
       <c r="EU11" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV11" s="2" t="s">
         <v>304</v>
@@ -19297,19 +19321,19 @@
         <v>5</v>
       </c>
       <c r="GC11" s="37" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="GD11" s="59">
         <v>0</v>
       </c>
       <c r="GE11" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF11" s="37">
         <v>80</v>
       </c>
       <c r="GG11" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="12" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19344,7 +19368,7 @@
         <v>780</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="L12" s="63">
         <v>32331</v>
@@ -19362,7 +19386,7 @@
         <v>166</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>168</v>
@@ -19492,7 +19516,7 @@
         <v>798</v>
       </c>
       <c r="BY12" s="5" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="CA12" s="2" t="s">
         <v>193</v>
@@ -19681,7 +19705,7 @@
         <v>236</v>
       </c>
       <c r="EU12" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV12" s="2" t="s">
         <v>304</v>
@@ -19771,19 +19795,19 @@
         <v>3</v>
       </c>
       <c r="GC12" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GD12" s="59">
         <v>8</v>
       </c>
       <c r="GE12" s="37" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="GF12" s="37">
         <v>245</v>
       </c>
       <c r="GG12" s="33" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19833,7 +19857,7 @@
         <v>166</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>168</v>
@@ -19966,7 +19990,7 @@
         <v>853</v>
       </c>
       <c r="BY13" s="5" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="CA13" s="2" t="s">
         <v>193</v>
@@ -19987,7 +20011,7 @@
         <v>274</v>
       </c>
       <c r="CH13" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="CJ13" s="2" t="s">
         <v>799</v>
@@ -20005,7 +20029,7 @@
         <v>201</v>
       </c>
       <c r="CP13" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="CQ13" s="2" t="s">
         <v>201</v>
@@ -20117,7 +20141,7 @@
         <v>222</v>
       </c>
       <c r="EG13" s="5" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="EH13" s="2" t="s">
         <v>871</v>
@@ -20250,19 +20274,19 @@
         <v>6</v>
       </c>
       <c r="GC13" s="37" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="GD13" s="59">
         <v>0</v>
       </c>
       <c r="GE13" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF13" s="36">
         <v>45</v>
       </c>
       <c r="GG13" s="33" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="14" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20270,7 +20294,7 @@
         <v>44384.71444163195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>901</v>
@@ -20279,10 +20303,10 @@
         <v>44363</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>902</v>
@@ -20399,7 +20423,7 @@
         <v>917</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BT14" s="1" t="s">
         <v>918</v>
@@ -20435,7 +20459,7 @@
         <v>577</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CJ14" s="1" t="s">
         <v>923</v>
@@ -20531,7 +20555,7 @@
         <v>932</v>
       </c>
       <c r="DR14" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="DT14" s="1" t="s">
         <v>283</v>
@@ -20570,7 +20594,7 @@
         <v>222</v>
       </c>
       <c r="EG14" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="EH14" s="1" t="s">
         <v>937</v>
@@ -20609,7 +20633,7 @@
         <v>236</v>
       </c>
       <c r="EU14" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV14" s="1" t="s">
         <v>716</v>
@@ -20693,25 +20717,25 @@
         <v>439</v>
       </c>
       <c r="GA14" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="GB14" s="58">
         <v>3</v>
       </c>
       <c r="GC14" s="58" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="GD14" s="60">
         <v>0</v>
       </c>
       <c r="GE14" s="58" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF14" s="58">
         <v>43</v>
       </c>
       <c r="GG14" s="33" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="15" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20848,7 +20872,7 @@
         <v>972</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BT15" s="1" t="s">
         <v>973</v>
@@ -21076,7 +21100,7 @@
         <v>1001</v>
       </c>
       <c r="FC15" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="FD15" s="1" t="s">
         <v>604</v>
@@ -21143,19 +21167,19 @@
         <v>2</v>
       </c>
       <c r="GC15" s="58" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="GD15" s="60">
         <v>6</v>
       </c>
       <c r="GE15" s="58" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="GF15" s="58">
         <v>220</v>
       </c>
       <c r="GG15" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="16" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21238,7 +21262,7 @@
         <v>166</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="AG16" s="1" t="s">
         <v>171</v>
@@ -21319,7 +21343,7 @@
         <v>1029</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BT16" s="1" t="s">
         <v>1030</v>
@@ -21334,7 +21358,7 @@
         <v>1032</v>
       </c>
       <c r="BY16" s="15" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="CA16" s="1" t="s">
         <v>193</v>
@@ -21373,7 +21397,7 @@
         <v>404</v>
       </c>
       <c r="CP16" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ16" s="1" t="s">
         <v>278</v>
@@ -21390,11 +21414,11 @@
       <c r="CU16" s="1">
         <v>6</v>
       </c>
-      <c r="CV16" s="1" t="s">
+      <c r="CV16" s="15" t="s">
+        <v>1980</v>
+      </c>
+      <c r="CX16" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="CX16" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="CY16" s="1" t="s">
         <v>278</v>
@@ -21422,31 +21446,31 @@
         <v>208</v>
       </c>
       <c r="DG16" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="DH16" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="DH16" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="DI16" s="14">
         <v>1.5</v>
       </c>
       <c r="DJ16" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="DK16" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="DK16" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="DM16" s="1" t="s">
         <v>220</v>
       </c>
       <c r="DN16" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="DP16" s="1" t="s">
         <v>288</v>
       </c>
       <c r="DQ16" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="DR16" s="1" t="s">
         <v>751</v>
@@ -21455,13 +21479,13 @@
         <v>469</v>
       </c>
       <c r="DU16" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="DV16" s="1" t="s">
         <v>808</v>
       </c>
       <c r="DW16" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="DX16" s="1" t="s">
         <v>222</v>
@@ -21477,7 +21501,7 @@
         <v>588</v>
       </c>
       <c r="ED16" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="EE16" s="1" t="s">
         <v>193</v>
@@ -21486,64 +21510,64 @@
         <v>222</v>
       </c>
       <c r="EG16" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="EH16" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="EI16" s="33">
         <v>130</v>
       </c>
       <c r="EJ16" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="EK16" s="16">
         <v>1</v>
       </c>
       <c r="EL16" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="EM16" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="EM16" s="1" t="s">
+      <c r="EN16" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="EP16" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="EN16" s="1" t="s">
+      <c r="EQ16" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="ER16" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="ES16" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="ET16" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="EU16" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="EP16" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="EQ16" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="ER16" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="ES16" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="ET16" s="1" t="s">
+      <c r="EV16" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="EU16" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="EV16" s="1" t="s">
+      <c r="EX16" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="EX16" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="EY16" s="1" t="s">
         <v>274</v>
       </c>
       <c r="EZ16" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="FA16" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="FB16" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="FB16" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="FC16" s="1" t="s">
         <v>274</v>
@@ -21552,7 +21576,7 @@
         <v>491</v>
       </c>
       <c r="FE16" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="FF16" s="1" t="s">
         <v>434</v>
@@ -21567,7 +21591,7 @@
         <v>222</v>
       </c>
       <c r="FK16" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="FM16" s="33">
         <v>2</v>
@@ -21576,7 +21600,7 @@
         <v>193</v>
       </c>
       <c r="FO16" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="FP16" s="1">
         <v>1</v>
@@ -21603,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="FZ16" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="GA16" s="13" t="s">
         <v>1007</v>
@@ -21612,19 +21636,19 @@
         <v>3</v>
       </c>
       <c r="GC16" s="58" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="GD16" s="60">
         <v>7</v>
       </c>
       <c r="GE16" s="58" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="GF16" s="58">
         <v>130</v>
       </c>
       <c r="GG16" s="33" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="17" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21632,43 +21656,43 @@
         <v>44447.520694444444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E17" s="20">
         <v>44410</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I17" t="s">
         <v>1076</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1077</v>
       </c>
       <c r="J17">
         <v>3125216160</v>
       </c>
       <c r="K17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="L17" s="64">
         <v>39277</v>
       </c>
       <c r="M17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N17" t="s">
         <v>1079</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>1080</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1081</v>
       </c>
       <c r="P17" t="s">
         <v>170</v>
@@ -21707,7 +21731,7 @@
         <v>400</v>
       </c>
       <c r="AZ17" s="21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="BA17" t="s">
         <v>382</v>
@@ -21716,19 +21740,19 @@
         <v>843</v>
       </c>
       <c r="BE17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="BF17" t="s">
         <v>1083</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>1084</v>
       </c>
       <c r="BG17">
         <v>30</v>
       </c>
       <c r="BH17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="BI17" t="s">
         <v>1085</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>1086</v>
       </c>
       <c r="BJ17" t="e" cm="1">
         <f t="array" ref="BJ17">- La entidad hace La solicitud de cotización
@@ -21742,37 +21766,37 @@
         <v>262</v>
       </c>
       <c r="BM17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="BO17" t="s">
         <v>1087</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>1088</v>
       </c>
       <c r="BP17" t="s">
         <v>187</v>
       </c>
       <c r="BQ17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>1964</v>
+      </c>
+      <c r="BT17" t="s">
         <v>1089</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>1965</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>1090</v>
       </c>
       <c r="BU17" t="s">
         <v>380</v>
       </c>
       <c r="BV17" s="24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BW17" t="s">
         <v>1091</v>
       </c>
-      <c r="BW17" t="s">
+      <c r="BX17" t="s">
         <v>1092</v>
       </c>
-      <c r="BX17" t="s">
+      <c r="BY17" s="22" t="s">
         <v>1093</v>
-      </c>
-      <c r="BY17" s="22" t="s">
-        <v>1094</v>
       </c>
       <c r="CA17" t="s">
         <v>193</v>
@@ -21784,19 +21808,19 @@
         <v>399</v>
       </c>
       <c r="CE17" s="21" t="s">
+        <v>1094</v>
+      </c>
+      <c r="CF17" t="s">
         <v>1095</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>1096</v>
       </c>
       <c r="CG17" t="s">
         <v>274</v>
       </c>
       <c r="CH17" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CJ17" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="CK17" t="s">
         <v>222</v>
@@ -21805,7 +21829,7 @@
         <v>968</v>
       </c>
       <c r="CM17" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="CO17" t="s">
         <v>380</v>
@@ -21820,7 +21844,7 @@
         <v>405</v>
       </c>
       <c r="CT17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="CU17">
         <v>1</v>
@@ -21829,13 +21853,13 @@
         <v>281</v>
       </c>
       <c r="CW17" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CX17" s="21" t="s">
         <v>1100</v>
       </c>
-      <c r="CX17" s="21" t="s">
+      <c r="CY17" t="s">
         <v>1101</v>
-      </c>
-      <c r="CY17" t="s">
-        <v>1102</v>
       </c>
       <c r="CZ17">
         <v>5</v>
@@ -21859,19 +21883,19 @@
         <v>283</v>
       </c>
       <c r="DG17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="DH17" s="39" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="DI17">
         <v>1</v>
       </c>
       <c r="DJ17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="DK17" t="s">
         <v>1104</v>
-      </c>
-      <c r="DK17" t="s">
-        <v>1105</v>
       </c>
       <c r="DM17" t="s">
         <v>473</v>
@@ -21883,22 +21907,22 @@
         <v>288</v>
       </c>
       <c r="DQ17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="DR17" t="s">
         <v>1106</v>
-      </c>
-      <c r="DR17" t="s">
-        <v>1107</v>
       </c>
       <c r="DT17" t="s">
         <v>283</v>
       </c>
       <c r="DU17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="DV17" t="s">
         <v>380</v>
       </c>
       <c r="DW17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="DX17" s="24" t="s">
         <v>193</v>
@@ -21916,28 +21940,28 @@
         <v>754</v>
       </c>
       <c r="ED17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="EE17" t="s">
         <v>1110</v>
-      </c>
-      <c r="EE17" t="s">
-        <v>1111</v>
       </c>
       <c r="EF17" t="s">
         <v>193</v>
       </c>
       <c r="EH17" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="EI17" s="37">
         <v>2</v>
       </c>
       <c r="EJ17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="EL17" t="s">
         <v>1113</v>
-      </c>
-      <c r="EK17" t="s">
-        <v>1113</v>
-      </c>
-      <c r="EL17" t="s">
-        <v>1114</v>
       </c>
       <c r="EM17" t="e" cm="1">
         <f t="array" ref="EM17">- el paciente llega con La prescripción en el recetario oficial
@@ -21951,28 +21975,28 @@
         <v>299</v>
       </c>
       <c r="EP17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="EQ17" t="s">
         <v>1115</v>
       </c>
-      <c r="EQ17" t="s">
+      <c r="ER17" t="s">
         <v>1116</v>
       </c>
-      <c r="ER17" t="s">
+      <c r="ES17" s="21" t="s">
         <v>1117</v>
-      </c>
-      <c r="ES17" s="21" t="s">
-        <v>1118</v>
       </c>
       <c r="ET17" t="s">
         <v>236</v>
       </c>
       <c r="EU17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="EV17" t="s">
         <v>716</v>
       </c>
       <c r="EX17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="EY17" t="s">
         <v>274</v>
@@ -21981,10 +22005,10 @@
         <v>236</v>
       </c>
       <c r="FA17" s="21" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="FB17" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="FC17" t="s">
         <v>274</v>
@@ -21993,7 +22017,7 @@
         <v>948</v>
       </c>
       <c r="FE17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="FF17" t="s">
         <v>434</v>
@@ -22017,7 +22041,7 @@
         <v>193</v>
       </c>
       <c r="FO17" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="FP17">
         <v>1</v>
@@ -22044,31 +22068,31 @@
         <v>0</v>
       </c>
       <c r="FX17" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="FZ17" t="s">
         <v>667</v>
       </c>
       <c r="GA17" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="GB17" s="37">
         <v>1</v>
       </c>
       <c r="GC17" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD17" s="59">
         <v>0</v>
       </c>
       <c r="GE17" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF17" s="37">
         <v>2</v>
       </c>
       <c r="GG17" s="33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="18" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22079,67 +22103,67 @@
         <v>826</v>
       </c>
       <c r="C18" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D18" t="s">
         <v>1125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1126</v>
       </c>
       <c r="E18" s="20">
         <v>44398</v>
       </c>
       <c r="F18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G18" t="s">
         <v>1127</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>1128</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>1129</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>1130</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>1131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1132</v>
       </c>
       <c r="L18" s="64">
         <v>40255</v>
       </c>
       <c r="M18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N18" t="s">
         <v>1133</v>
       </c>
-      <c r="N18" t="s">
-        <v>1134</v>
-      </c>
       <c r="O18" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="P18" t="s">
         <v>166</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="R18" t="s">
         <v>168</v>
       </c>
       <c r="T18" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="U18" t="s">
         <v>166</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="W18" t="s">
         <v>171</v>
       </c>
       <c r="Y18" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="Z18" t="s">
         <v>254</v>
@@ -22178,55 +22202,55 @@
         <v>256</v>
       </c>
       <c r="BE18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BF18" t="s">
         <v>1136</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>1137</v>
       </c>
       <c r="BG18">
         <v>120</v>
       </c>
       <c r="BH18" s="21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BI18" t="s">
         <v>1138</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>1139</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>1140</v>
       </c>
       <c r="BK18" t="s">
         <v>567</v>
       </c>
       <c r="BM18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BO18" t="s">
         <v>1141</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>1142</v>
       </c>
       <c r="BP18" t="s">
         <v>392</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="BR18" t="s">
         <v>380</v>
       </c>
       <c r="BT18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="BU18" t="s">
         <v>380</v>
       </c>
       <c r="BW18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="BX18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="BY18" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="CA18" t="s">
         <v>216</v>
@@ -22250,7 +22274,7 @@
         <v>197</v>
       </c>
       <c r="CJ18" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="CK18" t="s">
         <v>222</v>
@@ -22259,13 +22283,13 @@
         <v>199</v>
       </c>
       <c r="CM18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="CO18" t="s">
         <v>404</v>
       </c>
       <c r="CP18" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ18" t="s">
         <v>278</v>
@@ -22277,7 +22301,7 @@
         <v>895</v>
       </c>
       <c r="CT18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="CU18">
         <v>1</v>
@@ -22286,7 +22310,7 @@
         <v>281</v>
       </c>
       <c r="CX18" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="CY18" t="s">
         <v>278</v>
@@ -22313,16 +22337,16 @@
         <v>208</v>
       </c>
       <c r="DG18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="DH18" t="s">
         <v>1149</v>
-      </c>
-      <c r="DH18" t="s">
-        <v>1150</v>
       </c>
       <c r="DI18">
         <v>2</v>
       </c>
       <c r="DJ18" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="DK18" t="s">
         <v>699</v>
@@ -22331,31 +22355,31 @@
         <v>473</v>
       </c>
       <c r="DN18" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="DP18" t="s">
         <v>214</v>
       </c>
       <c r="DQ18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="DR18" s="24" t="s">
         <v>1153</v>
       </c>
-      <c r="DR18" s="24" t="s">
-        <v>1154</v>
-      </c>
       <c r="DS18" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="DT18" s="2" t="s">
         <v>469</v>
       </c>
       <c r="DU18" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="DV18" t="s">
         <v>531</v>
       </c>
       <c r="DW18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="DX18" s="24" t="s">
         <v>222</v>
@@ -22371,7 +22395,7 @@
         <v>416</v>
       </c>
       <c r="ED18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="EE18" t="s">
         <v>193</v>
@@ -22380,10 +22404,10 @@
         <v>222</v>
       </c>
       <c r="EG18" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="EI18" s="37">
         <v>78</v>
@@ -22395,46 +22419,46 @@
         <v>194</v>
       </c>
       <c r="EL18" t="s">
+        <v>1158</v>
+      </c>
+      <c r="EM18" t="s">
         <v>1159</v>
-      </c>
-      <c r="EM18" t="s">
-        <v>1160</v>
       </c>
       <c r="EN18" t="s">
         <v>299</v>
       </c>
       <c r="EP18" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EQ18" t="s">
         <v>1161</v>
-      </c>
-      <c r="EQ18" t="s">
-        <v>1162</v>
       </c>
       <c r="ER18" t="s">
         <v>193</v>
       </c>
       <c r="ES18" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="ET18" t="s">
         <v>236</v>
       </c>
       <c r="EU18" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV18" t="s">
         <v>716</v>
       </c>
       <c r="EX18" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="EY18" t="s">
         <v>274</v>
       </c>
       <c r="EZ18" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="FA18" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="FB18" t="s">
         <v>546</v>
@@ -22461,7 +22485,7 @@
         <v>222</v>
       </c>
       <c r="FK18" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="FM18" s="37">
         <v>3</v>
@@ -22503,25 +22527,25 @@
         <v>439</v>
       </c>
       <c r="GA18" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="GB18" s="37">
         <v>2</v>
       </c>
       <c r="GC18" s="37" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="GD18" s="59">
         <v>0</v>
       </c>
       <c r="GE18" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF18" s="37">
         <v>78</v>
       </c>
       <c r="GG18" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="19" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22532,40 +22556,40 @@
         <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E19" s="20">
         <v>44411</v>
       </c>
       <c r="F19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G19" t="s">
         <v>1168</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>1169</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>1170</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1171</v>
       </c>
       <c r="J19" t="s">
         <v>771</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="L19" s="68">
         <v>43128</v>
       </c>
       <c r="M19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N19" t="s">
         <v>1172</v>
       </c>
-      <c r="N19" t="s">
-        <v>1173</v>
-      </c>
       <c r="O19" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="P19" t="s">
         <v>254</v>
@@ -22604,61 +22628,61 @@
         <v>600</v>
       </c>
       <c r="BA19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="BD19" t="s">
         <v>256</v>
       </c>
       <c r="BE19" s="21" t="s">
+        <v>1174</v>
+      </c>
+      <c r="BF19" t="s">
         <v>1175</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>1176</v>
       </c>
       <c r="BG19">
         <v>30</v>
       </c>
       <c r="BH19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BJ19" t="s">
         <v>1177</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>1131</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>1178</v>
       </c>
       <c r="BK19" t="s">
         <v>389</v>
       </c>
       <c r="BM19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BO19" t="s">
         <v>1179</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>1180</v>
       </c>
       <c r="BP19" t="s">
         <v>187</v>
       </c>
       <c r="BQ19" t="s">
+        <v>1180</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>1964</v>
+      </c>
+      <c r="BT19" t="s">
         <v>1181</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>1965</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>1182</v>
       </c>
       <c r="BU19" t="s">
         <v>688</v>
       </c>
       <c r="BW19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="BX19" t="s">
         <v>1183</v>
       </c>
-      <c r="BX19" t="s">
-        <v>1184</v>
-      </c>
       <c r="BY19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="CA19" t="s">
         <v>216</v>
@@ -22670,19 +22694,19 @@
         <v>271</v>
       </c>
       <c r="CE19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="CF19" t="s">
         <v>1185</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>1186</v>
       </c>
       <c r="CG19" t="s">
         <v>274</v>
       </c>
       <c r="CH19" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CJ19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="CK19" t="s">
         <v>193</v>
@@ -22694,7 +22718,7 @@
         <v>380</v>
       </c>
       <c r="CO19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CQ19" t="s">
         <v>278</v>
@@ -22715,10 +22739,10 @@
         <v>281</v>
       </c>
       <c r="CX19" s="21" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="CY19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CZ19">
         <v>1</v>
@@ -22742,31 +22766,31 @@
         <v>208</v>
       </c>
       <c r="DG19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="DH19" t="s">
         <v>1190</v>
-      </c>
-      <c r="DH19" t="s">
-        <v>1191</v>
       </c>
       <c r="DI19">
         <v>1</v>
       </c>
       <c r="DJ19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="DK19" t="s">
         <v>1192</v>
-      </c>
-      <c r="DK19" t="s">
-        <v>1193</v>
       </c>
       <c r="DM19" t="s">
         <v>473</v>
       </c>
       <c r="DN19" s="22" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="DP19" t="s">
         <v>214</v>
       </c>
       <c r="DQ19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="DR19" t="s">
         <v>529</v>
@@ -22775,13 +22799,13 @@
         <v>208</v>
       </c>
       <c r="DU19" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="DV19" t="s">
         <v>291</v>
       </c>
       <c r="DW19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="DX19" t="s">
         <v>193</v>
@@ -22796,10 +22820,10 @@
         <v>216</v>
       </c>
       <c r="EB19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="ED19" t="s">
         <v>1198</v>
-      </c>
-      <c r="ED19" t="s">
-        <v>1199</v>
       </c>
       <c r="EE19" t="s">
         <v>990</v>
@@ -22808,40 +22832,40 @@
         <v>222</v>
       </c>
       <c r="EG19" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="EI19" s="37">
         <v>11</v>
       </c>
       <c r="EJ19" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="EK19" t="s">
         <v>1201</v>
       </c>
-      <c r="EK19" t="s">
+      <c r="EL19" t="s">
         <v>1202</v>
       </c>
-      <c r="EL19" t="s">
+      <c r="EM19" t="s">
         <v>1203</v>
-      </c>
-      <c r="EM19" t="s">
-        <v>1204</v>
       </c>
       <c r="EN19" t="s">
         <v>299</v>
       </c>
       <c r="EP19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="EQ19" t="s">
         <v>1205</v>
       </c>
-      <c r="EQ19" t="s">
+      <c r="ER19" t="s">
         <v>1206</v>
       </c>
-      <c r="ER19" t="s">
+      <c r="ES19" t="s">
         <v>1207</v>
-      </c>
-      <c r="ES19" t="s">
-        <v>1208</v>
       </c>
       <c r="ET19" t="s">
         <v>236</v>
@@ -22853,7 +22877,7 @@
         <v>304</v>
       </c>
       <c r="EX19" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="EY19" t="s">
         <v>274</v>
@@ -22862,10 +22886,10 @@
         <v>236</v>
       </c>
       <c r="FA19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="FB19" t="s">
         <v>1210</v>
-      </c>
-      <c r="FB19" t="s">
-        <v>1211</v>
       </c>
       <c r="FC19" t="s">
         <v>274</v>
@@ -22874,13 +22898,13 @@
         <v>604</v>
       </c>
       <c r="FE19" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="FF19" t="s">
         <v>434</v>
       </c>
       <c r="FG19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="FI19" s="24" t="s">
         <v>222</v>
@@ -22889,7 +22913,7 @@
         <v>222</v>
       </c>
       <c r="FK19" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="FM19" s="37">
         <v>1</v>
@@ -22922,28 +22946,28 @@
         <v>0.5</v>
       </c>
       <c r="FZ19" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="GA19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="GB19" s="37">
         <v>1</v>
       </c>
       <c r="GC19" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD19" s="59">
         <v>1</v>
       </c>
       <c r="GE19" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF19" s="37">
         <v>11</v>
       </c>
       <c r="GG19" s="33" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="20" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -22954,55 +22978,55 @@
         <v>550</v>
       </c>
       <c r="C20" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D20" t="s">
         <v>1216</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1217</v>
       </c>
       <c r="E20" s="20">
         <v>44411</v>
       </c>
       <c r="F20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G20" t="s">
         <v>1218</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>1219</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>1220</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1221</v>
       </c>
       <c r="J20">
         <v>5600911</v>
       </c>
       <c r="K20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L20" s="64">
         <v>32658</v>
       </c>
       <c r="M20" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N20" t="s">
         <v>1223</v>
       </c>
-      <c r="N20" t="s">
-        <v>1224</v>
-      </c>
       <c r="O20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="P20" t="s">
         <v>166</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="R20" t="s">
         <v>168</v>
       </c>
       <c r="T20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="U20" t="s">
         <v>170</v>
@@ -23011,7 +23035,7 @@
         <v>171</v>
       </c>
       <c r="Y20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Z20" t="s">
         <v>166</v>
@@ -23053,61 +23077,61 @@
         <v>256</v>
       </c>
       <c r="BE20" t="s">
+        <v>1225</v>
+      </c>
+      <c r="BF20" t="s">
         <v>1226</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>1227</v>
       </c>
       <c r="BG20">
         <v>90</v>
       </c>
       <c r="BH20" s="21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BI20" t="s">
         <v>1228</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>1229</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>1230</v>
       </c>
       <c r="BK20" t="s">
         <v>389</v>
       </c>
       <c r="BM20" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BN20" t="s">
         <v>1231</v>
       </c>
-      <c r="BN20" t="s">
+      <c r="BO20" t="s">
         <v>1232</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>1233</v>
       </c>
       <c r="BP20" t="s">
         <v>187</v>
       </c>
       <c r="BQ20" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>1966</v>
+      </c>
+      <c r="BT20" t="s">
         <v>1234</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>1967</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>1235</v>
       </c>
       <c r="BU20" t="s">
         <v>688</v>
       </c>
       <c r="BW20" t="s">
+        <v>1235</v>
+      </c>
+      <c r="BX20" t="s">
         <v>1236</v>
       </c>
-      <c r="BX20" t="s">
+      <c r="BY20" t="s">
         <v>1237</v>
       </c>
-      <c r="BY20" t="s">
-        <v>1238</v>
-      </c>
       <c r="BZ20" s="24" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="CA20" t="s">
         <v>216</v>
@@ -23119,19 +23143,19 @@
         <v>271</v>
       </c>
       <c r="CE20" t="s">
+        <v>1238</v>
+      </c>
+      <c r="CF20" t="s">
         <v>1239</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>1240</v>
       </c>
       <c r="CG20" t="s">
         <v>577</v>
       </c>
       <c r="CH20" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="CJ20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="CK20" t="s">
         <v>193</v>
@@ -23143,13 +23167,13 @@
         <v>380</v>
       </c>
       <c r="CO20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="CP20" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="CS20" t="s">
         <v>467</v>
@@ -23163,11 +23187,11 @@
       <c r="CV20" t="s">
         <v>693</v>
       </c>
-      <c r="CW20" t="s">
+      <c r="CW20" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="CX20" t="s">
         <v>1243</v>
-      </c>
-      <c r="CX20" t="s">
-        <v>1244</v>
       </c>
       <c r="CY20" t="s">
         <v>744</v>
@@ -23194,19 +23218,19 @@
         <v>283</v>
       </c>
       <c r="DG20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="DH20" t="s">
         <v>1246</v>
-      </c>
-      <c r="DH20" t="s">
-        <v>1247</v>
       </c>
       <c r="DI20">
         <v>1</v>
       </c>
       <c r="DJ20" t="s">
+        <v>1247</v>
+      </c>
+      <c r="DK20" t="s">
         <v>1248</v>
-      </c>
-      <c r="DK20" t="s">
-        <v>1249</v>
       </c>
       <c r="DM20" t="s">
         <v>220</v>
@@ -23215,10 +23239,10 @@
         <v>584</v>
       </c>
       <c r="DP20" t="s">
+        <v>1249</v>
+      </c>
+      <c r="DQ20" t="s">
         <v>1250</v>
-      </c>
-      <c r="DQ20" t="s">
-        <v>1251</v>
       </c>
       <c r="DR20" t="s">
         <v>413</v>
@@ -23227,13 +23251,13 @@
         <v>208</v>
       </c>
       <c r="DU20" t="s">
+        <v>1251</v>
+      </c>
+      <c r="DV20" t="s">
         <v>1252</v>
       </c>
-      <c r="DV20" t="s">
+      <c r="DW20" t="s">
         <v>1253</v>
-      </c>
-      <c r="DW20" t="s">
-        <v>1254</v>
       </c>
       <c r="DX20" s="26" t="s">
         <v>193</v>
@@ -23248,68 +23272,68 @@
         <v>216</v>
       </c>
       <c r="EB20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="ED20" t="s">
         <v>1255</v>
       </c>
-      <c r="ED20" t="s">
+      <c r="EE20" t="s">
         <v>1256</v>
-      </c>
-      <c r="EE20" t="s">
-        <v>1257</v>
       </c>
       <c r="EF20" t="s">
         <v>222</v>
       </c>
       <c r="EG20" s="23" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="EI20" s="70">
         <f>(433+163)/2</f>
         <v>298</v>
       </c>
       <c r="EJ20" t="s">
+        <v>1258</v>
+      </c>
+      <c r="EK20" t="s">
         <v>1259</v>
       </c>
-      <c r="EK20" t="s">
+      <c r="EL20" t="s">
         <v>1260</v>
       </c>
-      <c r="EL20" t="s">
+      <c r="EM20" t="s">
         <v>1261</v>
       </c>
-      <c r="EM20" t="s">
+      <c r="EN20" t="s">
         <v>1262</v>
-      </c>
-      <c r="EN20" t="s">
-        <v>1263</v>
       </c>
       <c r="EO20" t="s">
         <v>424</v>
       </c>
       <c r="EP20" t="s">
+        <v>1263</v>
+      </c>
+      <c r="EQ20" t="s">
         <v>1264</v>
-      </c>
-      <c r="EQ20" t="s">
-        <v>1265</v>
       </c>
       <c r="ER20" t="s">
         <v>898</v>
       </c>
       <c r="ES20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="ET20" t="s">
         <v>236</v>
       </c>
       <c r="EU20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="EV20" t="s">
         <v>716</v>
       </c>
       <c r="EX20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="EY20" t="s">
         <v>367</v>
@@ -23318,10 +23342,10 @@
         <v>236</v>
       </c>
       <c r="FA20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="FB20" t="s">
         <v>1269</v>
-      </c>
-      <c r="FB20" t="s">
-        <v>1270</v>
       </c>
       <c r="FC20" t="s">
         <v>367</v>
@@ -23330,16 +23354,16 @@
         <v>308</v>
       </c>
       <c r="FE20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="FF20" t="s">
         <v>434</v>
       </c>
       <c r="FG20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="FH20" t="s">
         <v>1272</v>
-      </c>
-      <c r="FH20" t="s">
-        <v>1273</v>
       </c>
       <c r="FI20" t="s">
         <v>193</v>
@@ -23348,7 +23372,7 @@
         <v>193</v>
       </c>
       <c r="FK20" s="21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="FM20" s="37">
         <v>2</v>
@@ -23381,31 +23405,31 @@
         <v>560</v>
       </c>
       <c r="FY20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="FZ20" t="s">
         <v>439</v>
       </c>
       <c r="GA20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="GB20" s="37">
         <v>1</v>
       </c>
       <c r="GC20" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD20" s="59">
         <v>1</v>
       </c>
       <c r="GE20" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF20" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="GG20" s="33" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="21" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23416,55 +23440,55 @@
         <v>826</v>
       </c>
       <c r="C21" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D21" t="s">
         <v>1276</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1277</v>
       </c>
       <c r="E21" s="20">
         <v>44410</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G21" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H21" t="s">
         <v>1278</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>1279</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1280</v>
       </c>
       <c r="J21" t="s">
         <v>510</v>
       </c>
       <c r="K21" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L21" s="64">
         <v>40449</v>
       </c>
       <c r="M21" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N21" t="s">
         <v>1282</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>1283</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1284</v>
       </c>
       <c r="P21" t="s">
         <v>166</v>
       </c>
       <c r="Q21" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="R21" t="s">
         <v>168</v>
       </c>
       <c r="T21" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="U21" t="s">
         <v>170</v>
@@ -23473,10 +23497,10 @@
         <v>171</v>
       </c>
       <c r="Y21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Z21" t="s">
         <v>1287</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>1288</v>
       </c>
       <c r="AB21" t="s">
         <v>171</v>
@@ -23512,40 +23536,40 @@
         <v>256</v>
       </c>
       <c r="BE21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="BF21" t="s">
         <v>1289</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>1290</v>
       </c>
       <c r="BG21">
         <v>60</v>
       </c>
       <c r="BH21" s="21" t="s">
+        <v>1290</v>
+      </c>
+      <c r="BI21" t="s">
         <v>1291</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>1292</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>1293</v>
       </c>
       <c r="BK21" t="s">
         <v>734</v>
       </c>
       <c r="BL21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="BM21" t="s">
         <v>1294</v>
       </c>
-      <c r="BM21" t="s">
+      <c r="BO21" t="s">
         <v>1295</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>1296</v>
       </c>
       <c r="BP21" t="s">
         <v>265</v>
       </c>
       <c r="BQ21" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="BR21" t="s">
         <v>166</v>
@@ -23554,7 +23578,7 @@
         <v>276</v>
       </c>
       <c r="BT21" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BU21" t="s">
         <v>166</v>
@@ -23563,13 +23587,13 @@
         <v>268</v>
       </c>
       <c r="BW21" t="s">
+        <v>1298</v>
+      </c>
+      <c r="BX21" t="s">
         <v>1299</v>
       </c>
-      <c r="BX21" t="s">
+      <c r="BY21" t="s">
         <v>1300</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>1301</v>
       </c>
       <c r="CA21" t="s">
         <v>193</v>
@@ -23581,19 +23605,19 @@
         <v>399</v>
       </c>
       <c r="CE21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="CF21" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="CG21" t="s">
         <v>367</v>
       </c>
       <c r="CH21" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CJ21" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="CK21" t="s">
         <v>193</v>
@@ -23605,16 +23629,16 @@
         <v>380</v>
       </c>
       <c r="CO21" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CQ21" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CS21" t="s">
         <v>203</v>
       </c>
       <c r="CT21" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="CU21">
         <v>1</v>
@@ -23623,7 +23647,7 @@
         <v>521</v>
       </c>
       <c r="CX21" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="CY21" t="s">
         <v>201</v>
@@ -23635,10 +23659,10 @@
         <v>1</v>
       </c>
       <c r="DB21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="DC21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="DD21">
         <v>8</v>
@@ -23650,25 +23674,25 @@
         <v>289</v>
       </c>
       <c r="DG21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="DH21" s="21" t="s">
         <v>1304</v>
-      </c>
-      <c r="DH21" s="21" t="s">
-        <v>1305</v>
       </c>
       <c r="DI21">
         <v>1</v>
       </c>
       <c r="DJ21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="DK21" t="s">
         <v>1306</v>
-      </c>
-      <c r="DK21" t="s">
-        <v>1307</v>
       </c>
       <c r="DM21" t="s">
         <v>411</v>
       </c>
       <c r="DN21" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="DP21" t="s">
         <v>288</v>
@@ -23683,13 +23707,13 @@
         <v>208</v>
       </c>
       <c r="DU21" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="DV21" t="s">
         <v>291</v>
       </c>
       <c r="DW21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="DX21" t="s">
         <v>193</v>
@@ -23704,10 +23728,10 @@
         <v>193</v>
       </c>
       <c r="EB21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="ED21" t="s">
         <v>1310</v>
-      </c>
-      <c r="ED21" t="s">
-        <v>1311</v>
       </c>
       <c r="EE21" t="s">
         <v>193</v>
@@ -23716,52 +23740,52 @@
         <v>193</v>
       </c>
       <c r="EG21" s="24" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="EH21" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="EI21" s="36">
         <v>43</v>
       </c>
       <c r="EJ21" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="EK21" t="s">
         <v>194</v>
       </c>
       <c r="EL21" t="s">
+        <v>1313</v>
+      </c>
+      <c r="EM21" t="s">
         <v>1314</v>
       </c>
-      <c r="EM21" t="s">
+      <c r="EN21" t="s">
         <v>1315</v>
       </c>
-      <c r="EN21" t="s">
+      <c r="EP21" t="s">
         <v>1316</v>
       </c>
-      <c r="EP21" t="s">
+      <c r="EQ21" t="s">
         <v>1317</v>
       </c>
-      <c r="EQ21" t="s">
+      <c r="ER21" t="s">
         <v>1318</v>
       </c>
-      <c r="ER21" t="s">
+      <c r="ES21" t="s">
         <v>1319</v>
-      </c>
-      <c r="ES21" t="s">
-        <v>1320</v>
       </c>
       <c r="ET21" t="s">
         <v>236</v>
       </c>
       <c r="EU21" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="EV21" t="s">
         <v>304</v>
       </c>
       <c r="EX21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="EY21" t="s">
         <v>274</v>
@@ -23770,7 +23794,7 @@
         <v>236</v>
       </c>
       <c r="FA21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="FB21" t="s">
         <v>546</v>
@@ -23782,13 +23806,13 @@
         <v>604</v>
       </c>
       <c r="FE21" t="s">
+        <v>1322</v>
+      </c>
+      <c r="FF21" t="s">
         <v>1323</v>
       </c>
-      <c r="FF21" t="s">
-        <v>1324</v>
-      </c>
       <c r="FG21" s="24" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="FI21" s="24" t="s">
         <v>222</v>
@@ -23797,7 +23821,7 @@
         <v>222</v>
       </c>
       <c r="FK21" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="FM21" s="36">
         <v>2</v>
@@ -23833,31 +23857,31 @@
         <v>0</v>
       </c>
       <c r="FY21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="FZ21" t="s">
         <v>667</v>
       </c>
       <c r="GA21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="GB21" s="37">
         <v>3</v>
       </c>
       <c r="GC21" s="37" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="GD21" s="59">
         <v>0</v>
       </c>
       <c r="GE21" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF21" s="37">
         <v>43</v>
       </c>
       <c r="GG21" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="22" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23865,44 +23889,44 @@
         <v>44430.608212476851</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="12">
         <v>44426</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>1431</v>
-      </c>
       <c r="H22" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>1332</v>
       </c>
       <c r="J22" s="1">
         <v>3118588521</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="L22" s="63">
         <v>41376</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>1335</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>254</v>
@@ -23913,10 +23937,10 @@
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V22" s="13"/>
       <c r="W22" s="1" t="s">
@@ -23924,7 +23948,7 @@
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>170</v>
@@ -23935,7 +23959,7 @@
       </c>
       <c r="AC22" s="13"/>
       <c r="AD22" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="AE22" s="1" t="s">
         <v>170</v>
@@ -23958,7 +23982,7 @@
         <v>243</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AT22" s="1">
         <v>3</v>
@@ -23979,7 +24003,7 @@
         <v>560</v>
       </c>
       <c r="AZ22" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="BA22" s="1" t="s">
         <v>382</v>
@@ -23990,48 +24014,48 @@
         <v>256</v>
       </c>
       <c r="BE22" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BF22" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="BF22" s="1" t="s">
-        <v>1342</v>
       </c>
       <c r="BG22" s="1">
         <v>75</v>
       </c>
       <c r="BH22" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="BI22" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="BI22" s="1" t="s">
+      <c r="BJ22" s="1" t="s">
         <v>1344</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>1345</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>262</v>
       </c>
       <c r="BL22" s="13"/>
       <c r="BM22" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="BN22" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="BN22" s="1" t="s">
+      <c r="BO22" s="1" t="s">
         <v>1347</v>
-      </c>
-      <c r="BO22" s="1" t="s">
-        <v>1348</v>
       </c>
       <c r="BP22" s="1" t="s">
         <v>187</v>
       </c>
       <c r="BQ22" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="BS22" s="13"/>
       <c r="BT22" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="BU22" s="1" t="s">
         <v>166</v>
@@ -24040,10 +24064,10 @@
         <v>268</v>
       </c>
       <c r="BW22" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BX22" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="BX22" s="1" t="s">
-        <v>1351</v>
       </c>
       <c r="BY22" s="1" t="s">
         <v>920</v>
@@ -24060,20 +24084,20 @@
         <v>271</v>
       </c>
       <c r="CE22" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="CF22" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="CF22" s="1" t="s">
-        <v>1353</v>
       </c>
       <c r="CG22" s="1" t="s">
         <v>274</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CI22" s="13"/>
       <c r="CJ22" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="CK22" s="1" t="s">
         <v>222</v>
@@ -24082,7 +24106,7 @@
         <v>262</v>
       </c>
       <c r="CM22" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="CN22" s="13"/>
       <c r="CO22" s="1" t="s">
@@ -24110,10 +24134,10 @@
         <v>281</v>
       </c>
       <c r="CW22" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="CX22" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="CX22" s="1" t="s">
-        <v>1357</v>
       </c>
       <c r="CY22" s="1" t="s">
         <v>278</v>
@@ -24140,19 +24164,19 @@
         <v>208</v>
       </c>
       <c r="DG22" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="DH22" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="DH22" s="1" t="s">
-        <v>1359</v>
       </c>
       <c r="DI22" s="1">
         <v>1</v>
       </c>
       <c r="DJ22" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="DK22" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="DK22" s="1" t="s">
-        <v>1361</v>
       </c>
       <c r="DL22" s="13"/>
       <c r="DM22" s="1" t="s">
@@ -24166,25 +24190,25 @@
         <v>288</v>
       </c>
       <c r="DQ22" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="DR22" s="15" t="s">
+        <v>1842</v>
+      </c>
+      <c r="DS22" s="1" t="s">
         <v>1362</v>
-      </c>
-      <c r="DR22" s="15" t="s">
-        <v>1843</v>
-      </c>
-      <c r="DS22" s="1" t="s">
-        <v>1363</v>
       </c>
       <c r="DT22" s="1" t="s">
         <v>208</v>
       </c>
       <c r="DU22" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="DV22" s="1" t="s">
         <v>291</v>
       </c>
       <c r="DW22" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="DX22" s="1" t="s">
         <v>222</v>
@@ -24201,63 +24225,63 @@
       </c>
       <c r="EC22" s="13"/>
       <c r="ED22" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="EE22" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="EE22" s="1" t="s">
-        <v>1367</v>
       </c>
       <c r="EF22" s="1" t="s">
         <v>222</v>
       </c>
       <c r="EG22" s="15" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH22" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="EI22" s="33">
         <v>55</v>
       </c>
       <c r="EJ22" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="EK22" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="EK22" s="1" t="s">
+      <c r="EL22" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="EL22" s="1" t="s">
+      <c r="EM22" s="1" t="s">
         <v>1371</v>
-      </c>
-      <c r="EM22" s="1" t="s">
-        <v>1372</v>
       </c>
       <c r="EN22" s="1" t="s">
         <v>299</v>
       </c>
       <c r="EO22" s="13"/>
       <c r="EP22" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="EQ22" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="EQ22" s="1" t="s">
+      <c r="ER22" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="ER22" s="1" t="s">
+      <c r="ES22" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="ES22" s="1" t="s">
-        <v>1376</v>
       </c>
       <c r="ET22" s="1" t="s">
         <v>236</v>
       </c>
       <c r="EU22" s="17" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV22" s="1" t="s">
         <v>716</v>
       </c>
       <c r="EW22" s="13"/>
       <c r="EX22" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="EY22" s="1" t="s">
         <v>274</v>
@@ -24266,10 +24290,10 @@
         <v>236</v>
       </c>
       <c r="FA22" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="FB22" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="FB22" s="1" t="s">
-        <v>1379</v>
       </c>
       <c r="FC22" s="1" t="s">
         <v>274</v>
@@ -24278,7 +24302,7 @@
         <v>948</v>
       </c>
       <c r="FE22" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="FF22" s="1" t="s">
         <v>434</v>
@@ -24331,28 +24355,28 @@
       <c r="FX22" s="13"/>
       <c r="FY22" s="13"/>
       <c r="FZ22" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="GA22" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="GB22" s="37">
         <v>4</v>
       </c>
       <c r="GC22" s="37" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="GD22" s="59">
         <v>0</v>
       </c>
       <c r="GE22" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF22" s="37">
         <v>55</v>
       </c>
       <c r="GG22" s="33" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="23" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24363,56 +24387,56 @@
         <v>244</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1381</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1382</v>
       </c>
       <c r="E23" s="12">
         <v>44456</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>1386</v>
       </c>
       <c r="J23" s="1">
         <v>3108093921</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L23" s="63">
         <v>38685</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>1389</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>1390</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>166</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>168</v>
       </c>
       <c r="S23" s="13"/>
       <c r="T23" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>170</v>
@@ -24475,10 +24499,10 @@
         <v>256</v>
       </c>
       <c r="BE23" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BF23" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>1394</v>
       </c>
       <c r="BG23" s="1">
         <v>120</v>
@@ -24487,36 +24511,36 @@
         <v>120</v>
       </c>
       <c r="BI23" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BJ23" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="BJ23" s="1" t="s">
-        <v>1396</v>
       </c>
       <c r="BK23" s="1" t="s">
         <v>166</v>
       </c>
       <c r="BL23" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BM23" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="BM23" s="1" t="s">
-        <v>1398</v>
       </c>
       <c r="BN23" s="13"/>
       <c r="BO23" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="BP23" s="1" t="s">
         <v>735</v>
       </c>
       <c r="BQ23" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="BR23" s="1" t="s">
         <v>737</v>
       </c>
       <c r="BS23" s="13"/>
       <c r="BT23" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="BU23" s="1" t="s">
         <v>166</v>
@@ -24525,10 +24549,10 @@
         <v>268</v>
       </c>
       <c r="BW23" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BX23" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="BX23" s="1" t="s">
-        <v>1403</v>
       </c>
       <c r="BY23" s="1" t="s">
         <v>574</v>
@@ -24545,10 +24569,10 @@
         <v>271</v>
       </c>
       <c r="CE23" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="CF23" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="CF23" s="1" t="s">
-        <v>1405</v>
       </c>
       <c r="CG23" s="1" t="s">
         <v>274</v>
@@ -24558,7 +24582,7 @@
       </c>
       <c r="CI23" s="13"/>
       <c r="CJ23" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="CK23" s="1" t="s">
         <v>193</v>
@@ -24571,7 +24595,7 @@
       </c>
       <c r="CN23" s="13"/>
       <c r="CO23" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CP23" s="13"/>
       <c r="CQ23" s="1" t="s">
@@ -24594,10 +24618,10 @@
       </c>
       <c r="CW23" s="13"/>
       <c r="CX23" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="CY23" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CZ23" s="1">
         <v>1</v>
@@ -24621,16 +24645,16 @@
         <v>289</v>
       </c>
       <c r="DG23" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="DH23" s="1" t="s">
         <v>1408</v>
-      </c>
-      <c r="DH23" s="1" t="s">
-        <v>1409</v>
       </c>
       <c r="DI23" s="1">
         <v>1</v>
       </c>
       <c r="DJ23" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="DK23" s="1" t="s">
         <v>410</v>
@@ -24647,7 +24671,7 @@
         <v>214</v>
       </c>
       <c r="DQ23" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="DR23" s="1" t="s">
         <v>413</v>
@@ -24657,19 +24681,19 @@
         <v>208</v>
       </c>
       <c r="DU23" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="DV23" s="1" t="s">
         <v>291</v>
       </c>
       <c r="DW23" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="DX23" s="15" t="s">
         <v>222</v>
       </c>
       <c r="DY23" s="15" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="DZ23" s="1" t="s">
         <v>222</v>
@@ -24682,7 +24706,7 @@
       </c>
       <c r="EC23" s="13"/>
       <c r="ED23" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="EE23" s="1" t="s">
         <v>990</v>
@@ -24691,41 +24715,41 @@
         <v>222</v>
       </c>
       <c r="EG23" s="28" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="EH23" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="EI23" s="33">
         <v>6</v>
       </c>
       <c r="EJ23" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="EK23" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="EK23" s="1" t="s">
+      <c r="EL23" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="EL23" s="1" t="s">
+      <c r="EM23" s="1" t="s">
         <v>1418</v>
-      </c>
-      <c r="EM23" s="1" t="s">
-        <v>1419</v>
       </c>
       <c r="EN23" s="1" t="s">
         <v>299</v>
       </c>
       <c r="EO23" s="13"/>
       <c r="EP23" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="EQ23" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="EQ23" s="1" t="s">
+      <c r="ER23" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="ER23" s="1" t="s">
+      <c r="ES23" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="ES23" s="1" t="s">
-        <v>1423</v>
       </c>
       <c r="ET23" s="1" t="s">
         <v>236</v>
@@ -24734,11 +24758,11 @@
         <v>998</v>
       </c>
       <c r="EV23" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="EW23" s="13"/>
       <c r="EX23" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="EY23" s="1" t="s">
         <v>274</v>
@@ -24747,10 +24771,10 @@
         <v>236</v>
       </c>
       <c r="FA23" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="FB23" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="FB23" s="1" t="s">
-        <v>1426</v>
       </c>
       <c r="FC23" s="1" t="s">
         <v>274</v>
@@ -24759,7 +24783,7 @@
         <v>604</v>
       </c>
       <c r="FE23" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="FF23" s="1" t="s">
         <v>434</v>
@@ -24775,7 +24799,7 @@
         <v>222</v>
       </c>
       <c r="FK23" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="FL23" s="13"/>
       <c r="FM23" s="33">
@@ -24785,7 +24809,7 @@
         <v>193</v>
       </c>
       <c r="FO23" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="FP23" s="1">
         <v>1</v>
@@ -24814,28 +24838,28 @@
       <c r="FX23" s="13"/>
       <c r="FY23" s="13"/>
       <c r="FZ23" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="GA23" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="GB23" s="37">
         <v>1</v>
       </c>
       <c r="GC23" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD23" s="59">
         <v>1</v>
       </c>
       <c r="GE23" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF23" s="37">
         <v>6</v>
       </c>
       <c r="GG23" s="33" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="24" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24846,40 +24870,40 @@
         <v>826</v>
       </c>
       <c r="C24" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E24" s="20">
         <v>44425</v>
       </c>
       <c r="F24" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G24" t="s">
         <v>1435</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>1436</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>1437</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1438</v>
       </c>
       <c r="J24">
         <v>3127258632</v>
       </c>
       <c r="K24" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="L24" s="64">
         <v>38588</v>
       </c>
       <c r="M24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N24" t="s">
         <v>1440</v>
       </c>
-      <c r="N24" t="s">
-        <v>1441</v>
-      </c>
       <c r="O24" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="P24" s="22" t="s">
         <v>893</v>
@@ -24891,7 +24915,7 @@
         <v>168</v>
       </c>
       <c r="T24" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="U24" t="s">
         <v>170</v>
@@ -24900,7 +24924,7 @@
         <v>171</v>
       </c>
       <c r="Y24" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Z24" t="s">
         <v>170</v>
@@ -24909,7 +24933,7 @@
         <v>171</v>
       </c>
       <c r="AD24" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="AE24" t="s">
         <v>170</v>
@@ -24942,40 +24966,40 @@
         <v>614</v>
       </c>
       <c r="AZ24" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BA24" t="s">
         <v>1445</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>1446</v>
       </c>
       <c r="BD24" s="24" t="s">
         <v>178</v>
       </c>
       <c r="BE24" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BF24" t="s">
         <v>1447</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>1448</v>
       </c>
       <c r="BG24">
         <v>60</v>
       </c>
       <c r="BH24" s="22" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BI24" t="s">
         <v>1449</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>1450</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>1451</v>
       </c>
       <c r="BK24" t="s">
         <v>166</v>
       </c>
       <c r="BL24" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BM24" t="s">
         <v>1452</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>1453</v>
       </c>
       <c r="BO24" t="s">
         <v>538</v>
@@ -24984,13 +25008,13 @@
         <v>392</v>
       </c>
       <c r="BQ24" s="22" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BT24" t="s">
         <v>1454</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>1590</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>1455</v>
       </c>
       <c r="BU24" t="s">
         <v>166</v>
@@ -24999,13 +25023,13 @@
         <v>190</v>
       </c>
       <c r="BW24" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BX24" t="s">
         <v>1456</v>
       </c>
-      <c r="BX24" t="s">
-        <v>1457</v>
-      </c>
       <c r="BY24" s="24" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="CA24" t="s">
         <v>216</v>
@@ -25017,10 +25041,10 @@
         <v>854</v>
       </c>
       <c r="CE24" t="s">
+        <v>1457</v>
+      </c>
+      <c r="CF24" t="s">
         <v>1458</v>
-      </c>
-      <c r="CF24" t="s">
-        <v>1459</v>
       </c>
       <c r="CG24" t="s">
         <v>380</v>
@@ -25029,25 +25053,25 @@
         <v>380</v>
       </c>
       <c r="CJ24" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="CK24" t="s">
         <v>222</v>
       </c>
       <c r="CL24" t="s">
+        <v>1460</v>
+      </c>
+      <c r="CM24" s="24" t="s">
+        <v>1917</v>
+      </c>
+      <c r="CN24" t="s">
         <v>1461</v>
-      </c>
-      <c r="CM24" s="24" t="s">
-        <v>1918</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>1462</v>
       </c>
       <c r="CO24" t="s">
         <v>201</v>
       </c>
       <c r="CP24" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="CQ24" t="s">
         <v>278</v>
@@ -25056,7 +25080,7 @@
         <v>520</v>
       </c>
       <c r="CS24" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="CT24" t="s">
         <v>280</v>
@@ -25068,7 +25092,7 @@
         <v>521</v>
       </c>
       <c r="CX24" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="CY24" t="s">
         <v>278</v>
@@ -25095,31 +25119,31 @@
         <v>283</v>
       </c>
       <c r="DG24" t="s">
+        <v>1464</v>
+      </c>
+      <c r="DH24" s="21" t="s">
         <v>1465</v>
-      </c>
-      <c r="DH24" s="21" t="s">
-        <v>1466</v>
       </c>
       <c r="DI24">
         <v>1</v>
       </c>
       <c r="DJ24" t="s">
+        <v>1466</v>
+      </c>
+      <c r="DK24" t="s">
         <v>1467</v>
-      </c>
-      <c r="DK24" t="s">
-        <v>1468</v>
       </c>
       <c r="DM24" t="s">
         <v>411</v>
       </c>
       <c r="DN24" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="DP24" t="s">
         <v>288</v>
       </c>
       <c r="DQ24" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="DR24" t="s">
         <v>413</v>
@@ -25128,13 +25152,13 @@
         <v>469</v>
       </c>
       <c r="DU24" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="DV24" t="s">
         <v>808</v>
       </c>
       <c r="DW24" s="22" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="DX24" t="s">
         <v>193</v>
@@ -25149,34 +25173,34 @@
         <v>216</v>
       </c>
       <c r="EB24" t="s">
+        <v>1471</v>
+      </c>
+      <c r="ED24" s="22" t="s">
         <v>1472</v>
       </c>
-      <c r="ED24" s="22" t="s">
+      <c r="EE24" s="21" t="s">
         <v>1473</v>
-      </c>
-      <c r="EE24" s="21" t="s">
-        <v>1474</v>
       </c>
       <c r="EF24" t="s">
         <v>222</v>
       </c>
       <c r="EG24" s="24" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="EH24" s="29" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="EI24" s="37">
         <v>69</v>
       </c>
       <c r="EJ24" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="EK24" t="s">
         <v>771</v>
       </c>
       <c r="EL24" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="EM24" t="s">
         <v>873</v>
@@ -25188,25 +25212,25 @@
         <v>214</v>
       </c>
       <c r="EQ24" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="ER24" t="s">
         <v>771</v>
       </c>
       <c r="ES24" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="ET24" t="s">
         <v>236</v>
       </c>
       <c r="EU24" s="24" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="EV24" t="s">
         <v>304</v>
       </c>
       <c r="EX24" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="EY24" t="s">
         <v>274</v>
@@ -25215,7 +25239,7 @@
         <v>236</v>
       </c>
       <c r="FA24" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="FB24" t="s">
         <v>546</v>
@@ -25227,7 +25251,7 @@
         <v>240</v>
       </c>
       <c r="FE24" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="FF24" s="24" t="s">
         <v>434</v>
@@ -25242,7 +25266,7 @@
         <v>222</v>
       </c>
       <c r="FK24" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="FM24" s="36">
         <v>12</v>
@@ -25278,31 +25302,31 @@
         <v>0</v>
       </c>
       <c r="FY24" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="FZ24" t="s">
         <v>439</v>
       </c>
       <c r="GA24" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="GB24" s="37">
         <v>1</v>
       </c>
       <c r="GC24" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD24" s="59">
         <v>2</v>
       </c>
       <c r="GE24" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="GF24" s="37">
         <v>146</v>
       </c>
       <c r="GG24" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="25" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25310,43 +25334,43 @@
         <v>44325.680474537039</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C25" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E25" s="20">
         <v>44439</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H25" t="s">
+        <v>1485</v>
+      </c>
+      <c r="I25" t="s">
         <v>1486</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1487</v>
       </c>
       <c r="J25">
         <v>3157700646</v>
       </c>
       <c r="K25" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="L25" s="64">
         <v>37986</v>
       </c>
       <c r="M25" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N25" t="s">
         <v>1489</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>1490</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1491</v>
       </c>
       <c r="P25" s="22" t="s">
         <v>254</v>
@@ -25355,22 +25379,22 @@
         <v>171</v>
       </c>
       <c r="T25" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="U25" t="s">
         <v>166</v>
       </c>
       <c r="V25" s="22" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="W25" t="s">
         <v>168</v>
       </c>
       <c r="Y25" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="Z25" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AB25" t="s">
         <v>168</v>
@@ -25400,61 +25424,61 @@
         <v>700</v>
       </c>
       <c r="AZ25" s="21" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BA25" t="s">
         <v>1494</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>1495</v>
       </c>
       <c r="BD25" t="s">
         <v>256</v>
       </c>
       <c r="BE25" s="21" t="s">
+        <v>1495</v>
+      </c>
+      <c r="BF25" t="s">
         <v>1496</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>1497</v>
       </c>
       <c r="BG25" s="25">
         <v>60</v>
       </c>
       <c r="BH25" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="BI25" t="s">
         <v>1498</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" s="21" t="s">
         <v>1499</v>
-      </c>
-      <c r="BJ25" s="21" t="s">
-        <v>1500</v>
       </c>
       <c r="BK25" t="s">
         <v>262</v>
       </c>
       <c r="BM25" t="s">
+        <v>1500</v>
+      </c>
+      <c r="BO25" t="s">
         <v>1501</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>1502</v>
       </c>
       <c r="BP25" t="s">
         <v>459</v>
       </c>
       <c r="BQ25" s="22" t="s">
+        <v>1502</v>
+      </c>
+      <c r="BR25" s="22" t="s">
+        <v>1964</v>
+      </c>
+      <c r="BT25" t="s">
         <v>1503</v>
-      </c>
-      <c r="BR25" s="22" t="s">
-        <v>1965</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>1504</v>
       </c>
       <c r="BU25" t="s">
         <v>688</v>
       </c>
       <c r="BW25" t="s">
+        <v>1504</v>
+      </c>
+      <c r="BX25" t="s">
         <v>1505</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>1506</v>
       </c>
       <c r="BY25" t="s">
         <v>920</v>
@@ -25469,19 +25493,19 @@
         <v>271</v>
       </c>
       <c r="CE25" t="s">
+        <v>1506</v>
+      </c>
+      <c r="CF25" t="s">
         <v>1507</v>
-      </c>
-      <c r="CF25" t="s">
-        <v>1508</v>
       </c>
       <c r="CG25" t="s">
         <v>274</v>
       </c>
       <c r="CH25" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="CJ25" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="CK25" t="s">
         <v>193</v>
@@ -25493,7 +25517,7 @@
         <v>380</v>
       </c>
       <c r="CN25" s="21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="CO25" t="s">
         <v>278</v>
@@ -25517,13 +25541,13 @@
         <v>0</v>
       </c>
       <c r="CV25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="CW25" s="29" t="s">
         <v>1511</v>
       </c>
-      <c r="CW25" s="21" t="s">
+      <c r="CX25" t="s">
         <v>1512</v>
-      </c>
-      <c r="CX25" t="s">
-        <v>1513</v>
       </c>
       <c r="CY25" t="s">
         <v>278</v>
@@ -25550,19 +25574,19 @@
         <v>283</v>
       </c>
       <c r="DG25" t="s">
+        <v>1513</v>
+      </c>
+      <c r="DH25" t="s">
         <v>1514</v>
-      </c>
-      <c r="DH25" t="s">
-        <v>1515</v>
       </c>
       <c r="DI25">
         <v>1</v>
       </c>
       <c r="DJ25" t="s">
+        <v>1515</v>
+      </c>
+      <c r="DK25" t="s">
         <v>1516</v>
-      </c>
-      <c r="DK25" t="s">
-        <v>1517</v>
       </c>
       <c r="DM25" t="s">
         <v>411</v>
@@ -25574,7 +25598,7 @@
         <v>288</v>
       </c>
       <c r="DQ25" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="DR25" t="s">
         <v>867</v>
@@ -25583,13 +25607,13 @@
         <v>289</v>
       </c>
       <c r="DU25" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="DV25" t="s">
         <v>220</v>
       </c>
       <c r="DW25" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="DX25" t="s">
         <v>193</v>
@@ -25607,34 +25631,34 @@
         <v>754</v>
       </c>
       <c r="ED25" t="s">
+        <v>1520</v>
+      </c>
+      <c r="EE25" t="s">
         <v>1521</v>
-      </c>
-      <c r="EE25" t="s">
-        <v>1522</v>
       </c>
       <c r="EF25" t="s">
         <v>222</v>
       </c>
       <c r="EG25" s="24" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH25" s="21" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="EI25" s="37">
         <v>3</v>
       </c>
       <c r="EJ25" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="EK25" t="s">
         <v>1524</v>
       </c>
-      <c r="EK25" t="s">
+      <c r="EL25" t="s">
         <v>1525</v>
       </c>
-      <c r="EL25" t="s">
+      <c r="EM25" s="21" t="s">
         <v>1526</v>
-      </c>
-      <c r="EM25" s="21" t="s">
-        <v>1527</v>
       </c>
       <c r="EN25" s="22" t="s">
         <v>299</v>
@@ -25643,28 +25667,28 @@
         <v>424</v>
       </c>
       <c r="EP25" t="s">
+        <v>1527</v>
+      </c>
+      <c r="EQ25" t="s">
         <v>1528</v>
       </c>
-      <c r="EQ25" t="s">
+      <c r="ER25" t="s">
         <v>1529</v>
       </c>
-      <c r="ER25" t="s">
+      <c r="ES25" t="s">
         <v>1530</v>
-      </c>
-      <c r="ES25" t="s">
-        <v>1531</v>
       </c>
       <c r="ET25" t="s">
         <v>236</v>
       </c>
       <c r="EU25" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="EV25" t="s">
         <v>899</v>
       </c>
       <c r="EX25" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="EY25" t="s">
         <v>274</v>
@@ -25673,10 +25697,10 @@
         <v>236</v>
       </c>
       <c r="FA25" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="FB25" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="FC25" t="s">
         <v>274</v>
@@ -25685,7 +25709,7 @@
         <v>948</v>
       </c>
       <c r="FE25" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="FF25" t="s">
         <v>434</v>
@@ -25700,7 +25724,7 @@
         <v>193</v>
       </c>
       <c r="FK25" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="FM25" s="37">
         <v>1</v>
@@ -25709,7 +25733,7 @@
         <v>216</v>
       </c>
       <c r="FO25" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="FP25" s="31">
         <v>2.5</v>
@@ -25739,25 +25763,25 @@
         <v>667</v>
       </c>
       <c r="GA25" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="GB25" s="37">
         <v>2</v>
       </c>
       <c r="GC25" s="37" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="GD25" s="59">
         <v>0</v>
       </c>
       <c r="GE25" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF25" s="37">
         <v>3</v>
       </c>
       <c r="GG25" s="33" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="26" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -25768,43 +25792,43 @@
         <v>550</v>
       </c>
       <c r="C26" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D26" t="s">
         <v>1537</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1538</v>
       </c>
       <c r="E26" s="20">
         <v>44425</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H26" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I26" t="s">
         <v>1539</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>1540</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>1541</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1542</v>
       </c>
       <c r="L26" s="64">
         <v>38596</v>
       </c>
       <c r="M26" t="s">
+        <v>1542</v>
+      </c>
+      <c r="N26" t="s">
         <v>1543</v>
       </c>
-      <c r="N26" t="s">
-        <v>1544</v>
-      </c>
       <c r="O26" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="P26" t="s">
         <v>254</v>
@@ -25813,7 +25837,7 @@
         <v>171</v>
       </c>
       <c r="T26" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="U26" t="s">
         <v>170</v>
@@ -25822,10 +25846,10 @@
         <v>171</v>
       </c>
       <c r="Y26" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="Z26" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AB26" t="s">
         <v>171</v>
@@ -25861,61 +25885,61 @@
         <v>256</v>
       </c>
       <c r="BE26" t="s">
+        <v>1545</v>
+      </c>
+      <c r="BF26" t="s">
         <v>1546</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>1547</v>
       </c>
       <c r="BG26">
         <v>90</v>
       </c>
       <c r="BH26" s="21" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="BI26" t="s">
+        <v>1547</v>
+      </c>
+      <c r="BJ26" t="s">
         <v>1548</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>1549</v>
       </c>
       <c r="BK26" t="s">
         <v>734</v>
       </c>
       <c r="BL26" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BM26" t="s">
         <v>1550</v>
       </c>
-      <c r="BM26" t="s">
+      <c r="BN26" t="s">
         <v>1551</v>
       </c>
-      <c r="BN26" t="s">
+      <c r="BO26" t="s">
         <v>1552</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>1553</v>
       </c>
       <c r="BP26" t="s">
         <v>187</v>
       </c>
       <c r="BQ26" s="22" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>1967</v>
+      </c>
+      <c r="BS26" t="s">
         <v>1554</v>
       </c>
-      <c r="BR26" t="s">
-        <v>1968</v>
-      </c>
-      <c r="BS26" t="s">
+      <c r="BT26" t="s">
         <v>1555</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>1556</v>
       </c>
       <c r="BU26" t="s">
         <v>688</v>
       </c>
       <c r="BW26" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BX26" t="s">
         <v>1557</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>1558</v>
       </c>
       <c r="BY26" s="24" t="s">
         <v>691</v>
@@ -25931,10 +25955,10 @@
         <v>271</v>
       </c>
       <c r="CE26" t="s">
+        <v>1558</v>
+      </c>
+      <c r="CF26" t="s">
         <v>1559</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>1560</v>
       </c>
       <c r="CG26" t="s">
         <v>577</v>
@@ -25943,7 +25967,7 @@
         <v>410</v>
       </c>
       <c r="CJ26" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="CK26" t="s">
         <v>193</v>
@@ -25958,13 +25982,13 @@
         <v>404</v>
       </c>
       <c r="CP26" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ26" t="s">
         <v>404</v>
       </c>
       <c r="CR26" s="5" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="CS26" t="s">
         <v>467</v>
@@ -25979,7 +26003,7 @@
         <v>639</v>
       </c>
       <c r="CX26" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="CY26" t="s">
         <v>278</v>
@@ -26006,19 +26030,19 @@
         <v>218</v>
       </c>
       <c r="DG26" t="s">
+        <v>1562</v>
+      </c>
+      <c r="DH26" t="s">
         <v>1563</v>
-      </c>
-      <c r="DH26" t="s">
-        <v>1564</v>
       </c>
       <c r="DI26">
         <v>1</v>
       </c>
       <c r="DJ26" t="s">
+        <v>1564</v>
+      </c>
+      <c r="DK26" t="s">
         <v>1565</v>
-      </c>
-      <c r="DK26" t="s">
-        <v>1566</v>
       </c>
       <c r="DM26" t="s">
         <v>411</v>
@@ -26030,25 +26054,25 @@
         <v>288</v>
       </c>
       <c r="DQ26" t="s">
+        <v>1566</v>
+      </c>
+      <c r="DR26" s="24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="DS26" t="s">
         <v>1567</v>
-      </c>
-      <c r="DR26" s="24" t="s">
-        <v>1107</v>
-      </c>
-      <c r="DS26" t="s">
-        <v>1568</v>
       </c>
       <c r="DT26" t="s">
         <v>289</v>
       </c>
       <c r="DU26" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="DV26" t="s">
         <v>531</v>
       </c>
       <c r="DW26" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="DX26" t="s">
         <v>193</v>
@@ -26066,34 +26090,34 @@
         <v>754</v>
       </c>
       <c r="ED26" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="EE26" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="EF26" t="s">
         <v>222</v>
       </c>
       <c r="EG26" s="24" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="EH26" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="EI26" s="37">
         <v>19</v>
       </c>
       <c r="EJ26" t="s">
+        <v>1258</v>
+      </c>
+      <c r="EK26" t="s">
         <v>1259</v>
-      </c>
-      <c r="EK26" t="s">
-        <v>1260</v>
       </c>
       <c r="EL26" t="s">
         <v>276</v>
       </c>
       <c r="EM26" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="EN26" t="s">
         <v>423</v>
@@ -26102,16 +26126,16 @@
         <v>424</v>
       </c>
       <c r="EP26" t="s">
+        <v>1573</v>
+      </c>
+      <c r="EQ26" t="s">
         <v>1574</v>
       </c>
-      <c r="EQ26" t="s">
+      <c r="ER26" t="s">
         <v>1575</v>
       </c>
-      <c r="ER26" t="s">
+      <c r="ES26" t="s">
         <v>1576</v>
-      </c>
-      <c r="ES26" t="s">
-        <v>1577</v>
       </c>
       <c r="ET26" t="s">
         <v>236</v>
@@ -26123,7 +26147,7 @@
         <v>304</v>
       </c>
       <c r="EX26" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="EY26" t="s">
         <v>367</v>
@@ -26132,10 +26156,10 @@
         <v>236</v>
       </c>
       <c r="FA26" t="s">
+        <v>1578</v>
+      </c>
+      <c r="FB26" s="22" t="s">
         <v>1579</v>
-      </c>
-      <c r="FB26" s="22" t="s">
-        <v>1580</v>
       </c>
       <c r="FC26" t="s">
         <v>367</v>
@@ -26144,13 +26168,13 @@
         <v>432</v>
       </c>
       <c r="FE26" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="FF26" t="s">
         <v>434</v>
       </c>
       <c r="FG26" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="FI26" t="s">
         <v>193</v>
@@ -26159,7 +26183,7 @@
         <v>193</v>
       </c>
       <c r="FK26" s="21" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="FM26" s="37">
         <v>2</v>
@@ -26198,25 +26222,25 @@
         <v>667</v>
       </c>
       <c r="GA26" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="GB26" s="37">
         <v>3</v>
       </c>
       <c r="GC26" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GD26" s="59">
         <v>0</v>
       </c>
       <c r="GE26" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF26" s="37">
         <v>13</v>
       </c>
       <c r="GG26" s="33" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="27" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26227,43 +26251,43 @@
         <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D27" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E27" s="20">
         <v>44438</v>
       </c>
       <c r="F27" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G27" t="s">
         <v>1595</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>1596</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>1597</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>1598</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>1599</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1600</v>
       </c>
       <c r="L27" s="64">
         <v>32827</v>
       </c>
       <c r="M27" t="s">
+        <v>1600</v>
+      </c>
+      <c r="N27" t="s">
         <v>1601</v>
       </c>
-      <c r="N27" t="s">
-        <v>1602</v>
-      </c>
       <c r="O27" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="P27" t="s">
         <v>254</v>
@@ -26272,7 +26296,7 @@
         <v>168</v>
       </c>
       <c r="T27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="U27" t="s">
         <v>170</v>
@@ -26281,7 +26305,7 @@
         <v>171</v>
       </c>
       <c r="Y27" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="Z27" t="s">
         <v>166</v>
@@ -26293,13 +26317,13 @@
         <v>171</v>
       </c>
       <c r="AD27" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="AE27" t="s">
         <v>166</v>
       </c>
       <c r="AF27" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="AR27">
         <v>4415</v>
@@ -26332,43 +26356,43 @@
         <v>256</v>
       </c>
       <c r="BE27" s="21" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BF27" t="s">
         <v>1607</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>1608</v>
       </c>
       <c r="BG27">
         <v>90</v>
       </c>
       <c r="BH27" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BI27" t="s">
         <v>1609</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" s="21" t="s">
         <v>1610</v>
-      </c>
-      <c r="BJ27" s="21" t="s">
-        <v>1611</v>
       </c>
       <c r="BK27" t="s">
         <v>968</v>
       </c>
       <c r="BM27" t="s">
+        <v>1611</v>
+      </c>
+      <c r="BO27" t="s">
         <v>1612</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>1613</v>
       </c>
       <c r="BP27" t="s">
         <v>392</v>
       </c>
       <c r="BQ27" t="s">
+        <v>1613</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>1964</v>
+      </c>
+      <c r="BT27" t="s">
         <v>1614</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>1965</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>1615</v>
       </c>
       <c r="BU27" t="s">
         <v>166</v>
@@ -26377,13 +26401,13 @@
         <v>268</v>
       </c>
       <c r="BW27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="BX27" t="s">
         <v>1616</v>
       </c>
-      <c r="BX27" t="s">
-        <v>1617</v>
-      </c>
       <c r="BY27" s="24" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="CA27" t="s">
         <v>216</v>
@@ -26392,16 +26416,16 @@
         <v>166</v>
       </c>
       <c r="CC27" s="22" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="CD27" s="24" t="s">
         <v>399</v>
       </c>
       <c r="CE27" t="s">
+        <v>1618</v>
+      </c>
+      <c r="CF27" t="s">
         <v>1619</v>
-      </c>
-      <c r="CF27" t="s">
-        <v>1620</v>
       </c>
       <c r="CG27" t="s">
         <v>274</v>
@@ -26410,7 +26434,7 @@
         <v>410</v>
       </c>
       <c r="CJ27" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="CK27" t="s">
         <v>193</v>
@@ -26434,7 +26458,7 @@
         <v>405</v>
       </c>
       <c r="CT27" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="CU27">
         <v>1</v>
@@ -26443,7 +26467,7 @@
         <v>205</v>
       </c>
       <c r="CX27" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="CY27" t="s">
         <v>278</v>
@@ -26470,19 +26494,19 @@
         <v>218</v>
       </c>
       <c r="DG27" t="s">
+        <v>1622</v>
+      </c>
+      <c r="DH27" s="21" t="s">
         <v>1623</v>
-      </c>
-      <c r="DH27" s="21" t="s">
-        <v>1624</v>
       </c>
       <c r="DI27">
         <v>1</v>
       </c>
       <c r="DJ27" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="DK27" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="DM27" t="s">
         <v>411</v>
@@ -26494,25 +26518,25 @@
         <v>288</v>
       </c>
       <c r="DQ27" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="DR27" s="22" t="s">
         <v>751</v>
       </c>
       <c r="DS27" s="24" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="DT27" t="s">
         <v>289</v>
       </c>
       <c r="DU27" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="DV27" t="s">
         <v>220</v>
       </c>
       <c r="DW27" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="DX27" s="24" t="s">
         <v>193</v>
@@ -26530,61 +26554,61 @@
         <v>870</v>
       </c>
       <c r="ED27" t="s">
+        <v>1628</v>
+      </c>
+      <c r="EE27" t="s">
         <v>1629</v>
-      </c>
-      <c r="EE27" t="s">
-        <v>1630</v>
       </c>
       <c r="EF27" t="s">
         <v>222</v>
       </c>
       <c r="EG27" s="22" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH27" s="21" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="EI27" s="37">
         <v>62</v>
       </c>
       <c r="EJ27" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="EK27" s="21" t="s">
+        <v>1631</v>
+      </c>
+      <c r="EL27" t="s">
         <v>1632</v>
       </c>
-      <c r="EL27" t="s">
+      <c r="EM27" s="21" t="s">
         <v>1633</v>
-      </c>
-      <c r="EM27" s="21" t="s">
-        <v>1634</v>
       </c>
       <c r="EN27" t="s">
         <v>815</v>
       </c>
       <c r="EP27" t="s">
+        <v>1634</v>
+      </c>
+      <c r="EQ27" t="s">
         <v>1635</v>
       </c>
-      <c r="EQ27" t="s">
+      <c r="ER27" t="s">
         <v>1636</v>
       </c>
-      <c r="ER27" t="s">
+      <c r="ES27" t="s">
         <v>1637</v>
-      </c>
-      <c r="ES27" t="s">
-        <v>1638</v>
       </c>
       <c r="ET27" t="s">
         <v>236</v>
       </c>
       <c r="EU27" s="24" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="EV27" t="s">
         <v>304</v>
       </c>
       <c r="EX27" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="EY27" t="s">
         <v>274</v>
@@ -26593,10 +26617,10 @@
         <v>236</v>
       </c>
       <c r="FA27" t="s">
+        <v>1639</v>
+      </c>
+      <c r="FB27" t="s">
         <v>1640</v>
-      </c>
-      <c r="FB27" t="s">
-        <v>1641</v>
       </c>
       <c r="FC27" t="s">
         <v>274</v>
@@ -26605,13 +26629,13 @@
         <v>948</v>
       </c>
       <c r="FE27" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="FF27" t="s">
         <v>434</v>
       </c>
       <c r="FG27" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="FI27" s="24" t="s">
         <v>222</v>
@@ -26620,7 +26644,7 @@
         <v>222</v>
       </c>
       <c r="FK27" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="FM27" s="37">
         <v>2</v>
@@ -26653,31 +26677,31 @@
         <v>0</v>
       </c>
       <c r="FX27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="FZ27" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="GA27" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="GB27" s="37">
         <v>3</v>
       </c>
       <c r="GC27" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GD27" s="59">
         <v>5</v>
       </c>
       <c r="GE27" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="GF27" s="37">
         <v>62</v>
       </c>
       <c r="GG27" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="28" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26688,43 +26712,43 @@
         <v>826</v>
       </c>
       <c r="C28" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D28" t="s">
         <v>1644</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1645</v>
       </c>
       <c r="E28" s="20">
         <v>44439</v>
       </c>
       <c r="F28" s="22" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G28" t="s">
         <v>1646</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>1647</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>1648</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1649</v>
       </c>
       <c r="J28">
         <v>6970000</v>
       </c>
       <c r="K28" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="L28" s="64">
         <v>42004</v>
       </c>
       <c r="M28" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N28" t="s">
         <v>1651</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>1652</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1653</v>
       </c>
       <c r="P28" t="s">
         <v>170</v>
@@ -26733,13 +26757,13 @@
         <v>168</v>
       </c>
       <c r="T28" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="U28" t="s">
         <v>166</v>
       </c>
       <c r="V28" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="W28" t="s">
         <v>171</v>
@@ -26769,28 +26793,28 @@
         <v>400</v>
       </c>
       <c r="BA28" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="BD28" s="24" t="s">
         <v>256</v>
       </c>
       <c r="BE28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BF28" t="s">
         <v>1656</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>1657</v>
       </c>
       <c r="BG28" s="24">
         <v>60</v>
       </c>
       <c r="BH28" s="21" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BI28" t="s">
         <v>1658</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BJ28" s="21" t="s">
         <v>1659</v>
-      </c>
-      <c r="BJ28" s="21" t="s">
-        <v>1660</v>
       </c>
       <c r="BK28" t="s">
         <v>262</v>
@@ -26799,19 +26823,19 @@
         <v>263</v>
       </c>
       <c r="BO28" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="BP28" t="s">
         <v>735</v>
       </c>
       <c r="BQ28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="BT28" t="s">
         <v>1662</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>1966</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>1663</v>
       </c>
       <c r="BU28" t="s">
         <v>166</v>
@@ -26820,16 +26844,16 @@
         <v>974</v>
       </c>
       <c r="BW28" t="s">
+        <v>1663</v>
+      </c>
+      <c r="BX28" t="s">
         <v>1664</v>
       </c>
-      <c r="BX28" t="s">
+      <c r="BY28" t="s">
         <v>1665</v>
       </c>
-      <c r="BY28" t="s">
+      <c r="BZ28" t="s">
         <v>1666</v>
-      </c>
-      <c r="BZ28" t="s">
-        <v>1667</v>
       </c>
       <c r="CA28" t="s">
         <v>193</v>
@@ -26841,10 +26865,10 @@
         <v>854</v>
       </c>
       <c r="CE28" s="21" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="CF28" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="CG28" t="s">
         <v>380</v>
@@ -26853,7 +26877,7 @@
         <v>380</v>
       </c>
       <c r="CJ28" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="CK28" t="s">
         <v>193</v>
@@ -26868,7 +26892,7 @@
         <v>201</v>
       </c>
       <c r="CP28" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="CQ28" t="s">
         <v>278</v>
@@ -26889,7 +26913,7 @@
         <v>521</v>
       </c>
       <c r="CX28" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="CY28" t="s">
         <v>278</v>
@@ -26916,19 +26940,19 @@
         <v>289</v>
       </c>
       <c r="DG28" t="s">
+        <v>1671</v>
+      </c>
+      <c r="DH28" t="s">
         <v>1672</v>
-      </c>
-      <c r="DH28" t="s">
-        <v>1673</v>
       </c>
       <c r="DI28">
         <v>1</v>
       </c>
       <c r="DJ28" t="s">
+        <v>1673</v>
+      </c>
+      <c r="DK28" t="s">
         <v>1674</v>
-      </c>
-      <c r="DK28" t="s">
-        <v>1675</v>
       </c>
       <c r="DM28" t="s">
         <v>411</v>
@@ -26949,13 +26973,13 @@
         <v>469</v>
       </c>
       <c r="DU28" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="DV28" t="s">
         <v>531</v>
       </c>
       <c r="DW28" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="DX28" t="s">
         <v>193</v>
@@ -26973,22 +26997,22 @@
         <v>534</v>
       </c>
       <c r="ED28" t="s">
+        <v>1677</v>
+      </c>
+      <c r="EE28" t="s">
         <v>1678</v>
-      </c>
-      <c r="EE28" t="s">
-        <v>1679</v>
       </c>
       <c r="EF28" t="s">
         <v>193</v>
       </c>
       <c r="EH28" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="EI28" s="32">
         <v>336</v>
       </c>
       <c r="EJ28" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="EK28" t="s">
         <v>771</v>
@@ -26997,46 +27021,46 @@
         <v>771</v>
       </c>
       <c r="EM28" t="s">
+        <v>1681</v>
+      </c>
+      <c r="EN28" t="s">
         <v>1682</v>
       </c>
-      <c r="EN28" t="s">
+      <c r="EP28" t="s">
         <v>1683</v>
       </c>
-      <c r="EP28" t="s">
+      <c r="EQ28" t="s">
         <v>1684</v>
-      </c>
-      <c r="EQ28" t="s">
-        <v>1685</v>
       </c>
       <c r="ER28" t="s">
         <v>533</v>
       </c>
       <c r="ES28" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="ET28" t="s">
         <v>236</v>
       </c>
       <c r="EU28" s="24" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="EV28" s="24" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="EW28" s="22" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="EX28" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="EY28" t="s">
         <v>380</v>
       </c>
       <c r="EZ28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="FA28" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="FB28" t="s">
         <v>546</v>
@@ -27063,7 +27087,7 @@
         <v>222</v>
       </c>
       <c r="FK28" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="FM28" s="38">
         <v>3</v>
@@ -27072,7 +27096,7 @@
         <v>216</v>
       </c>
       <c r="FO28" s="21" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="FP28">
         <v>1</v>
@@ -27102,25 +27126,25 @@
         <v>439</v>
       </c>
       <c r="GA28" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="GB28" s="37">
         <v>3</v>
       </c>
       <c r="GC28" s="37" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="GD28" s="59">
         <v>5</v>
       </c>
       <c r="GE28" s="37" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="GF28" s="37">
         <v>336</v>
       </c>
       <c r="GG28" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="29" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27131,43 +27155,43 @@
         <v>550</v>
       </c>
       <c r="C29" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D29" t="s">
         <v>1691</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1692</v>
       </c>
       <c r="E29" s="20">
         <v>44439</v>
       </c>
       <c r="F29" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G29" t="s">
         <v>1693</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>1694</v>
       </c>
-      <c r="H29" t="s">
-        <v>1695</v>
-      </c>
       <c r="I29" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J29">
         <v>3102746741</v>
       </c>
       <c r="K29" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L29" s="64">
         <v>39981</v>
       </c>
       <c r="M29" t="s">
+        <v>1696</v>
+      </c>
+      <c r="N29" t="s">
         <v>1697</v>
       </c>
-      <c r="N29" t="s">
-        <v>1698</v>
-      </c>
       <c r="O29" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="P29" t="s">
         <v>254</v>
@@ -27176,7 +27200,7 @@
         <v>171</v>
       </c>
       <c r="T29" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="U29" t="s">
         <v>170</v>
@@ -27185,19 +27209,19 @@
         <v>171</v>
       </c>
       <c r="Y29" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="Z29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AB29" t="s">
         <v>171</v>
       </c>
       <c r="AD29" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="AE29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AG29" t="s">
         <v>168</v>
@@ -27227,7 +27251,7 @@
         <v>250</v>
       </c>
       <c r="AZ29" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="BA29" t="s">
         <v>322</v>
@@ -27236,28 +27260,28 @@
         <v>178</v>
       </c>
       <c r="BE29" t="s">
+        <v>1701</v>
+      </c>
+      <c r="BF29" t="s">
         <v>1702</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>1703</v>
       </c>
       <c r="BG29">
         <v>180</v>
       </c>
       <c r="BH29" s="21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="BI29" t="s">
         <v>1704</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BJ29" t="s">
         <v>1705</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>1706</v>
       </c>
-      <c r="BK29" t="s">
+      <c r="BL29" t="s">
         <v>1707</v>
-      </c>
-      <c r="BL29" t="s">
-        <v>1708</v>
       </c>
       <c r="BM29" t="s">
         <v>568</v>
@@ -27269,13 +27293,13 @@
         <v>735</v>
       </c>
       <c r="BQ29" t="s">
+        <v>1708</v>
+      </c>
+      <c r="BR29" s="22" t="s">
+        <v>1966</v>
+      </c>
+      <c r="BT29" t="s">
         <v>1709</v>
-      </c>
-      <c r="BR29" s="22" t="s">
-        <v>1967</v>
-      </c>
-      <c r="BT29" t="s">
-        <v>1710</v>
       </c>
       <c r="BU29" t="s">
         <v>166</v>
@@ -27284,10 +27308,10 @@
         <v>190</v>
       </c>
       <c r="BW29" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BX29" t="s">
         <v>1711</v>
-      </c>
-      <c r="BX29" t="s">
-        <v>1712</v>
       </c>
       <c r="BY29" t="s">
         <v>691</v>
@@ -27302,10 +27326,10 @@
         <v>271</v>
       </c>
       <c r="CE29" t="s">
+        <v>1712</v>
+      </c>
+      <c r="CF29" t="s">
         <v>1713</v>
-      </c>
-      <c r="CF29" t="s">
-        <v>1714</v>
       </c>
       <c r="CG29" t="s">
         <v>577</v>
@@ -27314,7 +27338,7 @@
         <v>197</v>
       </c>
       <c r="CJ29" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="CK29" t="s">
         <v>193</v>
@@ -27332,25 +27356,25 @@
         <v>438</v>
       </c>
       <c r="CQ29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CS29" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="CT29" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="CU29">
         <v>1</v>
       </c>
       <c r="CV29" t="s">
+        <v>1716</v>
+      </c>
+      <c r="CX29" t="s">
         <v>1717</v>
       </c>
-      <c r="CX29" t="s">
-        <v>1718</v>
-      </c>
       <c r="CY29" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CZ29">
         <v>1</v>
@@ -27374,19 +27398,19 @@
         <v>283</v>
       </c>
       <c r="DG29" t="s">
+        <v>1718</v>
+      </c>
+      <c r="DH29" t="s">
         <v>1719</v>
-      </c>
-      <c r="DH29" t="s">
-        <v>1720</v>
       </c>
       <c r="DI29">
         <v>1</v>
       </c>
       <c r="DJ29" t="s">
+        <v>1720</v>
+      </c>
+      <c r="DK29" t="s">
         <v>1721</v>
-      </c>
-      <c r="DK29" t="s">
-        <v>1722</v>
       </c>
       <c r="DM29" t="s">
         <v>411</v>
@@ -27398,31 +27422,31 @@
         <v>214</v>
       </c>
       <c r="DQ29" t="s">
+        <v>1722</v>
+      </c>
+      <c r="DR29" s="24" t="s">
+        <v>1842</v>
+      </c>
+      <c r="DS29" s="22" t="s">
         <v>1723</v>
-      </c>
-      <c r="DR29" s="24" t="s">
-        <v>1843</v>
-      </c>
-      <c r="DS29" s="22" t="s">
-        <v>1724</v>
       </c>
       <c r="DT29" t="s">
         <v>208</v>
       </c>
       <c r="DU29" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="DV29" t="s">
         <v>291</v>
       </c>
       <c r="DW29" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="DX29" s="26" t="s">
         <v>222</v>
       </c>
       <c r="DY29" s="26" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="DZ29" t="s">
         <v>222</v>
@@ -27431,67 +27455,67 @@
         <v>193</v>
       </c>
       <c r="EB29" t="s">
+        <v>1726</v>
+      </c>
+      <c r="ED29" t="s">
         <v>1727</v>
       </c>
-      <c r="ED29" t="s">
-        <v>1728</v>
-      </c>
       <c r="EE29" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="EF29" t="s">
         <v>222</v>
       </c>
       <c r="EG29" s="24" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="EH29" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="EI29" s="37">
         <v>1</v>
       </c>
       <c r="EJ29" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="EK29" t="s">
         <v>560</v>
       </c>
       <c r="EL29" t="s">
+        <v>1729</v>
+      </c>
+      <c r="EM29" t="s">
         <v>1730</v>
       </c>
-      <c r="EM29" t="s">
+      <c r="EN29" t="s">
         <v>1731</v>
-      </c>
-      <c r="EN29" t="s">
-        <v>1732</v>
       </c>
       <c r="EO29" t="s">
         <v>424</v>
       </c>
       <c r="EP29" t="s">
+        <v>1732</v>
+      </c>
+      <c r="EQ29" t="s">
         <v>1733</v>
       </c>
-      <c r="EQ29" t="s">
+      <c r="ER29" t="s">
         <v>1734</v>
       </c>
-      <c r="ER29" t="s">
+      <c r="ES29" t="s">
         <v>1735</v>
-      </c>
-      <c r="ES29" t="s">
-        <v>1736</v>
       </c>
       <c r="ET29" t="s">
         <v>236</v>
       </c>
       <c r="EU29" s="24" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="EV29" s="22" t="s">
+        <v>1736</v>
+      </c>
+      <c r="EX29" t="s">
         <v>1737</v>
-      </c>
-      <c r="EX29" t="s">
-        <v>1738</v>
       </c>
       <c r="EY29" t="s">
         <v>380</v>
@@ -27500,25 +27524,25 @@
         <v>236</v>
       </c>
       <c r="FA29" t="s">
+        <v>1738</v>
+      </c>
+      <c r="FB29" t="s">
         <v>1739</v>
       </c>
-      <c r="FB29" t="s">
-        <v>1740</v>
-      </c>
       <c r="FC29" s="5" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="FD29" t="s">
         <v>432</v>
       </c>
       <c r="FE29" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="FF29" t="s">
         <v>434</v>
       </c>
       <c r="FG29" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="FI29" t="s">
         <v>193</v>
@@ -27527,7 +27551,7 @@
         <v>193</v>
       </c>
       <c r="FK29" s="21" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="FM29" s="37">
         <v>1</v>
@@ -27566,25 +27590,25 @@
         <v>773</v>
       </c>
       <c r="GA29" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="GB29" s="37">
         <v>0</v>
       </c>
       <c r="GC29" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GD29" s="59">
         <v>2</v>
       </c>
       <c r="GE29" s="37" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="GF29" s="37">
         <v>1</v>
       </c>
       <c r="GG29" s="33" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="30" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27592,46 +27616,46 @@
         <v>44456.611226851855</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C30" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D30" t="s">
         <v>1744</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1745</v>
       </c>
       <c r="E30" s="20">
         <v>44452</v>
       </c>
       <c r="F30" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G30" t="s">
         <v>1746</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>1747</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>1748</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1749</v>
       </c>
       <c r="J30">
         <v>3207199193</v>
       </c>
       <c r="K30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L30" s="64">
         <v>39925</v>
       </c>
       <c r="M30" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N30" t="s">
         <v>1751</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>1752</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1753</v>
       </c>
       <c r="P30" t="s">
         <v>254</v>
@@ -27640,7 +27664,7 @@
         <v>168</v>
       </c>
       <c r="T30" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="U30" t="s">
         <v>254</v>
@@ -27649,7 +27673,7 @@
         <v>171</v>
       </c>
       <c r="Y30" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="Z30" t="s">
         <v>170</v>
@@ -27658,7 +27682,7 @@
         <v>171</v>
       </c>
       <c r="AD30" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="AE30" t="s">
         <v>170</v>
@@ -27691,7 +27715,7 @@
         <v>240</v>
       </c>
       <c r="AZ30" s="21" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="BA30" t="s">
         <v>175</v>
@@ -27700,43 +27724,43 @@
         <v>256</v>
       </c>
       <c r="BE30" s="39" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="BF30" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="BG30">
         <v>60</v>
       </c>
       <c r="BH30" s="21" t="s">
+        <v>1758</v>
+      </c>
+      <c r="BI30" t="s">
         <v>1759</v>
       </c>
-      <c r="BI30" t="s">
-        <v>1760</v>
-      </c>
       <c r="BJ30" s="39" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="BK30" t="s">
         <v>262</v>
       </c>
       <c r="BM30" t="s">
+        <v>1760</v>
+      </c>
+      <c r="BO30" t="s">
         <v>1761</v>
-      </c>
-      <c r="BO30" t="s">
-        <v>1762</v>
       </c>
       <c r="BP30" t="s">
         <v>735</v>
       </c>
       <c r="BQ30" t="s">
+        <v>1762</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>1964</v>
+      </c>
+      <c r="BT30" t="s">
         <v>1763</v>
-      </c>
-      <c r="BR30" t="s">
-        <v>1965</v>
-      </c>
-      <c r="BT30" t="s">
-        <v>1764</v>
       </c>
       <c r="BU30" t="s">
         <v>166</v>
@@ -27745,13 +27769,13 @@
         <v>268</v>
       </c>
       <c r="BW30" t="s">
+        <v>1764</v>
+      </c>
+      <c r="BX30" t="s">
         <v>1765</v>
       </c>
-      <c r="BX30" t="s">
-        <v>1766</v>
-      </c>
       <c r="BY30" s="24" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="CA30" t="s">
         <v>193</v>
@@ -27775,7 +27799,7 @@
         <v>380</v>
       </c>
       <c r="CJ30" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="CK30" t="s">
         <v>193</v>
@@ -27811,7 +27835,7 @@
         <v>281</v>
       </c>
       <c r="CX30" s="39" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="CY30" t="s">
         <v>278</v>
@@ -27838,19 +27862,19 @@
         <v>208</v>
       </c>
       <c r="DG30" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="DH30" s="39" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="DI30">
         <v>1</v>
       </c>
       <c r="DJ30" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="DK30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="DM30" t="s">
         <v>411</v>
@@ -27862,7 +27886,7 @@
         <v>214</v>
       </c>
       <c r="DQ30" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="DR30" t="s">
         <v>751</v>
@@ -27871,19 +27895,19 @@
         <v>218</v>
       </c>
       <c r="DU30" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="DV30" t="s">
         <v>220</v>
       </c>
       <c r="DW30" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="DX30" s="24" t="s">
         <v>222</v>
       </c>
       <c r="DY30" s="24" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="DZ30" t="s">
         <v>222</v>
@@ -27895,61 +27919,61 @@
         <v>754</v>
       </c>
       <c r="ED30" t="s">
+        <v>1772</v>
+      </c>
+      <c r="EE30" t="s">
         <v>1773</v>
-      </c>
-      <c r="EE30" t="s">
-        <v>1774</v>
       </c>
       <c r="EF30" t="s">
         <v>222</v>
       </c>
       <c r="EG30" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="EH30" s="39" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="EI30" s="37">
         <v>224</v>
       </c>
       <c r="EJ30" s="39" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="EK30" t="s">
+        <v>1774</v>
+      </c>
+      <c r="EL30" t="s">
         <v>1775</v>
       </c>
-      <c r="EL30" t="s">
-        <v>1776</v>
-      </c>
       <c r="EM30" s="39" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="EN30" t="s">
         <v>231</v>
       </c>
       <c r="EP30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="EQ30" t="s">
         <v>1777</v>
       </c>
-      <c r="EQ30" t="s">
+      <c r="ER30" t="s">
         <v>1778</v>
       </c>
-      <c r="ER30" t="s">
+      <c r="ES30" t="s">
         <v>1779</v>
-      </c>
-      <c r="ES30" t="s">
-        <v>1780</v>
       </c>
       <c r="ET30" t="s">
         <v>236</v>
       </c>
       <c r="EU30" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="EV30" t="s">
         <v>716</v>
       </c>
       <c r="EX30" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="EY30" t="s">
         <v>274</v>
@@ -27958,10 +27982,10 @@
         <v>236</v>
       </c>
       <c r="FA30" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="FB30" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="FC30" t="s">
         <v>274</v>
@@ -27970,7 +27994,7 @@
         <v>948</v>
       </c>
       <c r="FE30" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="FF30" t="s">
         <v>434</v>
@@ -27994,7 +28018,7 @@
         <v>216</v>
       </c>
       <c r="FO30" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="FP30" s="44">
         <f>(5+1)/2</f>
@@ -28025,25 +28049,25 @@
         <v>773</v>
       </c>
       <c r="GA30" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="GB30" s="37">
         <v>4</v>
       </c>
       <c r="GC30" s="37" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="GD30" s="59">
         <v>0</v>
       </c>
       <c r="GE30" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GF30" s="37">
         <v>224</v>
       </c>
       <c r="GG30" s="33" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="31" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28063,7 +28087,7 @@
         <v>44453</v>
       </c>
       <c r="F31" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G31" t="s">
         <v>886</v>
@@ -28072,22 +28096,22 @@
         <v>887</v>
       </c>
       <c r="I31" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J31">
         <v>3213946562</v>
       </c>
       <c r="K31" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="L31" s="64">
         <v>41859</v>
       </c>
       <c r="M31" t="s">
+        <v>1788</v>
+      </c>
+      <c r="N31" t="s">
         <v>1789</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1790</v>
       </c>
       <c r="O31" t="s">
         <v>888</v>
@@ -28096,7 +28120,7 @@
         <v>166</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="R31" t="s">
         <v>168</v>
@@ -28108,7 +28132,7 @@
         <v>166</v>
       </c>
       <c r="V31" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="W31" t="s">
         <v>168</v>
@@ -28183,49 +28207,49 @@
         <v>256</v>
       </c>
       <c r="BE31" s="22" t="s">
+        <v>1792</v>
+      </c>
+      <c r="BF31" t="s">
         <v>1793</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>1794</v>
       </c>
       <c r="BG31">
         <v>50</v>
       </c>
       <c r="BH31" s="21" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="BI31" t="s">
         <v>510</v>
       </c>
       <c r="BJ31" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="BK31" t="s">
         <v>262</v>
       </c>
       <c r="BM31" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="BN31" t="s">
         <v>894</v>
       </c>
       <c r="BO31" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="BP31" t="s">
         <v>735</v>
       </c>
       <c r="BQ31" s="21" t="s">
+        <v>1797</v>
+      </c>
+      <c r="BR31" s="22" t="s">
+        <v>1968</v>
+      </c>
+      <c r="BS31" t="s">
         <v>1798</v>
       </c>
-      <c r="BR31" s="22" t="s">
-        <v>1969</v>
-      </c>
-      <c r="BS31" t="s">
+      <c r="BT31" s="29" t="s">
         <v>1799</v>
-      </c>
-      <c r="BT31" s="29" t="s">
-        <v>1800</v>
       </c>
       <c r="BU31" t="s">
         <v>166</v>
@@ -28234,13 +28258,13 @@
         <v>268</v>
       </c>
       <c r="BW31" t="s">
+        <v>1800</v>
+      </c>
+      <c r="BX31" t="s">
         <v>1801</v>
       </c>
-      <c r="BX31" t="s">
-        <v>1802</v>
-      </c>
       <c r="BY31" s="24" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="CA31" t="s">
         <v>216</v>
@@ -28252,10 +28276,10 @@
         <v>854</v>
       </c>
       <c r="CE31" t="s">
+        <v>1802</v>
+      </c>
+      <c r="CF31" t="s">
         <v>1803</v>
-      </c>
-      <c r="CF31" t="s">
-        <v>1804</v>
       </c>
       <c r="CG31" t="s">
         <v>367</v>
@@ -28264,7 +28288,7 @@
         <v>410</v>
       </c>
       <c r="CJ31" s="25" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="CK31" s="25" t="s">
         <v>193</v>
@@ -28279,13 +28303,13 @@
         <v>404</v>
       </c>
       <c r="CP31" s="5" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="CQ31" t="s">
         <v>404</v>
       </c>
       <c r="CR31" s="5" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="CS31" s="25" t="s">
         <v>467</v>
@@ -28297,10 +28321,10 @@
         <v>0</v>
       </c>
       <c r="CV31" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="CX31" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="CY31" t="s">
         <v>278</v>
@@ -28327,19 +28351,19 @@
         <v>283</v>
       </c>
       <c r="DG31" s="25" t="s">
+        <v>1806</v>
+      </c>
+      <c r="DH31" s="25" t="s">
         <v>1807</v>
-      </c>
-      <c r="DH31" s="25" t="s">
-        <v>1808</v>
       </c>
       <c r="DI31">
         <v>1</v>
       </c>
       <c r="DJ31" t="s">
+        <v>1808</v>
+      </c>
+      <c r="DK31" t="s">
         <v>1809</v>
-      </c>
-      <c r="DK31" t="s">
-        <v>1810</v>
       </c>
       <c r="DM31" t="s">
         <v>411</v>
@@ -28348,34 +28372,34 @@
         <v>584</v>
       </c>
       <c r="DP31" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="DQ31" t="s">
+        <v>1810</v>
+      </c>
+      <c r="DR31" s="24" t="s">
+        <v>1843</v>
+      </c>
+      <c r="DS31" s="22" t="s">
         <v>1811</v>
-      </c>
-      <c r="DR31" s="24" t="s">
-        <v>1844</v>
-      </c>
-      <c r="DS31" s="22" t="s">
-        <v>1812</v>
       </c>
       <c r="DT31" t="s">
         <v>208</v>
       </c>
       <c r="DU31" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="DV31" t="s">
         <v>291</v>
       </c>
       <c r="DW31" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="DX31" s="26" t="s">
         <v>222</v>
       </c>
       <c r="DY31" s="26" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="DZ31" t="s">
         <v>222</v>
@@ -28387,7 +28411,7 @@
         <v>534</v>
       </c>
       <c r="ED31" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="EE31" t="s">
         <v>896</v>
@@ -28396,10 +28420,10 @@
         <v>222</v>
       </c>
       <c r="EG31" s="24" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="EH31" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="EI31" s="37">
         <v>13</v>
@@ -28411,37 +28435,37 @@
         <v>560</v>
       </c>
       <c r="EL31" t="s">
+        <v>1816</v>
+      </c>
+      <c r="EM31" t="s">
         <v>1817</v>
-      </c>
-      <c r="EM31" t="s">
-        <v>1818</v>
       </c>
       <c r="EN31" t="s">
         <v>423</v>
       </c>
       <c r="EP31" t="s">
+        <v>1818</v>
+      </c>
+      <c r="EQ31" t="s">
         <v>1819</v>
-      </c>
-      <c r="EQ31" t="s">
-        <v>1820</v>
       </c>
       <c r="ER31" t="s">
         <v>898</v>
       </c>
       <c r="ES31" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="ET31" t="s">
         <v>236</v>
       </c>
       <c r="EU31" s="24" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="EV31" t="s">
         <v>304</v>
       </c>
       <c r="EX31" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="EY31" t="s">
         <v>274</v>
@@ -28450,10 +28474,10 @@
         <v>236</v>
       </c>
       <c r="FA31" t="s">
+        <v>1822</v>
+      </c>
+      <c r="FB31" t="s">
         <v>1823</v>
-      </c>
-      <c r="FB31" t="s">
-        <v>1824</v>
       </c>
       <c r="FC31" t="s">
         <v>274</v>
@@ -28462,7 +28486,7 @@
         <v>369</v>
       </c>
       <c r="FE31" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="FF31" t="s">
         <v>900</v>
@@ -28477,7 +28501,7 @@
         <v>193</v>
       </c>
       <c r="FK31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="FL31" t="s">
         <v>171</v>
@@ -28519,25 +28543,25 @@
         <v>667</v>
       </c>
       <c r="GA31" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="GB31" s="37">
         <v>0</v>
       </c>
       <c r="GC31" s="37" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="GD31" s="59">
         <v>5</v>
       </c>
       <c r="GE31" s="37" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="GF31" s="37">
         <v>13</v>
       </c>
       <c r="GG31" s="33" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="32" spans="1:189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28548,25 +28572,25 @@
         <v>826</v>
       </c>
       <c r="C32" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D32" t="s">
         <v>1928</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1929</v>
       </c>
       <c r="E32" s="20">
         <v>44453</v>
       </c>
       <c r="F32" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G32" t="s">
         <v>1916</v>
       </c>
-      <c r="G32" t="s">
-        <v>1917</v>
-      </c>
       <c r="H32" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I32" t="s">
         <v>1930</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1931</v>
       </c>
       <c r="J32">
         <v>3213945338</v>
@@ -28578,31 +28602,31 @@
         <v>771</v>
       </c>
       <c r="M32" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N32" t="s">
         <v>1932</v>
       </c>
-      <c r="N32" t="s">
-        <v>1933</v>
-      </c>
       <c r="O32" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="P32" t="s">
         <v>166</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R32" t="s">
         <v>168</v>
       </c>
       <c r="T32" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="U32" t="s">
         <v>166</v>
       </c>
       <c r="V32" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="W32" t="s">
         <v>171</v>
@@ -28632,7 +28656,7 @@
         <v>1100</v>
       </c>
       <c r="AZ32" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="BA32" t="s">
         <v>175</v>
@@ -28641,43 +28665,43 @@
         <v>256</v>
       </c>
       <c r="BE32" t="s">
+        <v>1936</v>
+      </c>
+      <c r="BF32" t="s">
         <v>1937</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>1938</v>
       </c>
       <c r="BG32">
         <v>60</v>
       </c>
       <c r="BH32" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="BI32" t="s">
         <v>510</v>
       </c>
       <c r="BJ32" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="BK32" t="s">
         <v>262</v>
       </c>
       <c r="BM32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="BO32" t="s">
         <v>1941</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>1942</v>
       </c>
       <c r="BP32" t="s">
         <v>187</v>
       </c>
       <c r="BQ32" t="s">
+        <v>1942</v>
+      </c>
+      <c r="BR32" s="22" t="s">
+        <v>1966</v>
+      </c>
+      <c r="BT32" t="s">
         <v>1943</v>
-      </c>
-      <c r="BR32" s="22" t="s">
-        <v>1967</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>1944</v>
       </c>
       <c r="BU32" t="s">
         <v>380</v>
@@ -28686,13 +28710,13 @@
         <v>380</v>
       </c>
       <c r="BW32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="BX32" t="s">
+        <v>1944</v>
+      </c>
+      <c r="BY32" t="s">
         <v>1945</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>1946</v>
       </c>
       <c r="CA32" t="s">
         <v>193</v>
@@ -28701,13 +28725,13 @@
         <v>268</v>
       </c>
       <c r="CC32" s="22" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="CD32" t="s">
         <v>854</v>
       </c>
       <c r="CE32" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="CF32" t="s">
         <v>546</v>
@@ -28740,7 +28764,7 @@
         <v>520</v>
       </c>
       <c r="CS32" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="CT32" t="s">
         <v>925</v>
@@ -28752,10 +28776,10 @@
         <v>281</v>
       </c>
       <c r="CX32" s="21" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="CY32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="CZ32" s="24" t="s">
         <v>771</v>
@@ -28779,10 +28803,10 @@
         <v>283</v>
       </c>
       <c r="DG32" t="s">
+        <v>1949</v>
+      </c>
+      <c r="DH32" t="s">
         <v>1950</v>
-      </c>
-      <c r="DH32" t="s">
-        <v>1951</v>
       </c>
       <c r="DI32" s="22">
         <v>1</v>
@@ -28803,7 +28827,7 @@
         <v>214</v>
       </c>
       <c r="DQ32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="DR32" t="s">
         <v>413</v>
@@ -28812,7 +28836,7 @@
         <v>208</v>
       </c>
       <c r="DU32" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="DV32" t="s">
         <v>380</v>
@@ -28833,7 +28857,7 @@
         <v>754</v>
       </c>
       <c r="ED32" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="EE32" t="s">
         <v>193</v>
@@ -28842,49 +28866,49 @@
         <v>222</v>
       </c>
       <c r="EG32" s="24" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="EH32" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="EI32" s="37">
         <v>1</v>
       </c>
       <c r="EJ32" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="EK32" t="s">
         <v>771</v>
       </c>
       <c r="EL32" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="EM32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="EN32" t="s">
         <v>761</v>
       </c>
       <c r="EP32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="EQ32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="ER32" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="ES32" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="ET32" t="s">
         <v>236</v>
       </c>
       <c r="EU32" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="EV32" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="EX32" t="s">
         <v>799</v>
@@ -28896,10 +28920,10 @@
         <v>236</v>
       </c>
       <c r="FA32" t="s">
+        <v>1956</v>
+      </c>
+      <c r="FB32" t="s">
         <v>1957</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>1958</v>
       </c>
       <c r="FC32" t="s">
         <v>274</v>
@@ -28908,7 +28932,7 @@
         <v>491</v>
       </c>
       <c r="FE32" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="FF32" t="s">
         <v>434</v>
@@ -28956,28 +28980,28 @@
         <v>0</v>
       </c>
       <c r="FZ32" s="15" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="GA32" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="GB32" s="37">
         <v>2</v>
       </c>
       <c r="GC32" s="37" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="GD32" s="59">
         <v>1</v>
       </c>
       <c r="GE32" s="37" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="GF32" s="37">
         <v>1</v>
       </c>
       <c r="GG32" s="33" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2CC8D-0C31-4838-A895-9C0E98D8B779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EADC2C-E22E-4FE9-AD2A-60D1384AE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14106,10 +14106,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="DQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="FN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DU25" sqref="DU25"/>
+      <selection pane="bottomRight" activeCell="FN1" sqref="FN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29005,7 +29005,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:GG32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EADC2C-E22E-4FE9-AD2A-60D1384AE96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DEDF67-2338-4DB1-9BF1-75DA4646804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,32 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-9568 decía</t>
+9568 decía
+77 decía</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{FEB882E7-1C2D-4291-B5ED-FE946A118D27}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel S. Parra G.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+25 semanas decía</t>
         </r>
       </text>
     </comment>
@@ -14106,10 +14131,10 @@
   <dimension ref="A1:GH32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="FN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FN1" sqref="FN1"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15703,13 +15728,14 @@
         <v>171</v>
       </c>
       <c r="AR4" s="5">
-        <v>77</v>
+        <v>25000</v>
       </c>
       <c r="AS4" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="AT4" s="2">
-        <v>25</v>
+      <c r="AT4" s="5">
+        <f>52*2</f>
+        <v>104</v>
       </c>
       <c r="AU4" s="2">
         <v>3</v>

--- a/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
+++ b/data/intermediate/001_Herramienta_Limpieza_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\OneDrive\Documents\Trabajos\UAS-FNE-2\61_Regionalizacion\FRE_AnalisisEstadistico\data\intermediate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DEDF67-2338-4DB1-9BF1-75DA4646804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68BFA3B-9A6F-4CB0-A8DA-0CDBD17E5FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7272,7 +7272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3948" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1983">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -13625,6 +13625,12 @@
   </si>
   <si>
     <t>Insuficientes para el FRE</t>
+  </si>
+  <si>
+    <t>Act_Impr</t>
+  </si>
+  <si>
+    <t>Act_Impr_2</t>
   </si>
 </sst>
 </file>
@@ -14128,13 +14134,13 @@
   <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:GH32"/>
+  <dimension ref="A1:GI32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="GA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomRight" activeCell="GI1" sqref="GI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14154,7 +14160,7 @@
     <col min="188" max="188" width="21.5703125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14722,8 +14728,14 @@
       <c r="GG1" s="33" t="s">
         <v>1893</v>
       </c>
+      <c r="GH1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>1982</v>
+      </c>
     </row>
-    <row r="2" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44324.663341099542</v>
       </c>
@@ -14841,7 +14853,7 @@
       <c r="BF2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2" s="5">
         <f>(30+15)</f>
         <v>45</v>
       </c>
@@ -15200,8 +15212,14 @@
       <c r="GG2" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH2">
+        <v>17</v>
+      </c>
+      <c r="GI2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>44326.360274907405</v>
       </c>
@@ -15658,9 +15676,14 @@
       <c r="GG3" s="33" t="s">
         <v>1878</v>
       </c>
-      <c r="GH3" s="22"/>
+      <c r="GH3" s="22">
+        <v>173</v>
+      </c>
+      <c r="GI3">
+        <v>56</v>
+      </c>
     </row>
-    <row r="4" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>44326.502545150463</v>
       </c>
@@ -16120,8 +16143,14 @@
       <c r="GG4" s="33" t="s">
         <v>1877</v>
       </c>
+      <c r="GH4">
+        <v>559</v>
+      </c>
+      <c r="GI4">
+        <v>234</v>
+      </c>
     </row>
-    <row r="5" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>44337.64144068287</v>
       </c>
@@ -16588,8 +16617,14 @@
       <c r="GG5" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH5">
+        <v>10</v>
+      </c>
+      <c r="GI5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44339.650587766198</v>
       </c>
@@ -17054,8 +17089,14 @@
       <c r="GG6" s="33" t="s">
         <v>1880</v>
       </c>
+      <c r="GH6">
+        <v>46</v>
+      </c>
+      <c r="GI6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>44341.914503842592</v>
       </c>
@@ -17528,8 +17569,14 @@
       <c r="GG7" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH7">
+        <v>21</v>
+      </c>
+      <c r="GI7">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>44342.470375613426</v>
       </c>
@@ -17963,8 +18010,14 @@
       <c r="GG8" s="33" t="s">
         <v>1881</v>
       </c>
+      <c r="GH8">
+        <v>13</v>
+      </c>
+      <c r="GI8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44342.499626712961</v>
       </c>
@@ -18447,8 +18500,14 @@
       <c r="GG9" s="33" t="s">
         <v>1878</v>
       </c>
+      <c r="GH9">
+        <v>18</v>
+      </c>
+      <c r="GI9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44342.542538240741</v>
       </c>
@@ -18901,8 +18960,14 @@
       <c r="GG10" s="33" t="s">
         <v>1882</v>
       </c>
+      <c r="GH10">
+        <v>9</v>
+      </c>
+      <c r="GI10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>44344.505199409723</v>
       </c>
@@ -19361,8 +19426,14 @@
       <c r="GG11" s="33" t="s">
         <v>1878</v>
       </c>
+      <c r="GH11">
+        <v>12</v>
+      </c>
+      <c r="GI11">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>44344.528835266203</v>
       </c>
@@ -19835,8 +19906,14 @@
       <c r="GG12" s="33" t="s">
         <v>1883</v>
       </c>
+      <c r="GH12">
+        <v>21</v>
+      </c>
+      <c r="GI12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>44345.273268472221</v>
       </c>
@@ -20314,8 +20391,14 @@
       <c r="GG13" s="33" t="s">
         <v>1880</v>
       </c>
+      <c r="GH13">
+        <v>384</v>
+      </c>
+      <c r="GI13">
+        <v>158</v>
+      </c>
     </row>
-    <row r="14" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:191" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44384.71444163195</v>
       </c>
@@ -20763,8 +20846,14 @@
       <c r="GG14" s="33" t="s">
         <v>1884</v>
       </c>
+      <c r="GH14" s="13">
+        <v>1</v>
+      </c>
+      <c r="GI14" s="13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:191" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44385.476659016203</v>
       </c>
@@ -21207,8 +21296,14 @@
       <c r="GG15" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH15" s="13">
+        <v>19</v>
+      </c>
+      <c r="GI15" s="13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:190" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:191" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>44385.485729236112</v>
       </c>
@@ -21676,8 +21771,14 @@
       <c r="GG16" s="33" t="s">
         <v>1885</v>
       </c>
+      <c r="GH16" s="13">
+        <v>19</v>
+      </c>
+      <c r="GI16" s="13">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>44447.520694444444</v>
       </c>
@@ -22120,8 +22221,14 @@
       <c r="GG17" s="33" t="s">
         <v>1886</v>
       </c>
+      <c r="GH17">
+        <v>0</v>
+      </c>
+      <c r="GI17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>44508.834780092591</v>
       </c>
@@ -22573,8 +22680,14 @@
       <c r="GG18" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH18">
+        <v>9</v>
+      </c>
+      <c r="GI18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <v>44538.361712962964</v>
       </c>
@@ -22995,8 +23108,14 @@
       <c r="GG19" s="33" t="s">
         <v>1887</v>
       </c>
+      <c r="GH19">
+        <v>3</v>
+      </c>
+      <c r="GI19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <v>44538.366678240738</v>
       </c>
@@ -23457,8 +23576,14 @@
       <c r="GG20" s="33" t="s">
         <v>1880</v>
       </c>
+      <c r="GH20">
+        <v>17</v>
+      </c>
+      <c r="GI20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
         <v>44538.47859953704</v>
       </c>
@@ -23909,8 +24034,14 @@
       <c r="GG21" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH21">
+        <v>4</v>
+      </c>
+      <c r="GI21">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44430.608212476851</v>
       </c>
@@ -24404,8 +24535,14 @@
       <c r="GG22" s="33" t="s">
         <v>1888</v>
       </c>
+      <c r="GH22">
+        <v>1</v>
+      </c>
+      <c r="GI22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>44437.434295497689</v>
       </c>
@@ -24887,8 +25024,14 @@
       <c r="GG23" s="33" t="s">
         <v>1889</v>
       </c>
+      <c r="GH23">
+        <v>0</v>
+      </c>
+      <c r="GI23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
         <v>44438.904224537036</v>
       </c>
@@ -25354,8 +25497,14 @@
       <c r="GG24" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH24">
+        <v>44</v>
+      </c>
+      <c r="GI24">
+        <v>13</v>
+      </c>
     </row>
-    <row r="25" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20">
         <v>44325.680474537039</v>
       </c>
@@ -25809,8 +25958,14 @@
       <c r="GG25" s="33" t="s">
         <v>1890</v>
       </c>
+      <c r="GH25">
+        <v>0</v>
+      </c>
+      <c r="GI25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>44386.04614583333</v>
       </c>
@@ -26268,8 +26423,14 @@
       <c r="GG26" s="33" t="s">
         <v>1880</v>
       </c>
+      <c r="GH26">
+        <v>5</v>
+      </c>
+      <c r="GI26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>44417.745393518519</v>
       </c>
@@ -26729,8 +26890,14 @@
       <c r="GG27" s="33" t="s">
         <v>1878</v>
       </c>
+      <c r="GH27">
+        <v>20</v>
+      </c>
+      <c r="GI27">
+        <v>13</v>
+      </c>
     </row>
-    <row r="28" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>44539.722870370373</v>
       </c>
@@ -27172,8 +27339,14 @@
       <c r="GG28" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH28">
+        <v>82</v>
+      </c>
+      <c r="GI28">
+        <v>31</v>
+      </c>
     </row>
-    <row r="29" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>44452.834814814814</v>
       </c>
@@ -27636,8 +27809,14 @@
       <c r="GG29" s="33" t="s">
         <v>1891</v>
       </c>
+      <c r="GH29">
+        <v>2</v>
+      </c>
+      <c r="GI29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20">
         <v>44456.611226851855</v>
       </c>
@@ -28095,8 +28274,14 @@
       <c r="GG30" s="33" t="s">
         <v>1879</v>
       </c>
+      <c r="GH30">
+        <v>19</v>
+      </c>
+      <c r="GI30">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="1:189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
         <v>44458.952546296299</v>
       </c>
@@ -28589,8 +28774,14 @@
       <c r="GG31" s="33" t="s">
         <v>1892</v>
       </c>
+      <c r="GH31">
+        <v>1</v>
+      </c>
+      <c r="GI31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="71">
         <v>44459.652824074074</v>
       </c>
@@ -29028,6 +29219,12 @@
       </c>
       <c r="GG32" s="33" t="s">
         <v>1878</v>
+      </c>
+      <c r="GH32">
+        <v>0</v>
+      </c>
+      <c r="GI32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
